--- a/in/extraction1/corrections/supp_DE.xlsx
+++ b/in/extraction1/corrections/supp_DE.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13020" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13020" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="1979_TODO" sheetId="4" r:id="rId1"/>
@@ -17,19 +17,21 @@
     <sheet name="1989" sheetId="6" r:id="rId3"/>
     <sheet name="1994" sheetId="7" r:id="rId4"/>
     <sheet name="1999" sheetId="8" r:id="rId5"/>
-    <sheet name="2019" sheetId="11" r:id="rId6"/>
-    <sheet name="MEPS_all" sheetId="12" r:id="rId7"/>
+    <sheet name="2004" sheetId="13" r:id="rId6"/>
+    <sheet name="2019" sheetId="11" r:id="rId7"/>
+    <sheet name="MEPS_all" sheetId="12" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'1999'!$A$1:$P$102</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'2019'!$A$1:$P$80</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'2004'!$A$1:$P$91</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'2019'!$A$1:$P$80</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7529" uniqueCount="4906">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8451" uniqueCount="5137">
   <si>
     <t>Code sexe</t>
   </si>
@@ -14747,6 +14749,699 @@
   </si>
   <si>
     <t>CEN</t>
+  </si>
+  <si>
+    <t>Brigitte</t>
+  </si>
+  <si>
+    <t>SCHAPIRA</t>
+  </si>
+  <si>
+    <t>BONO</t>
+  </si>
+  <si>
+    <t>COTTIGNY</t>
+  </si>
+  <si>
+    <t>DOUAY</t>
+  </si>
+  <si>
+    <t>PEILLON</t>
+  </si>
+  <si>
+    <t>WEBER</t>
+  </si>
+  <si>
+    <t>ARIF</t>
+  </si>
+  <si>
+    <t>CASTEX</t>
+  </si>
+  <si>
+    <t>NAVARRO</t>
+  </si>
+  <si>
+    <t>LE FOLL</t>
+  </si>
+  <si>
+    <t>REYNAUD</t>
+  </si>
+  <si>
+    <t>VAUGRENARD</t>
+  </si>
+  <si>
+    <t>VERGNAUD</t>
+  </si>
+  <si>
+    <t>HAMON</t>
+  </si>
+  <si>
+    <t>MOSCOVICI</t>
+  </si>
+  <si>
+    <t>TRAUTMANN</t>
+  </si>
+  <si>
+    <t>BOURZAI</t>
+  </si>
+  <si>
+    <t>GAUBERT</t>
+  </si>
+  <si>
+    <t>TOUBON</t>
+  </si>
+  <si>
+    <t>VATANEN</t>
+  </si>
+  <si>
+    <t>GAUZES</t>
+  </si>
+  <si>
+    <t>BACHELOT</t>
+  </si>
+  <si>
+    <t>GUELLEC</t>
+  </si>
+  <si>
+    <t>LEHIDEUX</t>
+  </si>
+  <si>
+    <t>GIBAULT</t>
+  </si>
+  <si>
+    <t>CAVADA</t>
+  </si>
+  <si>
+    <t>LAPERROUZE</t>
+  </si>
+  <si>
+    <t>BEAUPUY</t>
+  </si>
+  <si>
+    <t>GRIESBECK</t>
+  </si>
+  <si>
+    <t>SCHENARDI</t>
+  </si>
+  <si>
+    <t>SIMONOT</t>
+  </si>
+  <si>
+    <t>AUBERT</t>
+  </si>
+  <si>
+    <t>COUTEAUX</t>
+  </si>
+  <si>
+    <t>LOUIS</t>
+  </si>
+  <si>
+    <t>HENIN</t>
+  </si>
+  <si>
+    <t>VERGÈS</t>
+  </si>
+  <si>
+    <t>SUD-EST</t>
+  </si>
+  <si>
+    <t>NORD-OUEST</t>
+  </si>
+  <si>
+    <t>SUD-OUEST</t>
+  </si>
+  <si>
+    <t>OUEST</t>
+  </si>
+  <si>
+    <t>EST</t>
+  </si>
+  <si>
+    <t>OUTRE-MER</t>
+  </si>
+  <si>
+    <t>ILE DE FRANCE</t>
+  </si>
+  <si>
+    <t>03</t>
+  </si>
+  <si>
+    <t>07</t>
+  </si>
+  <si>
+    <t>06</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>02</t>
+  </si>
+  <si>
+    <t>08</t>
+  </si>
+  <si>
+    <t>05</t>
+  </si>
+  <si>
+    <t>04</t>
+  </si>
+  <si>
+    <t>AUDY</t>
+  </si>
+  <si>
+    <t>BOURSIER</t>
+  </si>
+  <si>
+    <t>DENANOT</t>
+  </si>
+  <si>
+    <t>FOURÉ</t>
+  </si>
+  <si>
+    <t>LE RACHINEL</t>
+  </si>
+  <si>
+    <t>PRIBETICH</t>
+  </si>
+  <si>
+    <t>SOULAGE</t>
+  </si>
+  <si>
+    <t>AUTRES PROFESSIONS</t>
+  </si>
+  <si>
+    <t>SUD OUEST</t>
+  </si>
+  <si>
+    <t>KADER</t>
+  </si>
+  <si>
+    <t>REPRESENTANT AU PARLEMENT EUROPEEN</t>
+  </si>
+  <si>
+    <t>RNE_0962324</t>
+  </si>
+  <si>
+    <t>MARIE HELENE</t>
+  </si>
+  <si>
+    <t>PROFESSEURS DU SECONDAIRE ET TECHN</t>
+  </si>
+  <si>
+    <t>RNE_0837985</t>
+  </si>
+  <si>
+    <t>Pharmaciens</t>
+  </si>
+  <si>
+    <t>EUR_0028179</t>
+  </si>
+  <si>
+    <t>JEAN MARIE</t>
+  </si>
+  <si>
+    <t>ADMINISTRATEURS DE SOCIETES</t>
+  </si>
+  <si>
+    <t>RNE_0016800</t>
+  </si>
+  <si>
+    <t>SUD EST</t>
+  </si>
+  <si>
+    <t>BENNAHMIAS</t>
+  </si>
+  <si>
+    <t>JEAN LUC</t>
+  </si>
+  <si>
+    <t>PERMANENTS POLITIQUES</t>
+  </si>
+  <si>
+    <t>RNE_0471665</t>
+  </si>
+  <si>
+    <t>BERES</t>
+  </si>
+  <si>
+    <t>PERVENCHE</t>
+  </si>
+  <si>
+    <t>FONCTIONNAIRES DE CATEGORIE A</t>
+  </si>
+  <si>
+    <t>GUY</t>
+  </si>
+  <si>
+    <t>RNE_0341305</t>
+  </si>
+  <si>
+    <t>MARIE ARLETTE</t>
+  </si>
+  <si>
+    <t>FRANCOISE</t>
+  </si>
+  <si>
+    <t>PROFESSIONS RATTACHEES A ENSEIGNT</t>
+  </si>
+  <si>
+    <t>RNE_0837989</t>
+  </si>
+  <si>
+    <t>RETRAITES DES ENTREPRISES PUBLIQUES</t>
+  </si>
+  <si>
+    <t>RNE_0837987</t>
+  </si>
+  <si>
+    <t>THIERRY</t>
+  </si>
+  <si>
+    <t>NORD OUEST</t>
+  </si>
+  <si>
+    <t>JEAN LOUIS</t>
+  </si>
+  <si>
+    <t>RETRAITES SALARIES PRIVES</t>
+  </si>
+  <si>
+    <t>RNE_0002553</t>
+  </si>
+  <si>
+    <t>PAUL</t>
+  </si>
+  <si>
+    <t>GRANDS CORPS DE L ETAT</t>
+  </si>
+  <si>
+    <t>JOSEPH</t>
+  </si>
+  <si>
+    <t>MARIELLE</t>
+  </si>
+  <si>
+    <t>CHRISTINE</t>
+  </si>
+  <si>
+    <t>CADRES SUPERIEURS SECTEUR PRIVE</t>
+  </si>
+  <si>
+    <t>PHILIPPE</t>
+  </si>
+  <si>
+    <t>MASSIF CENTRAL CENTRE</t>
+  </si>
+  <si>
+    <t>DESIR</t>
+  </si>
+  <si>
+    <t>HARLEM</t>
+  </si>
+  <si>
+    <t>BRIGITTE</t>
+  </si>
+  <si>
+    <t>RNE_0276787</t>
+  </si>
+  <si>
+    <t>ANNE</t>
+  </si>
+  <si>
+    <t>ENSEIGNANTS 1ER DEG DIRECTEURS ECOLE</t>
+  </si>
+  <si>
+    <t>HELENE</t>
+  </si>
+  <si>
+    <t>BERNADETTE</t>
+  </si>
+  <si>
+    <t>RETRAITES DE L ENSEIGNEMENT</t>
+  </si>
+  <si>
+    <t>RNE_1174433</t>
+  </si>
+  <si>
+    <t>DOMINIQUE</t>
+  </si>
+  <si>
+    <t>SANS PROFESSION DECLAREE</t>
+  </si>
+  <si>
+    <t>NICOLE</t>
+  </si>
+  <si>
+    <t>AVOCATS</t>
+  </si>
+  <si>
+    <t>JANELLY</t>
+  </si>
+  <si>
+    <t>PATRICK</t>
+  </si>
+  <si>
+    <t>DENTISTES</t>
+  </si>
+  <si>
+    <t>RNE_0838003</t>
+  </si>
+  <si>
+    <t>JEAN PAUL</t>
+  </si>
+  <si>
+    <t>CONSEILLERS JURIDIQUES</t>
+  </si>
+  <si>
+    <t>RNE_0042710</t>
+  </si>
+  <si>
+    <t>CLAIRE</t>
+  </si>
+  <si>
+    <t>RNE_0837981</t>
+  </si>
+  <si>
+    <t>BRUNO</t>
+  </si>
+  <si>
+    <t>PROFESSEURS DE FACULTE</t>
+  </si>
+  <si>
+    <t>NATHALIE</t>
+  </si>
+  <si>
+    <t>RNE_0001786</t>
+  </si>
+  <si>
+    <t>GROSSETETE</t>
+  </si>
+  <si>
+    <t>AMBROISE</t>
+  </si>
+  <si>
+    <t>AUTRES RETRAITES</t>
+  </si>
+  <si>
+    <t>RNE_0004969</t>
+  </si>
+  <si>
+    <t>GUY QUINT</t>
+  </si>
+  <si>
+    <t>CATHERINE</t>
+  </si>
+  <si>
+    <t>CADRES SUP ENTREPRISES PUBLIQUES</t>
+  </si>
+  <si>
+    <t>BENOIT</t>
+  </si>
+  <si>
+    <t>RNE_0016024</t>
+  </si>
+  <si>
+    <t>ADELINE</t>
+  </si>
+  <si>
+    <t>MAGISTRATS</t>
+  </si>
+  <si>
+    <t>RETRAITES FONCT PUBLIQUE SF ENSEIG</t>
+  </si>
+  <si>
+    <t>RNE_0154673</t>
+  </si>
+  <si>
+    <t>RNE_0164294</t>
+  </si>
+  <si>
+    <t>JEAN CLAUDE</t>
+  </si>
+  <si>
+    <t>NERIS</t>
+  </si>
+  <si>
+    <t>RNE_0867262</t>
+  </si>
+  <si>
+    <t>JACKY</t>
+  </si>
+  <si>
+    <t>RNE_0173269</t>
+  </si>
+  <si>
+    <t>BRICE</t>
+  </si>
+  <si>
+    <t>AU</t>
+  </si>
+  <si>
+    <t>JEAN PIERRE</t>
+  </si>
+  <si>
+    <t>RNE_0770065</t>
+  </si>
+  <si>
+    <t>ISLER BEGUIN</t>
+  </si>
+  <si>
+    <t>MARIE ANNE</t>
+  </si>
+  <si>
+    <t>ANDRE</t>
+  </si>
+  <si>
+    <t>ALAIN</t>
+  </si>
+  <si>
+    <t>CARL</t>
+  </si>
+  <si>
+    <t>SALARIES DU SECTEUR MEDICAL</t>
+  </si>
+  <si>
+    <t>INGENIEURS CONSEILS</t>
+  </si>
+  <si>
+    <t>RNE_0165355</t>
+  </si>
+  <si>
+    <t>STEPHANE</t>
+  </si>
+  <si>
+    <t>RNE_0526701</t>
+  </si>
+  <si>
+    <t>MARINE</t>
+  </si>
+  <si>
+    <t>RNE_0834072</t>
+  </si>
+  <si>
+    <t>AUTRES CADRES SECTEUR PRIVE</t>
+  </si>
+  <si>
+    <t>RNE_0028517</t>
+  </si>
+  <si>
+    <t>MARIE NOELLE</t>
+  </si>
+  <si>
+    <t>INGENIEURS</t>
+  </si>
+  <si>
+    <t>RNE_0837982</t>
+  </si>
+  <si>
+    <t>VERONIQUE</t>
+  </si>
+  <si>
+    <t>EMPLOYES AUTRES ENTREP PUBLIQUES</t>
+  </si>
+  <si>
+    <t>PIERRE</t>
+  </si>
+  <si>
+    <t>RNE_0045374</t>
+  </si>
+  <si>
+    <t>RNE_0267965</t>
+  </si>
+  <si>
+    <t>ROBERT</t>
+  </si>
+  <si>
+    <t>RNE_0046275</t>
+  </si>
+  <si>
+    <t>TEYCHENNE</t>
+  </si>
+  <si>
+    <t>MICHEL</t>
+  </si>
+  <si>
+    <t>EXPERTS COMPTABLES</t>
+  </si>
+  <si>
+    <t>RNE_0799238</t>
+  </si>
+  <si>
+    <t>GERARD</t>
+  </si>
+  <si>
+    <t>BEATRICE</t>
+  </si>
+  <si>
+    <t>VINCENT</t>
+  </si>
+  <si>
+    <t>RNE_0836476</t>
+  </si>
+  <si>
+    <t>MARIE LINE</t>
+  </si>
+  <si>
+    <t>RNE_0824956</t>
+  </si>
+  <si>
+    <t>LEFRANCOIS</t>
+  </si>
+  <si>
+    <t>ROSELYNE</t>
+  </si>
+  <si>
+    <t>RNE_0641835</t>
+  </si>
+  <si>
+    <t>MARTINE</t>
+  </si>
+  <si>
+    <t>SAIFI</t>
+  </si>
+  <si>
+    <t>TOKIA</t>
+  </si>
+  <si>
+    <t>GILLES</t>
+  </si>
+  <si>
+    <t>AUTRES PROFESSIONS LIBERALES</t>
+  </si>
+  <si>
+    <t>RETRAITES DES PROFESSIONS LIBERALES</t>
+  </si>
+  <si>
+    <t>RNE_0336711</t>
+  </si>
+  <si>
+    <t>LYDIA</t>
+  </si>
+  <si>
+    <t>RNE_0837999</t>
+  </si>
+  <si>
+    <t>CHANTAL</t>
+  </si>
+  <si>
+    <t>EUR_0028212</t>
+  </si>
+  <si>
+    <t>FERNAND</t>
+  </si>
+  <si>
+    <t>INDUSTRIELS CHEFS ENTREPRISE</t>
+  </si>
+  <si>
+    <t>RNE_0831396</t>
+  </si>
+  <si>
+    <t>OUTRE MER</t>
+  </si>
+  <si>
+    <t>MARGIE</t>
+  </si>
+  <si>
+    <t>MEDECINS</t>
+  </si>
+  <si>
+    <t>JACQUES</t>
+  </si>
+  <si>
+    <t>RNE_0336718</t>
+  </si>
+  <si>
+    <t>RNE_0584032</t>
+  </si>
+  <si>
+    <t>ARI</t>
+  </si>
+  <si>
+    <t>RNE_0838000</t>
+  </si>
+  <si>
+    <t>YANNICK</t>
+  </si>
+  <si>
+    <t>RNE_0027702</t>
+  </si>
+  <si>
+    <t>FONCTIONNAIRES DE CATEGORIE B</t>
+  </si>
+  <si>
+    <t>RNE_0007513</t>
+  </si>
+  <si>
+    <t>HENRI</t>
+  </si>
+  <si>
+    <t>RNE_0000328</t>
+  </si>
+  <si>
+    <t>FRANCIS</t>
+  </si>
+  <si>
+    <t>Journalistes et autres médias</t>
+  </si>
+  <si>
+    <t>398</t>
+  </si>
+  <si>
+    <t>RNE_0000398</t>
+  </si>
+  <si>
+    <t>DE GRANDMAISON</t>
+  </si>
+  <si>
+    <t>MADELEINE</t>
+  </si>
+  <si>
+    <t>RNE_0823678</t>
+  </si>
+  <si>
+    <t>21524</t>
+  </si>
+  <si>
+    <t>RNE_0021524</t>
+  </si>
+  <si>
+    <t>4997</t>
+  </si>
+  <si>
+    <t>RNE_0004997</t>
+  </si>
+  <si>
+    <t>MORIN CHARTIER</t>
+  </si>
+  <si>
+    <t>ELISABETH</t>
+  </si>
+  <si>
+    <t>RNE_0004604</t>
+  </si>
+  <si>
+    <t>ARCHITECTES</t>
   </si>
 </sst>
 </file>
@@ -15236,7 +15931,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -15257,6 +15952,22 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="16" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -15304,7 +16015,17 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -20349,9 +21070,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P102"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25477,13 +26198,4641 @@
   </sheetData>
   <autoFilter ref="A1:P102"/>
   <conditionalFormatting sqref="C2:C89">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P102"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="38.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="39.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8" style="10" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.5703125" style="11" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>265</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="N1" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="O1" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="P1" s="13" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="14" t="s">
+        <v>4957</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>4966</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>4913</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>4967</v>
+      </c>
+      <c r="E2" s="16">
+        <v>21734</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="15">
+        <v>56</v>
+      </c>
+      <c r="H2" s="15" t="s">
+        <v>4965</v>
+      </c>
+      <c r="I2" s="15" t="s">
+        <v>4968</v>
+      </c>
+      <c r="J2" s="16">
+        <v>38151</v>
+      </c>
+      <c r="K2" s="16">
+        <v>39970</v>
+      </c>
+      <c r="L2" s="15" t="s">
+        <v>383</v>
+      </c>
+      <c r="M2" s="15" t="s">
+        <v>515</v>
+      </c>
+      <c r="N2" s="17">
+        <v>962324</v>
+      </c>
+      <c r="O2" s="15">
+        <v>28137</v>
+      </c>
+      <c r="P2" s="17" t="s">
+        <v>4969</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="14" t="s">
+        <v>4954</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>4946</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>4938</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>4970</v>
+      </c>
+      <c r="E3" s="16">
+        <v>20409</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="15">
+        <v>42</v>
+      </c>
+      <c r="H3" s="15" t="s">
+        <v>4971</v>
+      </c>
+      <c r="I3" s="15" t="s">
+        <v>4968</v>
+      </c>
+      <c r="J3" s="16">
+        <v>38151</v>
+      </c>
+      <c r="K3" s="16">
+        <v>39970</v>
+      </c>
+      <c r="L3" s="15" t="s">
+        <v>383</v>
+      </c>
+      <c r="M3" s="15" t="s">
+        <v>513</v>
+      </c>
+      <c r="N3" s="17">
+        <v>837985</v>
+      </c>
+      <c r="O3" s="15">
+        <v>28213</v>
+      </c>
+      <c r="P3" s="17" t="s">
+        <v>4972</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="14" t="s">
+        <v>4954</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>4946</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>4928</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>5092</v>
+      </c>
+      <c r="E4" s="16">
+        <v>17160</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="15">
+        <v>28</v>
+      </c>
+      <c r="H4" s="15" t="s">
+        <v>4973</v>
+      </c>
+      <c r="I4" s="15" t="s">
+        <v>257</v>
+      </c>
+      <c r="J4" s="16">
+        <v>38151</v>
+      </c>
+      <c r="K4" s="16">
+        <v>39219</v>
+      </c>
+      <c r="L4" s="15" t="s">
+        <v>382</v>
+      </c>
+      <c r="M4" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="N4" s="18" t="s">
+        <v>256</v>
+      </c>
+      <c r="O4" s="19">
+        <v>28179</v>
+      </c>
+      <c r="P4" s="17" t="s">
+        <v>4974</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="14" t="s">
+        <v>4950</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>4947</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>4934</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>4975</v>
+      </c>
+      <c r="E5" s="16">
+        <v>16038</v>
+      </c>
+      <c r="F5" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="G5" s="15">
+        <v>6</v>
+      </c>
+      <c r="H5" s="15" t="s">
+        <v>4976</v>
+      </c>
+      <c r="I5" s="15" t="s">
+        <v>4968</v>
+      </c>
+      <c r="J5" s="16">
+        <v>38151</v>
+      </c>
+      <c r="K5" s="16">
+        <v>39970</v>
+      </c>
+      <c r="L5" s="15" t="s">
+        <v>383</v>
+      </c>
+      <c r="M5" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="N5" s="17">
+        <v>16800</v>
+      </c>
+      <c r="O5" s="15">
+        <v>28205</v>
+      </c>
+      <c r="P5" s="17" t="s">
+        <v>4977</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="14" t="s">
+        <v>4956</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>4978</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>4979</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>4980</v>
+      </c>
+      <c r="E6" s="16">
+        <v>20060</v>
+      </c>
+      <c r="F6" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="G6" s="15">
+        <v>54</v>
+      </c>
+      <c r="H6" s="15" t="s">
+        <v>4981</v>
+      </c>
+      <c r="I6" s="15" t="s">
+        <v>4968</v>
+      </c>
+      <c r="J6" s="16">
+        <v>38151</v>
+      </c>
+      <c r="K6" s="16">
+        <v>39970</v>
+      </c>
+      <c r="L6" s="15" t="s">
+        <v>383</v>
+      </c>
+      <c r="M6" s="15" t="s">
+        <v>513</v>
+      </c>
+      <c r="N6" s="17">
+        <v>471665</v>
+      </c>
+      <c r="O6" s="15">
+        <v>28214</v>
+      </c>
+      <c r="P6" s="17" t="s">
+        <v>4982</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="14" t="s">
+        <v>4951</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>4949</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>4983</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>4984</v>
+      </c>
+      <c r="E7" s="16">
+        <v>20889</v>
+      </c>
+      <c r="F7" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="G7" s="15">
+        <v>47</v>
+      </c>
+      <c r="H7" s="15" t="s">
+        <v>4985</v>
+      </c>
+      <c r="I7" s="15" t="s">
+        <v>4968</v>
+      </c>
+      <c r="J7" s="16">
+        <v>38151</v>
+      </c>
+      <c r="K7" s="16">
+        <v>39970</v>
+      </c>
+      <c r="L7" s="15" t="s">
+        <v>383</v>
+      </c>
+      <c r="M7" s="15" t="s">
+        <v>515</v>
+      </c>
+      <c r="N7" s="17">
+        <v>1501533</v>
+      </c>
+      <c r="O7" s="17">
+        <v>1985</v>
+      </c>
+      <c r="P7" s="17" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="14" t="s">
+        <v>4956</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>4978</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>4908</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>4986</v>
+      </c>
+      <c r="E8" s="16">
+        <v>19479</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="G8" s="15">
+        <v>47</v>
+      </c>
+      <c r="H8" s="15" t="s">
+        <v>4985</v>
+      </c>
+      <c r="I8" s="15" t="s">
+        <v>4968</v>
+      </c>
+      <c r="J8" s="16">
+        <v>38151</v>
+      </c>
+      <c r="K8" s="16">
+        <v>39970</v>
+      </c>
+      <c r="L8" s="15" t="s">
+        <v>383</v>
+      </c>
+      <c r="M8" s="15" t="s">
+        <v>515</v>
+      </c>
+      <c r="N8" s="17">
+        <v>341305</v>
+      </c>
+      <c r="O8" s="15">
+        <v>28140</v>
+      </c>
+      <c r="P8" s="17" t="s">
+        <v>4987</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="14" t="s">
+        <v>4953</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>4944</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>339</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>4996</v>
+      </c>
+      <c r="E9" s="16">
+        <v>16996</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="G9" s="15">
+        <v>63</v>
+      </c>
+      <c r="H9" s="15" t="s">
+        <v>5045</v>
+      </c>
+      <c r="I9" s="15" t="s">
+        <v>257</v>
+      </c>
+      <c r="J9" s="16">
+        <v>38151</v>
+      </c>
+      <c r="K9" s="16">
+        <v>39447</v>
+      </c>
+      <c r="L9" s="15" t="s">
+        <v>382</v>
+      </c>
+      <c r="M9" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="N9" s="18">
+        <v>1519893</v>
+      </c>
+      <c r="O9" s="19">
+        <v>1026</v>
+      </c>
+      <c r="P9" s="17" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="14" t="s">
+        <v>4952</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>5006</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>4923</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>5014</v>
+      </c>
+      <c r="E10" s="16">
+        <v>16585</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="G10" s="15">
+        <v>62</v>
+      </c>
+      <c r="H10" s="15" t="s">
+        <v>5015</v>
+      </c>
+      <c r="I10" s="15" t="s">
+        <v>4968</v>
+      </c>
+      <c r="J10" s="16">
+        <v>38151</v>
+      </c>
+      <c r="K10" s="16">
+        <v>39721</v>
+      </c>
+      <c r="L10" s="15" t="s">
+        <v>382</v>
+      </c>
+      <c r="M10" s="15" t="s">
+        <v>515</v>
+      </c>
+      <c r="N10" s="18">
+        <v>1174433</v>
+      </c>
+      <c r="O10" s="19">
+        <v>28143</v>
+      </c>
+      <c r="P10" s="17" t="s">
+        <v>5016</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="14" t="s">
+        <v>4956</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>4978</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>4988</v>
+      </c>
+      <c r="E11" s="16">
+        <v>19014</v>
+      </c>
+      <c r="F11" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="G11" s="15">
+        <v>56</v>
+      </c>
+      <c r="H11" s="15" t="s">
+        <v>4965</v>
+      </c>
+      <c r="I11" s="15" t="s">
+        <v>4968</v>
+      </c>
+      <c r="J11" s="16">
+        <v>38151</v>
+      </c>
+      <c r="K11" s="16">
+        <v>39970</v>
+      </c>
+      <c r="L11" s="15" t="s">
+        <v>383</v>
+      </c>
+      <c r="M11" s="15" t="s">
+        <v>515</v>
+      </c>
+      <c r="N11" s="17">
+        <v>15</v>
+      </c>
+      <c r="O11" s="17">
+        <v>2031</v>
+      </c>
+      <c r="P11" s="17" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="14" t="s">
+        <v>4957</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>4966</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>4914</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>4989</v>
+      </c>
+      <c r="E12" s="16">
+        <v>20492</v>
+      </c>
+      <c r="F12" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="G12" s="15">
+        <v>44</v>
+      </c>
+      <c r="H12" s="15" t="s">
+        <v>4990</v>
+      </c>
+      <c r="I12" s="15" t="s">
+        <v>4968</v>
+      </c>
+      <c r="J12" s="16">
+        <v>38151</v>
+      </c>
+      <c r="K12" s="16">
+        <v>39970</v>
+      </c>
+      <c r="L12" s="15" t="s">
+        <v>383</v>
+      </c>
+      <c r="M12" s="15" t="s">
+        <v>515</v>
+      </c>
+      <c r="N12" s="17">
+        <v>837989</v>
+      </c>
+      <c r="O12" s="17">
+        <v>28148</v>
+      </c>
+      <c r="P12" s="17" t="s">
+        <v>4991</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="14" t="s">
+        <v>4957</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>4966</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>4932</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>4975</v>
+      </c>
+      <c r="E13" s="16">
+        <v>14665</v>
+      </c>
+      <c r="F13" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="G13" s="15">
+        <v>64</v>
+      </c>
+      <c r="H13" s="15" t="s">
+        <v>4992</v>
+      </c>
+      <c r="I13" s="15" t="s">
+        <v>4968</v>
+      </c>
+      <c r="J13" s="16">
+        <v>38151</v>
+      </c>
+      <c r="K13" s="16">
+        <v>39970</v>
+      </c>
+      <c r="L13" s="15" t="s">
+        <v>383</v>
+      </c>
+      <c r="M13" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="N13" s="17">
+        <v>837987</v>
+      </c>
+      <c r="O13" s="15">
+        <v>28206</v>
+      </c>
+      <c r="P13" s="17" t="s">
+        <v>4993</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="14" t="s">
+        <v>4956</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>4978</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>4994</v>
+      </c>
+      <c r="E14" s="16">
+        <v>18832</v>
+      </c>
+      <c r="F14" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="G14" s="15">
+        <v>47</v>
+      </c>
+      <c r="H14" s="15" t="s">
+        <v>4985</v>
+      </c>
+      <c r="I14" s="15" t="s">
+        <v>4968</v>
+      </c>
+      <c r="J14" s="16">
+        <v>38151</v>
+      </c>
+      <c r="K14" s="16">
+        <v>39970</v>
+      </c>
+      <c r="L14" s="15" t="s">
+        <v>383</v>
+      </c>
+      <c r="M14" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="N14" s="17">
+        <v>20</v>
+      </c>
+      <c r="O14" s="17">
+        <v>4338</v>
+      </c>
+      <c r="P14" s="17" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="14" t="s">
+        <v>4953</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>4995</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>4909</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>4996</v>
+      </c>
+      <c r="E15" s="16">
+        <v>18518</v>
+      </c>
+      <c r="F15" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="G15" s="15">
+        <v>61</v>
+      </c>
+      <c r="H15" s="15" t="s">
+        <v>4997</v>
+      </c>
+      <c r="I15" s="15" t="s">
+        <v>4968</v>
+      </c>
+      <c r="J15" s="16">
+        <v>38151</v>
+      </c>
+      <c r="K15" s="16">
+        <v>39970</v>
+      </c>
+      <c r="L15" s="15" t="s">
+        <v>383</v>
+      </c>
+      <c r="M15" s="15" t="s">
+        <v>515</v>
+      </c>
+      <c r="N15" s="17">
+        <v>2553</v>
+      </c>
+      <c r="O15" s="17">
+        <v>2315</v>
+      </c>
+      <c r="P15" s="17" t="s">
+        <v>4998</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="14" t="s">
+        <v>4951</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>4949</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>4939</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>4999</v>
+      </c>
+      <c r="E16" s="16">
+        <v>20667</v>
+      </c>
+      <c r="F16" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="G16" s="15">
+        <v>46</v>
+      </c>
+      <c r="H16" s="15" t="s">
+        <v>5000</v>
+      </c>
+      <c r="I16" s="15" t="s">
+        <v>4968</v>
+      </c>
+      <c r="J16" s="16">
+        <v>38151</v>
+      </c>
+      <c r="K16" s="16">
+        <v>39970</v>
+      </c>
+      <c r="L16" s="15" t="s">
+        <v>383</v>
+      </c>
+      <c r="M16" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="N16" s="17">
+        <v>21</v>
+      </c>
+      <c r="O16" s="17">
+        <v>4383</v>
+      </c>
+      <c r="P16" s="17" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="14" t="s">
+        <v>4950</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>4947</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="D17" s="15" t="s">
+        <v>5001</v>
+      </c>
+      <c r="E17" s="16">
+        <v>17270</v>
+      </c>
+      <c r="F17" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="G17" s="15">
+        <v>54</v>
+      </c>
+      <c r="H17" s="15" t="s">
+        <v>4981</v>
+      </c>
+      <c r="I17" s="15" t="s">
+        <v>4968</v>
+      </c>
+      <c r="J17" s="16">
+        <v>38151</v>
+      </c>
+      <c r="K17" s="16">
+        <v>39970</v>
+      </c>
+      <c r="L17" s="15" t="s">
+        <v>383</v>
+      </c>
+      <c r="M17" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="N17" s="17">
+        <v>24</v>
+      </c>
+      <c r="O17" s="17">
+        <v>4342</v>
+      </c>
+      <c r="P17" s="17" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="14" t="s">
+        <v>4951</v>
+      </c>
+      <c r="B18" s="15" t="s">
+        <v>4949</v>
+      </c>
+      <c r="C18" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="D18" s="15" t="s">
+        <v>5002</v>
+      </c>
+      <c r="E18" s="16">
+        <v>18714</v>
+      </c>
+      <c r="F18" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="G18" s="15">
+        <v>56</v>
+      </c>
+      <c r="H18" s="15" t="s">
+        <v>4965</v>
+      </c>
+      <c r="I18" s="15" t="s">
+        <v>4968</v>
+      </c>
+      <c r="J18" s="16">
+        <v>38151</v>
+      </c>
+      <c r="K18" s="16">
+        <v>39970</v>
+      </c>
+      <c r="L18" s="15" t="s">
+        <v>383</v>
+      </c>
+      <c r="M18" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="N18" s="17">
+        <v>26</v>
+      </c>
+      <c r="O18" s="17">
+        <v>4335</v>
+      </c>
+      <c r="P18" s="17" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="14" t="s">
+        <v>4957</v>
+      </c>
+      <c r="B19" s="15" t="s">
+        <v>4966</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="D19" s="15" t="s">
+        <v>5003</v>
+      </c>
+      <c r="E19" s="16">
+        <v>21860</v>
+      </c>
+      <c r="F19" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="G19" s="15">
+        <v>18</v>
+      </c>
+      <c r="H19" s="15" t="s">
+        <v>5004</v>
+      </c>
+      <c r="I19" s="15" t="s">
+        <v>4968</v>
+      </c>
+      <c r="J19" s="16">
+        <v>38151</v>
+      </c>
+      <c r="K19" s="16">
+        <v>39970</v>
+      </c>
+      <c r="L19" s="15" t="s">
+        <v>383</v>
+      </c>
+      <c r="M19" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="N19" s="17">
+        <v>29</v>
+      </c>
+      <c r="O19" s="17">
+        <v>4347</v>
+      </c>
+      <c r="P19" s="17" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="14" t="s">
+        <v>4954</v>
+      </c>
+      <c r="B20" s="15" t="s">
+        <v>4946</v>
+      </c>
+      <c r="C20" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="D20" s="15" t="s">
+        <v>5005</v>
+      </c>
+      <c r="E20" s="16">
+        <v>17982</v>
+      </c>
+      <c r="F20" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="G20" s="15">
+        <v>54</v>
+      </c>
+      <c r="H20" s="15" t="s">
+        <v>4981</v>
+      </c>
+      <c r="I20" s="15" t="s">
+        <v>4968</v>
+      </c>
+      <c r="J20" s="16">
+        <v>38151</v>
+      </c>
+      <c r="K20" s="16">
+        <v>39970</v>
+      </c>
+      <c r="L20" s="15" t="s">
+        <v>383</v>
+      </c>
+      <c r="M20" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="N20" s="17">
+        <v>1083</v>
+      </c>
+      <c r="O20" s="17">
+        <v>2212</v>
+      </c>
+      <c r="P20" s="17" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="14" t="s">
+        <v>4952</v>
+      </c>
+      <c r="B21" s="15" t="s">
+        <v>5006</v>
+      </c>
+      <c r="C21" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="D21" s="15" t="s">
+        <v>4970</v>
+      </c>
+      <c r="E21" s="16">
+        <v>14066</v>
+      </c>
+      <c r="F21" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="G21" s="15">
+        <v>6</v>
+      </c>
+      <c r="H21" s="15" t="s">
+        <v>4976</v>
+      </c>
+      <c r="I21" s="15" t="s">
+        <v>4968</v>
+      </c>
+      <c r="J21" s="16">
+        <v>38151</v>
+      </c>
+      <c r="K21" s="16">
+        <v>39970</v>
+      </c>
+      <c r="L21" s="15" t="s">
+        <v>383</v>
+      </c>
+      <c r="M21" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="N21" s="17">
+        <v>27</v>
+      </c>
+      <c r="O21" s="17">
+        <v>22859</v>
+      </c>
+      <c r="P21" s="17" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="14" t="s">
+        <v>4951</v>
+      </c>
+      <c r="B22" s="15" t="s">
+        <v>4949</v>
+      </c>
+      <c r="C22" s="15" t="s">
+        <v>5007</v>
+      </c>
+      <c r="D22" s="15" t="s">
+        <v>5008</v>
+      </c>
+      <c r="E22" s="16">
+        <v>21879</v>
+      </c>
+      <c r="F22" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="G22" s="15">
+        <v>56</v>
+      </c>
+      <c r="H22" s="15" t="s">
+        <v>4965</v>
+      </c>
+      <c r="I22" s="15" t="s">
+        <v>4968</v>
+      </c>
+      <c r="J22" s="16">
+        <v>38151</v>
+      </c>
+      <c r="K22" s="16">
+        <v>39970</v>
+      </c>
+      <c r="L22" s="15" t="s">
+        <v>383</v>
+      </c>
+      <c r="M22" s="15" t="s">
+        <v>515</v>
+      </c>
+      <c r="N22" s="17">
+        <v>28</v>
+      </c>
+      <c r="O22" s="17">
+        <v>4318</v>
+      </c>
+      <c r="P22" s="17" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="14" t="s">
+        <v>4953</v>
+      </c>
+      <c r="B23" s="15" t="s">
+        <v>4995</v>
+      </c>
+      <c r="C23" s="15" t="s">
+        <v>4910</v>
+      </c>
+      <c r="D23" s="15" t="s">
+        <v>5009</v>
+      </c>
+      <c r="E23" s="16">
+        <v>17222</v>
+      </c>
+      <c r="F23" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="G23" s="15">
+        <v>18</v>
+      </c>
+      <c r="H23" s="15" t="s">
+        <v>5004</v>
+      </c>
+      <c r="I23" s="15" t="s">
+        <v>4968</v>
+      </c>
+      <c r="J23" s="16">
+        <v>38151</v>
+      </c>
+      <c r="K23" s="16">
+        <v>39970</v>
+      </c>
+      <c r="L23" s="15" t="s">
+        <v>383</v>
+      </c>
+      <c r="M23" s="15" t="s">
+        <v>515</v>
+      </c>
+      <c r="N23" s="17">
+        <v>276787</v>
+      </c>
+      <c r="O23" s="15">
+        <v>28157</v>
+      </c>
+      <c r="P23" s="17" t="s">
+        <v>5010</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="14" t="s">
+        <v>4951</v>
+      </c>
+      <c r="B24" s="15" t="s">
+        <v>4949</v>
+      </c>
+      <c r="C24" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="D24" s="15" t="s">
+        <v>5011</v>
+      </c>
+      <c r="E24" s="16">
+        <v>22358</v>
+      </c>
+      <c r="F24" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="G24" s="15">
+        <v>43</v>
+      </c>
+      <c r="H24" s="15" t="s">
+        <v>5012</v>
+      </c>
+      <c r="I24" s="15" t="s">
+        <v>4968</v>
+      </c>
+      <c r="J24" s="16">
+        <v>38151</v>
+      </c>
+      <c r="K24" s="16">
+        <v>39970</v>
+      </c>
+      <c r="L24" s="15" t="s">
+        <v>383</v>
+      </c>
+      <c r="M24" s="15" t="s">
+        <v>515</v>
+      </c>
+      <c r="N24" s="17">
+        <v>32</v>
+      </c>
+      <c r="O24" s="17">
+        <v>5735</v>
+      </c>
+      <c r="P24" s="17" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="14" t="s">
+        <v>4953</v>
+      </c>
+      <c r="B25" s="15" t="s">
+        <v>4995</v>
+      </c>
+      <c r="C25" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25" s="15" t="s">
+        <v>5013</v>
+      </c>
+      <c r="E25" s="16">
+        <v>21395</v>
+      </c>
+      <c r="F25" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="G25" s="15">
+        <v>54</v>
+      </c>
+      <c r="H25" s="15" t="s">
+        <v>4981</v>
+      </c>
+      <c r="I25" s="15" t="s">
+        <v>4968</v>
+      </c>
+      <c r="J25" s="16">
+        <v>38151</v>
+      </c>
+      <c r="K25" s="16">
+        <v>39970</v>
+      </c>
+      <c r="L25" s="15" t="s">
+        <v>383</v>
+      </c>
+      <c r="M25" s="15" t="s">
+        <v>513</v>
+      </c>
+      <c r="N25" s="17">
+        <v>33</v>
+      </c>
+      <c r="O25" s="17">
+        <v>4385</v>
+      </c>
+      <c r="P25" s="17" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="14" t="s">
+        <v>4956</v>
+      </c>
+      <c r="B26" s="15" t="s">
+        <v>4978</v>
+      </c>
+      <c r="C26" s="15" t="s">
+        <v>749</v>
+      </c>
+      <c r="D26" s="15" t="s">
+        <v>5017</v>
+      </c>
+      <c r="E26" s="16">
+        <v>17028</v>
+      </c>
+      <c r="F26" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="G26" s="15">
+        <v>57</v>
+      </c>
+      <c r="H26" s="15" t="s">
+        <v>5018</v>
+      </c>
+      <c r="I26" s="15" t="s">
+        <v>4968</v>
+      </c>
+      <c r="J26" s="16">
+        <v>38151</v>
+      </c>
+      <c r="K26" s="16">
+        <v>39970</v>
+      </c>
+      <c r="L26" s="15" t="s">
+        <v>383</v>
+      </c>
+      <c r="M26" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="N26" s="17">
+        <v>87</v>
+      </c>
+      <c r="O26" s="17">
+        <v>5737</v>
+      </c>
+      <c r="P26" s="17" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="14" t="s">
+        <v>4951</v>
+      </c>
+      <c r="B27" s="15" t="s">
+        <v>4949</v>
+      </c>
+      <c r="C27" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="D27" s="15" t="s">
+        <v>5019</v>
+      </c>
+      <c r="E27" s="16">
+        <v>15357</v>
+      </c>
+      <c r="F27" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="G27" s="15">
+        <v>29</v>
+      </c>
+      <c r="H27" s="15" t="s">
+        <v>5020</v>
+      </c>
+      <c r="I27" s="15" t="s">
+        <v>4968</v>
+      </c>
+      <c r="J27" s="16">
+        <v>38151</v>
+      </c>
+      <c r="K27" s="16">
+        <v>39970</v>
+      </c>
+      <c r="L27" s="15" t="s">
+        <v>383</v>
+      </c>
+      <c r="M27" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="N27" s="17">
+        <v>838005</v>
+      </c>
+      <c r="O27" s="17">
+        <v>945</v>
+      </c>
+      <c r="P27" s="17" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="14" t="s">
+        <v>4952</v>
+      </c>
+      <c r="B28" s="15" t="s">
+        <v>5006</v>
+      </c>
+      <c r="C28" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="D28" s="15" t="s">
+        <v>5021</v>
+      </c>
+      <c r="E28" s="16">
+        <v>14280</v>
+      </c>
+      <c r="F28" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="G28" s="15">
+        <v>57</v>
+      </c>
+      <c r="H28" s="15" t="s">
+        <v>5018</v>
+      </c>
+      <c r="I28" s="15" t="s">
+        <v>4968</v>
+      </c>
+      <c r="J28" s="16">
+        <v>38151</v>
+      </c>
+      <c r="K28" s="16">
+        <v>39970</v>
+      </c>
+      <c r="L28" s="15" t="s">
+        <v>383</v>
+      </c>
+      <c r="M28" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="N28" s="17">
+        <v>821668</v>
+      </c>
+      <c r="O28" s="17">
+        <v>4336</v>
+      </c>
+      <c r="P28" s="17" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="14" t="s">
+        <v>4955</v>
+      </c>
+      <c r="B29" s="15" t="s">
+        <v>4948</v>
+      </c>
+      <c r="C29" s="15" t="s">
+        <v>296</v>
+      </c>
+      <c r="D29" s="15" t="s">
+        <v>5048</v>
+      </c>
+      <c r="E29" s="16">
+        <v>17324</v>
+      </c>
+      <c r="F29" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="G29" s="15">
+        <v>62</v>
+      </c>
+      <c r="H29" s="15" t="s">
+        <v>5015</v>
+      </c>
+      <c r="I29" s="15" t="s">
+        <v>4968</v>
+      </c>
+      <c r="J29" s="16">
+        <v>38151</v>
+      </c>
+      <c r="K29" s="16">
+        <v>39258</v>
+      </c>
+      <c r="L29" s="15" t="s">
+        <v>383</v>
+      </c>
+      <c r="M29" s="15" t="s">
+        <v>515</v>
+      </c>
+      <c r="N29" s="18">
+        <v>870229</v>
+      </c>
+      <c r="O29" s="19">
+        <v>4297</v>
+      </c>
+      <c r="P29" s="17" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="14" t="s">
+        <v>4951</v>
+      </c>
+      <c r="B30" s="15" t="s">
+        <v>4949</v>
+      </c>
+      <c r="C30" s="15" t="s">
+        <v>4924</v>
+      </c>
+      <c r="D30" s="15" t="s">
+        <v>5022</v>
+      </c>
+      <c r="E30" s="16">
+        <v>17720</v>
+      </c>
+      <c r="F30" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="G30" s="15">
+        <v>26</v>
+      </c>
+      <c r="H30" s="15" t="s">
+        <v>5023</v>
+      </c>
+      <c r="I30" s="15" t="s">
+        <v>4968</v>
+      </c>
+      <c r="J30" s="16">
+        <v>38151</v>
+      </c>
+      <c r="K30" s="16">
+        <v>39970</v>
+      </c>
+      <c r="L30" s="15" t="s">
+        <v>383</v>
+      </c>
+      <c r="M30" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="N30" s="17">
+        <v>838003</v>
+      </c>
+      <c r="O30" s="15">
+        <v>28183</v>
+      </c>
+      <c r="P30" s="17" t="s">
+        <v>5024</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="14" t="s">
+        <v>4953</v>
+      </c>
+      <c r="B31" s="15" t="s">
+        <v>4995</v>
+      </c>
+      <c r="C31" s="15" t="s">
+        <v>4927</v>
+      </c>
+      <c r="D31" s="15" t="s">
+        <v>5025</v>
+      </c>
+      <c r="E31" s="16">
+        <v>17441</v>
+      </c>
+      <c r="F31" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="G31" s="15">
+        <v>32</v>
+      </c>
+      <c r="H31" s="15" t="s">
+        <v>5026</v>
+      </c>
+      <c r="I31" s="15" t="s">
+        <v>4968</v>
+      </c>
+      <c r="J31" s="16">
+        <v>38151</v>
+      </c>
+      <c r="K31" s="16">
+        <v>39970</v>
+      </c>
+      <c r="L31" s="15" t="s">
+        <v>383</v>
+      </c>
+      <c r="M31" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="N31" s="17">
+        <v>42710</v>
+      </c>
+      <c r="O31" s="17">
+        <v>28193</v>
+      </c>
+      <c r="P31" s="17" t="s">
+        <v>5027</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="14" t="s">
+        <v>4956</v>
+      </c>
+      <c r="B32" s="15" t="s">
+        <v>4978</v>
+      </c>
+      <c r="C32" s="15" t="s">
+        <v>4931</v>
+      </c>
+      <c r="D32" s="15" t="s">
+        <v>5028</v>
+      </c>
+      <c r="E32" s="16">
+        <v>16741</v>
+      </c>
+      <c r="F32" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="G32" s="15">
+        <v>57</v>
+      </c>
+      <c r="H32" s="15" t="s">
+        <v>5018</v>
+      </c>
+      <c r="I32" s="15" t="s">
+        <v>4968</v>
+      </c>
+      <c r="J32" s="16">
+        <v>38151</v>
+      </c>
+      <c r="K32" s="16">
+        <v>39970</v>
+      </c>
+      <c r="L32" s="15" t="s">
+        <v>383</v>
+      </c>
+      <c r="M32" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="N32" s="17">
+        <v>837981</v>
+      </c>
+      <c r="O32" s="15">
+        <v>28207</v>
+      </c>
+      <c r="P32" s="17" t="s">
+        <v>5029</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="14" t="s">
+        <v>4950</v>
+      </c>
+      <c r="B33" s="15" t="s">
+        <v>4947</v>
+      </c>
+      <c r="C33" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="D33" s="15" t="s">
+        <v>5030</v>
+      </c>
+      <c r="E33" s="16">
+        <v>18291</v>
+      </c>
+      <c r="F33" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="G33" s="15">
+        <v>41</v>
+      </c>
+      <c r="H33" s="15" t="s">
+        <v>5031</v>
+      </c>
+      <c r="I33" s="15" t="s">
+        <v>4968</v>
+      </c>
+      <c r="J33" s="16">
+        <v>38151</v>
+      </c>
+      <c r="K33" s="16">
+        <v>39970</v>
+      </c>
+      <c r="L33" s="15" t="s">
+        <v>383</v>
+      </c>
+      <c r="M33" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="N33" s="17">
+        <v>41</v>
+      </c>
+      <c r="O33" s="17">
+        <v>1164</v>
+      </c>
+      <c r="P33" s="17" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="14" t="s">
+        <v>4950</v>
+      </c>
+      <c r="B34" s="15" t="s">
+        <v>4947</v>
+      </c>
+      <c r="C34" s="15" t="s">
+        <v>4935</v>
+      </c>
+      <c r="D34" s="15" t="s">
+        <v>5032</v>
+      </c>
+      <c r="E34" s="16">
+        <v>20599</v>
+      </c>
+      <c r="F34" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="G34" s="15">
+        <v>41</v>
+      </c>
+      <c r="H34" s="15" t="s">
+        <v>5031</v>
+      </c>
+      <c r="I34" s="15" t="s">
+        <v>4968</v>
+      </c>
+      <c r="J34" s="16">
+        <v>38151</v>
+      </c>
+      <c r="K34" s="16">
+        <v>39970</v>
+      </c>
+      <c r="L34" s="15" t="s">
+        <v>383</v>
+      </c>
+      <c r="M34" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="N34" s="17">
+        <v>1786</v>
+      </c>
+      <c r="O34" s="15">
+        <v>28208</v>
+      </c>
+      <c r="P34" s="17" t="s">
+        <v>5033</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="14" t="s">
+        <v>4956</v>
+      </c>
+      <c r="B35" s="15" t="s">
+        <v>4978</v>
+      </c>
+      <c r="C35" s="15" t="s">
+        <v>5034</v>
+      </c>
+      <c r="D35" s="15" t="s">
+        <v>4989</v>
+      </c>
+      <c r="E35" s="16">
+        <v>16939</v>
+      </c>
+      <c r="F35" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="G35" s="15">
+        <v>54</v>
+      </c>
+      <c r="H35" s="15" t="s">
+        <v>4981</v>
+      </c>
+      <c r="I35" s="15" t="s">
+        <v>4968</v>
+      </c>
+      <c r="J35" s="16">
+        <v>38151</v>
+      </c>
+      <c r="K35" s="16">
+        <v>39970</v>
+      </c>
+      <c r="L35" s="15" t="s">
+        <v>383</v>
+      </c>
+      <c r="M35" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="N35" s="17">
+        <v>1501530</v>
+      </c>
+      <c r="O35" s="17">
+        <v>2025</v>
+      </c>
+      <c r="P35" s="17" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="14" t="s">
+        <v>4954</v>
+      </c>
+      <c r="B36" s="15" t="s">
+        <v>4946</v>
+      </c>
+      <c r="C36" s="15" t="s">
+        <v>4929</v>
+      </c>
+      <c r="D36" s="15" t="s">
+        <v>5035</v>
+      </c>
+      <c r="E36" s="16">
+        <v>15061</v>
+      </c>
+      <c r="F36" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="G36" s="15">
+        <v>65</v>
+      </c>
+      <c r="H36" s="15" t="s">
+        <v>5036</v>
+      </c>
+      <c r="I36" s="15" t="s">
+        <v>4968</v>
+      </c>
+      <c r="J36" s="16">
+        <v>38151</v>
+      </c>
+      <c r="K36" s="16">
+        <v>39970</v>
+      </c>
+      <c r="L36" s="15" t="s">
+        <v>383</v>
+      </c>
+      <c r="M36" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="N36" s="17">
+        <v>4969</v>
+      </c>
+      <c r="O36" s="15">
+        <v>28194</v>
+      </c>
+      <c r="P36" s="17" t="s">
+        <v>5037</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="14" t="s">
+        <v>4952</v>
+      </c>
+      <c r="B37" s="15" t="s">
+        <v>5006</v>
+      </c>
+      <c r="C37" s="15" t="s">
+        <v>5038</v>
+      </c>
+      <c r="D37" s="15" t="s">
+        <v>5039</v>
+      </c>
+      <c r="E37" s="16">
+        <v>18142</v>
+      </c>
+      <c r="F37" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="G37" s="15">
+        <v>50</v>
+      </c>
+      <c r="H37" s="15" t="s">
+        <v>5040</v>
+      </c>
+      <c r="I37" s="15" t="s">
+        <v>4968</v>
+      </c>
+      <c r="J37" s="16">
+        <v>38151</v>
+      </c>
+      <c r="K37" s="16">
+        <v>39970</v>
+      </c>
+      <c r="L37" s="15" t="s">
+        <v>383</v>
+      </c>
+      <c r="M37" s="15" t="s">
+        <v>515</v>
+      </c>
+      <c r="N37" s="17">
+        <v>43</v>
+      </c>
+      <c r="O37" s="17">
+        <v>4314</v>
+      </c>
+      <c r="P37" s="17" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="14" t="s">
+        <v>4950</v>
+      </c>
+      <c r="B38" s="15" t="s">
+        <v>4947</v>
+      </c>
+      <c r="C38" s="15" t="s">
+        <v>4920</v>
+      </c>
+      <c r="D38" s="15" t="s">
+        <v>5041</v>
+      </c>
+      <c r="E38" s="16">
+        <v>24649</v>
+      </c>
+      <c r="F38" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="G38" s="15">
+        <v>57</v>
+      </c>
+      <c r="H38" s="15" t="s">
+        <v>5018</v>
+      </c>
+      <c r="I38" s="15" t="s">
+        <v>4968</v>
+      </c>
+      <c r="J38" s="16">
+        <v>38151</v>
+      </c>
+      <c r="K38" s="16">
+        <v>39970</v>
+      </c>
+      <c r="L38" s="15" t="s">
+        <v>383</v>
+      </c>
+      <c r="M38" s="15" t="s">
+        <v>515</v>
+      </c>
+      <c r="N38" s="17">
+        <v>16024</v>
+      </c>
+      <c r="O38" s="15">
+        <v>28159</v>
+      </c>
+      <c r="P38" s="17" t="s">
+        <v>5042</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="14" t="s">
+        <v>4950</v>
+      </c>
+      <c r="B39" s="15" t="s">
+        <v>4947</v>
+      </c>
+      <c r="C39" s="15" t="s">
+        <v>298</v>
+      </c>
+      <c r="D39" s="15" t="s">
+        <v>5043</v>
+      </c>
+      <c r="E39" s="16">
+        <v>20475</v>
+      </c>
+      <c r="F39" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="G39" s="15">
+        <v>45</v>
+      </c>
+      <c r="H39" s="15" t="s">
+        <v>5044</v>
+      </c>
+      <c r="I39" s="15" t="s">
+        <v>4968</v>
+      </c>
+      <c r="J39" s="16">
+        <v>38151</v>
+      </c>
+      <c r="K39" s="16">
+        <v>39585</v>
+      </c>
+      <c r="L39" s="15" t="s">
+        <v>382</v>
+      </c>
+      <c r="M39" s="15" t="s">
+        <v>515</v>
+      </c>
+      <c r="N39" s="18">
+        <v>44</v>
+      </c>
+      <c r="O39" s="19">
+        <v>4299</v>
+      </c>
+      <c r="P39" s="17" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="14" t="s">
+        <v>4953</v>
+      </c>
+      <c r="B40" s="15" t="s">
+        <v>4995</v>
+      </c>
+      <c r="C40" s="15" t="s">
+        <v>4941</v>
+      </c>
+      <c r="D40" s="15" t="s">
+        <v>5051</v>
+      </c>
+      <c r="E40" s="16">
+        <v>22232</v>
+      </c>
+      <c r="F40" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="G40" s="15">
+        <v>18</v>
+      </c>
+      <c r="H40" s="15" t="s">
+        <v>5004</v>
+      </c>
+      <c r="I40" s="15" t="s">
+        <v>4968</v>
+      </c>
+      <c r="J40" s="16">
+        <v>38151</v>
+      </c>
+      <c r="K40" s="16">
+        <v>39970</v>
+      </c>
+      <c r="L40" s="15" t="s">
+        <v>383</v>
+      </c>
+      <c r="M40" s="15" t="s">
+        <v>4899</v>
+      </c>
+      <c r="N40" s="18">
+        <v>173269</v>
+      </c>
+      <c r="O40" s="15">
+        <v>28215</v>
+      </c>
+      <c r="P40" s="17" t="s">
+        <v>5052</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="14" t="s">
+        <v>4952</v>
+      </c>
+      <c r="B41" s="15" t="s">
+        <v>5006</v>
+      </c>
+      <c r="C41" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="D41" s="15" t="s">
+        <v>5053</v>
+      </c>
+      <c r="E41" s="16">
+        <v>21316</v>
+      </c>
+      <c r="F41" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="G41" s="15">
+        <v>56</v>
+      </c>
+      <c r="H41" s="15" t="s">
+        <v>4965</v>
+      </c>
+      <c r="I41" s="15" t="s">
+        <v>4968</v>
+      </c>
+      <c r="J41" s="16">
+        <v>38151</v>
+      </c>
+      <c r="K41" s="16">
+        <v>38513</v>
+      </c>
+      <c r="L41" s="15" t="s">
+        <v>5054</v>
+      </c>
+      <c r="M41" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="N41" s="18">
+        <v>47</v>
+      </c>
+      <c r="O41" s="19">
+        <v>5565</v>
+      </c>
+      <c r="P41" s="17" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="14" t="s">
+        <v>4950</v>
+      </c>
+      <c r="B42" s="15" t="s">
+        <v>4947</v>
+      </c>
+      <c r="C42" s="15" t="s">
+        <v>5057</v>
+      </c>
+      <c r="D42" s="15" t="s">
+        <v>5058</v>
+      </c>
+      <c r="E42" s="16">
+        <v>20636</v>
+      </c>
+      <c r="F42" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="G42" s="15">
+        <v>56</v>
+      </c>
+      <c r="H42" s="15" t="s">
+        <v>4965</v>
+      </c>
+      <c r="I42" s="15" t="s">
+        <v>4968</v>
+      </c>
+      <c r="J42" s="16">
+        <v>38151</v>
+      </c>
+      <c r="K42" s="16">
+        <v>39970</v>
+      </c>
+      <c r="L42" s="15" t="s">
+        <v>383</v>
+      </c>
+      <c r="M42" s="15" t="s">
+        <v>513</v>
+      </c>
+      <c r="N42" s="17">
+        <v>48</v>
+      </c>
+      <c r="O42" s="17">
+        <v>1833</v>
+      </c>
+      <c r="P42" s="17" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="14" t="s">
+        <v>4952</v>
+      </c>
+      <c r="B43" s="15" t="s">
+        <v>5006</v>
+      </c>
+      <c r="C43" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="D43" s="15" t="s">
+        <v>5059</v>
+      </c>
+      <c r="E43" s="16">
+        <v>15679</v>
+      </c>
+      <c r="F43" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="G43" s="15">
+        <v>62</v>
+      </c>
+      <c r="H43" s="15" t="s">
+        <v>5015</v>
+      </c>
+      <c r="I43" s="15" t="s">
+        <v>4968</v>
+      </c>
+      <c r="J43" s="16">
+        <v>38151</v>
+      </c>
+      <c r="K43" s="16">
+        <v>39970</v>
+      </c>
+      <c r="L43" s="15" t="s">
+        <v>383</v>
+      </c>
+      <c r="M43" s="15" t="s">
+        <v>515</v>
+      </c>
+      <c r="N43" s="17">
+        <v>42279</v>
+      </c>
+      <c r="O43" s="17">
+        <v>1980</v>
+      </c>
+      <c r="P43" s="17" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="14" t="s">
+        <v>4957</v>
+      </c>
+      <c r="B44" s="15" t="s">
+        <v>4966</v>
+      </c>
+      <c r="C44" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="D44" s="15" t="s">
+        <v>5060</v>
+      </c>
+      <c r="E44" s="16">
+        <v>16112</v>
+      </c>
+      <c r="F44" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="G44" s="15">
+        <v>56</v>
+      </c>
+      <c r="H44" s="15" t="s">
+        <v>4965</v>
+      </c>
+      <c r="I44" s="15" t="s">
+        <v>4968</v>
+      </c>
+      <c r="J44" s="16">
+        <v>38151</v>
+      </c>
+      <c r="K44" s="16">
+        <v>39970</v>
+      </c>
+      <c r="L44" s="15" t="s">
+        <v>383</v>
+      </c>
+      <c r="M44" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="N44" s="17">
+        <v>54</v>
+      </c>
+      <c r="O44" s="17">
+        <v>1204</v>
+      </c>
+      <c r="P44" s="17" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="14" t="s">
+        <v>4953</v>
+      </c>
+      <c r="B45" s="15" t="s">
+        <v>4995</v>
+      </c>
+      <c r="C45" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D45" s="15" t="s">
+        <v>5061</v>
+      </c>
+      <c r="E45" s="16">
+        <v>21083</v>
+      </c>
+      <c r="F45" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="G45" s="15">
+        <v>23</v>
+      </c>
+      <c r="H45" s="15" t="s">
+        <v>5062</v>
+      </c>
+      <c r="I45" s="15" t="s">
+        <v>4968</v>
+      </c>
+      <c r="J45" s="16">
+        <v>38151</v>
+      </c>
+      <c r="K45" s="16">
+        <v>39970</v>
+      </c>
+      <c r="L45" s="15" t="s">
+        <v>383</v>
+      </c>
+      <c r="M45" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="N45" s="17">
+        <v>55</v>
+      </c>
+      <c r="O45" s="17">
+        <v>2057</v>
+      </c>
+      <c r="P45" s="17" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="14" t="s">
+        <v>4957</v>
+      </c>
+      <c r="B46" s="15" t="s">
+        <v>4966</v>
+      </c>
+      <c r="C46" s="15" t="s">
+        <v>4933</v>
+      </c>
+      <c r="D46" s="15" t="s">
+        <v>5011</v>
+      </c>
+      <c r="E46" s="16">
+        <v>20640</v>
+      </c>
+      <c r="F46" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="G46" s="15">
+        <v>35</v>
+      </c>
+      <c r="H46" s="15" t="s">
+        <v>5063</v>
+      </c>
+      <c r="I46" s="15" t="s">
+        <v>4968</v>
+      </c>
+      <c r="J46" s="16">
+        <v>38151</v>
+      </c>
+      <c r="K46" s="16">
+        <v>39970</v>
+      </c>
+      <c r="L46" s="15" t="s">
+        <v>383</v>
+      </c>
+      <c r="M46" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="N46" s="17">
+        <v>165355</v>
+      </c>
+      <c r="O46" s="15">
+        <v>28209</v>
+      </c>
+      <c r="P46" s="17" t="s">
+        <v>5064</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="14" t="s">
+        <v>4954</v>
+      </c>
+      <c r="B47" s="15" t="s">
+        <v>4946</v>
+      </c>
+      <c r="C47" s="15" t="s">
+        <v>4916</v>
+      </c>
+      <c r="D47" s="15" t="s">
+        <v>5065</v>
+      </c>
+      <c r="E47" s="16">
+        <v>21949</v>
+      </c>
+      <c r="F47" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="G47" s="15">
+        <v>42</v>
+      </c>
+      <c r="H47" s="15" t="s">
+        <v>4971</v>
+      </c>
+      <c r="I47" s="15" t="s">
+        <v>4968</v>
+      </c>
+      <c r="J47" s="16">
+        <v>38151</v>
+      </c>
+      <c r="K47" s="16">
+        <v>39970</v>
+      </c>
+      <c r="L47" s="15" t="s">
+        <v>383</v>
+      </c>
+      <c r="M47" s="15" t="s">
+        <v>515</v>
+      </c>
+      <c r="N47" s="17">
+        <v>526701</v>
+      </c>
+      <c r="O47" s="15">
+        <v>28162</v>
+      </c>
+      <c r="P47" s="17" t="s">
+        <v>5066</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="14" t="s">
+        <v>4951</v>
+      </c>
+      <c r="B48" s="15" t="s">
+        <v>4978</v>
+      </c>
+      <c r="C48" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D48" s="15" t="s">
+        <v>4975</v>
+      </c>
+      <c r="E48" s="16">
+        <v>10399</v>
+      </c>
+      <c r="F48" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="G48" s="15">
+        <v>65</v>
+      </c>
+      <c r="H48" s="15" t="s">
+        <v>5036</v>
+      </c>
+      <c r="I48" s="15" t="s">
+        <v>4968</v>
+      </c>
+      <c r="J48" s="16">
+        <v>38151</v>
+      </c>
+      <c r="K48" s="16">
+        <v>39970</v>
+      </c>
+      <c r="L48" s="15" t="s">
+        <v>383</v>
+      </c>
+      <c r="M48" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="N48" s="17">
+        <v>837980</v>
+      </c>
+      <c r="O48" s="17">
+        <v>1023</v>
+      </c>
+      <c r="P48" s="17" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="14" t="s">
+        <v>4956</v>
+      </c>
+      <c r="B49" s="15" t="s">
+        <v>4949</v>
+      </c>
+      <c r="C49" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D49" s="15" t="s">
+        <v>5067</v>
+      </c>
+      <c r="E49" s="16">
+        <v>25055</v>
+      </c>
+      <c r="F49" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="G49" s="15">
+        <v>29</v>
+      </c>
+      <c r="H49" s="15" t="s">
+        <v>5020</v>
+      </c>
+      <c r="I49" s="15" t="s">
+        <v>4968</v>
+      </c>
+      <c r="J49" s="16">
+        <v>38151</v>
+      </c>
+      <c r="K49" s="16">
+        <v>39970</v>
+      </c>
+      <c r="L49" s="15" t="s">
+        <v>383</v>
+      </c>
+      <c r="M49" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="N49" s="17">
+        <v>834072</v>
+      </c>
+      <c r="O49" s="17">
+        <v>28210</v>
+      </c>
+      <c r="P49" s="17" t="s">
+        <v>5068</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="14" t="s">
+        <v>4951</v>
+      </c>
+      <c r="B50" s="15" t="s">
+        <v>4949</v>
+      </c>
+      <c r="C50" s="15" t="s">
+        <v>4930</v>
+      </c>
+      <c r="D50" s="15" t="s">
+        <v>221</v>
+      </c>
+      <c r="E50" s="16">
+        <v>16338</v>
+      </c>
+      <c r="F50" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="G50" s="15">
+        <v>19</v>
+      </c>
+      <c r="H50" s="15" t="s">
+        <v>5069</v>
+      </c>
+      <c r="I50" s="15" t="s">
+        <v>4968</v>
+      </c>
+      <c r="J50" s="16">
+        <v>38151</v>
+      </c>
+      <c r="K50" s="16">
+        <v>39970</v>
+      </c>
+      <c r="L50" s="15" t="s">
+        <v>383</v>
+      </c>
+      <c r="M50" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="N50" s="17">
+        <v>28517</v>
+      </c>
+      <c r="O50" s="17">
+        <v>2326</v>
+      </c>
+      <c r="P50" s="17" t="s">
+        <v>5070</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="14" t="s">
+        <v>4953</v>
+      </c>
+      <c r="B51" s="15" t="s">
+        <v>4995</v>
+      </c>
+      <c r="C51" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D51" s="15" t="s">
+        <v>5071</v>
+      </c>
+      <c r="E51" s="16">
+        <v>18821</v>
+      </c>
+      <c r="F51" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="G51" s="15">
+        <v>62</v>
+      </c>
+      <c r="H51" s="15" t="s">
+        <v>5015</v>
+      </c>
+      <c r="I51" s="15" t="s">
+        <v>4968</v>
+      </c>
+      <c r="J51" s="16">
+        <v>38151</v>
+      </c>
+      <c r="K51" s="16">
+        <v>39970</v>
+      </c>
+      <c r="L51" s="15" t="s">
+        <v>383</v>
+      </c>
+      <c r="M51" s="15" t="s">
+        <v>515</v>
+      </c>
+      <c r="N51" s="17">
+        <v>7014</v>
+      </c>
+      <c r="O51" s="17">
+        <v>1708</v>
+      </c>
+      <c r="P51" s="17" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="14" t="s">
+        <v>4951</v>
+      </c>
+      <c r="B52" s="15" t="s">
+        <v>4949</v>
+      </c>
+      <c r="C52" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="D52" s="15" t="s">
+        <v>5060</v>
+      </c>
+      <c r="E52" s="16">
+        <v>17429</v>
+      </c>
+      <c r="F52" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="G52" s="15">
+        <v>13</v>
+      </c>
+      <c r="H52" s="15" t="s">
+        <v>5072</v>
+      </c>
+      <c r="I52" s="15" t="s">
+        <v>4968</v>
+      </c>
+      <c r="J52" s="16">
+        <v>38151</v>
+      </c>
+      <c r="K52" s="16">
+        <v>39970</v>
+      </c>
+      <c r="L52" s="15" t="s">
+        <v>383</v>
+      </c>
+      <c r="M52" s="15" t="s">
+        <v>513</v>
+      </c>
+      <c r="N52" s="17">
+        <v>58</v>
+      </c>
+      <c r="O52" s="17">
+        <v>4384</v>
+      </c>
+      <c r="P52" s="17" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="14" t="s">
+        <v>4956</v>
+      </c>
+      <c r="B53" s="15" t="s">
+        <v>4978</v>
+      </c>
+      <c r="C53" s="15" t="s">
+        <v>4940</v>
+      </c>
+      <c r="D53" s="15" t="s">
+        <v>5022</v>
+      </c>
+      <c r="E53" s="16">
+        <v>20384</v>
+      </c>
+      <c r="F53" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="G53" s="15">
+        <v>41</v>
+      </c>
+      <c r="H53" s="15" t="s">
+        <v>5031</v>
+      </c>
+      <c r="I53" s="15" t="s">
+        <v>4968</v>
+      </c>
+      <c r="J53" s="16">
+        <v>38151</v>
+      </c>
+      <c r="K53" s="16">
+        <v>39970</v>
+      </c>
+      <c r="L53" s="15" t="s">
+        <v>383</v>
+      </c>
+      <c r="M53" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="N53" s="17">
+        <v>837982</v>
+      </c>
+      <c r="O53" s="15">
+        <v>28217</v>
+      </c>
+      <c r="P53" s="17" t="s">
+        <v>5073</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="14" t="s">
+        <v>4957</v>
+      </c>
+      <c r="B54" s="15" t="s">
+        <v>4966</v>
+      </c>
+      <c r="C54" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="D54" s="15" t="s">
+        <v>5048</v>
+      </c>
+      <c r="E54" s="16">
+        <v>16648</v>
+      </c>
+      <c r="F54" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="G54" s="15">
+        <v>41</v>
+      </c>
+      <c r="H54" s="15" t="s">
+        <v>5031</v>
+      </c>
+      <c r="I54" s="15" t="s">
+        <v>4968</v>
+      </c>
+      <c r="J54" s="16">
+        <v>38151</v>
+      </c>
+      <c r="K54" s="16">
+        <v>39970</v>
+      </c>
+      <c r="L54" s="15" t="s">
+        <v>383</v>
+      </c>
+      <c r="M54" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="N54" s="17">
+        <v>61</v>
+      </c>
+      <c r="O54" s="17">
+        <v>966</v>
+      </c>
+      <c r="P54" s="17" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="14" t="s">
+        <v>4950</v>
+      </c>
+      <c r="B55" s="15" t="s">
+        <v>4947</v>
+      </c>
+      <c r="C55" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="D55" s="15" t="s">
+        <v>5074</v>
+      </c>
+      <c r="E55" s="16">
+        <v>19386</v>
+      </c>
+      <c r="F55" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="G55" s="15">
+        <v>52</v>
+      </c>
+      <c r="H55" s="15" t="s">
+        <v>5075</v>
+      </c>
+      <c r="I55" s="15" t="s">
+        <v>4968</v>
+      </c>
+      <c r="J55" s="16">
+        <v>38151</v>
+      </c>
+      <c r="K55" s="16">
+        <v>39970</v>
+      </c>
+      <c r="L55" s="15" t="s">
+        <v>383</v>
+      </c>
+      <c r="M55" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="N55" s="17">
+        <v>62</v>
+      </c>
+      <c r="O55" s="17">
+        <v>4412</v>
+      </c>
+      <c r="P55" s="17" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="14" t="s">
+        <v>4954</v>
+      </c>
+      <c r="B56" s="15" t="s">
+        <v>4946</v>
+      </c>
+      <c r="C56" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D56" s="15" t="s">
+        <v>5005</v>
+      </c>
+      <c r="E56" s="16">
+        <v>13081</v>
+      </c>
+      <c r="F56" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="G56" s="15">
+        <v>46</v>
+      </c>
+      <c r="H56" s="15" t="s">
+        <v>5000</v>
+      </c>
+      <c r="I56" s="15" t="s">
+        <v>4968</v>
+      </c>
+      <c r="J56" s="16">
+        <v>38151</v>
+      </c>
+      <c r="K56" s="16">
+        <v>39970</v>
+      </c>
+      <c r="L56" s="15" t="s">
+        <v>383</v>
+      </c>
+      <c r="M56" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="N56" s="17">
+        <v>64</v>
+      </c>
+      <c r="O56" s="17">
+        <v>4332</v>
+      </c>
+      <c r="P56" s="17" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="14" t="s">
+        <v>4950</v>
+      </c>
+      <c r="B57" s="15" t="s">
+        <v>4947</v>
+      </c>
+      <c r="C57" s="15" t="s">
+        <v>4921</v>
+      </c>
+      <c r="D57" s="15" t="s">
+        <v>5076</v>
+      </c>
+      <c r="E57" s="16">
+        <v>21079</v>
+      </c>
+      <c r="F57" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="G57" s="15">
+        <v>46</v>
+      </c>
+      <c r="H57" s="15" t="s">
+        <v>5000</v>
+      </c>
+      <c r="I57" s="15" t="s">
+        <v>4968</v>
+      </c>
+      <c r="J57" s="16">
+        <v>38151</v>
+      </c>
+      <c r="K57" s="16">
+        <v>39258</v>
+      </c>
+      <c r="L57" s="15" t="s">
+        <v>382</v>
+      </c>
+      <c r="M57" s="15" t="s">
+        <v>515</v>
+      </c>
+      <c r="N57" s="18">
+        <v>45374</v>
+      </c>
+      <c r="O57" s="19">
+        <v>1983</v>
+      </c>
+      <c r="P57" s="17" t="s">
+        <v>5077</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="14" t="s">
+        <v>4957</v>
+      </c>
+      <c r="B58" s="15" t="s">
+        <v>4966</v>
+      </c>
+      <c r="C58" s="15" t="s">
+        <v>4915</v>
+      </c>
+      <c r="D58" s="15" t="s">
+        <v>5079</v>
+      </c>
+      <c r="E58" s="16">
+        <v>19115</v>
+      </c>
+      <c r="F58" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="G58" s="15">
+        <v>64</v>
+      </c>
+      <c r="H58" s="15" t="s">
+        <v>4992</v>
+      </c>
+      <c r="I58" s="15" t="s">
+        <v>4968</v>
+      </c>
+      <c r="J58" s="16">
+        <v>38151</v>
+      </c>
+      <c r="K58" s="16">
+        <v>39728</v>
+      </c>
+      <c r="L58" s="15" t="s">
+        <v>382</v>
+      </c>
+      <c r="M58" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="N58" s="17">
+        <v>46275</v>
+      </c>
+      <c r="O58" s="19">
+        <v>28164</v>
+      </c>
+      <c r="P58" s="17" t="s">
+        <v>5080</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="14" t="s">
+        <v>4957</v>
+      </c>
+      <c r="B59" s="15" t="s">
+        <v>4945</v>
+      </c>
+      <c r="C59" s="15" t="s">
+        <v>332</v>
+      </c>
+      <c r="D59" s="15" t="s">
+        <v>5085</v>
+      </c>
+      <c r="E59" s="16">
+        <v>22133</v>
+      </c>
+      <c r="F59" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="G59" s="15">
+        <v>36</v>
+      </c>
+      <c r="H59" s="15" t="s">
+        <v>5136</v>
+      </c>
+      <c r="I59" s="15" t="s">
+        <v>4968</v>
+      </c>
+      <c r="J59" s="16">
+        <v>38151</v>
+      </c>
+      <c r="K59" s="16">
+        <v>39970</v>
+      </c>
+      <c r="L59" s="15" t="s">
+        <v>383</v>
+      </c>
+      <c r="M59" s="15" t="s">
+        <v>513</v>
+      </c>
+      <c r="N59" s="17">
+        <v>67</v>
+      </c>
+      <c r="O59" s="17">
+        <v>1838</v>
+      </c>
+      <c r="P59" s="17" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="14" t="s">
+        <v>4957</v>
+      </c>
+      <c r="B60" s="15" t="s">
+        <v>4966</v>
+      </c>
+      <c r="C60" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="D60" s="15" t="s">
+        <v>5086</v>
+      </c>
+      <c r="E60" s="16">
+        <v>20952</v>
+      </c>
+      <c r="F60" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="G60" s="15">
+        <v>45</v>
+      </c>
+      <c r="H60" s="15" t="s">
+        <v>5044</v>
+      </c>
+      <c r="I60" s="15" t="s">
+        <v>4968</v>
+      </c>
+      <c r="J60" s="16">
+        <v>38151</v>
+      </c>
+      <c r="K60" s="16">
+        <v>39970</v>
+      </c>
+      <c r="L60" s="15" t="s">
+        <v>383</v>
+      </c>
+      <c r="M60" s="15" t="s">
+        <v>515</v>
+      </c>
+      <c r="N60" s="17">
+        <v>69</v>
+      </c>
+      <c r="O60" s="17">
+        <v>4309</v>
+      </c>
+      <c r="P60" s="17" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="14" t="s">
+        <v>4953</v>
+      </c>
+      <c r="B61" s="15" t="s">
+        <v>4995</v>
+      </c>
+      <c r="C61" s="15" t="s">
+        <v>4911</v>
+      </c>
+      <c r="D61" s="15" t="s">
+        <v>5087</v>
+      </c>
+      <c r="E61" s="16">
+        <v>22104</v>
+      </c>
+      <c r="F61" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="G61" s="15">
+        <v>42</v>
+      </c>
+      <c r="H61" s="15" t="s">
+        <v>4971</v>
+      </c>
+      <c r="I61" s="15" t="s">
+        <v>4968</v>
+      </c>
+      <c r="J61" s="16">
+        <v>38151</v>
+      </c>
+      <c r="K61" s="16">
+        <v>39970</v>
+      </c>
+      <c r="L61" s="15" t="s">
+        <v>383</v>
+      </c>
+      <c r="M61" s="15" t="s">
+        <v>515</v>
+      </c>
+      <c r="N61" s="17">
+        <v>836476</v>
+      </c>
+      <c r="O61" s="17">
+        <v>28166</v>
+      </c>
+      <c r="P61" s="17" t="s">
+        <v>5088</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="14" t="s">
+        <v>4954</v>
+      </c>
+      <c r="B62" s="15" t="s">
+        <v>4946</v>
+      </c>
+      <c r="C62" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D62" s="15" t="s">
+        <v>221</v>
+      </c>
+      <c r="E62" s="16">
+        <v>16699</v>
+      </c>
+      <c r="F62" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="G62" s="15">
+        <v>62</v>
+      </c>
+      <c r="H62" s="15" t="s">
+        <v>5015</v>
+      </c>
+      <c r="I62" s="15" t="s">
+        <v>4968</v>
+      </c>
+      <c r="J62" s="16">
+        <v>38151</v>
+      </c>
+      <c r="K62" s="16">
+        <v>39970</v>
+      </c>
+      <c r="L62" s="15" t="s">
+        <v>383</v>
+      </c>
+      <c r="M62" s="15" t="s">
+        <v>515</v>
+      </c>
+      <c r="N62" s="17">
+        <v>71</v>
+      </c>
+      <c r="O62" s="17">
+        <v>4311</v>
+      </c>
+      <c r="P62" s="17" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="14" t="s">
+        <v>4954</v>
+      </c>
+      <c r="B63" s="15" t="s">
+        <v>4946</v>
+      </c>
+      <c r="C63" s="15" t="s">
+        <v>4917</v>
+      </c>
+      <c r="D63" s="15" t="s">
+        <v>5089</v>
+      </c>
+      <c r="E63" s="16">
+        <v>19922</v>
+      </c>
+      <c r="F63" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="G63" s="15">
+        <v>57</v>
+      </c>
+      <c r="H63" s="15" t="s">
+        <v>5018</v>
+      </c>
+      <c r="I63" s="15" t="s">
+        <v>4968</v>
+      </c>
+      <c r="J63" s="16">
+        <v>38151</v>
+      </c>
+      <c r="K63" s="16">
+        <v>39258</v>
+      </c>
+      <c r="L63" s="15" t="s">
+        <v>382</v>
+      </c>
+      <c r="M63" s="15" t="s">
+        <v>515</v>
+      </c>
+      <c r="N63" s="18">
+        <v>824956</v>
+      </c>
+      <c r="O63" s="19">
+        <v>28168</v>
+      </c>
+      <c r="P63" s="17" t="s">
+        <v>5090</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="14" t="s">
+        <v>4956</v>
+      </c>
+      <c r="B64" s="15" t="s">
+        <v>4978</v>
+      </c>
+      <c r="C64" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="D64" s="15" t="s">
+        <v>5082</v>
+      </c>
+      <c r="E64" s="16">
+        <v>11193</v>
+      </c>
+      <c r="F64" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="G64" s="15">
+        <v>46</v>
+      </c>
+      <c r="H64" s="15" t="s">
+        <v>5000</v>
+      </c>
+      <c r="I64" s="15" t="s">
+        <v>4968</v>
+      </c>
+      <c r="J64" s="16">
+        <v>38151</v>
+      </c>
+      <c r="K64" s="16">
+        <v>39844</v>
+      </c>
+      <c r="L64" s="15" t="s">
+        <v>382</v>
+      </c>
+      <c r="M64" s="15" t="s">
+        <v>515</v>
+      </c>
+      <c r="N64" s="18">
+        <v>73</v>
+      </c>
+      <c r="O64" s="19">
+        <v>1977</v>
+      </c>
+      <c r="P64" s="17" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="14" t="s">
+        <v>4956</v>
+      </c>
+      <c r="B65" s="15" t="s">
+        <v>4978</v>
+      </c>
+      <c r="C65" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="D65" s="15" t="s">
+        <v>5094</v>
+      </c>
+      <c r="E65" s="16">
+        <v>17804</v>
+      </c>
+      <c r="F65" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="G65" s="15">
+        <v>54</v>
+      </c>
+      <c r="H65" s="15" t="s">
+        <v>4981</v>
+      </c>
+      <c r="I65" s="15" t="s">
+        <v>4968</v>
+      </c>
+      <c r="J65" s="16">
+        <v>38151</v>
+      </c>
+      <c r="K65" s="16">
+        <v>39970</v>
+      </c>
+      <c r="L65" s="15" t="s">
+        <v>383</v>
+      </c>
+      <c r="M65" s="15" t="s">
+        <v>515</v>
+      </c>
+      <c r="N65" s="17">
+        <v>183490</v>
+      </c>
+      <c r="O65" s="17">
+        <v>4313</v>
+      </c>
+      <c r="P65" s="17" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="14" t="s">
+        <v>4953</v>
+      </c>
+      <c r="B66" s="15" t="s">
+        <v>4995</v>
+      </c>
+      <c r="C66" s="15" t="s">
+        <v>5095</v>
+      </c>
+      <c r="D66" s="15" t="s">
+        <v>5096</v>
+      </c>
+      <c r="E66" s="16">
+        <v>21742</v>
+      </c>
+      <c r="F66" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="G66" s="15">
+        <v>54</v>
+      </c>
+      <c r="H66" s="15" t="s">
+        <v>4981</v>
+      </c>
+      <c r="I66" s="15" t="s">
+        <v>4968</v>
+      </c>
+      <c r="J66" s="16">
+        <v>38151</v>
+      </c>
+      <c r="K66" s="16">
+        <v>39970</v>
+      </c>
+      <c r="L66" s="15" t="s">
+        <v>383</v>
+      </c>
+      <c r="M66" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="N66" s="17">
+        <v>1048123</v>
+      </c>
+      <c r="O66" s="17">
+        <v>4345</v>
+      </c>
+      <c r="P66" s="17" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="14" t="s">
+        <v>4951</v>
+      </c>
+      <c r="B67" s="15" t="s">
+        <v>4949</v>
+      </c>
+      <c r="C67" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="D67" s="15" t="s">
+        <v>5097</v>
+      </c>
+      <c r="E67" s="16">
+        <v>20064</v>
+      </c>
+      <c r="F67" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="G67" s="15">
+        <v>39</v>
+      </c>
+      <c r="H67" s="15" t="s">
+        <v>5098</v>
+      </c>
+      <c r="I67" s="15" t="s">
+        <v>4968</v>
+      </c>
+      <c r="J67" s="16">
+        <v>38151</v>
+      </c>
+      <c r="K67" s="16">
+        <v>39970</v>
+      </c>
+      <c r="L67" s="15" t="s">
+        <v>383</v>
+      </c>
+      <c r="M67" s="15" t="s">
+        <v>515</v>
+      </c>
+      <c r="N67" s="17">
+        <v>77</v>
+      </c>
+      <c r="O67" s="17">
+        <v>4306</v>
+      </c>
+      <c r="P67" s="17" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="14" t="s">
+        <v>4951</v>
+      </c>
+      <c r="B68" s="15" t="s">
+        <v>4949</v>
+      </c>
+      <c r="C68" s="15" t="s">
+        <v>4907</v>
+      </c>
+      <c r="D68" s="15" t="s">
+        <v>5076</v>
+      </c>
+      <c r="E68" s="16">
+        <v>16416</v>
+      </c>
+      <c r="F68" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="G68" s="15">
+        <v>60</v>
+      </c>
+      <c r="H68" s="15" t="s">
+        <v>5099</v>
+      </c>
+      <c r="I68" s="15" t="s">
+        <v>4968</v>
+      </c>
+      <c r="J68" s="16">
+        <v>38151</v>
+      </c>
+      <c r="K68" s="16">
+        <v>39970</v>
+      </c>
+      <c r="L68" s="15" t="s">
+        <v>383</v>
+      </c>
+      <c r="M68" s="15" t="s">
+        <v>515</v>
+      </c>
+      <c r="N68" s="17">
+        <v>336711</v>
+      </c>
+      <c r="O68" s="15">
+        <v>28172</v>
+      </c>
+      <c r="P68" s="17" t="s">
+        <v>5100</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="14" t="s">
+        <v>4956</v>
+      </c>
+      <c r="B69" s="15" t="s">
+        <v>4978</v>
+      </c>
+      <c r="C69" s="15" t="s">
+        <v>4936</v>
+      </c>
+      <c r="D69" s="15" t="s">
+        <v>5101</v>
+      </c>
+      <c r="E69" s="16">
+        <v>19172</v>
+      </c>
+      <c r="F69" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="G69" s="15">
+        <v>61</v>
+      </c>
+      <c r="H69" s="15" t="s">
+        <v>4997</v>
+      </c>
+      <c r="I69" s="15" t="s">
+        <v>4968</v>
+      </c>
+      <c r="J69" s="16">
+        <v>38151</v>
+      </c>
+      <c r="K69" s="16">
+        <v>39844</v>
+      </c>
+      <c r="L69" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="M69" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="N69" s="17">
+        <v>837999</v>
+      </c>
+      <c r="O69" s="15">
+        <v>28211</v>
+      </c>
+      <c r="P69" s="17" t="s">
+        <v>5102</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="14" t="s">
+        <v>4953</v>
+      </c>
+      <c r="B70" s="15" t="s">
+        <v>4995</v>
+      </c>
+      <c r="C70" s="15" t="s">
+        <v>4937</v>
+      </c>
+      <c r="D70" s="15" t="s">
+        <v>5103</v>
+      </c>
+      <c r="E70" s="16">
+        <v>22911</v>
+      </c>
+      <c r="F70" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="G70" s="17" t="s">
+        <v>256</v>
+      </c>
+      <c r="H70" s="17" t="s">
+        <v>256</v>
+      </c>
+      <c r="I70" s="15" t="s">
+        <v>4968</v>
+      </c>
+      <c r="J70" s="16">
+        <v>38151</v>
+      </c>
+      <c r="K70" s="16">
+        <v>38260</v>
+      </c>
+      <c r="L70" s="15" t="s">
+        <v>383</v>
+      </c>
+      <c r="M70" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="N70" s="17" t="s">
+        <v>256</v>
+      </c>
+      <c r="O70" s="19">
+        <v>28212</v>
+      </c>
+      <c r="P70" s="17" t="s">
+        <v>5104</v>
+      </c>
+    </row>
+    <row r="71" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="14" t="s">
+        <v>4955</v>
+      </c>
+      <c r="B71" s="15" t="s">
+        <v>5108</v>
+      </c>
+      <c r="C71" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="D71" s="15" t="s">
+        <v>5109</v>
+      </c>
+      <c r="E71" s="16">
+        <v>15996</v>
+      </c>
+      <c r="F71" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="G71" s="15">
+        <v>24</v>
+      </c>
+      <c r="H71" s="15" t="s">
+        <v>5110</v>
+      </c>
+      <c r="I71" s="15" t="s">
+        <v>4968</v>
+      </c>
+      <c r="J71" s="16">
+        <v>38151</v>
+      </c>
+      <c r="K71" s="16">
+        <v>39970</v>
+      </c>
+      <c r="L71" s="15" t="s">
+        <v>383</v>
+      </c>
+      <c r="M71" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="N71" s="17">
+        <v>81</v>
+      </c>
+      <c r="O71" s="17">
+        <v>4340</v>
+      </c>
+      <c r="P71" s="17" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="72" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="14" t="s">
+        <v>4951</v>
+      </c>
+      <c r="B72" s="15" t="s">
+        <v>4949</v>
+      </c>
+      <c r="C72" s="15" t="s">
+        <v>4925</v>
+      </c>
+      <c r="D72" s="15" t="s">
+        <v>5111</v>
+      </c>
+      <c r="E72" s="16">
+        <v>15156</v>
+      </c>
+      <c r="F72" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="G72" s="15">
+        <v>46</v>
+      </c>
+      <c r="H72" s="15" t="s">
+        <v>5000</v>
+      </c>
+      <c r="I72" s="15" t="s">
+        <v>4968</v>
+      </c>
+      <c r="J72" s="16">
+        <v>38151</v>
+      </c>
+      <c r="K72" s="16">
+        <v>39970</v>
+      </c>
+      <c r="L72" s="15" t="s">
+        <v>383</v>
+      </c>
+      <c r="M72" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="N72" s="17">
+        <v>336718</v>
+      </c>
+      <c r="O72" s="15">
+        <v>28198</v>
+      </c>
+      <c r="P72" s="17" t="s">
+        <v>5112</v>
+      </c>
+    </row>
+    <row r="73" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="14" t="s">
+        <v>4950</v>
+      </c>
+      <c r="B73" s="15" t="s">
+        <v>4947</v>
+      </c>
+      <c r="C73" s="15" t="s">
+        <v>4922</v>
+      </c>
+      <c r="D73" s="15" t="s">
+        <v>5039</v>
+      </c>
+      <c r="E73" s="16">
+        <v>18643</v>
+      </c>
+      <c r="F73" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="G73" s="15">
+        <v>56</v>
+      </c>
+      <c r="H73" s="15" t="s">
+        <v>4965</v>
+      </c>
+      <c r="I73" s="15" t="s">
+        <v>4968</v>
+      </c>
+      <c r="J73" s="16">
+        <v>38151</v>
+      </c>
+      <c r="K73" s="16">
+        <v>39970</v>
+      </c>
+      <c r="L73" s="15" t="s">
+        <v>383</v>
+      </c>
+      <c r="M73" s="15" t="s">
+        <v>515</v>
+      </c>
+      <c r="N73" s="17">
+        <v>584032</v>
+      </c>
+      <c r="O73" s="15">
+        <v>1129</v>
+      </c>
+      <c r="P73" s="17" t="s">
+        <v>5113</v>
+      </c>
+    </row>
+    <row r="74" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="14" t="s">
+        <v>4956</v>
+      </c>
+      <c r="B74" s="15" t="s">
+        <v>4978</v>
+      </c>
+      <c r="C74" s="15" t="s">
+        <v>4926</v>
+      </c>
+      <c r="D74" s="15" t="s">
+        <v>5114</v>
+      </c>
+      <c r="E74" s="16">
+        <v>19111</v>
+      </c>
+      <c r="F74" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="G74" s="15">
+        <v>56</v>
+      </c>
+      <c r="H74" s="15" t="s">
+        <v>4965</v>
+      </c>
+      <c r="I74" s="15" t="s">
+        <v>4968</v>
+      </c>
+      <c r="J74" s="16">
+        <v>38151</v>
+      </c>
+      <c r="K74" s="16">
+        <v>39844</v>
+      </c>
+      <c r="L74" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="M74" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="N74" s="17">
+        <v>838000</v>
+      </c>
+      <c r="O74" s="15">
+        <v>4256</v>
+      </c>
+      <c r="P74" s="17" t="s">
+        <v>5115</v>
+      </c>
+    </row>
+    <row r="75" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="14" t="s">
+        <v>4954</v>
+      </c>
+      <c r="B75" s="15" t="s">
+        <v>4946</v>
+      </c>
+      <c r="C75" s="15" t="s">
+        <v>4918</v>
+      </c>
+      <c r="D75" s="15" t="s">
+        <v>5116</v>
+      </c>
+      <c r="E75" s="16">
+        <v>18439</v>
+      </c>
+      <c r="F75" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="G75" s="15">
+        <v>61</v>
+      </c>
+      <c r="H75" s="15" t="s">
+        <v>4997</v>
+      </c>
+      <c r="I75" s="15" t="s">
+        <v>4968</v>
+      </c>
+      <c r="J75" s="16">
+        <v>38151</v>
+      </c>
+      <c r="K75" s="16">
+        <v>39970</v>
+      </c>
+      <c r="L75" s="15" t="s">
+        <v>383</v>
+      </c>
+      <c r="M75" s="15" t="s">
+        <v>515</v>
+      </c>
+      <c r="N75" s="17">
+        <v>27702</v>
+      </c>
+      <c r="O75" s="15">
+        <v>28175</v>
+      </c>
+      <c r="P75" s="17" t="s">
+        <v>5117</v>
+      </c>
+    </row>
+    <row r="76" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="14" t="s">
+        <v>4955</v>
+      </c>
+      <c r="B76" s="15" t="s">
+        <v>4948</v>
+      </c>
+      <c r="C76" s="15" t="s">
+        <v>4942</v>
+      </c>
+      <c r="D76" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="E76" s="16">
+        <v>9196</v>
+      </c>
+      <c r="F76" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="G76" s="15">
+        <v>37</v>
+      </c>
+      <c r="H76" s="15" t="s">
+        <v>5123</v>
+      </c>
+      <c r="I76" s="15" t="s">
+        <v>257</v>
+      </c>
+      <c r="J76" s="16">
+        <v>38151</v>
+      </c>
+      <c r="K76" s="16">
+        <v>39359</v>
+      </c>
+      <c r="L76" s="15" t="s">
+        <v>382</v>
+      </c>
+      <c r="M76" s="15" t="s">
+        <v>4899</v>
+      </c>
+      <c r="N76" s="18" t="s">
+        <v>5124</v>
+      </c>
+      <c r="O76" s="15">
+        <v>1490</v>
+      </c>
+      <c r="P76" s="17" t="s">
+        <v>5125</v>
+      </c>
+    </row>
+    <row r="77" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="14" t="s">
+        <v>4954</v>
+      </c>
+      <c r="B77" s="15" t="s">
+        <v>4946</v>
+      </c>
+      <c r="C77" s="15" t="s">
+        <v>4919</v>
+      </c>
+      <c r="D77" s="15" t="s">
+        <v>5014</v>
+      </c>
+      <c r="E77" s="16">
+        <v>18522</v>
+      </c>
+      <c r="F77" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="G77" s="15">
+        <v>48</v>
+      </c>
+      <c r="H77" s="15" t="s">
+        <v>5118</v>
+      </c>
+      <c r="I77" s="15" t="s">
+        <v>4968</v>
+      </c>
+      <c r="J77" s="16">
+        <v>38151</v>
+      </c>
+      <c r="K77" s="16">
+        <v>39970</v>
+      </c>
+      <c r="L77" s="15" t="s">
+        <v>383</v>
+      </c>
+      <c r="M77" s="15" t="s">
+        <v>515</v>
+      </c>
+      <c r="N77" s="17">
+        <v>7513</v>
+      </c>
+      <c r="O77" s="15">
+        <v>28177</v>
+      </c>
+      <c r="P77" s="17" t="s">
+        <v>5119</v>
+      </c>
+    </row>
+    <row r="78" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="14" t="s">
+        <v>4953</v>
+      </c>
+      <c r="B78" s="15" t="s">
+        <v>4995</v>
+      </c>
+      <c r="C78" s="15" t="s">
+        <v>4912</v>
+      </c>
+      <c r="D78" s="15" t="s">
+        <v>5120</v>
+      </c>
+      <c r="E78" s="16">
+        <v>16246</v>
+      </c>
+      <c r="F78" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="G78" s="15">
+        <v>56</v>
+      </c>
+      <c r="H78" s="15" t="s">
+        <v>4965</v>
+      </c>
+      <c r="I78" s="15" t="s">
+        <v>4968</v>
+      </c>
+      <c r="J78" s="16">
+        <v>38151</v>
+      </c>
+      <c r="K78" s="16">
+        <v>39970</v>
+      </c>
+      <c r="L78" s="15" t="s">
+        <v>383</v>
+      </c>
+      <c r="M78" s="15" t="s">
+        <v>515</v>
+      </c>
+      <c r="N78" s="17">
+        <v>328</v>
+      </c>
+      <c r="O78" s="17">
+        <v>2319</v>
+      </c>
+      <c r="P78" s="17" t="s">
+        <v>5121</v>
+      </c>
+    </row>
+    <row r="79" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="14" t="s">
+        <v>4951</v>
+      </c>
+      <c r="B79" s="15" t="s">
+        <v>4949</v>
+      </c>
+      <c r="C79" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="D79" s="15" t="s">
+        <v>5122</v>
+      </c>
+      <c r="E79" s="16">
+        <v>17535</v>
+      </c>
+      <c r="F79" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="G79" s="15">
+        <v>42</v>
+      </c>
+      <c r="H79" s="15" t="s">
+        <v>4971</v>
+      </c>
+      <c r="I79" s="15" t="s">
+        <v>4968</v>
+      </c>
+      <c r="J79" s="16">
+        <v>38151</v>
+      </c>
+      <c r="K79" s="16">
+        <v>39970</v>
+      </c>
+      <c r="L79" s="15" t="s">
+        <v>383</v>
+      </c>
+      <c r="M79" s="15" t="s">
+        <v>4899</v>
+      </c>
+      <c r="N79" s="17">
+        <v>88</v>
+      </c>
+      <c r="O79" s="17">
+        <v>1018</v>
+      </c>
+      <c r="P79" s="17" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="80" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="14" t="s">
+        <v>4952</v>
+      </c>
+      <c r="B80" s="15" t="s">
+        <v>5006</v>
+      </c>
+      <c r="C80" s="15" t="s">
+        <v>4958</v>
+      </c>
+      <c r="D80" s="15" t="s">
+        <v>5055</v>
+      </c>
+      <c r="E80" s="16">
+        <v>19157</v>
+      </c>
+      <c r="F80" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="G80" s="15">
+        <v>18</v>
+      </c>
+      <c r="H80" s="15" t="s">
+        <v>5004</v>
+      </c>
+      <c r="I80" s="15" t="s">
+        <v>4968</v>
+      </c>
+      <c r="J80" s="16">
+        <v>38514</v>
+      </c>
+      <c r="K80" s="16">
+        <v>39970</v>
+      </c>
+      <c r="L80" s="15" t="s">
+        <v>383</v>
+      </c>
+      <c r="M80" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="N80" s="18">
+        <v>770065</v>
+      </c>
+      <c r="O80" s="15">
+        <v>33775</v>
+      </c>
+      <c r="P80" s="17" t="s">
+        <v>5056</v>
+      </c>
+    </row>
+    <row r="81" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="14" t="s">
+        <v>4950</v>
+      </c>
+      <c r="B81" s="15" t="s">
+        <v>4947</v>
+      </c>
+      <c r="C81" s="15" t="s">
+        <v>4959</v>
+      </c>
+      <c r="D81" s="15" t="s">
+        <v>5039</v>
+      </c>
+      <c r="E81" s="16">
+        <v>19490</v>
+      </c>
+      <c r="F81" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="G81" s="15">
+        <v>63</v>
+      </c>
+      <c r="H81" s="15" t="s">
+        <v>5045</v>
+      </c>
+      <c r="I81" s="15" t="s">
+        <v>4968</v>
+      </c>
+      <c r="J81" s="16">
+        <v>39586</v>
+      </c>
+      <c r="K81" s="16">
+        <v>39970</v>
+      </c>
+      <c r="L81" s="15" t="s">
+        <v>383</v>
+      </c>
+      <c r="M81" s="15" t="s">
+        <v>515</v>
+      </c>
+      <c r="N81" s="18">
+        <v>154673</v>
+      </c>
+      <c r="O81" s="15">
+        <v>58711</v>
+      </c>
+      <c r="P81" s="17" t="s">
+        <v>5046</v>
+      </c>
+    </row>
+    <row r="82" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="14" t="s">
+        <v>4952</v>
+      </c>
+      <c r="B82" s="15" t="s">
+        <v>5006</v>
+      </c>
+      <c r="C82" s="15" t="s">
+        <v>4960</v>
+      </c>
+      <c r="D82" s="15" t="s">
+        <v>5025</v>
+      </c>
+      <c r="E82" s="16">
+        <v>16186</v>
+      </c>
+      <c r="F82" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="G82" s="15">
+        <v>62</v>
+      </c>
+      <c r="H82" s="15" t="s">
+        <v>5015</v>
+      </c>
+      <c r="I82" s="15" t="s">
+        <v>4968</v>
+      </c>
+      <c r="J82" s="16">
+        <v>39729</v>
+      </c>
+      <c r="K82" s="16">
+        <v>39970</v>
+      </c>
+      <c r="L82" s="15" t="s">
+        <v>383</v>
+      </c>
+      <c r="M82" s="15" t="s">
+        <v>515</v>
+      </c>
+      <c r="N82" s="18">
+        <v>164294</v>
+      </c>
+      <c r="O82" s="15">
+        <v>94282</v>
+      </c>
+      <c r="P82" s="17" t="s">
+        <v>5047</v>
+      </c>
+    </row>
+    <row r="83" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="14" t="s">
+        <v>4953</v>
+      </c>
+      <c r="B83" s="15" t="s">
+        <v>4944</v>
+      </c>
+      <c r="C83" s="15" t="s">
+        <v>4961</v>
+      </c>
+      <c r="D83" s="15" t="s">
+        <v>4906</v>
+      </c>
+      <c r="E83" s="16">
+        <v>20314</v>
+      </c>
+      <c r="F83" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="G83" s="15">
+        <v>41</v>
+      </c>
+      <c r="H83" s="15" t="s">
+        <v>5031</v>
+      </c>
+      <c r="I83" s="15" t="s">
+        <v>257</v>
+      </c>
+      <c r="J83" s="16">
+        <v>39448</v>
+      </c>
+      <c r="K83" s="16">
+        <v>39970</v>
+      </c>
+      <c r="L83" s="15" t="s">
+        <v>383</v>
+      </c>
+      <c r="M83" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="N83" s="18" t="s">
+        <v>5131</v>
+      </c>
+      <c r="O83" s="15">
+        <v>39956</v>
+      </c>
+      <c r="P83" s="17" t="s">
+        <v>5132</v>
+      </c>
+    </row>
+    <row r="84" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="14" t="s">
+        <v>4955</v>
+      </c>
+      <c r="B84" s="15" t="s">
+        <v>5108</v>
+      </c>
+      <c r="C84" s="15" t="s">
+        <v>5126</v>
+      </c>
+      <c r="D84" s="15" t="s">
+        <v>5127</v>
+      </c>
+      <c r="E84" s="16">
+        <v>13907</v>
+      </c>
+      <c r="F84" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="G84" s="15">
+        <v>42</v>
+      </c>
+      <c r="H84" s="15" t="s">
+        <v>4971</v>
+      </c>
+      <c r="I84" s="15" t="s">
+        <v>4968</v>
+      </c>
+      <c r="J84" s="16">
+        <v>39360</v>
+      </c>
+      <c r="K84" s="16">
+        <v>39970</v>
+      </c>
+      <c r="L84" s="15" t="s">
+        <v>383</v>
+      </c>
+      <c r="M84" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="N84" s="18">
+        <v>823678</v>
+      </c>
+      <c r="O84" s="15">
+        <v>39629</v>
+      </c>
+      <c r="P84" s="17" t="s">
+        <v>5128</v>
+      </c>
+    </row>
+    <row r="85" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="14" t="s">
+        <v>4954</v>
+      </c>
+      <c r="B85" s="15" t="s">
+        <v>4946</v>
+      </c>
+      <c r="C85" s="15" t="s">
+        <v>5091</v>
+      </c>
+      <c r="D85" s="15" t="s">
+        <v>5092</v>
+      </c>
+      <c r="E85" s="16">
+        <v>18434</v>
+      </c>
+      <c r="F85" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="G85" s="15">
+        <v>42</v>
+      </c>
+      <c r="H85" s="15" t="s">
+        <v>4971</v>
+      </c>
+      <c r="I85" s="15" t="s">
+        <v>4968</v>
+      </c>
+      <c r="J85" s="16">
+        <v>39259</v>
+      </c>
+      <c r="K85" s="16">
+        <v>39970</v>
+      </c>
+      <c r="L85" s="15" t="s">
+        <v>383</v>
+      </c>
+      <c r="M85" s="15" t="s">
+        <v>515</v>
+      </c>
+      <c r="N85" s="18">
+        <v>641835</v>
+      </c>
+      <c r="O85" s="15">
+        <v>38846</v>
+      </c>
+      <c r="P85" s="17" t="s">
+        <v>5093</v>
+      </c>
+    </row>
+    <row r="86" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="14" t="s">
+        <v>4953</v>
+      </c>
+      <c r="B86" s="15" t="s">
+        <v>4995</v>
+      </c>
+      <c r="C86" s="15" t="s">
+        <v>4962</v>
+      </c>
+      <c r="D86" s="15" t="s">
+        <v>5105</v>
+      </c>
+      <c r="E86" s="16">
+        <v>15496</v>
+      </c>
+      <c r="F86" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="G86" s="15">
+        <v>5</v>
+      </c>
+      <c r="H86" s="15" t="s">
+        <v>5106</v>
+      </c>
+      <c r="I86" s="15" t="s">
+        <v>4968</v>
+      </c>
+      <c r="J86" s="16">
+        <v>38261</v>
+      </c>
+      <c r="K86" s="16">
+        <v>39970</v>
+      </c>
+      <c r="L86" s="15" t="s">
+        <v>383</v>
+      </c>
+      <c r="M86" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="N86" s="17">
+        <v>831396</v>
+      </c>
+      <c r="O86" s="15">
+        <v>2066</v>
+      </c>
+      <c r="P86" s="17" t="s">
+        <v>5107</v>
+      </c>
+    </row>
+    <row r="87" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="14" t="s">
+        <v>4954</v>
+      </c>
+      <c r="B87" s="15" t="s">
+        <v>4946</v>
+      </c>
+      <c r="C87" s="15" t="s">
+        <v>5133</v>
+      </c>
+      <c r="D87" s="15" t="s">
+        <v>5134</v>
+      </c>
+      <c r="E87" s="16">
+        <v>17450</v>
+      </c>
+      <c r="F87" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="G87" s="15">
+        <v>44</v>
+      </c>
+      <c r="H87" s="15" t="s">
+        <v>4990</v>
+      </c>
+      <c r="I87" s="15" t="s">
+        <v>4968</v>
+      </c>
+      <c r="J87" s="16">
+        <v>39220</v>
+      </c>
+      <c r="K87" s="16">
+        <v>39970</v>
+      </c>
+      <c r="L87" s="15" t="s">
+        <v>383</v>
+      </c>
+      <c r="M87" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="N87" s="17">
+        <v>4604</v>
+      </c>
+      <c r="O87" s="15">
+        <v>38596</v>
+      </c>
+      <c r="P87" s="17" t="s">
+        <v>5135</v>
+      </c>
+    </row>
+    <row r="88" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="14" t="s">
+        <v>4955</v>
+      </c>
+      <c r="B88" s="15" t="s">
+        <v>4948</v>
+      </c>
+      <c r="C88" s="15" t="s">
+        <v>5049</v>
+      </c>
+      <c r="D88" s="15" t="s">
+        <v>5039</v>
+      </c>
+      <c r="E88" s="16">
+        <v>22806</v>
+      </c>
+      <c r="F88" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="G88" s="15">
+        <v>57</v>
+      </c>
+      <c r="H88" s="15" t="s">
+        <v>5018</v>
+      </c>
+      <c r="I88" s="15" t="s">
+        <v>4968</v>
+      </c>
+      <c r="J88" s="16">
+        <v>39259</v>
+      </c>
+      <c r="K88" s="16">
+        <v>39970</v>
+      </c>
+      <c r="L88" s="15" t="s">
+        <v>383</v>
+      </c>
+      <c r="M88" s="15" t="s">
+        <v>515</v>
+      </c>
+      <c r="N88" s="18">
+        <v>867262</v>
+      </c>
+      <c r="O88" s="15">
+        <v>38847</v>
+      </c>
+      <c r="P88" s="17" t="s">
+        <v>5050</v>
+      </c>
+    </row>
+    <row r="89" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="14" t="s">
+        <v>4950</v>
+      </c>
+      <c r="B89" s="15" t="s">
+        <v>4947</v>
+      </c>
+      <c r="C89" s="15" t="s">
+        <v>4963</v>
+      </c>
+      <c r="D89" s="15" t="s">
+        <v>5076</v>
+      </c>
+      <c r="E89" s="16">
+        <v>20817</v>
+      </c>
+      <c r="F89" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="G89" s="15">
+        <v>41</v>
+      </c>
+      <c r="H89" s="15" t="s">
+        <v>5031</v>
+      </c>
+      <c r="I89" s="15" t="s">
+        <v>4968</v>
+      </c>
+      <c r="J89" s="16">
+        <v>39259</v>
+      </c>
+      <c r="K89" s="16">
+        <v>39970</v>
+      </c>
+      <c r="L89" s="15" t="s">
+        <v>383</v>
+      </c>
+      <c r="M89" s="15" t="s">
+        <v>515</v>
+      </c>
+      <c r="N89" s="18">
+        <v>267965</v>
+      </c>
+      <c r="O89" s="15">
+        <v>38845</v>
+      </c>
+      <c r="P89" s="17" t="s">
+        <v>5078</v>
+      </c>
+    </row>
+    <row r="90" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="14" t="s">
+        <v>4956</v>
+      </c>
+      <c r="B90" s="15" t="s">
+        <v>4943</v>
+      </c>
+      <c r="C90" s="15" t="s">
+        <v>4964</v>
+      </c>
+      <c r="D90" s="15" t="s">
+        <v>221</v>
+      </c>
+      <c r="E90" s="16">
+        <v>17830</v>
+      </c>
+      <c r="F90" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="G90" s="15">
+        <v>41</v>
+      </c>
+      <c r="H90" s="15" t="s">
+        <v>5031</v>
+      </c>
+      <c r="I90" s="15" t="s">
+        <v>257</v>
+      </c>
+      <c r="J90" s="16">
+        <v>39845</v>
+      </c>
+      <c r="K90" s="16">
+        <v>39970</v>
+      </c>
+      <c r="L90" s="15" t="s">
+        <v>383</v>
+      </c>
+      <c r="M90" s="15" t="s">
+        <v>515</v>
+      </c>
+      <c r="N90" s="18" t="s">
+        <v>5129</v>
+      </c>
+      <c r="O90" s="15">
+        <v>95298</v>
+      </c>
+      <c r="P90" s="17" t="s">
+        <v>5130</v>
+      </c>
+    </row>
+    <row r="91" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="14" t="s">
+        <v>4957</v>
+      </c>
+      <c r="B91" s="15" t="s">
+        <v>4966</v>
+      </c>
+      <c r="C91" s="15" t="s">
+        <v>5081</v>
+      </c>
+      <c r="D91" s="15" t="s">
+        <v>5082</v>
+      </c>
+      <c r="E91" s="16">
+        <v>21023</v>
+      </c>
+      <c r="F91" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="G91" s="15">
+        <v>34</v>
+      </c>
+      <c r="H91" s="15" t="s">
+        <v>5083</v>
+      </c>
+      <c r="I91" s="15" t="s">
+        <v>4968</v>
+      </c>
+      <c r="J91" s="16">
+        <v>39729</v>
+      </c>
+      <c r="K91" s="16">
+        <v>39970</v>
+      </c>
+      <c r="L91" s="15" t="s">
+        <v>383</v>
+      </c>
+      <c r="M91" s="15" t="s">
+        <v>515</v>
+      </c>
+      <c r="N91" s="17">
+        <v>799238</v>
+      </c>
+      <c r="O91" s="15">
+        <v>94281</v>
+      </c>
+      <c r="P91" s="17" t="s">
+        <v>5084</v>
+      </c>
+    </row>
+    <row r="92" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="J92" s="1"/>
+      <c r="K92" s="1"/>
+    </row>
+    <row r="93" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="J93" s="1"/>
+      <c r="K93" s="1"/>
+    </row>
+    <row r="94" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="J94" s="1"/>
+      <c r="K94" s="1"/>
+    </row>
+    <row r="95" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="J95" s="1"/>
+      <c r="K95" s="1"/>
+    </row>
+    <row r="96" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="J96" s="1"/>
+      <c r="K96" s="1"/>
+    </row>
+    <row r="97" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J97" s="1"/>
+      <c r="K97" s="1"/>
+    </row>
+    <row r="98" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J98" s="1"/>
+      <c r="K98" s="1"/>
+    </row>
+    <row r="99" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J99" s="1"/>
+      <c r="K99" s="1"/>
+    </row>
+    <row r="100" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J100" s="1"/>
+      <c r="K100" s="1"/>
+    </row>
+    <row r="101" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J101" s="1"/>
+      <c r="K101" s="1"/>
+    </row>
+    <row r="102" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J102" s="1"/>
+      <c r="K102" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P80"/>
   <sheetViews>
@@ -29518,13 +34867,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4147"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/in/extraction1/corrections/supp_DE.xlsx
+++ b/in/extraction1/corrections/supp_DE.xlsx
@@ -16015,17 +16015,7 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -26198,7 +26188,7 @@
   </sheetData>
   <autoFilter ref="A1:P102"/>
   <conditionalFormatting sqref="C2:C89">
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -26209,8 +26199,8 @@
   <dimension ref="A1:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <pane ySplit="1" topLeftCell="A63" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K69" sqref="K69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -29665,7 +29655,7 @@
         <v>38151</v>
       </c>
       <c r="K69" s="16">
-        <v>39844</v>
+        <v>39970</v>
       </c>
       <c r="L69" s="15" t="s">
         <v>256</v>
@@ -30312,7 +30302,7 @@
         <v>4968</v>
       </c>
       <c r="J82" s="16">
-        <v>39729</v>
+        <v>39722</v>
       </c>
       <c r="K82" s="16">
         <v>39970</v>

--- a/in/extraction1/corrections/supp_DE.xlsx
+++ b/in/extraction1/corrections/supp_DE.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13020" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13020" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="1979_TODO" sheetId="4" r:id="rId1"/>
@@ -22,16 +22,17 @@
     <sheet name="MEPS_all" sheetId="12" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'1999'!$A$1:$P$102</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'2004'!$A$1:$P$91</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'2019'!$A$1:$P$80</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'1994'!$A$1:$P$107</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'1999'!$A$1:$O$102</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'2004'!$A$1:$O$91</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'2019'!$A$1:$O$80</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8451" uniqueCount="5137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9667" uniqueCount="5290">
   <si>
     <t>Code sexe</t>
   </si>
@@ -15442,6 +15443,465 @@
   </si>
   <si>
     <t>ARCHITECTES</t>
+  </si>
+  <si>
+    <t>PAILLER</t>
+  </si>
+  <si>
+    <t>Aline</t>
+  </si>
+  <si>
+    <t>Mireille</t>
+  </si>
+  <si>
+    <t>LE GALLOU</t>
+  </si>
+  <si>
+    <t>Jean-Yves</t>
+  </si>
+  <si>
+    <t>Fernand</t>
+  </si>
+  <si>
+    <t>LE CHEVALLIER</t>
+  </si>
+  <si>
+    <t>BLOT</t>
+  </si>
+  <si>
+    <t>Yvan</t>
+  </si>
+  <si>
+    <t>ANTONY</t>
+  </si>
+  <si>
+    <t>MÉGRET</t>
+  </si>
+  <si>
+    <t>FOUQUE</t>
+  </si>
+  <si>
+    <t>Antoinette</t>
+  </si>
+  <si>
+    <t>RAD</t>
+  </si>
+  <si>
+    <t>SAINT-PIERRE</t>
+  </si>
+  <si>
+    <t>PRADIER</t>
+  </si>
+  <si>
+    <t>LEPERRE-VERRIER</t>
+  </si>
+  <si>
+    <t>Odile</t>
+  </si>
+  <si>
+    <t>CASTAGNÈDE</t>
+  </si>
+  <si>
+    <t>SAINJON</t>
+  </si>
+  <si>
+    <t>MAMÈRE</t>
+  </si>
+  <si>
+    <t>Noël</t>
+  </si>
+  <si>
+    <t>CES</t>
+  </si>
+  <si>
+    <t>TAUBIRA-DELANNON</t>
+  </si>
+  <si>
+    <t>HORY</t>
+  </si>
+  <si>
+    <t>TAPIE</t>
+  </si>
+  <si>
+    <t>de ROSE</t>
+  </si>
+  <si>
+    <t>DES PLACES</t>
+  </si>
+  <si>
+    <t>Edouard</t>
+  </si>
+  <si>
+    <t>STRIBY</t>
+  </si>
+  <si>
+    <t>POISSON</t>
+  </si>
+  <si>
+    <t>Anne Christine</t>
+  </si>
+  <si>
+    <t>FABRE-AUBRESPY</t>
+  </si>
+  <si>
+    <t>SEILLIER</t>
+  </si>
+  <si>
+    <t>de GAULLE</t>
+  </si>
+  <si>
+    <t>GOLDSMITH</t>
+  </si>
+  <si>
+    <t>Jimmy</t>
+  </si>
+  <si>
+    <t>de VILLIERS</t>
+  </si>
+  <si>
+    <t>LINDEPERG</t>
+  </si>
+  <si>
+    <t>BERNARDINI</t>
+  </si>
+  <si>
+    <t>COT</t>
+  </si>
+  <si>
+    <t>Jean-Pierre</t>
+  </si>
+  <si>
+    <t>GUIGOU</t>
+  </si>
+  <si>
+    <t>Elisabeth</t>
+  </si>
+  <si>
+    <t>BREDIN</t>
+  </si>
+  <si>
+    <t>Frédérique</t>
+  </si>
+  <si>
+    <t>Jack</t>
+  </si>
+  <si>
+    <t>PERY</t>
+  </si>
+  <si>
+    <t>KOUCHNER</t>
+  </si>
+  <si>
+    <t>d'ABOVILLE</t>
+  </si>
+  <si>
+    <t>BEBEAR</t>
+  </si>
+  <si>
+    <t>BAGGIONI</t>
+  </si>
+  <si>
+    <t>de BRÉMOND d'ARS</t>
+  </si>
+  <si>
+    <t>CHESA</t>
+  </si>
+  <si>
+    <t>BERNARD-REYMOND</t>
+  </si>
+  <si>
+    <t>BAZIN</t>
+  </si>
+  <si>
+    <t>SOULIER</t>
+  </si>
+  <si>
+    <t>PASTY</t>
+  </si>
+  <si>
+    <t>STASI</t>
+  </si>
+  <si>
+    <t>CABROL</t>
+  </si>
+  <si>
+    <t>HERSANT</t>
+  </si>
+  <si>
+    <t>ALDO</t>
+  </si>
+  <si>
+    <t>Blaise</t>
+  </si>
+  <si>
+    <t>DONNAY</t>
+  </si>
+  <si>
+    <t>VERWAERDE</t>
+  </si>
+  <si>
+    <t>POMPIDOU</t>
+  </si>
+  <si>
+    <t>GUINEBERTIÈRE</t>
+  </si>
+  <si>
+    <t>Armelle</t>
+  </si>
+  <si>
+    <t>RAFFARIN</t>
+  </si>
+  <si>
+    <t>JACOB</t>
+  </si>
+  <si>
+    <t>CARRÈRE D'ENCAUSSE</t>
+  </si>
+  <si>
+    <t>RNE_1177455</t>
+  </si>
+  <si>
+    <t>RNE_0169458</t>
+  </si>
+  <si>
+    <t>RNE_0118343</t>
+  </si>
+  <si>
+    <t>RNE_0845021</t>
+  </si>
+  <si>
+    <t>RNE_1461926</t>
+  </si>
+  <si>
+    <t>RNE_0027694</t>
+  </si>
+  <si>
+    <t>RNE_0094535</t>
+  </si>
+  <si>
+    <t>RNE_0034738</t>
+  </si>
+  <si>
+    <t>RNE_1108107</t>
+  </si>
+  <si>
+    <t>RNE_0574602</t>
+  </si>
+  <si>
+    <t>RNE_0001133</t>
+  </si>
+  <si>
+    <t>RNE_0904755</t>
+  </si>
+  <si>
+    <t>RNE_0000649</t>
+  </si>
+  <si>
+    <t>RNE_0147839</t>
+  </si>
+  <si>
+    <t>RNE_0002084</t>
+  </si>
+  <si>
+    <t>RNE_0160746</t>
+  </si>
+  <si>
+    <t>RNE_1157197</t>
+  </si>
+  <si>
+    <t>RNE_0000653</t>
+  </si>
+  <si>
+    <t>RNE_0959460</t>
+  </si>
+  <si>
+    <t>RNE_0003392</t>
+  </si>
+  <si>
+    <t>MUSTIN-MAYER</t>
+  </si>
+  <si>
+    <t>CNI</t>
+  </si>
+  <si>
+    <t>Jean-Antoine</t>
+  </si>
+  <si>
+    <t>Marie-José</t>
+  </si>
+  <si>
+    <t>GIANSILY</t>
+  </si>
+  <si>
+    <t>FOURÇANS</t>
+  </si>
+  <si>
+    <t>QUERBES</t>
+  </si>
+  <si>
+    <t>PINEL</t>
+  </si>
+  <si>
+    <t>DENYS</t>
+  </si>
+  <si>
+    <t>LATAILLADE</t>
+  </si>
+  <si>
+    <t>MUTIN</t>
+  </si>
+  <si>
+    <t>DE LASSUS SAINT-GENIÈS</t>
+  </si>
+  <si>
+    <t>BUFFETAUT</t>
+  </si>
+  <si>
+    <t>RNE_0801238</t>
+  </si>
+  <si>
+    <t>RNE_0831397</t>
+  </si>
+  <si>
+    <t>RNE_0069740</t>
+  </si>
+  <si>
+    <t>RNE_0184584</t>
+  </si>
+  <si>
+    <t>EUR_0001209</t>
+  </si>
+  <si>
+    <t>EUR_0002204</t>
+  </si>
+  <si>
+    <t>EUR_0001211</t>
+  </si>
+  <si>
+    <t>EUR_0002011</t>
+  </si>
+  <si>
+    <t>EUR_0002238</t>
+  </si>
+  <si>
+    <t>EUR_0001877</t>
+  </si>
+  <si>
+    <t>EUR_0001027</t>
+  </si>
+  <si>
+    <t>EUR_0001741</t>
+  </si>
+  <si>
+    <t>EUR_0002018</t>
+  </si>
+  <si>
+    <t>EUR_0002239</t>
+  </si>
+  <si>
+    <t>EUR_0002213</t>
+  </si>
+  <si>
+    <t>EUR_0001193</t>
+  </si>
+  <si>
+    <t>EUR_0001213</t>
+  </si>
+  <si>
+    <t>EUR_0001978</t>
+  </si>
+  <si>
+    <t>EUR_0001022</t>
+  </si>
+  <si>
+    <t>EUR_0002076</t>
+  </si>
+  <si>
+    <t>EUR_0002243</t>
+  </si>
+  <si>
+    <t>EUR_0001987</t>
+  </si>
+  <si>
+    <t>EUR_0002080</t>
+  </si>
+  <si>
+    <t>EUR_0002237</t>
+  </si>
+  <si>
+    <t>EUR_0002083</t>
+  </si>
+  <si>
+    <t>EUR_0001205</t>
+  </si>
+  <si>
+    <t>EUR_0001068</t>
+  </si>
+  <si>
+    <t>EUR_0001157</t>
+  </si>
+  <si>
+    <t>EUR_0002220</t>
+  </si>
+  <si>
+    <t>EUR_0001206</t>
+  </si>
+  <si>
+    <t>EUR_0001158</t>
+  </si>
+  <si>
+    <t>EUR_0002242</t>
+  </si>
+  <si>
+    <t>EUR_0002216</t>
+  </si>
+  <si>
+    <t>EUR_0001871</t>
+  </si>
+  <si>
+    <t>EUR_0002028</t>
+  </si>
+  <si>
+    <t>EUR_0002127</t>
+  </si>
+  <si>
+    <t>EUR_0001160</t>
+  </si>
+  <si>
+    <t>EUR_0002256</t>
+  </si>
+  <si>
+    <t>EUR_0001692</t>
+  </si>
+  <si>
+    <t>EUR_0001021</t>
+  </si>
+  <si>
+    <t>EUR_0002321</t>
+  </si>
+  <si>
+    <t>EUR_0002320</t>
+  </si>
+  <si>
+    <t>RNE_0833985</t>
+  </si>
+  <si>
+    <t>RNE_0336802</t>
+  </si>
+  <si>
+    <t>RNE_0169991</t>
+  </si>
+  <si>
+    <t>RNE_0000919</t>
+  </si>
+  <si>
+    <t>RNE_0000080</t>
+  </si>
+  <si>
+    <t>RNE_0868449</t>
+  </si>
+  <si>
+    <t>DOMENECH-DIANA</t>
   </si>
 </sst>
 </file>
@@ -15931,7 +16391,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -15970,6 +16430,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -20977,28 +21441,33 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P1"/>
+  <dimension ref="A1:R107"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="K25" sqref="K25"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.5703125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" customWidth="1"/>
+    <col min="3" max="3" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="35.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8" style="11" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
@@ -21041,7 +21510,7 @@
       <c r="M1" s="4" t="s">
         <v>271</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="N1" s="13" t="s">
         <v>258</v>
       </c>
       <c r="O1" s="4" t="s">
@@ -21051,7 +21520,5315 @@
         <v>273</v>
       </c>
     </row>
+    <row r="2" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="14" t="s">
+        <v>254</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>349</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>348</v>
+      </c>
+      <c r="E2" s="16">
+        <v>17520</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="H2" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="I2" s="15" t="s">
+        <v>257</v>
+      </c>
+      <c r="J2" s="16">
+        <v>34497</v>
+      </c>
+      <c r="K2" s="16">
+        <v>36323</v>
+      </c>
+      <c r="L2" s="15" t="s">
+        <v>383</v>
+      </c>
+      <c r="M2" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="N2" s="17" t="s">
+        <v>256</v>
+      </c>
+      <c r="O2" s="15">
+        <v>1133</v>
+      </c>
+      <c r="P2" s="15" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="14" t="s">
+        <v>254</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>5198</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>5199</v>
+      </c>
+      <c r="E3" s="16">
+        <v>18663</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="H3" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="I3" s="15" t="s">
+        <v>257</v>
+      </c>
+      <c r="J3" s="16">
+        <v>34497</v>
+      </c>
+      <c r="K3" s="16">
+        <v>36323</v>
+      </c>
+      <c r="L3" s="15" t="s">
+        <v>383</v>
+      </c>
+      <c r="M3" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="N3" s="17">
+        <v>833985</v>
+      </c>
+      <c r="O3" s="15">
+        <v>2019</v>
+      </c>
+      <c r="P3" s="15" t="s">
+        <v>5283</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="14" t="s">
+        <v>254</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>5146</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" s="16">
+        <v>16404</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="H4" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="I4" s="15" t="s">
+        <v>257</v>
+      </c>
+      <c r="J4" s="16">
+        <v>34497</v>
+      </c>
+      <c r="K4" s="16">
+        <v>36323</v>
+      </c>
+      <c r="L4" s="15" t="s">
+        <v>383</v>
+      </c>
+      <c r="M4" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="N4" s="17" t="s">
+        <v>256</v>
+      </c>
+      <c r="O4" s="15">
+        <v>1209</v>
+      </c>
+      <c r="P4" s="15" t="s">
+        <v>5245</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="14" t="s">
+        <v>254</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>5188</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="16">
+        <v>14466</v>
+      </c>
+      <c r="F5" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="G5" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="H5" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="I5" s="15" t="s">
+        <v>257</v>
+      </c>
+      <c r="J5" s="16">
+        <v>34497</v>
+      </c>
+      <c r="K5" s="16">
+        <v>36323</v>
+      </c>
+      <c r="L5" s="15" t="s">
+        <v>383</v>
+      </c>
+      <c r="M5" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="N5" s="17">
+        <v>34738</v>
+      </c>
+      <c r="O5" s="15">
+        <v>2201</v>
+      </c>
+      <c r="P5" s="15" t="s">
+        <v>5215</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="14" t="s">
+        <v>254</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="16">
+        <v>17271</v>
+      </c>
+      <c r="F6" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="G6" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="H6" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="I6" s="15" t="s">
+        <v>257</v>
+      </c>
+      <c r="J6" s="16">
+        <v>34497</v>
+      </c>
+      <c r="K6" s="16">
+        <v>35705</v>
+      </c>
+      <c r="L6" s="15" t="s">
+        <v>382</v>
+      </c>
+      <c r="M6" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="N6" s="17">
+        <v>1177455</v>
+      </c>
+      <c r="O6" s="15">
+        <v>1759</v>
+      </c>
+      <c r="P6" s="15" t="s">
+        <v>5208</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="14" t="s">
+        <v>254</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>5192</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>5178</v>
+      </c>
+      <c r="E7" s="16">
+        <v>17502</v>
+      </c>
+      <c r="F7" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="G7" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="H7" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="I7" s="15" t="s">
+        <v>257</v>
+      </c>
+      <c r="J7" s="16">
+        <v>34497</v>
+      </c>
+      <c r="K7" s="16">
+        <v>36323</v>
+      </c>
+      <c r="L7" s="15" t="s">
+        <v>383</v>
+      </c>
+      <c r="M7" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="N7" s="17">
+        <v>27694</v>
+      </c>
+      <c r="O7" s="15">
+        <v>2022</v>
+      </c>
+      <c r="P7" s="15" t="s">
+        <v>5213</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="14" t="s">
+        <v>254</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>5187</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>5178</v>
+      </c>
+      <c r="E8" s="16">
+        <v>15607</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="G8" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="H8" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="I8" s="15" t="s">
+        <v>257</v>
+      </c>
+      <c r="J8" s="16">
+        <v>34497</v>
+      </c>
+      <c r="K8" s="16">
+        <v>36323</v>
+      </c>
+      <c r="L8" s="15" t="s">
+        <v>383</v>
+      </c>
+      <c r="M8" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="N8" s="17" t="s">
+        <v>256</v>
+      </c>
+      <c r="O8" s="15">
+        <v>2204</v>
+      </c>
+      <c r="P8" s="15" t="s">
+        <v>5246</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="14" t="s">
+        <v>254</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>285</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="E9" s="16">
+        <v>20889</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="G9" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="H9" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="I9" s="15" t="s">
+        <v>257</v>
+      </c>
+      <c r="J9" s="16">
+        <v>34497</v>
+      </c>
+      <c r="K9" s="16">
+        <v>36323</v>
+      </c>
+      <c r="L9" s="15" t="s">
+        <v>383</v>
+      </c>
+      <c r="M9" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="N9" s="17">
+        <v>1501533</v>
+      </c>
+      <c r="O9" s="15">
+        <v>1985</v>
+      </c>
+      <c r="P9" s="15" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="14" t="s">
+        <v>254</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>5176</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>283</v>
+      </c>
+      <c r="E10" s="16">
+        <v>19595</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="G10" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="H10" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="I10" s="15" t="s">
+        <v>257</v>
+      </c>
+      <c r="J10" s="16">
+        <v>34497</v>
+      </c>
+      <c r="K10" s="16">
+        <v>36323</v>
+      </c>
+      <c r="L10" s="15" t="s">
+        <v>383</v>
+      </c>
+      <c r="M10" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="N10" s="17">
+        <v>904755</v>
+      </c>
+      <c r="O10" s="15">
+        <v>1986</v>
+      </c>
+      <c r="P10" s="15" t="s">
+        <v>5219</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="14" t="s">
+        <v>254</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>5191</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="E11" s="16">
+        <v>16087</v>
+      </c>
+      <c r="F11" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="G11" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="H11" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="I11" s="15" t="s">
+        <v>257</v>
+      </c>
+      <c r="J11" s="16">
+        <v>34497</v>
+      </c>
+      <c r="K11" s="16">
+        <v>36323</v>
+      </c>
+      <c r="L11" s="15" t="s">
+        <v>383</v>
+      </c>
+      <c r="M11" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="N11" s="17">
+        <v>94535</v>
+      </c>
+      <c r="O11" s="15">
+        <v>1036</v>
+      </c>
+      <c r="P11" s="15" t="s">
+        <v>5214</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="14" t="s">
+        <v>254</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>308</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="E12" s="16">
+        <v>18397</v>
+      </c>
+      <c r="F12" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="G12" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="H12" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="I12" s="15" t="s">
+        <v>257</v>
+      </c>
+      <c r="J12" s="16">
+        <v>34497</v>
+      </c>
+      <c r="K12" s="16">
+        <v>36323</v>
+      </c>
+      <c r="L12" s="15" t="s">
+        <v>383</v>
+      </c>
+      <c r="M12" s="15" t="s">
+        <v>276</v>
+      </c>
+      <c r="N12" s="17">
+        <v>9</v>
+      </c>
+      <c r="O12" s="15">
+        <v>2217</v>
+      </c>
+      <c r="P12" s="15" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="14" t="s">
+        <v>254</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>5144</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>5145</v>
+      </c>
+      <c r="E13" s="16">
+        <v>17713</v>
+      </c>
+      <c r="F13" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="G13" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="H13" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="I13" s="15" t="s">
+        <v>257</v>
+      </c>
+      <c r="J13" s="16">
+        <v>34497</v>
+      </c>
+      <c r="K13" s="16">
+        <v>36323</v>
+      </c>
+      <c r="L13" s="15" t="s">
+        <v>383</v>
+      </c>
+      <c r="M13" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="N13" s="17" t="s">
+        <v>256</v>
+      </c>
+      <c r="O13" s="15">
+        <v>1211</v>
+      </c>
+      <c r="P13" s="15" t="s">
+        <v>5247</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="14" t="s">
+        <v>254</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>339</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" s="16">
+        <v>16996</v>
+      </c>
+      <c r="F14" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="G14" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="H14" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="I14" s="15" t="s">
+        <v>257</v>
+      </c>
+      <c r="J14" s="16">
+        <v>34497</v>
+      </c>
+      <c r="K14" s="16">
+        <v>36323</v>
+      </c>
+      <c r="L14" s="15" t="s">
+        <v>383</v>
+      </c>
+      <c r="M14" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="N14" s="17">
+        <v>1519893</v>
+      </c>
+      <c r="O14" s="15">
+        <v>1026</v>
+      </c>
+      <c r="P14" s="15" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="14" t="s">
+        <v>254</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>5181</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>5182</v>
+      </c>
+      <c r="E15" s="16">
+        <v>20761</v>
+      </c>
+      <c r="F15" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="G15" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="H15" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="I15" s="15" t="s">
+        <v>257</v>
+      </c>
+      <c r="J15" s="16">
+        <v>34497</v>
+      </c>
+      <c r="K15" s="16">
+        <v>35265</v>
+      </c>
+      <c r="L15" s="15" t="s">
+        <v>382</v>
+      </c>
+      <c r="M15" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="N15" s="17">
+        <v>574602</v>
+      </c>
+      <c r="O15" s="15">
+        <v>1982</v>
+      </c>
+      <c r="P15" s="15" t="s">
+        <v>5217</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="14" t="s">
+        <v>254</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>5196</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>187</v>
+      </c>
+      <c r="E16" s="16">
+        <v>9391</v>
+      </c>
+      <c r="F16" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="G16" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="H16" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="I16" s="15" t="s">
+        <v>257</v>
+      </c>
+      <c r="J16" s="16">
+        <v>34497</v>
+      </c>
+      <c r="K16" s="16">
+        <v>36323</v>
+      </c>
+      <c r="L16" s="15" t="s">
+        <v>383</v>
+      </c>
+      <c r="M16" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="N16" s="17">
+        <v>336802</v>
+      </c>
+      <c r="O16" s="15">
+        <v>2021</v>
+      </c>
+      <c r="P16" s="15" t="s">
+        <v>5284</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="14" t="s">
+        <v>254</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>5207</v>
+      </c>
+      <c r="D17" s="15" t="s">
+        <v>331</v>
+      </c>
+      <c r="E17" s="16">
+        <v>10780</v>
+      </c>
+      <c r="F17" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="G17" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="H17" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="I17" s="15" t="s">
+        <v>257</v>
+      </c>
+      <c r="J17" s="16">
+        <v>34497</v>
+      </c>
+      <c r="K17" s="16">
+        <v>36323</v>
+      </c>
+      <c r="L17" s="15" t="s">
+        <v>383</v>
+      </c>
+      <c r="M17" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="N17" s="17" t="s">
+        <v>256</v>
+      </c>
+      <c r="O17" s="15">
+        <v>2011</v>
+      </c>
+      <c r="P17" s="15" t="s">
+        <v>5248</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="14" t="s">
+        <v>254</v>
+      </c>
+      <c r="B18" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="C18" s="15" t="s">
+        <v>5155</v>
+      </c>
+      <c r="D18" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="E18" s="16">
+        <v>16383</v>
+      </c>
+      <c r="F18" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="G18" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="H18" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="I18" s="15" t="s">
+        <v>257</v>
+      </c>
+      <c r="J18" s="16">
+        <v>34497</v>
+      </c>
+      <c r="K18" s="16">
+        <v>36323</v>
+      </c>
+      <c r="L18" s="15" t="s">
+        <v>383</v>
+      </c>
+      <c r="M18" s="15" t="s">
+        <v>5150</v>
+      </c>
+      <c r="N18" s="17" t="s">
+        <v>256</v>
+      </c>
+      <c r="O18" s="15">
+        <v>2238</v>
+      </c>
+      <c r="P18" s="15" t="s">
+        <v>5249</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="14" t="s">
+        <v>254</v>
+      </c>
+      <c r="B19" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>293</v>
+      </c>
+      <c r="D19" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="E19" s="16">
+        <v>16495</v>
+      </c>
+      <c r="F19" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="G19" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="H19" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="I19" s="15" t="s">
+        <v>257</v>
+      </c>
+      <c r="J19" s="16">
+        <v>34497</v>
+      </c>
+      <c r="K19" s="16">
+        <v>36323</v>
+      </c>
+      <c r="L19" s="15" t="s">
+        <v>383</v>
+      </c>
+      <c r="M19" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="N19" s="17">
+        <v>16</v>
+      </c>
+      <c r="O19" s="15">
+        <v>1175</v>
+      </c>
+      <c r="P19" s="15" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="14" t="s">
+        <v>254</v>
+      </c>
+      <c r="B20" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="C20" s="15" t="s">
+        <v>5190</v>
+      </c>
+      <c r="D20" s="15" t="s">
+        <v>194</v>
+      </c>
+      <c r="E20" s="16">
+        <v>13556</v>
+      </c>
+      <c r="F20" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="G20" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="H20" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="I20" s="15" t="s">
+        <v>257</v>
+      </c>
+      <c r="J20" s="16">
+        <v>34497</v>
+      </c>
+      <c r="K20" s="16">
+        <v>36323</v>
+      </c>
+      <c r="L20" s="15" t="s">
+        <v>383</v>
+      </c>
+      <c r="M20" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="N20" s="17" t="s">
+        <v>256</v>
+      </c>
+      <c r="O20" s="15">
+        <v>1877</v>
+      </c>
+      <c r="P20" s="15" t="s">
+        <v>5250</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="14" t="s">
+        <v>254</v>
+      </c>
+      <c r="B21" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="C21" s="15" t="s">
+        <v>5177</v>
+      </c>
+      <c r="D21" s="15" t="s">
+        <v>5178</v>
+      </c>
+      <c r="E21" s="16">
+        <v>13781</v>
+      </c>
+      <c r="F21" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="G21" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="H21" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="I21" s="15" t="s">
+        <v>257</v>
+      </c>
+      <c r="J21" s="16">
+        <v>34497</v>
+      </c>
+      <c r="K21" s="16">
+        <v>36323</v>
+      </c>
+      <c r="L21" s="15" t="s">
+        <v>383</v>
+      </c>
+      <c r="M21" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="N21" s="17" t="s">
+        <v>256</v>
+      </c>
+      <c r="O21" s="15">
+        <v>1027</v>
+      </c>
+      <c r="P21" s="15" t="s">
+        <v>5251</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="14" t="s">
+        <v>254</v>
+      </c>
+      <c r="B22" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="C22" s="15" t="s">
+        <v>5186</v>
+      </c>
+      <c r="D22" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="E22" s="16">
+        <v>16685</v>
+      </c>
+      <c r="F22" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="G22" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="H22" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="I22" s="15" t="s">
+        <v>257</v>
+      </c>
+      <c r="J22" s="16">
+        <v>34497</v>
+      </c>
+      <c r="K22" s="16">
+        <v>36323</v>
+      </c>
+      <c r="L22" s="15" t="s">
+        <v>383</v>
+      </c>
+      <c r="M22" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="N22" s="17">
+        <v>1108107</v>
+      </c>
+      <c r="O22" s="15">
+        <v>2202</v>
+      </c>
+      <c r="P22" s="15" t="s">
+        <v>5216</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="14" t="s">
+        <v>254</v>
+      </c>
+      <c r="B23" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="C23" s="15" t="s">
+        <v>290</v>
+      </c>
+      <c r="D23" s="15" t="s">
+        <v>289</v>
+      </c>
+      <c r="E23" s="16">
+        <v>16062</v>
+      </c>
+      <c r="F23" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="G23" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="H23" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="I23" s="15" t="s">
+        <v>257</v>
+      </c>
+      <c r="J23" s="16">
+        <v>34497</v>
+      </c>
+      <c r="K23" s="16">
+        <v>36323</v>
+      </c>
+      <c r="L23" s="15" t="s">
+        <v>383</v>
+      </c>
+      <c r="M23" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="N23" s="17" t="s">
+        <v>256</v>
+      </c>
+      <c r="O23" s="15">
+        <v>1979</v>
+      </c>
+      <c r="P23" s="15" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="14" t="s">
+        <v>254</v>
+      </c>
+      <c r="B24" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="C24" s="15" t="s">
+        <v>299</v>
+      </c>
+      <c r="D24" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="E24" s="16">
+        <v>16700</v>
+      </c>
+      <c r="F24" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="G24" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="H24" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="I24" s="15" t="s">
+        <v>257</v>
+      </c>
+      <c r="J24" s="16">
+        <v>34497</v>
+      </c>
+      <c r="K24" s="16">
+        <v>36323</v>
+      </c>
+      <c r="L24" s="15" t="s">
+        <v>383</v>
+      </c>
+      <c r="M24" s="15" t="s">
+        <v>5150</v>
+      </c>
+      <c r="N24" s="17">
+        <v>1499421</v>
+      </c>
+      <c r="O24" s="15">
+        <v>1959</v>
+      </c>
+      <c r="P24" s="15" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="14" t="s">
+        <v>254</v>
+      </c>
+      <c r="B25" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="C25" s="15" t="s">
+        <v>5189</v>
+      </c>
+      <c r="D25" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="E25" s="16">
+        <v>16182</v>
+      </c>
+      <c r="F25" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="G25" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="H25" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="I25" s="15" t="s">
+        <v>257</v>
+      </c>
+      <c r="J25" s="16">
+        <v>34497</v>
+      </c>
+      <c r="K25" s="16">
+        <v>36323</v>
+      </c>
+      <c r="L25" s="15" t="s">
+        <v>383</v>
+      </c>
+      <c r="M25" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="N25" s="17" t="s">
+        <v>256</v>
+      </c>
+      <c r="O25" s="15">
+        <v>1741</v>
+      </c>
+      <c r="P25" s="15" t="s">
+        <v>5252</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="14" t="s">
+        <v>254</v>
+      </c>
+      <c r="B26" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="C26" s="15" t="s">
+        <v>5171</v>
+      </c>
+      <c r="D26" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="E26" s="16">
+        <v>17801</v>
+      </c>
+      <c r="F26" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="G26" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="H26" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="I26" s="15" t="s">
+        <v>257</v>
+      </c>
+      <c r="J26" s="16">
+        <v>34497</v>
+      </c>
+      <c r="K26" s="16">
+        <v>36323</v>
+      </c>
+      <c r="L26" s="15" t="s">
+        <v>383</v>
+      </c>
+      <c r="M26" s="15" t="s">
+        <v>276</v>
+      </c>
+      <c r="N26" s="17" t="s">
+        <v>256</v>
+      </c>
+      <c r="O26" s="15">
+        <v>1878</v>
+      </c>
+      <c r="P26" s="15" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="14" t="s">
+        <v>254</v>
+      </c>
+      <c r="B27" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="C27" s="15" t="s">
+        <v>5163</v>
+      </c>
+      <c r="D27" s="15" t="s">
+        <v>306</v>
+      </c>
+      <c r="E27" s="16">
+        <v>15821</v>
+      </c>
+      <c r="F27" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="G27" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="H27" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="I27" s="15" t="s">
+        <v>257</v>
+      </c>
+      <c r="J27" s="16">
+        <v>34497</v>
+      </c>
+      <c r="K27" s="16">
+        <v>36323</v>
+      </c>
+      <c r="L27" s="15" t="s">
+        <v>383</v>
+      </c>
+      <c r="M27" s="15" t="s">
+        <v>276</v>
+      </c>
+      <c r="N27" s="17">
+        <v>1157197</v>
+      </c>
+      <c r="O27" s="15">
+        <v>2241</v>
+      </c>
+      <c r="P27" s="15" t="s">
+        <v>5224</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="14" t="s">
+        <v>254</v>
+      </c>
+      <c r="B28" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="C28" s="15" t="s">
+        <v>5174</v>
+      </c>
+      <c r="D28" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="E28" s="16">
+        <v>17982</v>
+      </c>
+      <c r="F28" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="G28" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="H28" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="I28" s="15" t="s">
+        <v>257</v>
+      </c>
+      <c r="J28" s="16">
+        <v>34497</v>
+      </c>
+      <c r="K28" s="16">
+        <v>35597</v>
+      </c>
+      <c r="L28" s="15" t="s">
+        <v>382</v>
+      </c>
+      <c r="M28" s="15" t="s">
+        <v>276</v>
+      </c>
+      <c r="N28" s="17">
+        <v>1083</v>
+      </c>
+      <c r="O28" s="15">
+        <v>2212</v>
+      </c>
+      <c r="P28" s="15" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="14" t="s">
+        <v>254</v>
+      </c>
+      <c r="B29" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="C29" s="15" t="s">
+        <v>340</v>
+      </c>
+      <c r="D29" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="E29" s="16">
+        <v>13476</v>
+      </c>
+      <c r="F29" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="G29" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="H29" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="I29" s="15" t="s">
+        <v>257</v>
+      </c>
+      <c r="J29" s="16">
+        <v>34497</v>
+      </c>
+      <c r="K29" s="16">
+        <v>36323</v>
+      </c>
+      <c r="L29" s="15" t="s">
+        <v>383</v>
+      </c>
+      <c r="M29" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="N29" s="17">
+        <v>25</v>
+      </c>
+      <c r="O29" s="15">
+        <v>2026</v>
+      </c>
+      <c r="P29" s="15" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="14" t="s">
+        <v>254</v>
+      </c>
+      <c r="B30" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="C30" s="15" t="s">
+        <v>5164</v>
+      </c>
+      <c r="D30" s="15" t="s">
+        <v>5165</v>
+      </c>
+      <c r="E30" s="16">
+        <v>14630</v>
+      </c>
+      <c r="F30" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="G30" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="H30" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="I30" s="15" t="s">
+        <v>257</v>
+      </c>
+      <c r="J30" s="16">
+        <v>34497</v>
+      </c>
+      <c r="K30" s="16">
+        <v>36323</v>
+      </c>
+      <c r="L30" s="15" t="s">
+        <v>383</v>
+      </c>
+      <c r="M30" s="15" t="s">
+        <v>276</v>
+      </c>
+      <c r="N30" s="17">
+        <v>160746</v>
+      </c>
+      <c r="O30" s="15">
+        <v>2222</v>
+      </c>
+      <c r="P30" s="15" t="s">
+        <v>5223</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="14" t="s">
+        <v>254</v>
+      </c>
+      <c r="B31" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="C31" s="15" t="s">
+        <v>5200</v>
+      </c>
+      <c r="D31" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="E31" s="16">
+        <v>9139</v>
+      </c>
+      <c r="F31" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="G31" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="H31" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="I31" s="15" t="s">
+        <v>257</v>
+      </c>
+      <c r="J31" s="16">
+        <v>34497</v>
+      </c>
+      <c r="K31" s="16">
+        <v>36323</v>
+      </c>
+      <c r="L31" s="15" t="s">
+        <v>383</v>
+      </c>
+      <c r="M31" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="N31" s="17" t="s">
+        <v>256</v>
+      </c>
+      <c r="O31" s="15">
+        <v>2018</v>
+      </c>
+      <c r="P31" s="15" t="s">
+        <v>5253</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="14" t="s">
+        <v>254</v>
+      </c>
+      <c r="B32" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="C32" s="15" t="s">
+        <v>5289</v>
+      </c>
+      <c r="D32" s="15" t="s">
+        <v>5139</v>
+      </c>
+      <c r="E32" s="16">
+        <v>17906</v>
+      </c>
+      <c r="F32" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="G32" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="H32" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="I32" s="15" t="s">
+        <v>257</v>
+      </c>
+      <c r="J32" s="16">
+        <v>34497</v>
+      </c>
+      <c r="K32" s="16">
+        <v>36323</v>
+      </c>
+      <c r="L32" s="15" t="s">
+        <v>383</v>
+      </c>
+      <c r="M32" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="N32" s="17">
+        <v>169991</v>
+      </c>
+      <c r="O32" s="15">
+        <v>1125</v>
+      </c>
+      <c r="P32" s="15" t="s">
+        <v>5285</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="14" t="s">
+        <v>254</v>
+      </c>
+      <c r="B33" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="C33" s="15" t="s">
+        <v>5169</v>
+      </c>
+      <c r="D33" s="15" t="s">
+        <v>328</v>
+      </c>
+      <c r="E33" s="16">
+        <v>20656</v>
+      </c>
+      <c r="F33" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="G33" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="H33" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="I33" s="15" t="s">
+        <v>257</v>
+      </c>
+      <c r="J33" s="16">
+        <v>34497</v>
+      </c>
+      <c r="K33" s="16">
+        <v>36323</v>
+      </c>
+      <c r="L33" s="15" t="s">
+        <v>383</v>
+      </c>
+      <c r="M33" s="15" t="s">
+        <v>276</v>
+      </c>
+      <c r="N33" s="17">
+        <v>147839</v>
+      </c>
+      <c r="O33" s="15">
+        <v>2218</v>
+      </c>
+      <c r="P33" s="15" t="s">
+        <v>5221</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="14" t="s">
+        <v>254</v>
+      </c>
+      <c r="B34" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="C34" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="D34" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E34" s="16">
+        <v>15357</v>
+      </c>
+      <c r="F34" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="G34" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="H34" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="I34" s="15" t="s">
+        <v>257</v>
+      </c>
+      <c r="J34" s="16">
+        <v>34497</v>
+      </c>
+      <c r="K34" s="16">
+        <v>36323</v>
+      </c>
+      <c r="L34" s="15" t="s">
+        <v>383</v>
+      </c>
+      <c r="M34" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="N34" s="17">
+        <v>838005</v>
+      </c>
+      <c r="O34" s="15">
+        <v>945</v>
+      </c>
+      <c r="P34" s="15" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="14" t="s">
+        <v>254</v>
+      </c>
+      <c r="B35" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="C35" s="15" t="s">
+        <v>5148</v>
+      </c>
+      <c r="D35" s="15" t="s">
+        <v>5149</v>
+      </c>
+      <c r="E35" s="16">
+        <v>13424</v>
+      </c>
+      <c r="F35" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="G35" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="H35" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="I35" s="15" t="s">
+        <v>257</v>
+      </c>
+      <c r="J35" s="16">
+        <v>34497</v>
+      </c>
+      <c r="K35" s="16">
+        <v>36323</v>
+      </c>
+      <c r="L35" s="15" t="s">
+        <v>383</v>
+      </c>
+      <c r="M35" s="15" t="s">
+        <v>5150</v>
+      </c>
+      <c r="N35" s="17" t="s">
+        <v>256</v>
+      </c>
+      <c r="O35" s="15">
+        <v>2239</v>
+      </c>
+      <c r="P35" s="15" t="s">
+        <v>5254</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="14" t="s">
+        <v>254</v>
+      </c>
+      <c r="B36" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="C36" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="D36" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="E36" s="16">
+        <v>19477</v>
+      </c>
+      <c r="F36" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="G36" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="H36" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="I36" s="15" t="s">
+        <v>257</v>
+      </c>
+      <c r="J36" s="16">
+        <v>34497</v>
+      </c>
+      <c r="K36" s="16">
+        <v>34837</v>
+      </c>
+      <c r="L36" s="15" t="s">
+        <v>382</v>
+      </c>
+      <c r="M36" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="N36" s="17">
+        <v>169458</v>
+      </c>
+      <c r="O36" s="15">
+        <v>1084</v>
+      </c>
+      <c r="P36" s="15" t="s">
+        <v>5209</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="14" t="s">
+        <v>254</v>
+      </c>
+      <c r="B37" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="C37" s="15" t="s">
+        <v>5172</v>
+      </c>
+      <c r="D37" s="15" t="s">
+        <v>5173</v>
+      </c>
+      <c r="E37" s="16">
+        <v>12111</v>
+      </c>
+      <c r="F37" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="G37" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="H37" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="I37" s="15" t="s">
+        <v>257</v>
+      </c>
+      <c r="J37" s="16">
+        <v>34497</v>
+      </c>
+      <c r="K37" s="16">
+        <v>35630</v>
+      </c>
+      <c r="L37" s="15" t="s">
+        <v>382</v>
+      </c>
+      <c r="M37" s="15" t="s">
+        <v>276</v>
+      </c>
+      <c r="N37" s="17" t="s">
+        <v>256</v>
+      </c>
+      <c r="O37" s="15">
+        <v>2213</v>
+      </c>
+      <c r="P37" s="15" t="s">
+        <v>5255</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="14" t="s">
+        <v>254</v>
+      </c>
+      <c r="B38" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="C38" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="D38" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="E38" s="16">
+        <v>18291</v>
+      </c>
+      <c r="F38" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="G38" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="H38" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="I38" s="15" t="s">
+        <v>257</v>
+      </c>
+      <c r="J38" s="16">
+        <v>34497</v>
+      </c>
+      <c r="K38" s="16">
+        <v>36323</v>
+      </c>
+      <c r="L38" s="15" t="s">
+        <v>383</v>
+      </c>
+      <c r="M38" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="N38" s="17">
+        <v>41</v>
+      </c>
+      <c r="O38" s="15">
+        <v>1164</v>
+      </c>
+      <c r="P38" s="15" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="14" t="s">
+        <v>254</v>
+      </c>
+      <c r="B39" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="C39" s="15" t="s">
+        <v>322</v>
+      </c>
+      <c r="D39" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="E39" s="16">
+        <v>16939</v>
+      </c>
+      <c r="F39" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="G39" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="H39" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="I39" s="15" t="s">
+        <v>257</v>
+      </c>
+      <c r="J39" s="16">
+        <v>34497</v>
+      </c>
+      <c r="K39" s="16">
+        <v>36323</v>
+      </c>
+      <c r="L39" s="15" t="s">
+        <v>383</v>
+      </c>
+      <c r="M39" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="N39" s="17">
+        <v>1501530</v>
+      </c>
+      <c r="O39" s="15">
+        <v>2025</v>
+      </c>
+      <c r="P39" s="15" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="14" t="s">
+        <v>254</v>
+      </c>
+      <c r="B40" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="C40" s="15" t="s">
+        <v>5179</v>
+      </c>
+      <c r="D40" s="15" t="s">
+        <v>5180</v>
+      </c>
+      <c r="E40" s="16">
+        <v>17020</v>
+      </c>
+      <c r="F40" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="G40" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="H40" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="I40" s="15" t="s">
+        <v>257</v>
+      </c>
+      <c r="J40" s="16">
+        <v>34497</v>
+      </c>
+      <c r="K40" s="16">
+        <v>35586</v>
+      </c>
+      <c r="L40" s="15" t="s">
+        <v>382</v>
+      </c>
+      <c r="M40" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="N40" s="17">
+        <v>1133</v>
+      </c>
+      <c r="O40" s="15">
+        <v>1984</v>
+      </c>
+      <c r="P40" s="15" t="s">
+        <v>5218</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="14" t="s">
+        <v>254</v>
+      </c>
+      <c r="B41" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="C41" s="15" t="s">
+        <v>5203</v>
+      </c>
+      <c r="D41" s="15" t="s">
+        <v>5204</v>
+      </c>
+      <c r="E41" s="16">
+        <v>16280</v>
+      </c>
+      <c r="F41" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="G41" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="H41" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="I41" s="15" t="s">
+        <v>257</v>
+      </c>
+      <c r="J41" s="16">
+        <v>34497</v>
+      </c>
+      <c r="K41" s="16">
+        <v>36323</v>
+      </c>
+      <c r="L41" s="15" t="s">
+        <v>383</v>
+      </c>
+      <c r="M41" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="N41" s="17">
+        <v>1461926</v>
+      </c>
+      <c r="O41" s="15">
+        <v>2015</v>
+      </c>
+      <c r="P41" s="15" t="s">
+        <v>5212</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="14" t="s">
+        <v>254</v>
+      </c>
+      <c r="B42" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="C42" s="15" t="s">
+        <v>326</v>
+      </c>
+      <c r="D42" s="15" t="s">
+        <v>325</v>
+      </c>
+      <c r="E42" s="16">
+        <v>17427</v>
+      </c>
+      <c r="F42" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="G42" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="H42" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="I42" s="15" t="s">
+        <v>257</v>
+      </c>
+      <c r="J42" s="16">
+        <v>34497</v>
+      </c>
+      <c r="K42" s="16">
+        <v>36323</v>
+      </c>
+      <c r="L42" s="15" t="s">
+        <v>383</v>
+      </c>
+      <c r="M42" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="N42" s="17">
+        <v>11532</v>
+      </c>
+      <c r="O42" s="15">
+        <v>2016</v>
+      </c>
+      <c r="P42" s="15" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="14" t="s">
+        <v>254</v>
+      </c>
+      <c r="B43" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="C43" s="15" t="s">
+        <v>5197</v>
+      </c>
+      <c r="D43" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="E43" s="16">
+        <v>7336</v>
+      </c>
+      <c r="F43" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="G43" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="H43" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="I43" s="15" t="s">
+        <v>257</v>
+      </c>
+      <c r="J43" s="16">
+        <v>34497</v>
+      </c>
+      <c r="K43" s="16">
+        <v>35176</v>
+      </c>
+      <c r="L43" s="15" t="s">
+        <v>382</v>
+      </c>
+      <c r="M43" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="N43" s="17" t="s">
+        <v>256</v>
+      </c>
+      <c r="O43" s="15">
+        <v>1193</v>
+      </c>
+      <c r="P43" s="15" t="s">
+        <v>5256</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="14" t="s">
+        <v>254</v>
+      </c>
+      <c r="B44" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="C44" s="15" t="s">
+        <v>376</v>
+      </c>
+      <c r="D44" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="E44" s="16">
+        <v>14676</v>
+      </c>
+      <c r="F44" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="G44" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="H44" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="I44" s="15" t="s">
+        <v>257</v>
+      </c>
+      <c r="J44" s="16">
+        <v>34497</v>
+      </c>
+      <c r="K44" s="16">
+        <v>36323</v>
+      </c>
+      <c r="L44" s="15" t="s">
+        <v>383</v>
+      </c>
+      <c r="M44" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="N44" s="17" t="s">
+        <v>256</v>
+      </c>
+      <c r="O44" s="15">
+        <v>1167</v>
+      </c>
+      <c r="P44" s="15" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="14" t="s">
+        <v>254</v>
+      </c>
+      <c r="B45" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="C45" s="15" t="s">
+        <v>5161</v>
+      </c>
+      <c r="D45" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="E45" s="16">
+        <v>18033</v>
+      </c>
+      <c r="F45" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="G45" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="H45" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="I45" s="15" t="s">
+        <v>257</v>
+      </c>
+      <c r="J45" s="16">
+        <v>34497</v>
+      </c>
+      <c r="K45" s="16">
+        <v>36323</v>
+      </c>
+      <c r="L45" s="15" t="s">
+        <v>383</v>
+      </c>
+      <c r="M45" s="15" t="s">
+        <v>5150</v>
+      </c>
+      <c r="N45" s="17" t="s">
+        <v>256</v>
+      </c>
+      <c r="O45" s="15">
+        <v>1213</v>
+      </c>
+      <c r="P45" s="15" t="s">
+        <v>5257</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="14" t="s">
+        <v>254</v>
+      </c>
+      <c r="B46" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="C46" s="15" t="s">
+        <v>5206</v>
+      </c>
+      <c r="D46" s="15" t="s">
+        <v>187</v>
+      </c>
+      <c r="E46" s="16">
+        <v>24385</v>
+      </c>
+      <c r="F46" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="G46" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="H46" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="I46" s="15" t="s">
+        <v>257</v>
+      </c>
+      <c r="J46" s="16">
+        <v>34497</v>
+      </c>
+      <c r="K46" s="16">
+        <v>35674</v>
+      </c>
+      <c r="L46" s="15" t="s">
+        <v>382</v>
+      </c>
+      <c r="M46" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="N46" s="17">
+        <v>118343</v>
+      </c>
+      <c r="O46" s="15">
+        <v>2013</v>
+      </c>
+      <c r="P46" s="15" t="s">
+        <v>5210</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="14" t="s">
+        <v>254</v>
+      </c>
+      <c r="B47" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="C47" s="15" t="s">
+        <v>323</v>
+      </c>
+      <c r="D47" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="E47" s="16">
+        <v>20297</v>
+      </c>
+      <c r="F47" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="G47" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="H47" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="I47" s="15" t="s">
+        <v>257</v>
+      </c>
+      <c r="J47" s="16">
+        <v>34497</v>
+      </c>
+      <c r="K47" s="16">
+        <v>36323</v>
+      </c>
+      <c r="L47" s="15" t="s">
+        <v>383</v>
+      </c>
+      <c r="M47" s="15" t="s">
+        <v>276</v>
+      </c>
+      <c r="N47" s="17" t="s">
+        <v>256</v>
+      </c>
+      <c r="O47" s="15">
+        <v>2214</v>
+      </c>
+      <c r="P47" s="15" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="14" t="s">
+        <v>254</v>
+      </c>
+      <c r="B48" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="C48" s="15" t="s">
+        <v>5185</v>
+      </c>
+      <c r="D48" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="E48" s="16">
+        <v>14550</v>
+      </c>
+      <c r="F48" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="G48" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="H48" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="I48" s="15" t="s">
+        <v>257</v>
+      </c>
+      <c r="J48" s="16">
+        <v>34497</v>
+      </c>
+      <c r="K48" s="16">
+        <v>35586</v>
+      </c>
+      <c r="L48" s="15" t="s">
+        <v>382</v>
+      </c>
+      <c r="M48" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="N48" s="17" t="s">
+        <v>256</v>
+      </c>
+      <c r="O48" s="15">
+        <v>1978</v>
+      </c>
+      <c r="P48" s="15" t="s">
+        <v>5258</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="14" t="s">
+        <v>254</v>
+      </c>
+      <c r="B49" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="C49" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="D49" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="E49" s="16">
+        <v>15679</v>
+      </c>
+      <c r="F49" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="G49" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="H49" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="I49" s="15" t="s">
+        <v>257</v>
+      </c>
+      <c r="J49" s="16">
+        <v>34497</v>
+      </c>
+      <c r="K49" s="16">
+        <v>36323</v>
+      </c>
+      <c r="L49" s="15" t="s">
+        <v>383</v>
+      </c>
+      <c r="M49" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="N49" s="17">
+        <v>42279</v>
+      </c>
+      <c r="O49" s="15">
+        <v>1980</v>
+      </c>
+      <c r="P49" s="15" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="14" t="s">
+        <v>254</v>
+      </c>
+      <c r="B50" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="C50" s="15" t="s">
+        <v>288</v>
+      </c>
+      <c r="D50" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E50" s="16">
+        <v>12999</v>
+      </c>
+      <c r="F50" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="G50" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="H50" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="I50" s="15" t="s">
+        <v>257</v>
+      </c>
+      <c r="J50" s="16">
+        <v>34497</v>
+      </c>
+      <c r="K50" s="16">
+        <v>36323</v>
+      </c>
+      <c r="L50" s="15" t="s">
+        <v>383</v>
+      </c>
+      <c r="M50" s="15" t="s">
+        <v>5150</v>
+      </c>
+      <c r="N50" s="17" t="s">
+        <v>256</v>
+      </c>
+      <c r="O50" s="15">
+        <v>2130</v>
+      </c>
+      <c r="P50" s="15" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="14" t="s">
+        <v>254</v>
+      </c>
+      <c r="B51" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="C51" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D51" s="15" t="s">
+        <v>5183</v>
+      </c>
+      <c r="E51" s="16">
+        <v>14490</v>
+      </c>
+      <c r="F51" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="G51" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="H51" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="I51" s="15" t="s">
+        <v>257</v>
+      </c>
+      <c r="J51" s="16">
+        <v>34497</v>
+      </c>
+      <c r="K51" s="16">
+        <v>35643</v>
+      </c>
+      <c r="L51" s="15" t="s">
+        <v>382</v>
+      </c>
+      <c r="M51" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="N51" s="17">
+        <v>919</v>
+      </c>
+      <c r="O51" s="15">
+        <v>1981</v>
+      </c>
+      <c r="P51" s="15" t="s">
+        <v>5286</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="14" t="s">
+        <v>254</v>
+      </c>
+      <c r="B52" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="C52" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D52" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="E52" s="16">
+        <v>21083</v>
+      </c>
+      <c r="F52" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="G52" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="H52" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="I52" s="15" t="s">
+        <v>257</v>
+      </c>
+      <c r="J52" s="16">
+        <v>34497</v>
+      </c>
+      <c r="K52" s="16">
+        <v>36323</v>
+      </c>
+      <c r="L52" s="15" t="s">
+        <v>383</v>
+      </c>
+      <c r="M52" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="N52" s="17">
+        <v>55</v>
+      </c>
+      <c r="O52" s="15">
+        <v>2057</v>
+      </c>
+      <c r="P52" s="15" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="14" t="s">
+        <v>254</v>
+      </c>
+      <c r="B53" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="C53" s="15" t="s">
+        <v>5143</v>
+      </c>
+      <c r="D53" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="E53" s="16">
+        <v>13476</v>
+      </c>
+      <c r="F53" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="G53" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="H53" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="I53" s="15" t="s">
+        <v>257</v>
+      </c>
+      <c r="J53" s="16">
+        <v>34497</v>
+      </c>
+      <c r="K53" s="16">
+        <v>36323</v>
+      </c>
+      <c r="L53" s="15" t="s">
+        <v>383</v>
+      </c>
+      <c r="M53" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="N53" s="17" t="s">
+        <v>256</v>
+      </c>
+      <c r="O53" s="15">
+        <v>1022</v>
+      </c>
+      <c r="P53" s="15" t="s">
+        <v>5259</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="14" t="s">
+        <v>254</v>
+      </c>
+      <c r="B54" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="C54" s="15" t="s">
+        <v>5140</v>
+      </c>
+      <c r="D54" s="15" t="s">
+        <v>5141</v>
+      </c>
+      <c r="E54" s="16">
+        <v>17810</v>
+      </c>
+      <c r="F54" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="G54" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="H54" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="I54" s="15" t="s">
+        <v>257</v>
+      </c>
+      <c r="J54" s="16">
+        <v>34497</v>
+      </c>
+      <c r="K54" s="16">
+        <v>36323</v>
+      </c>
+      <c r="L54" s="15" t="s">
+        <v>383</v>
+      </c>
+      <c r="M54" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="N54" s="17" t="s">
+        <v>256</v>
+      </c>
+      <c r="O54" s="15">
+        <v>2076</v>
+      </c>
+      <c r="P54" s="15" t="s">
+        <v>5260</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="14" t="s">
+        <v>254</v>
+      </c>
+      <c r="B55" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="C55" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D55" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="E55" s="16">
+        <v>10399</v>
+      </c>
+      <c r="F55" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="G55" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="H55" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="I55" s="15" t="s">
+        <v>257</v>
+      </c>
+      <c r="J55" s="16">
+        <v>34497</v>
+      </c>
+      <c r="K55" s="16">
+        <v>36323</v>
+      </c>
+      <c r="L55" s="15" t="s">
+        <v>383</v>
+      </c>
+      <c r="M55" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="N55" s="17">
+        <v>837980</v>
+      </c>
+      <c r="O55" s="15">
+        <v>1023</v>
+      </c>
+      <c r="P55" s="15" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="14" t="s">
+        <v>254</v>
+      </c>
+      <c r="B56" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="C56" s="15" t="s">
+        <v>4962</v>
+      </c>
+      <c r="D56" s="15" t="s">
+        <v>5142</v>
+      </c>
+      <c r="E56" s="16">
+        <v>15496</v>
+      </c>
+      <c r="F56" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="G56" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="H56" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="I56" s="15" t="s">
+        <v>257</v>
+      </c>
+      <c r="J56" s="16">
+        <v>34497</v>
+      </c>
+      <c r="K56" s="16">
+        <v>36323</v>
+      </c>
+      <c r="L56" s="15" t="s">
+        <v>383</v>
+      </c>
+      <c r="M56" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="N56" s="17">
+        <v>831396</v>
+      </c>
+      <c r="O56" s="15">
+        <v>2066</v>
+      </c>
+      <c r="P56" s="15" t="s">
+        <v>5107</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="14" t="s">
+        <v>254</v>
+      </c>
+      <c r="B57" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="C57" s="15" t="s">
+        <v>5153</v>
+      </c>
+      <c r="D57" s="15" t="s">
+        <v>5154</v>
+      </c>
+      <c r="E57" s="16">
+        <v>18554</v>
+      </c>
+      <c r="F57" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="G57" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="H57" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="I57" s="15" t="s">
+        <v>257</v>
+      </c>
+      <c r="J57" s="16">
+        <v>34497</v>
+      </c>
+      <c r="K57" s="16">
+        <v>36323</v>
+      </c>
+      <c r="L57" s="15" t="s">
+        <v>383</v>
+      </c>
+      <c r="M57" s="15" t="s">
+        <v>5150</v>
+      </c>
+      <c r="N57" s="17" t="s">
+        <v>256</v>
+      </c>
+      <c r="O57" s="15">
+        <v>2243</v>
+      </c>
+      <c r="P57" s="15" t="s">
+        <v>5261</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="14" t="s">
+        <v>254</v>
+      </c>
+      <c r="B58" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="C58" s="15" t="s">
+        <v>5175</v>
+      </c>
+      <c r="D58" s="15" t="s">
+        <v>414</v>
+      </c>
+      <c r="E58" s="16">
+        <v>15239</v>
+      </c>
+      <c r="F58" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="G58" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="H58" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="I58" s="15" t="s">
+        <v>257</v>
+      </c>
+      <c r="J58" s="16">
+        <v>34497</v>
+      </c>
+      <c r="K58" s="16">
+        <v>36323</v>
+      </c>
+      <c r="L58" s="15" t="s">
+        <v>383</v>
+      </c>
+      <c r="M58" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="N58" s="17" t="s">
+        <v>256</v>
+      </c>
+      <c r="O58" s="15">
+        <v>1987</v>
+      </c>
+      <c r="P58" s="15" t="s">
+        <v>5262</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="14" t="s">
+        <v>254</v>
+      </c>
+      <c r="B59" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="C59" s="15" t="s">
+        <v>5157</v>
+      </c>
+      <c r="D59" s="15" t="s">
+        <v>5158</v>
+      </c>
+      <c r="E59" s="16">
+        <v>17892</v>
+      </c>
+      <c r="F59" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="G59" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="H59" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="I59" s="15" t="s">
+        <v>257</v>
+      </c>
+      <c r="J59" s="16">
+        <v>34497</v>
+      </c>
+      <c r="K59" s="16">
+        <v>35653</v>
+      </c>
+      <c r="L59" s="15" t="s">
+        <v>383</v>
+      </c>
+      <c r="M59" s="15" t="s">
+        <v>5159</v>
+      </c>
+      <c r="N59" s="17">
+        <v>653</v>
+      </c>
+      <c r="O59" s="15">
+        <v>2139</v>
+      </c>
+      <c r="P59" s="15" t="s">
+        <v>5225</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="14" t="s">
+        <v>254</v>
+      </c>
+      <c r="B60" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="C60" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="D60" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="E60" s="16">
+        <v>19685</v>
+      </c>
+      <c r="F60" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="G60" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="H60" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="I60" s="15" t="s">
+        <v>257</v>
+      </c>
+      <c r="J60" s="16">
+        <v>34497</v>
+      </c>
+      <c r="K60" s="16">
+        <v>36323</v>
+      </c>
+      <c r="L60" s="15" t="s">
+        <v>383</v>
+      </c>
+      <c r="M60" s="15" t="s">
+        <v>276</v>
+      </c>
+      <c r="N60" s="17">
+        <v>649</v>
+      </c>
+      <c r="O60" s="15">
+        <v>2215</v>
+      </c>
+      <c r="P60" s="15" t="s">
+        <v>5220</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="14" t="s">
+        <v>254</v>
+      </c>
+      <c r="B61" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="C61" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="D61" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="E61" s="16">
+        <v>16648</v>
+      </c>
+      <c r="F61" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="G61" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="H61" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="I61" s="15" t="s">
+        <v>257</v>
+      </c>
+      <c r="J61" s="16">
+        <v>34497</v>
+      </c>
+      <c r="K61" s="16">
+        <v>36323</v>
+      </c>
+      <c r="L61" s="15" t="s">
+        <v>383</v>
+      </c>
+      <c r="M61" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="N61" s="17">
+        <v>61</v>
+      </c>
+      <c r="O61" s="15">
+        <v>966</v>
+      </c>
+      <c r="P61" s="15" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="14" t="s">
+        <v>254</v>
+      </c>
+      <c r="B62" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="C62" s="15" t="s">
+        <v>5147</v>
+      </c>
+      <c r="D62" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="E62" s="16">
+        <v>17992</v>
+      </c>
+      <c r="F62" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="G62" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="H62" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="I62" s="15" t="s">
+        <v>257</v>
+      </c>
+      <c r="J62" s="16">
+        <v>34497</v>
+      </c>
+      <c r="K62" s="16">
+        <v>36323</v>
+      </c>
+      <c r="L62" s="15" t="s">
+        <v>383</v>
+      </c>
+      <c r="M62" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="N62" s="17">
+        <v>3392</v>
+      </c>
+      <c r="O62" s="15">
+        <v>1166</v>
+      </c>
+      <c r="P62" s="15" t="s">
+        <v>5227</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="14" t="s">
+        <v>254</v>
+      </c>
+      <c r="B63" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="C63" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="D63" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="E63" s="16">
+        <v>15157</v>
+      </c>
+      <c r="F63" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="G63" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="H63" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="I63" s="15" t="s">
+        <v>257</v>
+      </c>
+      <c r="J63" s="16">
+        <v>34497</v>
+      </c>
+      <c r="K63" s="16">
+        <v>36323</v>
+      </c>
+      <c r="L63" s="15" t="s">
+        <v>383</v>
+      </c>
+      <c r="M63" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="N63" s="17" t="s">
+        <v>256</v>
+      </c>
+      <c r="O63" s="15">
+        <v>2080</v>
+      </c>
+      <c r="P63" s="15" t="s">
+        <v>5263</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="14" t="s">
+        <v>254</v>
+      </c>
+      <c r="B64" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="C64" s="15" t="s">
+        <v>4921</v>
+      </c>
+      <c r="D64" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="E64" s="16">
+        <v>21079</v>
+      </c>
+      <c r="F64" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="G64" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="H64" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="I64" s="15" t="s">
+        <v>257</v>
+      </c>
+      <c r="J64" s="16">
+        <v>34497</v>
+      </c>
+      <c r="K64" s="16">
+        <v>35586</v>
+      </c>
+      <c r="L64" s="15" t="s">
+        <v>382</v>
+      </c>
+      <c r="M64" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="N64" s="17">
+        <v>45374</v>
+      </c>
+      <c r="O64" s="15">
+        <v>1983</v>
+      </c>
+      <c r="P64" s="15" t="s">
+        <v>5077</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="14" t="s">
+        <v>254</v>
+      </c>
+      <c r="B65" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="C65" s="15" t="s">
+        <v>5228</v>
+      </c>
+      <c r="D65" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="E65" s="16">
+        <v>17889</v>
+      </c>
+      <c r="F65" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="G65" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="H65" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="I65" s="15" t="s">
+        <v>257</v>
+      </c>
+      <c r="J65" s="16">
+        <v>34497</v>
+      </c>
+      <c r="K65" s="16">
+        <v>36323</v>
+      </c>
+      <c r="L65" s="15" t="s">
+        <v>383</v>
+      </c>
+      <c r="M65" s="15" t="s">
+        <v>5150</v>
+      </c>
+      <c r="N65" s="17" t="s">
+        <v>256</v>
+      </c>
+      <c r="O65" s="15">
+        <v>2237</v>
+      </c>
+      <c r="P65" s="15" t="s">
+        <v>5264</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="14" t="s">
+        <v>254</v>
+      </c>
+      <c r="B66" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="C66" s="15" t="s">
+        <v>5137</v>
+      </c>
+      <c r="D66" s="15" t="s">
+        <v>5138</v>
+      </c>
+      <c r="E66" s="16">
+        <v>20297</v>
+      </c>
+      <c r="F66" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="G66" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="H66" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="I66" s="15" t="s">
+        <v>257</v>
+      </c>
+      <c r="J66" s="16">
+        <v>34497</v>
+      </c>
+      <c r="K66" s="16">
+        <v>36323</v>
+      </c>
+      <c r="L66" s="15" t="s">
+        <v>383</v>
+      </c>
+      <c r="M66" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="N66" s="17" t="s">
+        <v>256</v>
+      </c>
+      <c r="O66" s="15">
+        <v>2083</v>
+      </c>
+      <c r="P66" s="15" t="s">
+        <v>5265</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="14" t="s">
+        <v>254</v>
+      </c>
+      <c r="B67" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="C67" s="15" t="s">
+        <v>5194</v>
+      </c>
+      <c r="D67" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="E67" s="16">
+        <v>13681</v>
+      </c>
+      <c r="F67" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="G67" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="H67" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="I67" s="15" t="s">
+        <v>257</v>
+      </c>
+      <c r="J67" s="16">
+        <v>34497</v>
+      </c>
+      <c r="K67" s="16">
+        <v>36323</v>
+      </c>
+      <c r="L67" s="15" t="s">
+        <v>383</v>
+      </c>
+      <c r="M67" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="N67" s="17" t="s">
+        <v>256</v>
+      </c>
+      <c r="O67" s="15">
+        <v>1205</v>
+      </c>
+      <c r="P67" s="15" t="s">
+        <v>5266</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="14" t="s">
+        <v>254</v>
+      </c>
+      <c r="B68" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="C68" s="15" t="s">
+        <v>5184</v>
+      </c>
+      <c r="D68" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E68" s="16">
+        <v>15841</v>
+      </c>
+      <c r="F68" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="G68" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="H68" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="I68" s="15" t="s">
+        <v>257</v>
+      </c>
+      <c r="J68" s="16">
+        <v>34497</v>
+      </c>
+      <c r="K68" s="16">
+        <v>35627</v>
+      </c>
+      <c r="L68" s="15" t="s">
+        <v>382</v>
+      </c>
+      <c r="M68" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="N68" s="17" t="s">
+        <v>256</v>
+      </c>
+      <c r="O68" s="15">
+        <v>1068</v>
+      </c>
+      <c r="P68" s="15" t="s">
+        <v>5267</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="14" t="s">
+        <v>254</v>
+      </c>
+      <c r="B69" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="C69" s="15" t="s">
+        <v>162</v>
+      </c>
+      <c r="D69" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="E69" s="16">
+        <v>11985</v>
+      </c>
+      <c r="F69" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="G69" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="H69" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="I69" s="15" t="s">
+        <v>257</v>
+      </c>
+      <c r="J69" s="16">
+        <v>34497</v>
+      </c>
+      <c r="K69" s="16">
+        <v>35550</v>
+      </c>
+      <c r="L69" s="15" t="s">
+        <v>382</v>
+      </c>
+      <c r="M69" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="N69" s="17" t="s">
+        <v>256</v>
+      </c>
+      <c r="O69" s="15">
+        <v>1157</v>
+      </c>
+      <c r="P69" s="15" t="s">
+        <v>5268</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="14" t="s">
+        <v>254</v>
+      </c>
+      <c r="B70" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="C70" s="15" t="s">
+        <v>5167</v>
+      </c>
+      <c r="D70" s="15" t="s">
+        <v>5168</v>
+      </c>
+      <c r="E70" s="16">
+        <v>20452</v>
+      </c>
+      <c r="F70" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="G70" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="H70" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="I70" s="15" t="s">
+        <v>257</v>
+      </c>
+      <c r="J70" s="16">
+        <v>34497</v>
+      </c>
+      <c r="K70" s="16">
+        <v>36323</v>
+      </c>
+      <c r="L70" s="15" t="s">
+        <v>383</v>
+      </c>
+      <c r="M70" s="15" t="s">
+        <v>276</v>
+      </c>
+      <c r="N70" s="17" t="s">
+        <v>256</v>
+      </c>
+      <c r="O70" s="15">
+        <v>2220</v>
+      </c>
+      <c r="P70" s="15" t="s">
+        <v>5269</v>
+      </c>
+    </row>
+    <row r="71" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="14" t="s">
+        <v>254</v>
+      </c>
+      <c r="B71" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="C71" s="15" t="s">
+        <v>5202</v>
+      </c>
+      <c r="D71" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="E71" s="16">
+        <v>15436</v>
+      </c>
+      <c r="F71" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="G71" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="H71" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="I71" s="15" t="s">
+        <v>257</v>
+      </c>
+      <c r="J71" s="16">
+        <v>34497</v>
+      </c>
+      <c r="K71" s="16">
+        <v>36323</v>
+      </c>
+      <c r="L71" s="15" t="s">
+        <v>383</v>
+      </c>
+      <c r="M71" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="N71" s="17" t="s">
+        <v>256</v>
+      </c>
+      <c r="O71" s="15">
+        <v>1206</v>
+      </c>
+      <c r="P71" s="15" t="s">
+        <v>5270</v>
+      </c>
+    </row>
+    <row r="72" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="14" t="s">
+        <v>254</v>
+      </c>
+      <c r="B72" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="C72" s="15" t="s">
+        <v>5152</v>
+      </c>
+      <c r="D72" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="E72" s="16">
+        <v>17608</v>
+      </c>
+      <c r="F72" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="G72" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="H72" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="I72" s="15" t="s">
+        <v>257</v>
+      </c>
+      <c r="J72" s="16">
+        <v>34497</v>
+      </c>
+      <c r="K72" s="16">
+        <v>36323</v>
+      </c>
+      <c r="L72" s="15" t="s">
+        <v>383</v>
+      </c>
+      <c r="M72" s="15" t="s">
+        <v>5150</v>
+      </c>
+      <c r="N72" s="17">
+        <v>959460</v>
+      </c>
+      <c r="O72" s="15">
+        <v>2240</v>
+      </c>
+      <c r="P72" s="15" t="s">
+        <v>5226</v>
+      </c>
+    </row>
+    <row r="73" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="14" t="s">
+        <v>254</v>
+      </c>
+      <c r="B73" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="C73" s="15" t="s">
+        <v>5205</v>
+      </c>
+      <c r="D73" s="15" t="s">
+        <v>5178</v>
+      </c>
+      <c r="E73" s="16">
+        <v>17748</v>
+      </c>
+      <c r="F73" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="G73" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="H73" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="I73" s="15" t="s">
+        <v>257</v>
+      </c>
+      <c r="J73" s="16">
+        <v>34497</v>
+      </c>
+      <c r="K73" s="16">
+        <v>34837</v>
+      </c>
+      <c r="L73" s="15" t="s">
+        <v>382</v>
+      </c>
+      <c r="M73" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="N73" s="17">
+        <v>845021</v>
+      </c>
+      <c r="O73" s="15">
+        <v>1207</v>
+      </c>
+      <c r="P73" s="15" t="s">
+        <v>5211</v>
+      </c>
+    </row>
+    <row r="74" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="14" t="s">
+        <v>254</v>
+      </c>
+      <c r="B74" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="C74" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="D74" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="E74" s="16">
+        <v>11193</v>
+      </c>
+      <c r="F74" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="G74" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="H74" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="I74" s="15" t="s">
+        <v>257</v>
+      </c>
+      <c r="J74" s="16">
+        <v>34497</v>
+      </c>
+      <c r="K74" s="16">
+        <v>36323</v>
+      </c>
+      <c r="L74" s="15" t="s">
+        <v>383</v>
+      </c>
+      <c r="M74" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="N74" s="17">
+        <v>73</v>
+      </c>
+      <c r="O74" s="15">
+        <v>1977</v>
+      </c>
+      <c r="P74" s="15" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="75" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="14" t="s">
+        <v>254</v>
+      </c>
+      <c r="B75" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="C75" s="15" t="s">
+        <v>5156</v>
+      </c>
+      <c r="D75" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="E75" s="16">
+        <v>15910</v>
+      </c>
+      <c r="F75" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="G75" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="H75" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="I75" s="15" t="s">
+        <v>257</v>
+      </c>
+      <c r="J75" s="16">
+        <v>34497</v>
+      </c>
+      <c r="K75" s="16">
+        <v>36323</v>
+      </c>
+      <c r="L75" s="15" t="s">
+        <v>383</v>
+      </c>
+      <c r="M75" s="15" t="s">
+        <v>5150</v>
+      </c>
+      <c r="N75" s="17" t="s">
+        <v>256</v>
+      </c>
+      <c r="O75" s="15">
+        <v>1158</v>
+      </c>
+      <c r="P75" s="15" t="s">
+        <v>5271</v>
+      </c>
+    </row>
+    <row r="76" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="14" t="s">
+        <v>254</v>
+      </c>
+      <c r="B76" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="C76" s="15" t="s">
+        <v>5151</v>
+      </c>
+      <c r="D76" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="E76" s="16">
+        <v>14925</v>
+      </c>
+      <c r="F76" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="G76" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="H76" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="I76" s="15" t="s">
+        <v>257</v>
+      </c>
+      <c r="J76" s="16">
+        <v>34497</v>
+      </c>
+      <c r="K76" s="16">
+        <v>36323</v>
+      </c>
+      <c r="L76" s="15" t="s">
+        <v>383</v>
+      </c>
+      <c r="M76" s="15" t="s">
+        <v>5150</v>
+      </c>
+      <c r="N76" s="17" t="s">
+        <v>256</v>
+      </c>
+      <c r="O76" s="15">
+        <v>2242</v>
+      </c>
+      <c r="P76" s="15" t="s">
+        <v>5272</v>
+      </c>
+    </row>
+    <row r="77" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="14" t="s">
+        <v>254</v>
+      </c>
+      <c r="B77" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="C77" s="15" t="s">
+        <v>380</v>
+      </c>
+      <c r="D77" s="15" t="s">
+        <v>373</v>
+      </c>
+      <c r="E77" s="16">
+        <v>16588</v>
+      </c>
+      <c r="F77" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="G77" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="H77" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="I77" s="15" t="s">
+        <v>257</v>
+      </c>
+      <c r="J77" s="16">
+        <v>34497</v>
+      </c>
+      <c r="K77" s="16">
+        <v>36323</v>
+      </c>
+      <c r="L77" s="15" t="s">
+        <v>383</v>
+      </c>
+      <c r="M77" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="N77" s="17" t="s">
+        <v>256</v>
+      </c>
+      <c r="O77" s="15">
+        <v>2020</v>
+      </c>
+      <c r="P77" s="15" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="78" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="14" t="s">
+        <v>254</v>
+      </c>
+      <c r="B78" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="C78" s="15" t="s">
+        <v>5170</v>
+      </c>
+      <c r="D78" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="E78" s="16">
+        <v>16467</v>
+      </c>
+      <c r="F78" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="G78" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="H78" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="I78" s="15" t="s">
+        <v>257</v>
+      </c>
+      <c r="J78" s="16">
+        <v>34497</v>
+      </c>
+      <c r="K78" s="16">
+        <v>36323</v>
+      </c>
+      <c r="L78" s="15" t="s">
+        <v>383</v>
+      </c>
+      <c r="M78" s="15" t="s">
+        <v>276</v>
+      </c>
+      <c r="N78" s="17" t="s">
+        <v>256</v>
+      </c>
+      <c r="O78" s="15">
+        <v>2216</v>
+      </c>
+      <c r="P78" s="15" t="s">
+        <v>5273</v>
+      </c>
+    </row>
+    <row r="79" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="14" t="s">
+        <v>254</v>
+      </c>
+      <c r="B79" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="C79" s="15" t="s">
+        <v>314</v>
+      </c>
+      <c r="D79" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="E79" s="16">
+        <v>16992</v>
+      </c>
+      <c r="F79" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="G79" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="H79" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="I79" s="15" t="s">
+        <v>257</v>
+      </c>
+      <c r="J79" s="16">
+        <v>34497</v>
+      </c>
+      <c r="K79" s="16">
+        <v>36323</v>
+      </c>
+      <c r="L79" s="15" t="s">
+        <v>383</v>
+      </c>
+      <c r="M79" s="15" t="s">
+        <v>276</v>
+      </c>
+      <c r="N79" s="17">
+        <v>80</v>
+      </c>
+      <c r="O79" s="15">
+        <v>2219</v>
+      </c>
+      <c r="P79" s="15" t="s">
+        <v>5287</v>
+      </c>
+    </row>
+    <row r="80" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="14" t="s">
+        <v>254</v>
+      </c>
+      <c r="B80" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="C80" s="15" t="s">
+        <v>5193</v>
+      </c>
+      <c r="D80" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="E80" s="16">
+        <v>12345</v>
+      </c>
+      <c r="F80" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="G80" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="H80" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="I80" s="15" t="s">
+        <v>257</v>
+      </c>
+      <c r="J80" s="16">
+        <v>34497</v>
+      </c>
+      <c r="K80" s="16">
+        <v>36323</v>
+      </c>
+      <c r="L80" s="15" t="s">
+        <v>383</v>
+      </c>
+      <c r="M80" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="N80" s="17" t="s">
+        <v>256</v>
+      </c>
+      <c r="O80" s="15">
+        <v>1871</v>
+      </c>
+      <c r="P80" s="15" t="s">
+        <v>5274</v>
+      </c>
+    </row>
+    <row r="81" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="14" t="s">
+        <v>254</v>
+      </c>
+      <c r="B81" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="C81" s="15" t="s">
+        <v>5195</v>
+      </c>
+      <c r="D81" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="E81" s="16">
+        <v>11143</v>
+      </c>
+      <c r="F81" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="G81" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="H81" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="I81" s="15" t="s">
+        <v>257</v>
+      </c>
+      <c r="J81" s="16">
+        <v>34497</v>
+      </c>
+      <c r="K81" s="16">
+        <v>35909</v>
+      </c>
+      <c r="L81" s="15" t="s">
+        <v>383</v>
+      </c>
+      <c r="M81" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="N81" s="17" t="s">
+        <v>256</v>
+      </c>
+      <c r="O81" s="15">
+        <v>2028</v>
+      </c>
+      <c r="P81" s="15" t="s">
+        <v>5275</v>
+      </c>
+    </row>
+    <row r="82" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="14" t="s">
+        <v>254</v>
+      </c>
+      <c r="B82" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="C82" s="15" t="s">
+        <v>356</v>
+      </c>
+      <c r="D82" s="15" t="s">
+        <v>306</v>
+      </c>
+      <c r="E82" s="16">
+        <v>16387</v>
+      </c>
+      <c r="F82" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="G82" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="H82" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="I82" s="15" t="s">
+        <v>257</v>
+      </c>
+      <c r="J82" s="16">
+        <v>34497</v>
+      </c>
+      <c r="K82" s="16">
+        <v>36323</v>
+      </c>
+      <c r="L82" s="15" t="s">
+        <v>383</v>
+      </c>
+      <c r="M82" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="N82" s="17" t="s">
+        <v>256</v>
+      </c>
+      <c r="O82" s="15">
+        <v>2061</v>
+      </c>
+      <c r="P82" s="15" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="83" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="14" t="s">
+        <v>254</v>
+      </c>
+      <c r="B83" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="C83" s="15" t="s">
+        <v>5166</v>
+      </c>
+      <c r="D83" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="E83" s="16">
+        <v>15866</v>
+      </c>
+      <c r="F83" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="G83" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="H83" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="I83" s="15" t="s">
+        <v>257</v>
+      </c>
+      <c r="J83" s="16">
+        <v>34497</v>
+      </c>
+      <c r="K83" s="16">
+        <v>36323</v>
+      </c>
+      <c r="L83" s="15" t="s">
+        <v>383</v>
+      </c>
+      <c r="M83" s="15" t="s">
+        <v>276</v>
+      </c>
+      <c r="N83" s="17">
+        <v>2084</v>
+      </c>
+      <c r="O83" s="15">
+        <v>2221</v>
+      </c>
+      <c r="P83" s="15" t="s">
+        <v>5222</v>
+      </c>
+    </row>
+    <row r="84" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="14" t="s">
+        <v>254</v>
+      </c>
+      <c r="B84" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="C84" s="15" t="s">
+        <v>5162</v>
+      </c>
+      <c r="D84" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="E84" s="16">
+        <v>15732</v>
+      </c>
+      <c r="F84" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="G84" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="H84" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="I84" s="15" t="s">
+        <v>257</v>
+      </c>
+      <c r="J84" s="16">
+        <v>34497</v>
+      </c>
+      <c r="K84" s="16">
+        <v>35465</v>
+      </c>
+      <c r="L84" s="15" t="s">
+        <v>382</v>
+      </c>
+      <c r="M84" s="15" t="s">
+        <v>5150</v>
+      </c>
+      <c r="N84" s="17" t="s">
+        <v>256</v>
+      </c>
+      <c r="O84" s="15">
+        <v>2127</v>
+      </c>
+      <c r="P84" s="15" t="s">
+        <v>5276</v>
+      </c>
+    </row>
+    <row r="85" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="14" t="s">
+        <v>254</v>
+      </c>
+      <c r="B85" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="C85" s="15" t="s">
+        <v>5160</v>
+      </c>
+      <c r="D85" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="E85" s="16">
+        <v>19026</v>
+      </c>
+      <c r="F85" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="G85" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="H85" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="I85" s="15" t="s">
+        <v>257</v>
+      </c>
+      <c r="J85" s="16">
+        <v>34497</v>
+      </c>
+      <c r="K85" s="16">
+        <v>36323</v>
+      </c>
+      <c r="L85" s="15" t="s">
+        <v>383</v>
+      </c>
+      <c r="M85" s="15" t="s">
+        <v>5150</v>
+      </c>
+      <c r="N85" s="17">
+        <v>868449</v>
+      </c>
+      <c r="O85" s="15">
+        <v>2137</v>
+      </c>
+      <c r="P85" s="15" t="s">
+        <v>5288</v>
+      </c>
+    </row>
+    <row r="86" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="14" t="s">
+        <v>254</v>
+      </c>
+      <c r="B86" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="C86" s="15" t="s">
+        <v>4922</v>
+      </c>
+      <c r="D86" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E86" s="16">
+        <v>18643</v>
+      </c>
+      <c r="F86" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="G86" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="H86" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="I86" s="15" t="s">
+        <v>257</v>
+      </c>
+      <c r="J86" s="16">
+        <v>34497</v>
+      </c>
+      <c r="K86" s="16">
+        <v>35586</v>
+      </c>
+      <c r="L86" s="15" t="s">
+        <v>382</v>
+      </c>
+      <c r="M86" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="N86" s="17">
+        <v>584032</v>
+      </c>
+      <c r="O86" s="15">
+        <v>1129</v>
+      </c>
+      <c r="P86" s="15" t="s">
+        <v>5113</v>
+      </c>
+    </row>
+    <row r="87" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="14" t="s">
+        <v>254</v>
+      </c>
+      <c r="B87" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="C87" s="15" t="s">
+        <v>5201</v>
+      </c>
+      <c r="D87" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="E87" s="16">
+        <v>17303</v>
+      </c>
+      <c r="F87" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="G87" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="H87" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="I87" s="15" t="s">
+        <v>257</v>
+      </c>
+      <c r="J87" s="16">
+        <v>34497</v>
+      </c>
+      <c r="K87" s="16">
+        <v>36323</v>
+      </c>
+      <c r="L87" s="15" t="s">
+        <v>383</v>
+      </c>
+      <c r="M87" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="N87" s="17" t="s">
+        <v>256</v>
+      </c>
+      <c r="O87" s="15">
+        <v>1160</v>
+      </c>
+      <c r="P87" s="15" t="s">
+        <v>5277</v>
+      </c>
+    </row>
+    <row r="88" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="14" t="s">
+        <v>254</v>
+      </c>
+      <c r="B88" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="C88" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="D88" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="E88" s="16">
+        <v>17535</v>
+      </c>
+      <c r="F88" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="G88" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="H88" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="I88" s="15" t="s">
+        <v>257</v>
+      </c>
+      <c r="J88" s="16">
+        <v>34497</v>
+      </c>
+      <c r="K88" s="16">
+        <v>36323</v>
+      </c>
+      <c r="L88" s="15" t="s">
+        <v>383</v>
+      </c>
+      <c r="M88" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="N88" s="17">
+        <v>88</v>
+      </c>
+      <c r="O88" s="15">
+        <v>1018</v>
+      </c>
+      <c r="P88" s="15" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="89" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="14" t="s">
+        <v>254</v>
+      </c>
+      <c r="B89" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="C89" s="15" t="s">
+        <v>5232</v>
+      </c>
+      <c r="D89" s="15" t="s">
+        <v>5230</v>
+      </c>
+      <c r="E89" s="16">
+        <v>17206</v>
+      </c>
+      <c r="F89" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="G89" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="H89" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="I89" s="15" t="s">
+        <v>257</v>
+      </c>
+      <c r="J89" s="16">
+        <v>34838</v>
+      </c>
+      <c r="K89" s="16">
+        <v>36323</v>
+      </c>
+      <c r="L89" s="15" t="s">
+        <v>383</v>
+      </c>
+      <c r="M89" s="15" t="s">
+        <v>5229</v>
+      </c>
+      <c r="N89" s="17" t="s">
+        <v>256</v>
+      </c>
+      <c r="O89" s="15">
+        <v>2256</v>
+      </c>
+      <c r="P89" s="15" t="s">
+        <v>5278</v>
+      </c>
+    </row>
+    <row r="90" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="14" t="s">
+        <v>254</v>
+      </c>
+      <c r="B90" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="C90" s="15" t="s">
+        <v>253</v>
+      </c>
+      <c r="D90" s="15" t="s">
+        <v>209</v>
+      </c>
+      <c r="E90" s="16">
+        <v>16849</v>
+      </c>
+      <c r="F90" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="G90" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="H90" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="I90" s="15" t="s">
+        <v>257</v>
+      </c>
+      <c r="J90" s="16">
+        <v>34838</v>
+      </c>
+      <c r="K90" s="16">
+        <v>36323</v>
+      </c>
+      <c r="L90" s="15" t="s">
+        <v>383</v>
+      </c>
+      <c r="M90" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="N90" s="17" t="s">
+        <v>256</v>
+      </c>
+      <c r="O90" s="15">
+        <v>1194</v>
+      </c>
+      <c r="P90" s="15" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="91" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="14" t="s">
+        <v>254</v>
+      </c>
+      <c r="B91" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="C91" s="15" t="s">
+        <v>5233</v>
+      </c>
+      <c r="D91" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="E91" s="16">
+        <v>16868</v>
+      </c>
+      <c r="F91" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="G91" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="H91" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="I91" s="15" t="s">
+        <v>257</v>
+      </c>
+      <c r="J91" s="16">
+        <v>35177</v>
+      </c>
+      <c r="K91" s="16">
+        <v>36323</v>
+      </c>
+      <c r="L91" s="15" t="s">
+        <v>383</v>
+      </c>
+      <c r="M91" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="N91" s="17" t="s">
+        <v>256</v>
+      </c>
+      <c r="O91" s="15">
+        <v>1692</v>
+      </c>
+      <c r="P91" s="15" t="s">
+        <v>5279</v>
+      </c>
+    </row>
+    <row r="92" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="14" t="s">
+        <v>254</v>
+      </c>
+      <c r="B92" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="C92" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="D92" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="E92" s="16">
+        <v>19014</v>
+      </c>
+      <c r="F92" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="G92" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="H92" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="I92" s="15" t="s">
+        <v>257</v>
+      </c>
+      <c r="J92" s="16">
+        <v>35266</v>
+      </c>
+      <c r="K92" s="16">
+        <v>36323</v>
+      </c>
+      <c r="L92" s="15" t="s">
+        <v>383</v>
+      </c>
+      <c r="M92" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="N92" s="20">
+        <v>15</v>
+      </c>
+      <c r="O92" s="15">
+        <v>2031</v>
+      </c>
+      <c r="P92" s="15" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="93" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="14" t="s">
+        <v>254</v>
+      </c>
+      <c r="B93" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="C93" s="15" t="s">
+        <v>377</v>
+      </c>
+      <c r="D93" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="E93" s="16">
+        <v>18468</v>
+      </c>
+      <c r="F93" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="G93" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="H93" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="I93" s="15" t="s">
+        <v>257</v>
+      </c>
+      <c r="J93" s="16">
+        <v>35466</v>
+      </c>
+      <c r="K93" s="16">
+        <v>36323</v>
+      </c>
+      <c r="L93" s="15" t="s">
+        <v>383</v>
+      </c>
+      <c r="M93" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="N93" s="17" t="s">
+        <v>256</v>
+      </c>
+      <c r="O93" s="15">
+        <v>2312</v>
+      </c>
+      <c r="P93" s="15" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="94" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="14" t="s">
+        <v>254</v>
+      </c>
+      <c r="B94" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="C94" s="15" t="s">
+        <v>5234</v>
+      </c>
+      <c r="D94" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="E94" s="16">
+        <v>17448</v>
+      </c>
+      <c r="F94" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="G94" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="H94" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="I94" s="15" t="s">
+        <v>257</v>
+      </c>
+      <c r="J94" s="16">
+        <v>35551</v>
+      </c>
+      <c r="K94" s="16">
+        <v>36323</v>
+      </c>
+      <c r="L94" s="15" t="s">
+        <v>383</v>
+      </c>
+      <c r="M94" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="N94" s="17">
+        <v>801238</v>
+      </c>
+      <c r="O94" s="15">
+        <v>1894</v>
+      </c>
+      <c r="P94" s="15" t="s">
+        <v>5241</v>
+      </c>
+    </row>
+    <row r="95" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="14" t="s">
+        <v>254</v>
+      </c>
+      <c r="B95" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="C95" s="15" t="s">
+        <v>4909</v>
+      </c>
+      <c r="D95" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="E95" s="16">
+        <v>18518</v>
+      </c>
+      <c r="F95" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="G95" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="H95" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="I95" s="15" t="s">
+        <v>257</v>
+      </c>
+      <c r="J95" s="16">
+        <v>35587</v>
+      </c>
+      <c r="K95" s="16">
+        <v>36323</v>
+      </c>
+      <c r="L95" s="15" t="s">
+        <v>383</v>
+      </c>
+      <c r="M95" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="N95" s="17">
+        <v>2553</v>
+      </c>
+      <c r="O95" s="15">
+        <v>2315</v>
+      </c>
+      <c r="P95" s="15" t="s">
+        <v>4998</v>
+      </c>
+    </row>
+    <row r="96" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="14" t="s">
+        <v>254</v>
+      </c>
+      <c r="B96" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="C96" s="15" t="s">
+        <v>302</v>
+      </c>
+      <c r="D96" s="15" t="s">
+        <v>301</v>
+      </c>
+      <c r="E96" s="16">
+        <v>18385</v>
+      </c>
+      <c r="F96" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="G96" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="H96" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="I96" s="15" t="s">
+        <v>257</v>
+      </c>
+      <c r="J96" s="16">
+        <v>35587</v>
+      </c>
+      <c r="K96" s="16">
+        <v>36323</v>
+      </c>
+      <c r="L96" s="15" t="s">
+        <v>383</v>
+      </c>
+      <c r="M96" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="N96" s="17" t="s">
+        <v>256</v>
+      </c>
+      <c r="O96" s="15">
+        <v>2314</v>
+      </c>
+      <c r="P96" s="15" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="97" spans="1:18" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="14" t="s">
+        <v>254</v>
+      </c>
+      <c r="B97" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="C97" s="15" t="s">
+        <v>291</v>
+      </c>
+      <c r="D97" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="E97" s="16">
+        <v>13247</v>
+      </c>
+      <c r="F97" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="G97" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="H97" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="I97" s="15" t="s">
+        <v>257</v>
+      </c>
+      <c r="J97" s="16">
+        <v>35587</v>
+      </c>
+      <c r="K97" s="16">
+        <v>36323</v>
+      </c>
+      <c r="L97" s="15" t="s">
+        <v>383</v>
+      </c>
+      <c r="M97" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="N97" s="17" t="s">
+        <v>256</v>
+      </c>
+      <c r="O97" s="15">
+        <v>2313</v>
+      </c>
+      <c r="P97" s="15" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="98" spans="1:18" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="14" t="s">
+        <v>254</v>
+      </c>
+      <c r="B98" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="C98" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D98" s="15" t="s">
+        <v>292</v>
+      </c>
+      <c r="E98" s="16">
+        <v>18821</v>
+      </c>
+      <c r="F98" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="G98" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="H98" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="I98" s="15" t="s">
+        <v>257</v>
+      </c>
+      <c r="J98" s="16">
+        <v>35587</v>
+      </c>
+      <c r="K98" s="16">
+        <v>36323</v>
+      </c>
+      <c r="L98" s="15" t="s">
+        <v>383</v>
+      </c>
+      <c r="M98" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="N98" s="17">
+        <v>7014</v>
+      </c>
+      <c r="O98" s="15">
+        <v>1708</v>
+      </c>
+      <c r="P98" s="15" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="99" spans="1:18" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="14" t="s">
+        <v>254</v>
+      </c>
+      <c r="B99" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="C99" s="15" t="s">
+        <v>5235</v>
+      </c>
+      <c r="D99" s="15" t="s">
+        <v>435</v>
+      </c>
+      <c r="E99" s="16">
+        <v>21894</v>
+      </c>
+      <c r="F99" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="G99" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="H99" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="I99" s="15" t="s">
+        <v>257</v>
+      </c>
+      <c r="J99" s="16">
+        <v>35598</v>
+      </c>
+      <c r="K99" s="16">
+        <v>36323</v>
+      </c>
+      <c r="L99" s="15" t="s">
+        <v>383</v>
+      </c>
+      <c r="M99" s="15" t="s">
+        <v>276</v>
+      </c>
+      <c r="N99" s="17">
+        <v>831397</v>
+      </c>
+      <c r="O99" s="15">
+        <v>2316</v>
+      </c>
+      <c r="P99" s="15" t="s">
+        <v>5242</v>
+      </c>
+    </row>
+    <row r="100" spans="1:18" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="14" t="s">
+        <v>254</v>
+      </c>
+      <c r="B100" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="C100" s="15" t="s">
+        <v>5236</v>
+      </c>
+      <c r="D100" s="15" t="s">
+        <v>5231</v>
+      </c>
+      <c r="E100" s="16">
+        <v>18337</v>
+      </c>
+      <c r="F100" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="G100" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="H100" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="I100" s="15" t="s">
+        <v>257</v>
+      </c>
+      <c r="J100" s="16">
+        <v>35628</v>
+      </c>
+      <c r="K100" s="16">
+        <v>36323</v>
+      </c>
+      <c r="L100" s="15" t="s">
+        <v>383</v>
+      </c>
+      <c r="M100" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="N100" s="17">
+        <v>69740</v>
+      </c>
+      <c r="O100" s="15">
+        <v>1001</v>
+      </c>
+      <c r="P100" s="15" t="s">
+        <v>5243</v>
+      </c>
+    </row>
+    <row r="101" spans="1:18" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="14" t="s">
+        <v>254</v>
+      </c>
+      <c r="B101" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="C101" s="15" t="s">
+        <v>5240</v>
+      </c>
+      <c r="D101" s="15" t="s">
+        <v>404</v>
+      </c>
+      <c r="E101" s="16">
+        <v>19487</v>
+      </c>
+      <c r="F101" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="G101" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="H101" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="I101" s="15" t="s">
+        <v>257</v>
+      </c>
+      <c r="J101" s="16">
+        <v>35631</v>
+      </c>
+      <c r="K101" s="16">
+        <v>36323</v>
+      </c>
+      <c r="L101" s="15" t="s">
+        <v>383</v>
+      </c>
+      <c r="M101" s="15" t="s">
+        <v>276</v>
+      </c>
+      <c r="N101" s="17">
+        <v>184584</v>
+      </c>
+      <c r="O101" s="15">
+        <v>2317</v>
+      </c>
+      <c r="P101" s="15" t="s">
+        <v>5244</v>
+      </c>
+    </row>
+    <row r="102" spans="1:18" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="14" t="s">
+        <v>254</v>
+      </c>
+      <c r="B102" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="C102" s="15" t="s">
+        <v>4912</v>
+      </c>
+      <c r="D102" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="E102" s="16">
+        <v>16246</v>
+      </c>
+      <c r="F102" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="G102" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="H102" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="I102" s="15" t="s">
+        <v>257</v>
+      </c>
+      <c r="J102" s="16">
+        <v>35644</v>
+      </c>
+      <c r="K102" s="16">
+        <v>35690</v>
+      </c>
+      <c r="L102" s="15" t="s">
+        <v>382</v>
+      </c>
+      <c r="M102" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="N102" s="17">
+        <v>328</v>
+      </c>
+      <c r="O102" s="15">
+        <v>2319</v>
+      </c>
+      <c r="P102" s="15" t="s">
+        <v>5121</v>
+      </c>
+    </row>
+    <row r="103" spans="1:18" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="14" t="s">
+        <v>254</v>
+      </c>
+      <c r="B103" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="C103" s="15" t="s">
+        <v>5239</v>
+      </c>
+      <c r="D103" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="E103" s="16">
+        <v>13972</v>
+      </c>
+      <c r="F103" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="G103" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="H103" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="I103" s="15" t="s">
+        <v>257</v>
+      </c>
+      <c r="J103" s="16">
+        <v>35654</v>
+      </c>
+      <c r="K103" s="16">
+        <v>36323</v>
+      </c>
+      <c r="L103" s="15" t="s">
+        <v>383</v>
+      </c>
+      <c r="M103" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="N103" s="17" t="s">
+        <v>256</v>
+      </c>
+      <c r="O103" s="15">
+        <v>2320</v>
+      </c>
+      <c r="P103" s="15" t="s">
+        <v>5282</v>
+      </c>
+    </row>
+    <row r="104" spans="1:18" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="14" t="s">
+        <v>254</v>
+      </c>
+      <c r="B104" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="C104" s="15" t="s">
+        <v>5237</v>
+      </c>
+      <c r="D104" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="E104" s="16">
+        <v>12171</v>
+      </c>
+      <c r="F104" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="G104" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="H104" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="I104" s="15" t="s">
+        <v>257</v>
+      </c>
+      <c r="J104" s="16">
+        <v>35675</v>
+      </c>
+      <c r="K104" s="16">
+        <v>36323</v>
+      </c>
+      <c r="L104" s="15" t="s">
+        <v>383</v>
+      </c>
+      <c r="M104" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="N104" s="17" t="s">
+        <v>256</v>
+      </c>
+      <c r="O104" s="21">
+        <v>1021</v>
+      </c>
+      <c r="P104" s="15" t="s">
+        <v>5280</v>
+      </c>
+    </row>
+    <row r="105" spans="1:18" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="14" t="s">
+        <v>254</v>
+      </c>
+      <c r="B105" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="C105" s="15" t="s">
+        <v>5238</v>
+      </c>
+      <c r="D105" s="15" t="s">
+        <v>325</v>
+      </c>
+      <c r="E105" s="16">
+        <v>14566</v>
+      </c>
+      <c r="F105" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="G105" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="H105" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="I105" s="15" t="s">
+        <v>257</v>
+      </c>
+      <c r="J105" s="16">
+        <v>35691</v>
+      </c>
+      <c r="K105" s="16">
+        <v>36323</v>
+      </c>
+      <c r="L105" s="15" t="s">
+        <v>383</v>
+      </c>
+      <c r="M105" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="N105" s="17" t="s">
+        <v>256</v>
+      </c>
+      <c r="O105" s="15">
+        <v>2321</v>
+      </c>
+      <c r="P105" s="15" t="s">
+        <v>5281</v>
+      </c>
+      <c r="R105" s="16"/>
+    </row>
+    <row r="106" spans="1:18" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="14" t="s">
+        <v>254</v>
+      </c>
+      <c r="B106" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="C106" s="15" t="s">
+        <v>327</v>
+      </c>
+      <c r="D106" s="15" t="s">
+        <v>193</v>
+      </c>
+      <c r="E106" s="16">
+        <v>18866</v>
+      </c>
+      <c r="F106" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="G106" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="H106" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="I106" s="15" t="s">
+        <v>257</v>
+      </c>
+      <c r="J106" s="16">
+        <v>35706</v>
+      </c>
+      <c r="K106" s="16">
+        <v>36323</v>
+      </c>
+      <c r="L106" s="15" t="s">
+        <v>383</v>
+      </c>
+      <c r="M106" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="N106" s="17">
+        <v>374</v>
+      </c>
+      <c r="O106" s="15">
+        <v>2322</v>
+      </c>
+      <c r="P106" s="15" t="s">
+        <v>731</v>
+      </c>
+      <c r="R106" s="16"/>
+    </row>
+    <row r="107" spans="1:18" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="14" t="s">
+        <v>254</v>
+      </c>
+      <c r="B107" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="C107" s="15" t="s">
+        <v>4930</v>
+      </c>
+      <c r="D107" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="E107" s="16">
+        <v>16338</v>
+      </c>
+      <c r="F107" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="G107" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="H107" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="I107" s="15" t="s">
+        <v>257</v>
+      </c>
+      <c r="J107" s="16">
+        <v>35910</v>
+      </c>
+      <c r="K107" s="16">
+        <v>36323</v>
+      </c>
+      <c r="L107" s="15" t="s">
+        <v>383</v>
+      </c>
+      <c r="M107" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="N107" s="17">
+        <v>28517</v>
+      </c>
+      <c r="O107" s="15">
+        <v>2326</v>
+      </c>
+      <c r="P107" s="15" t="s">
+        <v>5070</v>
+      </c>
+    </row>
   </sheetData>
+  <sortState ref="A2:P107">
+    <sortCondition ref="J2:J88"/>
+    <sortCondition ref="K2:K88"/>
+    <sortCondition ref="C2:C88"/>
+    <sortCondition ref="D2:D88"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -21062,13 +26839,13 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I3" sqref="I3"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" customWidth="1"/>
+    <col min="2" max="2" width="8.28515625" customWidth="1"/>
     <col min="3" max="3" width="19.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.5703125" bestFit="1" customWidth="1"/>
@@ -26186,7 +31963,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:P102"/>
   <conditionalFormatting sqref="C2:C89">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
@@ -26198,15 +31974,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P102"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A63" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K69" sqref="K69"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.85546875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="12" customWidth="1"/>
     <col min="3" max="3" width="17.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
@@ -30834,8 +36610,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="8.140625" customWidth="1"/>
     <col min="3" max="3" width="17.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.28515625" bestFit="1" customWidth="1"/>
@@ -30846,7 +36622,7 @@
     <col min="10" max="10" width="18.28515625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="31.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.42578125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="8" style="8" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="12.5703125" bestFit="1" customWidth="1"/>

--- a/in/extraction1/corrections/supp_DE.xlsx
+++ b/in/extraction1/corrections/supp_DE.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13020" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13020" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="1979_TODO" sheetId="4" r:id="rId1"/>
@@ -22,6 +22,7 @@
     <sheet name="MEPS_all" sheetId="12" r:id="rId8"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'1989'!$A$1:$P$108</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'1994'!$A$1:$P$107</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'1999'!$A$1:$O$102</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'2004'!$A$1:$O$91</definedName>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9667" uniqueCount="5290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10905" uniqueCount="5443">
   <si>
     <t>Code sexe</t>
   </si>
@@ -15902,6 +15903,465 @@
   </si>
   <si>
     <t>DOMENECH-DIANA</t>
+  </si>
+  <si>
+    <t>RDE</t>
+  </si>
+  <si>
+    <t>CNIP</t>
+  </si>
+  <si>
+    <t>ADD</t>
+  </si>
+  <si>
+    <t>UPC</t>
+  </si>
+  <si>
+    <t>SE</t>
+  </si>
+  <si>
+    <t>Valéry</t>
+  </si>
+  <si>
+    <t>JUPPÉ</t>
+  </si>
+  <si>
+    <t>BARZACH</t>
+  </si>
+  <si>
+    <t>ALLIOT-MARIE</t>
+  </si>
+  <si>
+    <t>Jeannou</t>
+  </si>
+  <si>
+    <t>LACAZE</t>
+  </si>
+  <si>
+    <t>Dick</t>
+  </si>
+  <si>
+    <t>UKEIWÉ</t>
+  </si>
+  <si>
+    <t>BAUR</t>
+  </si>
+  <si>
+    <t>MALHURET</t>
+  </si>
+  <si>
+    <t>Yvon</t>
+  </si>
+  <si>
+    <t>BRIANT</t>
+  </si>
+  <si>
+    <t>Marc</t>
+  </si>
+  <si>
+    <t>REYMANN</t>
+  </si>
+  <si>
+    <t>Henry</t>
+  </si>
+  <si>
+    <t>CHABERT</t>
+  </si>
+  <si>
+    <t>MARLEIX</t>
+  </si>
+  <si>
+    <t>VERNIER</t>
+  </si>
+  <si>
+    <t>Laurent</t>
+  </si>
+  <si>
+    <t>FABIUS</t>
+  </si>
+  <si>
+    <t>CHEYSSON</t>
+  </si>
+  <si>
+    <t>Léon</t>
+  </si>
+  <si>
+    <t>ALEXANDRE</t>
+  </si>
+  <si>
+    <t>ALLEGRE</t>
+  </si>
+  <si>
+    <t>BURON</t>
+  </si>
+  <si>
+    <t>Max</t>
+  </si>
+  <si>
+    <t>GALLO</t>
+  </si>
+  <si>
+    <t>ROSMINI</t>
+  </si>
+  <si>
+    <t>MEBRAK-ZAïDI</t>
+  </si>
+  <si>
+    <t>CEYRAC</t>
+  </si>
+  <si>
+    <t>AUTANT-LARA</t>
+  </si>
+  <si>
+    <t>TAURAN</t>
+  </si>
+  <si>
+    <t>Antoine</t>
+  </si>
+  <si>
+    <t>WAECHTER</t>
+  </si>
+  <si>
+    <t>Solange</t>
+  </si>
+  <si>
+    <t>FERNEX</t>
+  </si>
+  <si>
+    <t>SIMEONI</t>
+  </si>
+  <si>
+    <t>Claire</t>
+  </si>
+  <si>
+    <t>JOANNY</t>
+  </si>
+  <si>
+    <t>COCHET</t>
+  </si>
+  <si>
+    <t>Marie-Christine</t>
+  </si>
+  <si>
+    <t>AULAS</t>
+  </si>
+  <si>
+    <t>MONNIER-BESOMBES</t>
+  </si>
+  <si>
+    <t>Djida</t>
+  </si>
+  <si>
+    <t>TAZDAÏT</t>
+  </si>
+  <si>
+    <t>ANGER</t>
+  </si>
+  <si>
+    <t>BORLOO</t>
+  </si>
+  <si>
+    <t>Adrien</t>
+  </si>
+  <si>
+    <t>ZELLER</t>
+  </si>
+  <si>
+    <t>DOUSTE-BLAZY</t>
+  </si>
+  <si>
+    <t>MAYER</t>
+  </si>
+  <si>
+    <t>GISCARD D'ESTAING</t>
+  </si>
+  <si>
+    <t>de LA MALÈNE</t>
+  </si>
+  <si>
+    <t>HERVE</t>
+  </si>
+  <si>
+    <t>FOURCANS</t>
+  </si>
+  <si>
+    <t>CONAN</t>
+  </si>
+  <si>
+    <t>Renée</t>
+  </si>
+  <si>
+    <t>ARCHIMBAUD</t>
+  </si>
+  <si>
+    <t>CAYET</t>
+  </si>
+  <si>
+    <t>Janine</t>
+  </si>
+  <si>
+    <t>CHICHEREAU-DINGUIRARD</t>
+  </si>
+  <si>
+    <t>Marguerite-Marie</t>
+  </si>
+  <si>
+    <t>PR</t>
+  </si>
+  <si>
+    <t>ABELIN</t>
+  </si>
+  <si>
+    <t>FRIMAT</t>
+  </si>
+  <si>
+    <t>VOYNET</t>
+  </si>
+  <si>
+    <t>BOISSIERE</t>
+  </si>
+  <si>
+    <t>FROMENT-MEURICE</t>
+  </si>
+  <si>
+    <t>CDS</t>
+  </si>
+  <si>
+    <t>GUERMEUR</t>
+  </si>
+  <si>
+    <t>HEIDER</t>
+  </si>
+  <si>
+    <t>ISLER-BEGUIN</t>
+  </si>
+  <si>
+    <t>Marie-Anne</t>
+  </si>
+  <si>
+    <t>RAFFIN</t>
+  </si>
+  <si>
+    <t>MUSSO</t>
+  </si>
+  <si>
+    <t>DE MONTESQUIOU</t>
+  </si>
+  <si>
+    <t>Aymeri</t>
+  </si>
+  <si>
+    <t>PINTON</t>
+  </si>
+  <si>
+    <t>VANLERENBERGHE</t>
+  </si>
+  <si>
+    <t>FREMION</t>
+  </si>
+  <si>
+    <t>EUR_0001034</t>
+  </si>
+  <si>
+    <t>EUR_0000979</t>
+  </si>
+  <si>
+    <t>RNE_0859128</t>
+  </si>
+  <si>
+    <t>EUR_0001180</t>
+  </si>
+  <si>
+    <t>EUR_0001171</t>
+  </si>
+  <si>
+    <t>EUR_0001182</t>
+  </si>
+  <si>
+    <t>EUR_0001156</t>
+  </si>
+  <si>
+    <t>EUR_0001083</t>
+  </si>
+  <si>
+    <t>EUR_0001124</t>
+  </si>
+  <si>
+    <t>RNE_0001009</t>
+  </si>
+  <si>
+    <t>EUR_0001126</t>
+  </si>
+  <si>
+    <t>RNE_0837955</t>
+  </si>
+  <si>
+    <t>RNE_0053206</t>
+  </si>
+  <si>
+    <t>RNE_0001023</t>
+  </si>
+  <si>
+    <t>RNE_0032410</t>
+  </si>
+  <si>
+    <t>EUR_0001835</t>
+  </si>
+  <si>
+    <t>EUR_0001172</t>
+  </si>
+  <si>
+    <t>RNE_0447379</t>
+  </si>
+  <si>
+    <t>RNE_0833186</t>
+  </si>
+  <si>
+    <t>EUR_0001028</t>
+  </si>
+  <si>
+    <t>EUR_0001174</t>
+  </si>
+  <si>
+    <t>EUR_0001035</t>
+  </si>
+  <si>
+    <t>RNE_0000146</t>
+  </si>
+  <si>
+    <t>RNE_0150149</t>
+  </si>
+  <si>
+    <t>RNE_0011291</t>
+  </si>
+  <si>
+    <t>EUR_0001030</t>
+  </si>
+  <si>
+    <t>RNE_0000734</t>
+  </si>
+  <si>
+    <t>RNE_0001057</t>
+  </si>
+  <si>
+    <t>RNE_0001350</t>
+  </si>
+  <si>
+    <t>RNE_0096635</t>
+  </si>
+  <si>
+    <t>RNE_0001088</t>
+  </si>
+  <si>
+    <t>EUR_0001210</t>
+  </si>
+  <si>
+    <t>EUR_0001834</t>
+  </si>
+  <si>
+    <t>EUR_0001212</t>
+  </si>
+  <si>
+    <t>RNE_0646563</t>
+  </si>
+  <si>
+    <t>RNE_0052113</t>
+  </si>
+  <si>
+    <t>EUR_0001161</t>
+  </si>
+  <si>
+    <t>RNE_1090130</t>
+  </si>
+  <si>
+    <t>EUR_0001163</t>
+  </si>
+  <si>
+    <t>RNE_0839318</t>
+  </si>
+  <si>
+    <t>EUR_0000974</t>
+  </si>
+  <si>
+    <t>EUR_0001710</t>
+  </si>
+  <si>
+    <t>EUR_0001703</t>
+  </si>
+  <si>
+    <t>EUR_0001831</t>
+  </si>
+  <si>
+    <t>RNE_0000253</t>
+  </si>
+  <si>
+    <t>EUR_0001872</t>
+  </si>
+  <si>
+    <t>RNE_0578649</t>
+  </si>
+  <si>
+    <t>EUR_0001203</t>
+  </si>
+  <si>
+    <t>EUR_0001656</t>
+  </si>
+  <si>
+    <t>RNE_0000849</t>
+  </si>
+  <si>
+    <t>RNE_0001978</t>
+  </si>
+  <si>
+    <t>EUR_0000954</t>
+  </si>
+  <si>
+    <t>EUR_0001169</t>
+  </si>
+  <si>
+    <t>EUR_0001128</t>
+  </si>
+  <si>
+    <t>EUR_0000992</t>
+  </si>
+  <si>
+    <t>EUR_0000960</t>
+  </si>
+  <si>
+    <t>RNE_0144180</t>
+  </si>
+  <si>
+    <t>EUR_0001837</t>
+  </si>
+  <si>
+    <t>RNE_0000948</t>
+  </si>
+  <si>
+    <t>EUR_0001208</t>
+  </si>
+  <si>
+    <t>EUR_0000975</t>
+  </si>
+  <si>
+    <t>EUR_0000978</t>
+  </si>
+  <si>
+    <t>EUR_0001159</t>
+  </si>
+  <si>
+    <t>RNE_1499712</t>
+  </si>
+  <si>
+    <t>EUR_0000976</t>
+  </si>
+  <si>
+    <t>EUR_0001017</t>
+  </si>
+  <si>
+    <t>RNE_0000273</t>
+  </si>
+  <si>
+    <t>EUR_0001173</t>
   </si>
 </sst>
 </file>
@@ -16391,7 +16851,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -16434,6 +16894,13 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -21360,28 +21827,31 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P1"/>
+  <dimension ref="A1:P108"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.85546875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" customWidth="1"/>
+    <col min="3" max="3" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="35.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8" style="11" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
@@ -21424,7 +21894,7 @@
       <c r="M1" s="4" t="s">
         <v>271</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="N1" s="13" t="s">
         <v>258</v>
       </c>
       <c r="O1" s="4" t="s">
@@ -21434,7 +21904,5360 @@
         <v>273</v>
       </c>
     </row>
+    <row r="2" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="14" t="s">
+        <v>254</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>5325</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="E2" s="16">
+        <v>583</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="H2" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="I2" s="15" t="s">
+        <v>257</v>
+      </c>
+      <c r="J2" s="16">
+        <v>32677</v>
+      </c>
+      <c r="K2" s="16">
+        <v>32755</v>
+      </c>
+      <c r="L2" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="M2" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="N2" s="17" t="s">
+        <v>256</v>
+      </c>
+      <c r="O2" s="15">
+        <v>1034</v>
+      </c>
+      <c r="P2" s="15" t="s">
+        <v>5375</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="14" t="s">
+        <v>254</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>5326</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="E3" s="16">
+        <v>11085</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="H3" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="I3" s="15" t="s">
+        <v>257</v>
+      </c>
+      <c r="J3" s="16">
+        <v>32677</v>
+      </c>
+      <c r="K3" s="16">
+        <v>32755</v>
+      </c>
+      <c r="L3" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="M3" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="N3" s="17" t="s">
+        <v>256</v>
+      </c>
+      <c r="O3" s="15">
+        <v>979</v>
+      </c>
+      <c r="P3" s="15" t="s">
+        <v>5376</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="14" t="s">
+        <v>254</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>5296</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="16">
+        <v>16664</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="H4" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="I4" s="15" t="s">
+        <v>257</v>
+      </c>
+      <c r="J4" s="16">
+        <v>32677</v>
+      </c>
+      <c r="K4" s="16">
+        <v>32796</v>
+      </c>
+      <c r="L4" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="M4" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="N4" s="17">
+        <v>859128</v>
+      </c>
+      <c r="O4" s="15">
+        <v>1168</v>
+      </c>
+      <c r="P4" s="15" t="s">
+        <v>5377</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="14" t="s">
+        <v>254</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>5297</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>414</v>
+      </c>
+      <c r="E5" s="16">
+        <v>15898</v>
+      </c>
+      <c r="F5" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="H5" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="I5" s="15" t="s">
+        <v>257</v>
+      </c>
+      <c r="J5" s="16">
+        <v>32677</v>
+      </c>
+      <c r="K5" s="16">
+        <v>32815</v>
+      </c>
+      <c r="L5" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="M5" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="N5" s="17" t="s">
+        <v>256</v>
+      </c>
+      <c r="O5" s="15">
+        <v>1180</v>
+      </c>
+      <c r="P5" s="15" t="s">
+        <v>5378</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="14" t="s">
+        <v>254</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>321</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="16">
+        <v>16887</v>
+      </c>
+      <c r="F6" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="G6" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="H6" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="I6" s="15" t="s">
+        <v>257</v>
+      </c>
+      <c r="J6" s="16">
+        <v>32677</v>
+      </c>
+      <c r="K6" s="16">
+        <v>32815</v>
+      </c>
+      <c r="L6" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="M6" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="N6" s="18" t="s">
+        <v>733</v>
+      </c>
+      <c r="O6" s="22">
+        <v>1024</v>
+      </c>
+      <c r="P6" s="15" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="14" t="s">
+        <v>254</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>5318</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="E7" s="16">
+        <v>13605</v>
+      </c>
+      <c r="F7" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="G7" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="H7" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="I7" s="15" t="s">
+        <v>257</v>
+      </c>
+      <c r="J7" s="16">
+        <v>32677</v>
+      </c>
+      <c r="K7" s="16">
+        <v>32837</v>
+      </c>
+      <c r="L7" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="M7" s="15" t="s">
+        <v>515</v>
+      </c>
+      <c r="N7" s="17" t="s">
+        <v>256</v>
+      </c>
+      <c r="O7" s="15">
+        <v>1171</v>
+      </c>
+      <c r="P7" s="15" t="s">
+        <v>5379</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="14" t="s">
+        <v>254</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>5330</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>5329</v>
+      </c>
+      <c r="E8" s="16">
+        <v>12524</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="G8" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="H8" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="I8" s="15" t="s">
+        <v>257</v>
+      </c>
+      <c r="J8" s="16">
+        <v>32677</v>
+      </c>
+      <c r="K8" s="16">
+        <v>33554</v>
+      </c>
+      <c r="L8" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="M8" s="15" t="s">
+        <v>513</v>
+      </c>
+      <c r="N8" s="17" t="s">
+        <v>256</v>
+      </c>
+      <c r="O8" s="15">
+        <v>1182</v>
+      </c>
+      <c r="P8" s="15" t="s">
+        <v>5380</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="14" t="s">
+        <v>254</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>5337</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="E9" s="16">
+        <v>19544</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="G9" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="H9" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="I9" s="15" t="s">
+        <v>257</v>
+      </c>
+      <c r="J9" s="16">
+        <v>32677</v>
+      </c>
+      <c r="K9" s="16">
+        <v>33576</v>
+      </c>
+      <c r="L9" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="M9" s="15" t="s">
+        <v>513</v>
+      </c>
+      <c r="N9" s="17" t="s">
+        <v>256</v>
+      </c>
+      <c r="O9" s="15">
+        <v>1156</v>
+      </c>
+      <c r="P9" s="15" t="s">
+        <v>5381</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="14" t="s">
+        <v>254</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>5340</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="E10" s="16">
+        <v>14271</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="G10" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="H10" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="I10" s="15" t="s">
+        <v>257</v>
+      </c>
+      <c r="J10" s="16">
+        <v>32677</v>
+      </c>
+      <c r="K10" s="16">
+        <v>33582</v>
+      </c>
+      <c r="L10" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="M10" s="15" t="s">
+        <v>513</v>
+      </c>
+      <c r="N10" s="17" t="s">
+        <v>256</v>
+      </c>
+      <c r="O10" s="15">
+        <v>1083</v>
+      </c>
+      <c r="P10" s="15" t="s">
+        <v>5382</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="14" t="s">
+        <v>254</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>5336</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>5335</v>
+      </c>
+      <c r="E11" s="16">
+        <v>16506</v>
+      </c>
+      <c r="F11" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="G11" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="H11" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="I11" s="15" t="s">
+        <v>257</v>
+      </c>
+      <c r="J11" s="16">
+        <v>32677</v>
+      </c>
+      <c r="K11" s="16">
+        <v>33582</v>
+      </c>
+      <c r="L11" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="M11" s="15" t="s">
+        <v>513</v>
+      </c>
+      <c r="N11" s="17" t="s">
+        <v>256</v>
+      </c>
+      <c r="O11" s="15">
+        <v>1124</v>
+      </c>
+      <c r="P11" s="15" t="s">
+        <v>5383</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="14" t="s">
+        <v>254</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>5334</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="E12" s="16">
+        <v>16848</v>
+      </c>
+      <c r="F12" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="G12" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="H12" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="I12" s="15" t="s">
+        <v>257</v>
+      </c>
+      <c r="J12" s="16">
+        <v>32677</v>
+      </c>
+      <c r="K12" s="16">
+        <v>33582</v>
+      </c>
+      <c r="L12" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="M12" s="15" t="s">
+        <v>513</v>
+      </c>
+      <c r="N12" s="17">
+        <v>1009</v>
+      </c>
+      <c r="O12" s="15">
+        <v>1202</v>
+      </c>
+      <c r="P12" s="15" t="s">
+        <v>5384</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="14" t="s">
+        <v>254</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>5333</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>5332</v>
+      </c>
+      <c r="E13" s="16">
+        <v>18899</v>
+      </c>
+      <c r="F13" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="G13" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="H13" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="I13" s="15" t="s">
+        <v>257</v>
+      </c>
+      <c r="J13" s="16">
+        <v>32677</v>
+      </c>
+      <c r="K13" s="16">
+        <v>33582</v>
+      </c>
+      <c r="L13" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="M13" s="15" t="s">
+        <v>513</v>
+      </c>
+      <c r="N13" s="17" t="s">
+        <v>256</v>
+      </c>
+      <c r="O13" s="15">
+        <v>1126</v>
+      </c>
+      <c r="P13" s="15" t="s">
+        <v>5385</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="14" t="s">
+        <v>254</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>5360</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" s="16">
+        <v>21493</v>
+      </c>
+      <c r="F14" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="G14" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="H14" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="I14" s="15" t="s">
+        <v>257</v>
+      </c>
+      <c r="J14" s="16">
+        <v>33555</v>
+      </c>
+      <c r="K14" s="16">
+        <v>33583</v>
+      </c>
+      <c r="L14" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="M14" s="15" t="s">
+        <v>513</v>
+      </c>
+      <c r="N14" s="17">
+        <v>837955</v>
+      </c>
+      <c r="O14" s="15">
+        <v>1839</v>
+      </c>
+      <c r="P14" s="15" t="s">
+        <v>5386</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="14" t="s">
+        <v>254</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>5328</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>5327</v>
+      </c>
+      <c r="E15" s="16">
+        <v>17940</v>
+      </c>
+      <c r="F15" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="G15" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="H15" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="I15" s="15" t="s">
+        <v>257</v>
+      </c>
+      <c r="J15" s="16">
+        <v>32677</v>
+      </c>
+      <c r="K15" s="16">
+        <v>33591</v>
+      </c>
+      <c r="L15" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="M15" s="15" t="s">
+        <v>513</v>
+      </c>
+      <c r="N15" s="17">
+        <v>53206</v>
+      </c>
+      <c r="O15" s="15">
+        <v>1152</v>
+      </c>
+      <c r="P15" s="15" t="s">
+        <v>5387</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="14" t="s">
+        <v>254</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>5314</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>5313</v>
+      </c>
+      <c r="E16" s="16">
+        <v>17034</v>
+      </c>
+      <c r="F16" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="G16" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="H16" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="I16" s="15" t="s">
+        <v>257</v>
+      </c>
+      <c r="J16" s="16">
+        <v>32677</v>
+      </c>
+      <c r="K16" s="16">
+        <v>33696</v>
+      </c>
+      <c r="L16" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="M16" s="15" t="s">
+        <v>515</v>
+      </c>
+      <c r="N16" s="17">
+        <v>1023</v>
+      </c>
+      <c r="O16" s="15">
+        <v>1029</v>
+      </c>
+      <c r="P16" s="15" t="s">
+        <v>5388</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="14" t="s">
+        <v>254</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>5343</v>
+      </c>
+      <c r="D17" s="15" t="s">
+        <v>5342</v>
+      </c>
+      <c r="E17" s="16">
+        <v>14703</v>
+      </c>
+      <c r="F17" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="G17" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="H17" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="I17" s="15" t="s">
+        <v>257</v>
+      </c>
+      <c r="J17" s="16">
+        <v>32677</v>
+      </c>
+      <c r="K17" s="16">
+        <v>33699</v>
+      </c>
+      <c r="L17" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="M17" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="N17" s="17">
+        <v>32410</v>
+      </c>
+      <c r="O17" s="15">
+        <v>1153</v>
+      </c>
+      <c r="P17" s="15" t="s">
+        <v>5389</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="14" t="s">
+        <v>254</v>
+      </c>
+      <c r="B18" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="C18" s="15" t="s">
+        <v>5350</v>
+      </c>
+      <c r="D18" s="15" t="s">
+        <v>5351</v>
+      </c>
+      <c r="E18" s="16">
+        <v>13922</v>
+      </c>
+      <c r="F18" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="G18" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="H18" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="I18" s="15" t="s">
+        <v>257</v>
+      </c>
+      <c r="J18" s="16">
+        <v>33583</v>
+      </c>
+      <c r="K18" s="16">
+        <v>33790</v>
+      </c>
+      <c r="L18" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="M18" s="15" t="s">
+        <v>513</v>
+      </c>
+      <c r="N18" s="17" t="s">
+        <v>256</v>
+      </c>
+      <c r="O18" s="15">
+        <v>1835</v>
+      </c>
+      <c r="P18" s="15" t="s">
+        <v>5390</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="14" t="s">
+        <v>254</v>
+      </c>
+      <c r="B19" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>5306</v>
+      </c>
+      <c r="D19" s="15" t="s">
+        <v>5305</v>
+      </c>
+      <c r="E19" s="16">
+        <v>19849</v>
+      </c>
+      <c r="F19" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="G19" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="H19" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="I19" s="15" t="s">
+        <v>257</v>
+      </c>
+      <c r="J19" s="16">
+        <v>32677</v>
+      </c>
+      <c r="K19" s="16">
+        <v>33829</v>
+      </c>
+      <c r="L19" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="M19" s="15" t="s">
+        <v>5291</v>
+      </c>
+      <c r="N19" s="17" t="s">
+        <v>256</v>
+      </c>
+      <c r="O19" s="15">
+        <v>1172</v>
+      </c>
+      <c r="P19" s="15" t="s">
+        <v>5391</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="14" t="s">
+        <v>254</v>
+      </c>
+      <c r="B20" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="C20" s="15" t="s">
+        <v>5341</v>
+      </c>
+      <c r="D20" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="E20" s="16">
+        <v>18725</v>
+      </c>
+      <c r="F20" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="G20" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="H20" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="I20" s="15" t="s">
+        <v>257</v>
+      </c>
+      <c r="J20" s="16">
+        <v>32677</v>
+      </c>
+      <c r="K20" s="16">
+        <v>33851</v>
+      </c>
+      <c r="L20" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="M20" s="15" t="s">
+        <v>5294</v>
+      </c>
+      <c r="N20" s="17">
+        <v>447379</v>
+      </c>
+      <c r="O20" s="15">
+        <v>986</v>
+      </c>
+      <c r="P20" s="15" t="s">
+        <v>5392</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="14" t="s">
+        <v>254</v>
+      </c>
+      <c r="B21" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="C21" s="15" t="s">
+        <v>5298</v>
+      </c>
+      <c r="D21" s="15" t="s">
+        <v>414</v>
+      </c>
+      <c r="E21" s="16">
+        <v>17055</v>
+      </c>
+      <c r="F21" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="G21" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="H21" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="I21" s="15" t="s">
+        <v>257</v>
+      </c>
+      <c r="J21" s="16">
+        <v>32677</v>
+      </c>
+      <c r="K21" s="16">
+        <v>34058</v>
+      </c>
+      <c r="L21" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="M21" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="N21" s="17">
+        <v>833186</v>
+      </c>
+      <c r="O21" s="15">
+        <v>1179</v>
+      </c>
+      <c r="P21" s="15" t="s">
+        <v>5393</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="14" t="s">
+        <v>254</v>
+      </c>
+      <c r="B22" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="C22" s="15" t="s">
+        <v>5344</v>
+      </c>
+      <c r="D22" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="E22" s="16">
+        <v>19360</v>
+      </c>
+      <c r="F22" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="G22" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="H22" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="I22" s="15" t="s">
+        <v>257</v>
+      </c>
+      <c r="J22" s="16">
+        <v>32677</v>
+      </c>
+      <c r="K22" s="16">
+        <v>34058</v>
+      </c>
+      <c r="L22" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="M22" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="N22" s="17" t="s">
+        <v>256</v>
+      </c>
+      <c r="O22" s="15">
+        <v>1028</v>
+      </c>
+      <c r="P22" s="15" t="s">
+        <v>5394</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="14" t="s">
+        <v>254</v>
+      </c>
+      <c r="B23" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="C23" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="D23" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="E23" s="16">
+        <v>16112</v>
+      </c>
+      <c r="F23" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="G23" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="H23" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="I23" s="15" t="s">
+        <v>257</v>
+      </c>
+      <c r="J23" s="16">
+        <v>32677</v>
+      </c>
+      <c r="K23" s="16">
+        <v>34058</v>
+      </c>
+      <c r="L23" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="M23" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="N23" s="18" t="s">
+        <v>663</v>
+      </c>
+      <c r="O23" s="22">
+        <v>1204</v>
+      </c>
+      <c r="P23" s="15" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="14" t="s">
+        <v>254</v>
+      </c>
+      <c r="B24" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="C24" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="D24" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="E24" s="16">
+        <v>46581</v>
+      </c>
+      <c r="F24" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="G24" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="H24" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="I24" s="15" t="s">
+        <v>257</v>
+      </c>
+      <c r="J24" s="16">
+        <v>32677</v>
+      </c>
+      <c r="K24" s="16">
+        <v>34058</v>
+      </c>
+      <c r="L24" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="M24" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="N24" s="17" t="s">
+        <v>256</v>
+      </c>
+      <c r="O24" s="15">
+        <v>1174</v>
+      </c>
+      <c r="P24" s="15" t="s">
+        <v>5395</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="14" t="s">
+        <v>254</v>
+      </c>
+      <c r="B25" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="C25" s="15" t="s">
+        <v>5303</v>
+      </c>
+      <c r="D25" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="E25" s="16">
+        <v>47472</v>
+      </c>
+      <c r="F25" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="G25" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="H25" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="I25" s="15" t="s">
+        <v>257</v>
+      </c>
+      <c r="J25" s="16">
+        <v>32677</v>
+      </c>
+      <c r="K25" s="16">
+        <v>34074</v>
+      </c>
+      <c r="L25" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="M25" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="N25" s="17" t="s">
+        <v>256</v>
+      </c>
+      <c r="O25" s="15">
+        <v>1035</v>
+      </c>
+      <c r="P25" s="15" t="s">
+        <v>5396</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="14" t="s">
+        <v>254</v>
+      </c>
+      <c r="B26" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="C26" s="15" t="s">
+        <v>5370</v>
+      </c>
+      <c r="D26" s="15" t="s">
+        <v>5371</v>
+      </c>
+      <c r="E26" s="16">
+        <v>15529</v>
+      </c>
+      <c r="F26" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="G26" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="H26" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="I26" s="15" t="s">
+        <v>257</v>
+      </c>
+      <c r="J26" s="23">
+        <v>32816</v>
+      </c>
+      <c r="K26" s="16">
+        <v>34075</v>
+      </c>
+      <c r="L26" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="M26" s="15" t="s">
+        <v>5357</v>
+      </c>
+      <c r="N26" s="17">
+        <v>146</v>
+      </c>
+      <c r="O26" s="15">
+        <v>952</v>
+      </c>
+      <c r="P26" s="15" t="s">
+        <v>5397</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="14" t="s">
+        <v>254</v>
+      </c>
+      <c r="B27" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="C27" s="15" t="s">
+        <v>5304</v>
+      </c>
+      <c r="D27" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="E27" s="16">
+        <v>18330</v>
+      </c>
+      <c r="F27" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="G27" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="H27" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="I27" s="15" t="s">
+        <v>257</v>
+      </c>
+      <c r="J27" s="16">
+        <v>32677</v>
+      </c>
+      <c r="K27" s="16">
+        <v>34075</v>
+      </c>
+      <c r="L27" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="M27" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="N27" s="17">
+        <v>150149</v>
+      </c>
+      <c r="O27" s="15">
+        <v>1025</v>
+      </c>
+      <c r="P27" s="15" t="s">
+        <v>5398</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="14" t="s">
+        <v>254</v>
+      </c>
+      <c r="B28" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="C28" s="15" t="s">
+        <v>5312</v>
+      </c>
+      <c r="D28" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="E28" s="16">
+        <v>16256</v>
+      </c>
+      <c r="F28" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="G28" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="H28" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="I28" s="15" t="s">
+        <v>257</v>
+      </c>
+      <c r="J28" s="16">
+        <v>32677</v>
+      </c>
+      <c r="K28" s="16">
+        <v>34076</v>
+      </c>
+      <c r="L28" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="M28" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="N28" s="17">
+        <v>11291</v>
+      </c>
+      <c r="O28" s="15">
+        <v>1195</v>
+      </c>
+      <c r="P28" s="15" t="s">
+        <v>5399</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="14" t="s">
+        <v>254</v>
+      </c>
+      <c r="B29" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="C29" s="15" t="s">
+        <v>5346</v>
+      </c>
+      <c r="D29" s="15" t="s">
+        <v>5295</v>
+      </c>
+      <c r="E29" s="16">
+        <v>9530</v>
+      </c>
+      <c r="F29" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="G29" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="H29" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="I29" s="15" t="s">
+        <v>257</v>
+      </c>
+      <c r="J29" s="16">
+        <v>32677</v>
+      </c>
+      <c r="K29" s="16">
+        <v>34129</v>
+      </c>
+      <c r="L29" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="M29" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="N29" s="17" t="s">
+        <v>256</v>
+      </c>
+      <c r="O29" s="15">
+        <v>1030</v>
+      </c>
+      <c r="P29" s="15" t="s">
+        <v>5400</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="14" t="s">
+        <v>254</v>
+      </c>
+      <c r="B30" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="C30" s="15" t="s">
+        <v>5311</v>
+      </c>
+      <c r="D30" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="E30" s="16">
+        <v>16804</v>
+      </c>
+      <c r="F30" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="G30" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="H30" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="I30" s="15" t="s">
+        <v>257</v>
+      </c>
+      <c r="J30" s="16">
+        <v>32677</v>
+      </c>
+      <c r="K30" s="16">
+        <v>34137</v>
+      </c>
+      <c r="L30" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="M30" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="N30" s="17">
+        <v>734</v>
+      </c>
+      <c r="O30" s="15">
+        <v>1165</v>
+      </c>
+      <c r="P30" s="15" t="s">
+        <v>5401</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="14" t="s">
+        <v>254</v>
+      </c>
+      <c r="B31" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="C31" s="15" t="s">
+        <v>167</v>
+      </c>
+      <c r="D31" s="15" t="s">
+        <v>166</v>
+      </c>
+      <c r="E31" s="16">
+        <v>14857</v>
+      </c>
+      <c r="F31" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="G31" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="H31" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="I31" s="15" t="s">
+        <v>257</v>
+      </c>
+      <c r="J31" s="16">
+        <v>32677</v>
+      </c>
+      <c r="K31" s="16">
+        <v>34376</v>
+      </c>
+      <c r="L31" s="15" t="s">
+        <v>383</v>
+      </c>
+      <c r="M31" s="15" t="s">
+        <v>4899</v>
+      </c>
+      <c r="N31" s="17">
+        <v>1057</v>
+      </c>
+      <c r="O31" s="15">
+        <v>1176</v>
+      </c>
+      <c r="P31" s="15" t="s">
+        <v>5402</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="14" t="s">
+        <v>254</v>
+      </c>
+      <c r="B32" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="C32" s="15" t="s">
+        <v>162</v>
+      </c>
+      <c r="D32" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="E32" s="16">
+        <v>11985</v>
+      </c>
+      <c r="F32" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="G32" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="H32" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="I32" s="15" t="s">
+        <v>257</v>
+      </c>
+      <c r="J32" s="16">
+        <v>32677</v>
+      </c>
+      <c r="K32" s="16">
+        <v>34376</v>
+      </c>
+      <c r="L32" s="15" t="s">
+        <v>383</v>
+      </c>
+      <c r="M32" s="15" t="s">
+        <v>4899</v>
+      </c>
+      <c r="N32" s="17" t="s">
+        <v>256</v>
+      </c>
+      <c r="O32" s="15">
+        <v>1157</v>
+      </c>
+      <c r="P32" s="15" t="s">
+        <v>5268</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="14" t="s">
+        <v>254</v>
+      </c>
+      <c r="B33" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="C33" s="15" t="s">
+        <v>349</v>
+      </c>
+      <c r="D33" s="15" t="s">
+        <v>348</v>
+      </c>
+      <c r="E33" s="16">
+        <v>17520</v>
+      </c>
+      <c r="F33" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="G33" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="H33" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="I33" s="15" t="s">
+        <v>257</v>
+      </c>
+      <c r="J33" s="16">
+        <v>32677</v>
+      </c>
+      <c r="K33" s="16">
+        <v>34496</v>
+      </c>
+      <c r="L33" s="15" t="s">
+        <v>383</v>
+      </c>
+      <c r="M33" s="15" t="s">
+        <v>4899</v>
+      </c>
+      <c r="N33" s="17" t="s">
+        <v>256</v>
+      </c>
+      <c r="O33" s="15">
+        <v>1133</v>
+      </c>
+      <c r="P33" s="15" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="14" t="s">
+        <v>254</v>
+      </c>
+      <c r="B34" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="C34" s="15" t="s">
+        <v>5317</v>
+      </c>
+      <c r="D34" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="E34" s="16">
+        <v>17131</v>
+      </c>
+      <c r="F34" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="G34" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="H34" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="I34" s="15" t="s">
+        <v>257</v>
+      </c>
+      <c r="J34" s="16">
+        <v>32677</v>
+      </c>
+      <c r="K34" s="16">
+        <v>34496</v>
+      </c>
+      <c r="L34" s="15" t="s">
+        <v>383</v>
+      </c>
+      <c r="M34" s="15" t="s">
+        <v>515</v>
+      </c>
+      <c r="N34" s="17">
+        <v>1350</v>
+      </c>
+      <c r="O34" s="15">
+        <v>1170</v>
+      </c>
+      <c r="P34" s="15" t="s">
+        <v>5403</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="14" t="s">
+        <v>254</v>
+      </c>
+      <c r="B35" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="C35" s="15" t="s">
+        <v>5146</v>
+      </c>
+      <c r="D35" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="E35" s="16">
+        <v>16404</v>
+      </c>
+      <c r="F35" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="G35" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="H35" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="I35" s="15" t="s">
+        <v>257</v>
+      </c>
+      <c r="J35" s="16">
+        <v>32677</v>
+      </c>
+      <c r="K35" s="16">
+        <v>34496</v>
+      </c>
+      <c r="L35" s="15" t="s">
+        <v>383</v>
+      </c>
+      <c r="M35" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="N35" s="17" t="s">
+        <v>256</v>
+      </c>
+      <c r="O35" s="15">
+        <v>1209</v>
+      </c>
+      <c r="P35" s="15" t="s">
+        <v>5245</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="14" t="s">
+        <v>254</v>
+      </c>
+      <c r="B36" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="C36" s="15" t="s">
+        <v>5352</v>
+      </c>
+      <c r="D36" s="15" t="s">
+        <v>5138</v>
+      </c>
+      <c r="E36" s="16">
+        <v>17839</v>
+      </c>
+      <c r="F36" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="G36" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="H36" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="I36" s="15" t="s">
+        <v>257</v>
+      </c>
+      <c r="J36" s="16">
+        <v>33791</v>
+      </c>
+      <c r="K36" s="16">
+        <v>34496</v>
+      </c>
+      <c r="L36" s="15" t="s">
+        <v>383</v>
+      </c>
+      <c r="M36" s="15" t="s">
+        <v>513</v>
+      </c>
+      <c r="N36" s="17">
+        <v>96635</v>
+      </c>
+      <c r="O36" s="15">
+        <v>1869</v>
+      </c>
+      <c r="P36" s="15" t="s">
+        <v>5404</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="14" t="s">
+        <v>254</v>
+      </c>
+      <c r="B37" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="C37" s="24" t="s">
+        <v>5358</v>
+      </c>
+      <c r="D37" s="15" t="s">
+        <v>5178</v>
+      </c>
+      <c r="E37" s="16">
+        <v>18509</v>
+      </c>
+      <c r="F37" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="G37" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="H37" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="I37" s="15" t="s">
+        <v>257</v>
+      </c>
+      <c r="J37" s="16">
+        <v>34058</v>
+      </c>
+      <c r="K37" s="16">
+        <v>34496</v>
+      </c>
+      <c r="L37" s="15" t="s">
+        <v>383</v>
+      </c>
+      <c r="M37" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="N37" s="17">
+        <v>1088</v>
+      </c>
+      <c r="O37" s="15">
+        <v>1829</v>
+      </c>
+      <c r="P37" s="15" t="s">
+        <v>5405</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="14" t="s">
+        <v>254</v>
+      </c>
+      <c r="B38" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="C38" s="15" t="s">
+        <v>5041</v>
+      </c>
+      <c r="D38" s="15" t="s">
+        <v>390</v>
+      </c>
+      <c r="E38" s="16">
+        <v>13421</v>
+      </c>
+      <c r="F38" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="G38" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="H38" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="I38" s="15" t="s">
+        <v>257</v>
+      </c>
+      <c r="J38" s="16">
+        <v>32677</v>
+      </c>
+      <c r="K38" s="16">
+        <v>34496</v>
+      </c>
+      <c r="L38" s="15" t="s">
+        <v>383</v>
+      </c>
+      <c r="M38" s="15" t="s">
+        <v>5292</v>
+      </c>
+      <c r="N38" s="17" t="s">
+        <v>256</v>
+      </c>
+      <c r="O38" s="15">
+        <v>1210</v>
+      </c>
+      <c r="P38" s="15" t="s">
+        <v>5406</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="14" t="s">
+        <v>254</v>
+      </c>
+      <c r="B39" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="C39" s="15" t="s">
+        <v>5191</v>
+      </c>
+      <c r="D39" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="E39" s="16">
+        <v>16087</v>
+      </c>
+      <c r="F39" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="G39" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="H39" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="I39" s="15" t="s">
+        <v>257</v>
+      </c>
+      <c r="J39" s="16">
+        <v>32677</v>
+      </c>
+      <c r="K39" s="16">
+        <v>34496</v>
+      </c>
+      <c r="L39" s="15" t="s">
+        <v>383</v>
+      </c>
+      <c r="M39" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="N39" s="17">
+        <v>94535</v>
+      </c>
+      <c r="O39" s="15">
+        <v>1036</v>
+      </c>
+      <c r="P39" s="15" t="s">
+        <v>5214</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="14" t="s">
+        <v>254</v>
+      </c>
+      <c r="B40" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="C40" s="15" t="s">
+        <v>5144</v>
+      </c>
+      <c r="D40" s="15" t="s">
+        <v>5145</v>
+      </c>
+      <c r="E40" s="16">
+        <v>17713</v>
+      </c>
+      <c r="F40" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="G40" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="H40" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="I40" s="15" t="s">
+        <v>257</v>
+      </c>
+      <c r="J40" s="16">
+        <v>32677</v>
+      </c>
+      <c r="K40" s="16">
+        <v>34496</v>
+      </c>
+      <c r="L40" s="15" t="s">
+        <v>383</v>
+      </c>
+      <c r="M40" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="N40" s="17" t="s">
+        <v>256</v>
+      </c>
+      <c r="O40" s="15">
+        <v>1211</v>
+      </c>
+      <c r="P40" s="15" t="s">
+        <v>5247</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="14" t="s">
+        <v>254</v>
+      </c>
+      <c r="B41" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="C41" s="24" t="s">
+        <v>5361</v>
+      </c>
+      <c r="D41" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="E41" s="16">
+        <v>20720</v>
+      </c>
+      <c r="F41" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="G41" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="H41" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="I41" s="15" t="s">
+        <v>257</v>
+      </c>
+      <c r="J41" s="16">
+        <v>33584</v>
+      </c>
+      <c r="K41" s="16">
+        <v>34496</v>
+      </c>
+      <c r="L41" s="15" t="s">
+        <v>383</v>
+      </c>
+      <c r="M41" s="15" t="s">
+        <v>513</v>
+      </c>
+      <c r="N41" s="17" t="s">
+        <v>256</v>
+      </c>
+      <c r="O41" s="15">
+        <v>1834</v>
+      </c>
+      <c r="P41" s="15" t="s">
+        <v>5407</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="14" t="s">
+        <v>254</v>
+      </c>
+      <c r="B42" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="C42" s="15" t="s">
+        <v>217</v>
+      </c>
+      <c r="D42" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="E42" s="16">
+        <v>9067</v>
+      </c>
+      <c r="F42" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="G42" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="H42" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="I42" s="15" t="s">
+        <v>257</v>
+      </c>
+      <c r="J42" s="16">
+        <v>32677</v>
+      </c>
+      <c r="K42" s="16">
+        <v>34496</v>
+      </c>
+      <c r="L42" s="15" t="s">
+        <v>383</v>
+      </c>
+      <c r="M42" s="15" t="s">
+        <v>515</v>
+      </c>
+      <c r="N42" s="17" t="s">
+        <v>256</v>
+      </c>
+      <c r="O42" s="15">
+        <v>1212</v>
+      </c>
+      <c r="P42" s="15" t="s">
+        <v>5408</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="14" t="s">
+        <v>254</v>
+      </c>
+      <c r="B43" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="C43" s="15" t="s">
+        <v>339</v>
+      </c>
+      <c r="D43" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="E43" s="16">
+        <v>16996</v>
+      </c>
+      <c r="F43" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="G43" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="H43" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="I43" s="15" t="s">
+        <v>257</v>
+      </c>
+      <c r="J43" s="16">
+        <v>32677</v>
+      </c>
+      <c r="K43" s="16">
+        <v>34496</v>
+      </c>
+      <c r="L43" s="15" t="s">
+        <v>383</v>
+      </c>
+      <c r="M43" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="N43" s="17">
+        <v>1519893</v>
+      </c>
+      <c r="O43" s="15">
+        <v>1026</v>
+      </c>
+      <c r="P43" s="15" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="14" t="s">
+        <v>254</v>
+      </c>
+      <c r="B44" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="C44" s="15" t="s">
+        <v>5319</v>
+      </c>
+      <c r="D44" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="E44" s="16">
+        <v>16083</v>
+      </c>
+      <c r="F44" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="G44" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="H44" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="I44" s="15" t="s">
+        <v>257</v>
+      </c>
+      <c r="J44" s="16">
+        <v>32677</v>
+      </c>
+      <c r="K44" s="16">
+        <v>34496</v>
+      </c>
+      <c r="L44" s="15" t="s">
+        <v>383</v>
+      </c>
+      <c r="M44" s="15" t="s">
+        <v>515</v>
+      </c>
+      <c r="N44" s="17">
+        <v>646563</v>
+      </c>
+      <c r="O44" s="15">
+        <v>1181</v>
+      </c>
+      <c r="P44" s="15" t="s">
+        <v>5409</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="14" t="s">
+        <v>254</v>
+      </c>
+      <c r="B45" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="C45" s="15" t="s">
+        <v>293</v>
+      </c>
+      <c r="D45" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="E45" s="16">
+        <v>16495</v>
+      </c>
+      <c r="F45" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="G45" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="H45" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="I45" s="15" t="s">
+        <v>257</v>
+      </c>
+      <c r="J45" s="16">
+        <v>32677</v>
+      </c>
+      <c r="K45" s="16">
+        <v>34496</v>
+      </c>
+      <c r="L45" s="15" t="s">
+        <v>383</v>
+      </c>
+      <c r="M45" s="15" t="s">
+        <v>515</v>
+      </c>
+      <c r="N45" s="17">
+        <v>16</v>
+      </c>
+      <c r="O45" s="15">
+        <v>1175</v>
+      </c>
+      <c r="P45" s="15" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="14" t="s">
+        <v>254</v>
+      </c>
+      <c r="B46" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="C46" s="15" t="s">
+        <v>5353</v>
+      </c>
+      <c r="D46" s="15" t="s">
+        <v>5354</v>
+      </c>
+      <c r="E46" s="16">
+        <v>15850</v>
+      </c>
+      <c r="F46" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="G46" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="H46" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="I46" s="15" t="s">
+        <v>257</v>
+      </c>
+      <c r="J46" s="16">
+        <v>34138</v>
+      </c>
+      <c r="K46" s="16">
+        <v>34496</v>
+      </c>
+      <c r="L46" s="15" t="s">
+        <v>383</v>
+      </c>
+      <c r="M46" s="15" t="s">
+        <v>515</v>
+      </c>
+      <c r="N46" s="17">
+        <v>52113</v>
+      </c>
+      <c r="O46" s="15">
+        <v>1880</v>
+      </c>
+      <c r="P46" s="15" t="s">
+        <v>5410</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="14" t="s">
+        <v>254</v>
+      </c>
+      <c r="B47" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="C47" s="15" t="s">
+        <v>5324</v>
+      </c>
+      <c r="D47" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="E47" s="16">
+        <v>17063</v>
+      </c>
+      <c r="F47" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="G47" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="H47" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="I47" s="15" t="s">
+        <v>257</v>
+      </c>
+      <c r="J47" s="16">
+        <v>32677</v>
+      </c>
+      <c r="K47" s="16">
+        <v>34496</v>
+      </c>
+      <c r="L47" s="15" t="s">
+        <v>383</v>
+      </c>
+      <c r="M47" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="N47" s="17" t="s">
+        <v>256</v>
+      </c>
+      <c r="O47" s="15">
+        <v>1161</v>
+      </c>
+      <c r="P47" s="15" t="s">
+        <v>5411</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="14" t="s">
+        <v>254</v>
+      </c>
+      <c r="B48" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="C48" s="15" t="s">
+        <v>5310</v>
+      </c>
+      <c r="D48" s="15" t="s">
+        <v>5309</v>
+      </c>
+      <c r="E48" s="16">
+        <v>16713</v>
+      </c>
+      <c r="F48" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="G48" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="H48" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="I48" s="15" t="s">
+        <v>257</v>
+      </c>
+      <c r="J48" s="16">
+        <v>32677</v>
+      </c>
+      <c r="K48" s="16">
+        <v>34496</v>
+      </c>
+      <c r="L48" s="15" t="s">
+        <v>383</v>
+      </c>
+      <c r="M48" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="N48" s="17">
+        <v>1090130</v>
+      </c>
+      <c r="O48" s="15">
+        <v>1162</v>
+      </c>
+      <c r="P48" s="15" t="s">
+        <v>5412</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="14" t="s">
+        <v>254</v>
+      </c>
+      <c r="B49" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="C49" s="15" t="s">
+        <v>5315</v>
+      </c>
+      <c r="D49" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="E49" s="16">
+        <v>7409</v>
+      </c>
+      <c r="F49" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="G49" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="H49" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="I49" s="15" t="s">
+        <v>257</v>
+      </c>
+      <c r="J49" s="16">
+        <v>32677</v>
+      </c>
+      <c r="K49" s="16">
+        <v>34496</v>
+      </c>
+      <c r="L49" s="15" t="s">
+        <v>383</v>
+      </c>
+      <c r="M49" s="15" t="s">
+        <v>515</v>
+      </c>
+      <c r="N49" s="17" t="s">
+        <v>256</v>
+      </c>
+      <c r="O49" s="15">
+        <v>1163</v>
+      </c>
+      <c r="P49" s="15" t="s">
+        <v>5413</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="14" t="s">
+        <v>254</v>
+      </c>
+      <c r="B50" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="C50" s="15" t="s">
+        <v>5355</v>
+      </c>
+      <c r="D50" s="15" t="s">
+        <v>5356</v>
+      </c>
+      <c r="E50" s="16">
+        <v>17724</v>
+      </c>
+      <c r="F50" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="G50" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="H50" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="I50" s="15" t="s">
+        <v>257</v>
+      </c>
+      <c r="J50" s="16">
+        <v>33583</v>
+      </c>
+      <c r="K50" s="16">
+        <v>34496</v>
+      </c>
+      <c r="L50" s="15" t="s">
+        <v>383</v>
+      </c>
+      <c r="M50" s="15" t="s">
+        <v>513</v>
+      </c>
+      <c r="N50" s="17">
+        <v>839318</v>
+      </c>
+      <c r="O50" s="15">
+        <v>1836</v>
+      </c>
+      <c r="P50" s="15" t="s">
+        <v>5414</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="14" t="s">
+        <v>254</v>
+      </c>
+      <c r="B51" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="C51" s="15" t="s">
+        <v>5177</v>
+      </c>
+      <c r="D51" s="15" t="s">
+        <v>5178</v>
+      </c>
+      <c r="E51" s="16">
+        <v>13781</v>
+      </c>
+      <c r="F51" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="G51" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="H51" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="I51" s="15" t="s">
+        <v>257</v>
+      </c>
+      <c r="J51" s="16">
+        <v>32677</v>
+      </c>
+      <c r="K51" s="16">
+        <v>34496</v>
+      </c>
+      <c r="L51" s="15" t="s">
+        <v>383</v>
+      </c>
+      <c r="M51" s="15" t="s">
+        <v>515</v>
+      </c>
+      <c r="N51" s="17" t="s">
+        <v>256</v>
+      </c>
+      <c r="O51" s="15">
+        <v>1027</v>
+      </c>
+      <c r="P51" s="15" t="s">
+        <v>5251</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="14" t="s">
+        <v>254</v>
+      </c>
+      <c r="B52" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="C52" s="15" t="s">
+        <v>366</v>
+      </c>
+      <c r="D52" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="E52" s="16">
+        <v>17801</v>
+      </c>
+      <c r="F52" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="G52" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="H52" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="I52" s="15" t="s">
+        <v>257</v>
+      </c>
+      <c r="J52" s="16">
+        <v>34075</v>
+      </c>
+      <c r="K52" s="16">
+        <v>34496</v>
+      </c>
+      <c r="L52" s="15" t="s">
+        <v>383</v>
+      </c>
+      <c r="M52" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="N52" s="17" t="s">
+        <v>256</v>
+      </c>
+      <c r="O52" s="15">
+        <v>1878</v>
+      </c>
+      <c r="P52" s="15" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="14" t="s">
+        <v>254</v>
+      </c>
+      <c r="B53" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="C53" s="15" t="s">
+        <v>5347</v>
+      </c>
+      <c r="D53" s="15" t="s">
+        <v>187</v>
+      </c>
+      <c r="E53" s="16">
+        <v>7645</v>
+      </c>
+      <c r="F53" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="G53" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="H53" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="I53" s="15" t="s">
+        <v>257</v>
+      </c>
+      <c r="J53" s="16">
+        <v>32677</v>
+      </c>
+      <c r="K53" s="16">
+        <v>34496</v>
+      </c>
+      <c r="L53" s="15" t="s">
+        <v>383</v>
+      </c>
+      <c r="M53" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="N53" s="17" t="s">
+        <v>256</v>
+      </c>
+      <c r="O53" s="15">
+        <v>974</v>
+      </c>
+      <c r="P53" s="15" t="s">
+        <v>5415</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="14" t="s">
+        <v>254</v>
+      </c>
+      <c r="B54" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="C54" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="D54" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="E54" s="16">
+        <v>10684</v>
+      </c>
+      <c r="F54" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="G54" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="H54" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="I54" s="15" t="s">
+        <v>257</v>
+      </c>
+      <c r="J54" s="16">
+        <v>33700</v>
+      </c>
+      <c r="K54" s="16">
+        <v>34496</v>
+      </c>
+      <c r="L54" s="15" t="s">
+        <v>383</v>
+      </c>
+      <c r="M54" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="N54" s="17" t="s">
+        <v>256</v>
+      </c>
+      <c r="O54" s="15">
+        <v>1710</v>
+      </c>
+      <c r="P54" s="15" t="s">
+        <v>5416</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="14" t="s">
+        <v>254</v>
+      </c>
+      <c r="B55" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="C55" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="D55" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="E55" s="16">
+        <v>8179</v>
+      </c>
+      <c r="F55" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="G55" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="H55" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="I55" s="15" t="s">
+        <v>257</v>
+      </c>
+      <c r="J55" s="16">
+        <v>34059</v>
+      </c>
+      <c r="K55" s="16">
+        <v>34496</v>
+      </c>
+      <c r="L55" s="15" t="s">
+        <v>383</v>
+      </c>
+      <c r="M55" s="15" t="s">
+        <v>5357</v>
+      </c>
+      <c r="N55" s="17" t="s">
+        <v>256</v>
+      </c>
+      <c r="O55" s="15">
+        <v>1703</v>
+      </c>
+      <c r="P55" s="15" t="s">
+        <v>5417</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="14" t="s">
+        <v>254</v>
+      </c>
+      <c r="B56" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="C56" s="15" t="s">
+        <v>5236</v>
+      </c>
+      <c r="D56" s="15" t="s">
+        <v>5231</v>
+      </c>
+      <c r="E56" s="16">
+        <v>18337</v>
+      </c>
+      <c r="F56" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="G56" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="H56" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="I56" s="15" t="s">
+        <v>257</v>
+      </c>
+      <c r="J56" s="16">
+        <v>32677</v>
+      </c>
+      <c r="K56" s="16">
+        <v>34496</v>
+      </c>
+      <c r="L56" s="15" t="s">
+        <v>383</v>
+      </c>
+      <c r="M56" s="15" t="s">
+        <v>515</v>
+      </c>
+      <c r="N56" s="17">
+        <v>69740</v>
+      </c>
+      <c r="O56" s="15">
+        <v>1001</v>
+      </c>
+      <c r="P56" s="15" t="s">
+        <v>5243</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="14" t="s">
+        <v>254</v>
+      </c>
+      <c r="B57" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="C57" s="15" t="s">
+        <v>5289</v>
+      </c>
+      <c r="D57" s="15" t="s">
+        <v>5139</v>
+      </c>
+      <c r="E57" s="16">
+        <v>17906</v>
+      </c>
+      <c r="F57" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="G57" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="H57" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="I57" s="15" t="s">
+        <v>257</v>
+      </c>
+      <c r="J57" s="16">
+        <v>32677</v>
+      </c>
+      <c r="K57" s="16">
+        <v>34496</v>
+      </c>
+      <c r="L57" s="15" t="s">
+        <v>383</v>
+      </c>
+      <c r="M57" s="15" t="s">
+        <v>4899</v>
+      </c>
+      <c r="N57" s="17">
+        <v>169991</v>
+      </c>
+      <c r="O57" s="15">
+        <v>1125</v>
+      </c>
+      <c r="P57" s="15" t="s">
+        <v>5285</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="14" t="s">
+        <v>254</v>
+      </c>
+      <c r="B58" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="C58" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="D58" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E58" s="16">
+        <v>15357</v>
+      </c>
+      <c r="F58" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="G58" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="H58" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="I58" s="15" t="s">
+        <v>257</v>
+      </c>
+      <c r="J58" s="16">
+        <v>32677</v>
+      </c>
+      <c r="K58" s="16">
+        <v>34496</v>
+      </c>
+      <c r="L58" s="15" t="s">
+        <v>383</v>
+      </c>
+      <c r="M58" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="N58" s="17">
+        <v>838005</v>
+      </c>
+      <c r="O58" s="15">
+        <v>945</v>
+      </c>
+      <c r="P58" s="15" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="14" t="s">
+        <v>254</v>
+      </c>
+      <c r="B59" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="C59" s="15" t="s">
+        <v>5349</v>
+      </c>
+      <c r="D59" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="E59" s="16">
+        <v>16868</v>
+      </c>
+      <c r="F59" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="G59" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="H59" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="I59" s="15" t="s">
+        <v>257</v>
+      </c>
+      <c r="J59" s="16">
+        <v>34059</v>
+      </c>
+      <c r="K59" s="16">
+        <v>34496</v>
+      </c>
+      <c r="L59" s="15" t="s">
+        <v>383</v>
+      </c>
+      <c r="M59" s="15" t="s">
+        <v>5290</v>
+      </c>
+      <c r="N59" s="17" t="s">
+        <v>256</v>
+      </c>
+      <c r="O59" s="15">
+        <v>1692</v>
+      </c>
+      <c r="P59" s="15" t="s">
+        <v>5279</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="14" t="s">
+        <v>254</v>
+      </c>
+      <c r="B60" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="C60" s="15" t="s">
+        <v>5374</v>
+      </c>
+      <c r="D60" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="E60" s="16">
+        <v>17332</v>
+      </c>
+      <c r="F60" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="G60" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="H60" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="I60" s="15" t="s">
+        <v>257</v>
+      </c>
+      <c r="J60" s="16">
+        <v>33577</v>
+      </c>
+      <c r="K60" s="16">
+        <v>34496</v>
+      </c>
+      <c r="L60" s="15" t="s">
+        <v>383</v>
+      </c>
+      <c r="M60" s="15" t="s">
+        <v>513</v>
+      </c>
+      <c r="N60" s="17" t="s">
+        <v>256</v>
+      </c>
+      <c r="O60" s="15">
+        <v>1831</v>
+      </c>
+      <c r="P60" s="15" t="s">
+        <v>5418</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="14" t="s">
+        <v>254</v>
+      </c>
+      <c r="B61" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="C61" s="15" t="s">
+        <v>5359</v>
+      </c>
+      <c r="D61" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="E61" s="16">
+        <v>14896</v>
+      </c>
+      <c r="F61" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="G61" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="H61" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="I61" s="15" t="s">
+        <v>257</v>
+      </c>
+      <c r="J61" s="16">
+        <v>33696</v>
+      </c>
+      <c r="K61" s="16">
+        <v>34496</v>
+      </c>
+      <c r="L61" s="15" t="s">
+        <v>383</v>
+      </c>
+      <c r="M61" s="15" t="s">
+        <v>515</v>
+      </c>
+      <c r="N61" s="17">
+        <v>253</v>
+      </c>
+      <c r="O61" s="15">
+        <v>1865</v>
+      </c>
+      <c r="P61" s="15" t="s">
+        <v>5419</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="14" t="s">
+        <v>254</v>
+      </c>
+      <c r="B62" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="C62" s="15" t="s">
+        <v>5362</v>
+      </c>
+      <c r="D62" s="15" t="s">
+        <v>283</v>
+      </c>
+      <c r="E62" s="16">
+        <v>18026</v>
+      </c>
+      <c r="F62" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="G62" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="H62" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="I62" s="15" t="s">
+        <v>257</v>
+      </c>
+      <c r="J62" s="16">
+        <v>33852</v>
+      </c>
+      <c r="K62" s="16">
+        <v>34496</v>
+      </c>
+      <c r="L62" s="15" t="s">
+        <v>383</v>
+      </c>
+      <c r="M62" s="15" t="s">
+        <v>5363</v>
+      </c>
+      <c r="N62" s="17" t="s">
+        <v>256</v>
+      </c>
+      <c r="O62" s="15">
+        <v>1872</v>
+      </c>
+      <c r="P62" s="15" t="s">
+        <v>5420</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="14" t="s">
+        <v>254</v>
+      </c>
+      <c r="B63" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="C63" s="15" t="s">
+        <v>223</v>
+      </c>
+      <c r="D63" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="E63" s="16">
+        <v>14749</v>
+      </c>
+      <c r="F63" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="G63" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="H63" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="I63" s="15" t="s">
+        <v>257</v>
+      </c>
+      <c r="J63" s="16">
+        <v>32677</v>
+      </c>
+      <c r="K63" s="16">
+        <v>34496</v>
+      </c>
+      <c r="L63" s="15" t="s">
+        <v>383</v>
+      </c>
+      <c r="M63" s="15" t="s">
+        <v>515</v>
+      </c>
+      <c r="N63" s="17">
+        <v>578649</v>
+      </c>
+      <c r="O63" s="15">
+        <v>967</v>
+      </c>
+      <c r="P63" s="15" t="s">
+        <v>5421</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="14" t="s">
+        <v>254</v>
+      </c>
+      <c r="B64" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="C64" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="D64" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="E64" s="16">
+        <v>19477</v>
+      </c>
+      <c r="F64" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="G64" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="H64" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="I64" s="15" t="s">
+        <v>257</v>
+      </c>
+      <c r="J64" s="16">
+        <v>32677</v>
+      </c>
+      <c r="K64" s="16">
+        <v>34496</v>
+      </c>
+      <c r="L64" s="15" t="s">
+        <v>383</v>
+      </c>
+      <c r="M64" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="N64" s="17">
+        <v>169458</v>
+      </c>
+      <c r="O64" s="15">
+        <v>1084</v>
+      </c>
+      <c r="P64" s="15" t="s">
+        <v>5209</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="14" t="s">
+        <v>254</v>
+      </c>
+      <c r="B65" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="C65" s="15" t="s">
+        <v>5321</v>
+      </c>
+      <c r="D65" s="15" t="s">
+        <v>5320</v>
+      </c>
+      <c r="E65" s="16">
+        <v>11695</v>
+      </c>
+      <c r="F65" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="G65" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="H65" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="I65" s="15" t="s">
+        <v>257</v>
+      </c>
+      <c r="J65" s="16">
+        <v>32677</v>
+      </c>
+      <c r="K65" s="16">
+        <v>34496</v>
+      </c>
+      <c r="L65" s="15" t="s">
+        <v>383</v>
+      </c>
+      <c r="M65" s="15" t="s">
+        <v>515</v>
+      </c>
+      <c r="N65" s="17" t="s">
+        <v>256</v>
+      </c>
+      <c r="O65" s="15">
+        <v>1203</v>
+      </c>
+      <c r="P65" s="15" t="s">
+        <v>5422</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="14" t="s">
+        <v>254</v>
+      </c>
+      <c r="B66" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="C66" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="D66" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="E66" s="16">
+        <v>18291</v>
+      </c>
+      <c r="F66" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="G66" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="H66" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="I66" s="15" t="s">
+        <v>257</v>
+      </c>
+      <c r="J66" s="16">
+        <v>32677</v>
+      </c>
+      <c r="K66" s="16">
+        <v>34496</v>
+      </c>
+      <c r="L66" s="15" t="s">
+        <v>383</v>
+      </c>
+      <c r="M66" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="N66" s="17">
+        <v>41</v>
+      </c>
+      <c r="O66" s="15">
+        <v>1164</v>
+      </c>
+      <c r="P66" s="15" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="14" t="s">
+        <v>254</v>
+      </c>
+      <c r="B67" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="C67" s="15" t="s">
+        <v>5364</v>
+      </c>
+      <c r="D67" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="E67" s="16">
+        <v>10969</v>
+      </c>
+      <c r="F67" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="G67" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="H67" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="I67" s="15" t="s">
+        <v>257</v>
+      </c>
+      <c r="J67" s="16">
+        <v>34077</v>
+      </c>
+      <c r="K67" s="16">
+        <v>34496</v>
+      </c>
+      <c r="L67" s="15" t="s">
+        <v>383</v>
+      </c>
+      <c r="M67" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="N67" s="17" t="s">
+        <v>256</v>
+      </c>
+      <c r="O67" s="15">
+        <v>1656</v>
+      </c>
+      <c r="P67" s="15" t="s">
+        <v>5423</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="14" t="s">
+        <v>254</v>
+      </c>
+      <c r="B68" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="C68" s="15" t="s">
+        <v>508</v>
+      </c>
+      <c r="D68" s="15" t="s">
+        <v>283</v>
+      </c>
+      <c r="E68" s="16">
+        <v>11981</v>
+      </c>
+      <c r="F68" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="G68" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="H68" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="I68" s="15" t="s">
+        <v>257</v>
+      </c>
+      <c r="J68" s="16">
+        <v>32677</v>
+      </c>
+      <c r="K68" s="16">
+        <v>34496</v>
+      </c>
+      <c r="L68" s="15" t="s">
+        <v>383</v>
+      </c>
+      <c r="M68" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="N68" s="17">
+        <v>849</v>
+      </c>
+      <c r="O68" s="15">
+        <v>1177</v>
+      </c>
+      <c r="P68" s="15" t="s">
+        <v>5424</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="14" t="s">
+        <v>254</v>
+      </c>
+      <c r="B69" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="C69" s="15" t="s">
+        <v>5365</v>
+      </c>
+      <c r="D69" s="15" t="s">
+        <v>390</v>
+      </c>
+      <c r="E69" s="16">
+        <v>14289</v>
+      </c>
+      <c r="F69" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="G69" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="H69" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="I69" s="15" t="s">
+        <v>257</v>
+      </c>
+      <c r="J69" s="16">
+        <v>34131</v>
+      </c>
+      <c r="K69" s="16">
+        <v>34496</v>
+      </c>
+      <c r="L69" s="15" t="s">
+        <v>383</v>
+      </c>
+      <c r="M69" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="N69" s="17">
+        <v>1978</v>
+      </c>
+      <c r="O69" s="15">
+        <v>1881</v>
+      </c>
+      <c r="P69" s="15" t="s">
+        <v>5425</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="14" t="s">
+        <v>254</v>
+      </c>
+      <c r="B70" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="C70" s="15" t="s">
+        <v>5197</v>
+      </c>
+      <c r="D70" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="E70" s="16">
+        <v>7336</v>
+      </c>
+      <c r="F70" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="G70" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="H70" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="I70" s="15" t="s">
+        <v>257</v>
+      </c>
+      <c r="J70" s="16">
+        <v>32677</v>
+      </c>
+      <c r="K70" s="16">
+        <v>34496</v>
+      </c>
+      <c r="L70" s="15" t="s">
+        <v>383</v>
+      </c>
+      <c r="M70" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="N70" s="17" t="s">
+        <v>256</v>
+      </c>
+      <c r="O70" s="15">
+        <v>1193</v>
+      </c>
+      <c r="P70" s="15" t="s">
+        <v>5256</v>
+      </c>
+    </row>
+    <row r="71" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="14" t="s">
+        <v>254</v>
+      </c>
+      <c r="B71" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="C71" s="15" t="s">
+        <v>5348</v>
+      </c>
+      <c r="D71" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="E71" s="16">
+        <v>16709</v>
+      </c>
+      <c r="F71" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="G71" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="H71" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="I71" s="15" t="s">
+        <v>257</v>
+      </c>
+      <c r="J71" s="16">
+        <v>32838</v>
+      </c>
+      <c r="K71" s="16">
+        <v>34496</v>
+      </c>
+      <c r="L71" s="15" t="s">
+        <v>383</v>
+      </c>
+      <c r="M71" s="15" t="s">
+        <v>515</v>
+      </c>
+      <c r="N71" s="17" t="s">
+        <v>256</v>
+      </c>
+      <c r="O71" s="15">
+        <v>954</v>
+      </c>
+      <c r="P71" s="15" t="s">
+        <v>5426</v>
+      </c>
+    </row>
+    <row r="72" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="14" t="s">
+        <v>254</v>
+      </c>
+      <c r="B72" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="C72" s="15" t="s">
+        <v>376</v>
+      </c>
+      <c r="D72" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="E72" s="16">
+        <v>14676</v>
+      </c>
+      <c r="F72" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="G72" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="H72" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="I72" s="15" t="s">
+        <v>257</v>
+      </c>
+      <c r="J72" s="16">
+        <v>32677</v>
+      </c>
+      <c r="K72" s="16">
+        <v>34496</v>
+      </c>
+      <c r="L72" s="15" t="s">
+        <v>383</v>
+      </c>
+      <c r="M72" s="15" t="s">
+        <v>4899</v>
+      </c>
+      <c r="N72" s="17" t="s">
+        <v>256</v>
+      </c>
+      <c r="O72" s="15">
+        <v>1167</v>
+      </c>
+      <c r="P72" s="15" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="73" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="14" t="s">
+        <v>254</v>
+      </c>
+      <c r="B73" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="C73" s="15" t="s">
+        <v>5161</v>
+      </c>
+      <c r="D73" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="E73" s="16">
+        <v>18033</v>
+      </c>
+      <c r="F73" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="G73" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="H73" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="I73" s="15" t="s">
+        <v>257</v>
+      </c>
+      <c r="J73" s="16">
+        <v>32677</v>
+      </c>
+      <c r="K73" s="16">
+        <v>34496</v>
+      </c>
+      <c r="L73" s="15" t="s">
+        <v>383</v>
+      </c>
+      <c r="M73" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="N73" s="17" t="s">
+        <v>256</v>
+      </c>
+      <c r="O73" s="15">
+        <v>1213</v>
+      </c>
+      <c r="P73" s="15" t="s">
+        <v>5257</v>
+      </c>
+    </row>
+    <row r="74" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="14" t="s">
+        <v>254</v>
+      </c>
+      <c r="B74" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="C74" s="15" t="s">
+        <v>5366</v>
+      </c>
+      <c r="D74" s="15" t="s">
+        <v>5367</v>
+      </c>
+      <c r="E74" s="16">
+        <v>20636</v>
+      </c>
+      <c r="F74" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="G74" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="H74" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="I74" s="15" t="s">
+        <v>257</v>
+      </c>
+      <c r="J74" s="16">
+        <v>33583</v>
+      </c>
+      <c r="K74" s="16">
+        <v>34496</v>
+      </c>
+      <c r="L74" s="15" t="s">
+        <v>383</v>
+      </c>
+      <c r="M74" s="15" t="s">
+        <v>513</v>
+      </c>
+      <c r="N74" s="17">
+        <v>48</v>
+      </c>
+      <c r="O74" s="15">
+        <v>1833</v>
+      </c>
+      <c r="P74" s="15" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="75" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="14" t="s">
+        <v>254</v>
+      </c>
+      <c r="B75" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="C75" s="15" t="s">
+        <v>5300</v>
+      </c>
+      <c r="D75" s="15" t="s">
+        <v>5299</v>
+      </c>
+      <c r="E75" s="16">
+        <v>8808</v>
+      </c>
+      <c r="F75" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="G75" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="H75" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="I75" s="15" t="s">
+        <v>257</v>
+      </c>
+      <c r="J75" s="16">
+        <v>32677</v>
+      </c>
+      <c r="K75" s="16">
+        <v>34496</v>
+      </c>
+      <c r="L75" s="15" t="s">
+        <v>383</v>
+      </c>
+      <c r="M75" s="15" t="s">
+        <v>5291</v>
+      </c>
+      <c r="N75" s="17" t="s">
+        <v>256</v>
+      </c>
+      <c r="O75" s="15">
+        <v>1169</v>
+      </c>
+      <c r="P75" s="15" t="s">
+        <v>5427</v>
+      </c>
+    </row>
+    <row r="76" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="14" t="s">
+        <v>254</v>
+      </c>
+      <c r="B76" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="C76" s="15" t="s">
+        <v>5237</v>
+      </c>
+      <c r="D76" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="E76" s="16">
+        <v>12171</v>
+      </c>
+      <c r="F76" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="G76" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="H76" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="I76" s="15" t="s">
+        <v>257</v>
+      </c>
+      <c r="J76" s="16">
+        <v>32677</v>
+      </c>
+      <c r="K76" s="16">
+        <v>34496</v>
+      </c>
+      <c r="L76" s="15" t="s">
+        <v>383</v>
+      </c>
+      <c r="M76" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="N76" s="17" t="s">
+        <v>256</v>
+      </c>
+      <c r="O76" s="21">
+        <v>1021</v>
+      </c>
+      <c r="P76" s="15" t="s">
+        <v>5280</v>
+      </c>
+    </row>
+    <row r="77" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="14" t="s">
+        <v>254</v>
+      </c>
+      <c r="B77" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="C77" s="15" t="s">
+        <v>5143</v>
+      </c>
+      <c r="D77" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="E77" s="16">
+        <v>13476</v>
+      </c>
+      <c r="F77" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="G77" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="H77" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="I77" s="15" t="s">
+        <v>257</v>
+      </c>
+      <c r="J77" s="16">
+        <v>32677</v>
+      </c>
+      <c r="K77" s="16">
+        <v>34496</v>
+      </c>
+      <c r="L77" s="15" t="s">
+        <v>383</v>
+      </c>
+      <c r="M77" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="N77" s="17" t="s">
+        <v>256</v>
+      </c>
+      <c r="O77" s="15">
+        <v>1022</v>
+      </c>
+      <c r="P77" s="15" t="s">
+        <v>5259</v>
+      </c>
+    </row>
+    <row r="78" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="14" t="s">
+        <v>254</v>
+      </c>
+      <c r="B78" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="C78" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D78" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="E78" s="16">
+        <v>10399</v>
+      </c>
+      <c r="F78" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="G78" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="H78" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="I78" s="15" t="s">
+        <v>257</v>
+      </c>
+      <c r="J78" s="16">
+        <v>32677</v>
+      </c>
+      <c r="K78" s="16">
+        <v>34496</v>
+      </c>
+      <c r="L78" s="15" t="s">
+        <v>383</v>
+      </c>
+      <c r="M78" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="N78" s="17">
+        <v>837980</v>
+      </c>
+      <c r="O78" s="15">
+        <v>1023</v>
+      </c>
+      <c r="P78" s="15" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="79" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="14" t="s">
+        <v>254</v>
+      </c>
+      <c r="B79" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="C79" s="15" t="s">
+        <v>4930</v>
+      </c>
+      <c r="D79" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="E79" s="16">
+        <v>16338</v>
+      </c>
+      <c r="F79" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="G79" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="H79" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="I79" s="15" t="s">
+        <v>257</v>
+      </c>
+      <c r="J79" s="16">
+        <v>32677</v>
+      </c>
+      <c r="K79" s="16">
+        <v>34496</v>
+      </c>
+      <c r="L79" s="15" t="s">
+        <v>383</v>
+      </c>
+      <c r="M79" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="N79" s="17">
+        <v>28517</v>
+      </c>
+      <c r="O79" s="15">
+        <v>2326</v>
+      </c>
+      <c r="P79" s="15" t="s">
+        <v>5070</v>
+      </c>
+    </row>
+    <row r="80" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="14" t="s">
+        <v>254</v>
+      </c>
+      <c r="B80" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="C80" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="D80" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="E80" s="16">
+        <v>19685</v>
+      </c>
+      <c r="F80" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="G80" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="H80" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="I80" s="15" t="s">
+        <v>257</v>
+      </c>
+      <c r="J80" s="16">
+        <v>32677</v>
+      </c>
+      <c r="K80" s="16">
+        <v>34496</v>
+      </c>
+      <c r="L80" s="15" t="s">
+        <v>383</v>
+      </c>
+      <c r="M80" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="N80" s="17">
+        <v>649</v>
+      </c>
+      <c r="O80" s="15">
+        <v>2215</v>
+      </c>
+      <c r="P80" s="15" t="s">
+        <v>5220</v>
+      </c>
+    </row>
+    <row r="81" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="14" t="s">
+        <v>254</v>
+      </c>
+      <c r="B81" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="C81" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="D81" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="E81" s="16">
+        <v>16648</v>
+      </c>
+      <c r="F81" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="G81" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="H81" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="I81" s="15" t="s">
+        <v>257</v>
+      </c>
+      <c r="J81" s="16">
+        <v>32756</v>
+      </c>
+      <c r="K81" s="16">
+        <v>34496</v>
+      </c>
+      <c r="L81" s="15" t="s">
+        <v>383</v>
+      </c>
+      <c r="M81" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="N81" s="17">
+        <v>61</v>
+      </c>
+      <c r="O81" s="15">
+        <v>966</v>
+      </c>
+      <c r="P81" s="15" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="82" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="14" t="s">
+        <v>254</v>
+      </c>
+      <c r="B82" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="C82" s="15" t="s">
+        <v>5345</v>
+      </c>
+      <c r="D82" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="E82" s="16">
+        <v>17088</v>
+      </c>
+      <c r="F82" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="G82" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="H82" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="I82" s="15" t="s">
+        <v>257</v>
+      </c>
+      <c r="J82" s="16">
+        <v>32677</v>
+      </c>
+      <c r="K82" s="16">
+        <v>34496</v>
+      </c>
+      <c r="L82" s="15" t="s">
+        <v>383</v>
+      </c>
+      <c r="M82" s="15" t="s">
+        <v>4899</v>
+      </c>
+      <c r="N82" s="17" t="s">
+        <v>256</v>
+      </c>
+      <c r="O82" s="15">
+        <v>1128</v>
+      </c>
+      <c r="P82" s="15" t="s">
+        <v>5428</v>
+      </c>
+    </row>
+    <row r="83" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="14" t="s">
+        <v>254</v>
+      </c>
+      <c r="B83" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="C83" s="15" t="s">
+        <v>5323</v>
+      </c>
+      <c r="D83" s="15" t="s">
+        <v>437</v>
+      </c>
+      <c r="E83" s="16">
+        <v>23929</v>
+      </c>
+      <c r="F83" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="G83" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="H83" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="I83" s="15" t="s">
+        <v>257</v>
+      </c>
+      <c r="J83" s="16">
+        <v>32677</v>
+      </c>
+      <c r="K83" s="16">
+        <v>34496</v>
+      </c>
+      <c r="L83" s="15" t="s">
+        <v>383</v>
+      </c>
+      <c r="M83" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="N83" s="17" t="s">
+        <v>256</v>
+      </c>
+      <c r="O83" s="15">
+        <v>992</v>
+      </c>
+      <c r="P83" s="15" t="s">
+        <v>5429</v>
+      </c>
+    </row>
+    <row r="84" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="14" t="s">
+        <v>254</v>
+      </c>
+      <c r="B84" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="C84" s="15" t="s">
+        <v>5147</v>
+      </c>
+      <c r="D84" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="E84" s="16">
+        <v>17992</v>
+      </c>
+      <c r="F84" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="G84" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="H84" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="I84" s="15" t="s">
+        <v>257</v>
+      </c>
+      <c r="J84" s="16">
+        <v>32677</v>
+      </c>
+      <c r="K84" s="16">
+        <v>34496</v>
+      </c>
+      <c r="L84" s="15" t="s">
+        <v>383</v>
+      </c>
+      <c r="M84" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="N84" s="17">
+        <v>3392</v>
+      </c>
+      <c r="O84" s="15">
+        <v>1166</v>
+      </c>
+      <c r="P84" s="15" t="s">
+        <v>5227</v>
+      </c>
+    </row>
+    <row r="85" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="14" t="s">
+        <v>254</v>
+      </c>
+      <c r="B85" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="C85" s="15" t="s">
+        <v>5369</v>
+      </c>
+      <c r="D85" s="15" t="s">
+        <v>283</v>
+      </c>
+      <c r="E85" s="16">
+        <v>13058</v>
+      </c>
+      <c r="F85" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="G85" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="H85" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="I85" s="15" t="s">
+        <v>257</v>
+      </c>
+      <c r="J85" s="16">
+        <v>32816</v>
+      </c>
+      <c r="K85" s="16">
+        <v>34496</v>
+      </c>
+      <c r="L85" s="15" t="s">
+        <v>383</v>
+      </c>
+      <c r="M85" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="N85" s="17" t="s">
+        <v>256</v>
+      </c>
+      <c r="O85" s="15">
+        <v>960</v>
+      </c>
+      <c r="P85" s="15" t="s">
+        <v>5430</v>
+      </c>
+    </row>
+    <row r="86" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="14" t="s">
+        <v>254</v>
+      </c>
+      <c r="B86" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="C86" s="15" t="s">
+        <v>253</v>
+      </c>
+      <c r="D86" s="15" t="s">
+        <v>209</v>
+      </c>
+      <c r="E86" s="16">
+        <v>16849</v>
+      </c>
+      <c r="F86" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="G86" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="H86" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="I86" s="15" t="s">
+        <v>257</v>
+      </c>
+      <c r="J86" s="16">
+        <v>32677</v>
+      </c>
+      <c r="K86" s="16">
+        <v>34496</v>
+      </c>
+      <c r="L86" s="15" t="s">
+        <v>383</v>
+      </c>
+      <c r="M86" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="N86" s="17" t="s">
+        <v>256</v>
+      </c>
+      <c r="O86" s="15">
+        <v>1194</v>
+      </c>
+      <c r="P86" s="15" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="87" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="14" t="s">
+        <v>254</v>
+      </c>
+      <c r="B87" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="C87" s="15" t="s">
+        <v>5194</v>
+      </c>
+      <c r="D87" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="E87" s="16">
+        <v>13681</v>
+      </c>
+      <c r="F87" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="G87" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="H87" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="I87" s="15" t="s">
+        <v>257</v>
+      </c>
+      <c r="J87" s="16">
+        <v>32677</v>
+      </c>
+      <c r="K87" s="16">
+        <v>34496</v>
+      </c>
+      <c r="L87" s="15" t="s">
+        <v>383</v>
+      </c>
+      <c r="M87" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="N87" s="17" t="s">
+        <v>256</v>
+      </c>
+      <c r="O87" s="15">
+        <v>1205</v>
+      </c>
+      <c r="P87" s="15" t="s">
+        <v>5266</v>
+      </c>
+    </row>
+    <row r="88" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="14" t="s">
+        <v>254</v>
+      </c>
+      <c r="B88" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="C88" s="15" t="s">
+        <v>5184</v>
+      </c>
+      <c r="D88" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E88" s="16">
+        <v>15841</v>
+      </c>
+      <c r="F88" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="G88" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="H88" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="I88" s="15" t="s">
+        <v>257</v>
+      </c>
+      <c r="J88" s="16">
+        <v>32677</v>
+      </c>
+      <c r="K88" s="16">
+        <v>34496</v>
+      </c>
+      <c r="L88" s="15" t="s">
+        <v>383</v>
+      </c>
+      <c r="M88" s="15" t="s">
+        <v>515</v>
+      </c>
+      <c r="N88" s="17" t="s">
+        <v>256</v>
+      </c>
+      <c r="O88" s="15">
+        <v>1068</v>
+      </c>
+      <c r="P88" s="15" t="s">
+        <v>5267</v>
+      </c>
+    </row>
+    <row r="89" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="14" t="s">
+        <v>254</v>
+      </c>
+      <c r="B89" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="C89" s="15" t="s">
+        <v>5372</v>
+      </c>
+      <c r="D89" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="E89" s="16">
+        <v>13872</v>
+      </c>
+      <c r="F89" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="G89" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="H89" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="I89" s="15" t="s">
+        <v>257</v>
+      </c>
+      <c r="J89" s="16">
+        <v>34076</v>
+      </c>
+      <c r="K89" s="16">
+        <v>34496</v>
+      </c>
+      <c r="L89" s="15" t="s">
+        <v>383</v>
+      </c>
+      <c r="M89" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="N89" s="17">
+        <v>144180</v>
+      </c>
+      <c r="O89" s="15">
+        <v>1876</v>
+      </c>
+      <c r="P89" s="15" t="s">
+        <v>5431</v>
+      </c>
+    </row>
+    <row r="90" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="14" t="s">
+        <v>254</v>
+      </c>
+      <c r="B90" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="C90" s="15" t="s">
+        <v>5202</v>
+      </c>
+      <c r="D90" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="E90" s="16">
+        <v>15436</v>
+      </c>
+      <c r="F90" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="G90" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="H90" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="I90" s="15" t="s">
+        <v>257</v>
+      </c>
+      <c r="J90" s="16">
+        <v>32677</v>
+      </c>
+      <c r="K90" s="16">
+        <v>34496</v>
+      </c>
+      <c r="L90" s="15" t="s">
+        <v>383</v>
+      </c>
+      <c r="M90" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="N90" s="17" t="s">
+        <v>256</v>
+      </c>
+      <c r="O90" s="15">
+        <v>1206</v>
+      </c>
+      <c r="P90" s="15" t="s">
+        <v>5270</v>
+      </c>
+    </row>
+    <row r="91" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="14" t="s">
+        <v>254</v>
+      </c>
+      <c r="B91" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="C91" s="15" t="s">
+        <v>5234</v>
+      </c>
+      <c r="D91" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="E91" s="16">
+        <v>17448</v>
+      </c>
+      <c r="F91" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="G91" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="H91" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="I91" s="15" t="s">
+        <v>257</v>
+      </c>
+      <c r="J91" s="16">
+        <v>34377</v>
+      </c>
+      <c r="K91" s="16">
+        <v>34496</v>
+      </c>
+      <c r="L91" s="15" t="s">
+        <v>383</v>
+      </c>
+      <c r="M91" s="15" t="s">
+        <v>4899</v>
+      </c>
+      <c r="N91" s="17">
+        <v>801238</v>
+      </c>
+      <c r="O91" s="15">
+        <v>1894</v>
+      </c>
+      <c r="P91" s="15" t="s">
+        <v>5241</v>
+      </c>
+    </row>
+    <row r="92" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="14" t="s">
+        <v>254</v>
+      </c>
+      <c r="B92" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="C92" s="15" t="s">
+        <v>5205</v>
+      </c>
+      <c r="D92" s="15" t="s">
+        <v>5178</v>
+      </c>
+      <c r="E92" s="16">
+        <v>17748</v>
+      </c>
+      <c r="F92" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="G92" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="H92" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="I92" s="15" t="s">
+        <v>257</v>
+      </c>
+      <c r="J92" s="16">
+        <v>32677</v>
+      </c>
+      <c r="K92" s="16">
+        <v>34496</v>
+      </c>
+      <c r="L92" s="15" t="s">
+        <v>383</v>
+      </c>
+      <c r="M92" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="N92" s="17">
+        <v>845021</v>
+      </c>
+      <c r="O92" s="15">
+        <v>1207</v>
+      </c>
+      <c r="P92" s="15" t="s">
+        <v>5211</v>
+      </c>
+    </row>
+    <row r="93" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="14" t="s">
+        <v>254</v>
+      </c>
+      <c r="B93" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="C93" s="15" t="s">
+        <v>5368</v>
+      </c>
+      <c r="D93" s="15" t="s">
+        <v>5178</v>
+      </c>
+      <c r="E93" s="16">
+        <v>13606</v>
+      </c>
+      <c r="F93" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="G93" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="H93" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="I93" s="15" t="s">
+        <v>257</v>
+      </c>
+      <c r="J93" s="16">
+        <v>33583</v>
+      </c>
+      <c r="K93" s="16">
+        <v>34496</v>
+      </c>
+      <c r="L93" s="15" t="s">
+        <v>383</v>
+      </c>
+      <c r="M93" s="15" t="s">
+        <v>513</v>
+      </c>
+      <c r="N93" s="17" t="s">
+        <v>256</v>
+      </c>
+      <c r="O93" s="15">
+        <v>1837</v>
+      </c>
+      <c r="P93" s="15" t="s">
+        <v>5432</v>
+      </c>
+    </row>
+    <row r="94" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="14" t="s">
+        <v>254</v>
+      </c>
+      <c r="B94" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="C94" s="15" t="s">
+        <v>5308</v>
+      </c>
+      <c r="D94" s="15" t="s">
+        <v>5307</v>
+      </c>
+      <c r="E94" s="16">
+        <v>13673</v>
+      </c>
+      <c r="F94" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="G94" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="H94" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="I94" s="15" t="s">
+        <v>257</v>
+      </c>
+      <c r="J94" s="16">
+        <v>32677</v>
+      </c>
+      <c r="K94" s="16">
+        <v>34496</v>
+      </c>
+      <c r="L94" s="15" t="s">
+        <v>383</v>
+      </c>
+      <c r="M94" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="N94" s="17">
+        <v>948</v>
+      </c>
+      <c r="O94" s="15">
+        <v>1016</v>
+      </c>
+      <c r="P94" s="15" t="s">
+        <v>5433</v>
+      </c>
+    </row>
+    <row r="95" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="14" t="s">
+        <v>254</v>
+      </c>
+      <c r="B95" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="C95" s="15" t="s">
+        <v>5322</v>
+      </c>
+      <c r="D95" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="E95" s="16">
+        <v>14749</v>
+      </c>
+      <c r="F95" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="G95" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="H95" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="I95" s="15" t="s">
+        <v>257</v>
+      </c>
+      <c r="J95" s="16">
+        <v>32677</v>
+      </c>
+      <c r="K95" s="16">
+        <v>34496</v>
+      </c>
+      <c r="L95" s="15" t="s">
+        <v>383</v>
+      </c>
+      <c r="M95" s="15" t="s">
+        <v>515</v>
+      </c>
+      <c r="N95" s="17" t="s">
+        <v>256</v>
+      </c>
+      <c r="O95" s="15">
+        <v>1208</v>
+      </c>
+      <c r="P95" s="15" t="s">
+        <v>5434</v>
+      </c>
+    </row>
+    <row r="96" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="14" t="s">
+        <v>254</v>
+      </c>
+      <c r="B96" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="C96" s="15" t="s">
+        <v>218</v>
+      </c>
+      <c r="D96" s="15" t="s">
+        <v>5309</v>
+      </c>
+      <c r="E96" s="16">
+        <v>12274</v>
+      </c>
+      <c r="F96" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="G96" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="H96" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="I96" s="15" t="s">
+        <v>257</v>
+      </c>
+      <c r="J96" s="16">
+        <v>32677</v>
+      </c>
+      <c r="K96" s="16">
+        <v>34496</v>
+      </c>
+      <c r="L96" s="15" t="s">
+        <v>383</v>
+      </c>
+      <c r="M96" s="15" t="s">
+        <v>515</v>
+      </c>
+      <c r="N96" s="17" t="s">
+        <v>256</v>
+      </c>
+      <c r="O96" s="15">
+        <v>975</v>
+      </c>
+      <c r="P96" s="15" t="s">
+        <v>5435</v>
+      </c>
+    </row>
+    <row r="97" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="14" t="s">
+        <v>254</v>
+      </c>
+      <c r="B97" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="C97" s="15" t="s">
+        <v>5156</v>
+      </c>
+      <c r="D97" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="E97" s="16">
+        <v>15910</v>
+      </c>
+      <c r="F97" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="G97" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="H97" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="I97" s="15" t="s">
+        <v>257</v>
+      </c>
+      <c r="J97" s="16">
+        <v>32677</v>
+      </c>
+      <c r="K97" s="16">
+        <v>34496</v>
+      </c>
+      <c r="L97" s="15" t="s">
+        <v>383</v>
+      </c>
+      <c r="M97" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="N97" s="17" t="s">
+        <v>256</v>
+      </c>
+      <c r="O97" s="15">
+        <v>1158</v>
+      </c>
+      <c r="P97" s="15" t="s">
+        <v>5271</v>
+      </c>
+    </row>
+    <row r="98" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="14" t="s">
+        <v>254</v>
+      </c>
+      <c r="B98" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="C98" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="D98" s="15" t="s">
+        <v>5316</v>
+      </c>
+      <c r="E98" s="16">
+        <v>8737</v>
+      </c>
+      <c r="F98" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="G98" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="H98" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="I98" s="15" t="s">
+        <v>257</v>
+      </c>
+      <c r="J98" s="16">
+        <v>32677</v>
+      </c>
+      <c r="K98" s="16">
+        <v>34496</v>
+      </c>
+      <c r="L98" s="15" t="s">
+        <v>383</v>
+      </c>
+      <c r="M98" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="N98" s="17" t="s">
+        <v>256</v>
+      </c>
+      <c r="O98" s="15">
+        <v>978</v>
+      </c>
+      <c r="P98" s="15" t="s">
+        <v>5436</v>
+      </c>
+    </row>
+    <row r="99" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="14" t="s">
+        <v>254</v>
+      </c>
+      <c r="B99" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="C99" s="15" t="s">
+        <v>5331</v>
+      </c>
+      <c r="D99" s="15" t="s">
+        <v>5320</v>
+      </c>
+      <c r="E99" s="16">
+        <v>10833</v>
+      </c>
+      <c r="F99" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="G99" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="H99" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="I99" s="15" t="s">
+        <v>257</v>
+      </c>
+      <c r="J99" s="16">
+        <v>32677</v>
+      </c>
+      <c r="K99" s="16">
+        <v>34496</v>
+      </c>
+      <c r="L99" s="15" t="s">
+        <v>383</v>
+      </c>
+      <c r="M99" s="15" t="s">
+        <v>5293</v>
+      </c>
+      <c r="N99" s="17" t="s">
+        <v>256</v>
+      </c>
+      <c r="O99" s="15">
+        <v>1159</v>
+      </c>
+      <c r="P99" s="15" t="s">
+        <v>5437</v>
+      </c>
+    </row>
+    <row r="100" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="14" t="s">
+        <v>254</v>
+      </c>
+      <c r="B100" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="C100" s="15" t="s">
+        <v>5193</v>
+      </c>
+      <c r="D100" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="E100" s="16">
+        <v>12345</v>
+      </c>
+      <c r="F100" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="G100" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="H100" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="I100" s="15" t="s">
+        <v>257</v>
+      </c>
+      <c r="J100" s="16">
+        <v>33830</v>
+      </c>
+      <c r="K100" s="16">
+        <v>34496</v>
+      </c>
+      <c r="L100" s="15" t="s">
+        <v>383</v>
+      </c>
+      <c r="M100" s="15" t="s">
+        <v>5357</v>
+      </c>
+      <c r="N100" s="17" t="s">
+        <v>256</v>
+      </c>
+      <c r="O100" s="15">
+        <v>1871</v>
+      </c>
+      <c r="P100" s="15" t="s">
+        <v>5274</v>
+      </c>
+    </row>
+    <row r="101" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="14" t="s">
+        <v>254</v>
+      </c>
+      <c r="B101" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="C101" s="15" t="s">
+        <v>5339</v>
+      </c>
+      <c r="D101" s="15" t="s">
+        <v>5338</v>
+      </c>
+      <c r="E101" s="16">
+        <v>20918</v>
+      </c>
+      <c r="F101" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="G101" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="H101" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="I101" s="15" t="s">
+        <v>257</v>
+      </c>
+      <c r="J101" s="16">
+        <v>32677</v>
+      </c>
+      <c r="K101" s="16">
+        <v>34496</v>
+      </c>
+      <c r="L101" s="15" t="s">
+        <v>383</v>
+      </c>
+      <c r="M101" s="15" t="s">
+        <v>513</v>
+      </c>
+      <c r="N101" s="17">
+        <v>1499712</v>
+      </c>
+      <c r="O101" s="15">
+        <v>1119</v>
+      </c>
+      <c r="P101" s="15" t="s">
+        <v>5438</v>
+      </c>
+    </row>
+    <row r="102" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="14" t="s">
+        <v>254</v>
+      </c>
+      <c r="B102" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="C102" s="15" t="s">
+        <v>220</v>
+      </c>
+      <c r="D102" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="E102" s="16">
+        <v>13395</v>
+      </c>
+      <c r="F102" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="G102" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="H102" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="I102" s="15" t="s">
+        <v>257</v>
+      </c>
+      <c r="J102" s="16">
+        <v>32677</v>
+      </c>
+      <c r="K102" s="16">
+        <v>34496</v>
+      </c>
+      <c r="L102" s="15" t="s">
+        <v>383</v>
+      </c>
+      <c r="M102" s="15" t="s">
+        <v>515</v>
+      </c>
+      <c r="N102" s="17" t="s">
+        <v>256</v>
+      </c>
+      <c r="O102" s="15">
+        <v>976</v>
+      </c>
+      <c r="P102" s="15" t="s">
+        <v>5439</v>
+      </c>
+    </row>
+    <row r="103" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="14" t="s">
+        <v>254</v>
+      </c>
+      <c r="B103" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="C103" s="15" t="s">
+        <v>4922</v>
+      </c>
+      <c r="D103" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E103" s="16">
+        <v>18643</v>
+      </c>
+      <c r="F103" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="G103" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="H103" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="I103" s="15" t="s">
+        <v>257</v>
+      </c>
+      <c r="J103" s="16">
+        <v>32677</v>
+      </c>
+      <c r="K103" s="16">
+        <v>34496</v>
+      </c>
+      <c r="L103" s="15" t="s">
+        <v>383</v>
+      </c>
+      <c r="M103" s="15" t="s">
+        <v>515</v>
+      </c>
+      <c r="N103" s="17">
+        <v>584032</v>
+      </c>
+      <c r="O103" s="15">
+        <v>1129</v>
+      </c>
+      <c r="P103" s="15" t="s">
+        <v>5113</v>
+      </c>
+    </row>
+    <row r="104" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="14" t="s">
+        <v>254</v>
+      </c>
+      <c r="B104" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="C104" s="15" t="s">
+        <v>5302</v>
+      </c>
+      <c r="D104" s="15" t="s">
+        <v>5301</v>
+      </c>
+      <c r="E104" s="16">
+        <v>47100</v>
+      </c>
+      <c r="F104" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="G104" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="H104" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="I104" s="15" t="s">
+        <v>257</v>
+      </c>
+      <c r="J104" s="16">
+        <v>32677</v>
+      </c>
+      <c r="K104" s="16">
+        <v>34496</v>
+      </c>
+      <c r="L104" s="15" t="s">
+        <v>383</v>
+      </c>
+      <c r="M104" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="N104" s="17" t="s">
+        <v>256</v>
+      </c>
+      <c r="O104" s="15">
+        <v>1017</v>
+      </c>
+      <c r="P104" s="15" t="s">
+        <v>5440</v>
+      </c>
+    </row>
+    <row r="105" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="14" t="s">
+        <v>254</v>
+      </c>
+      <c r="B105" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="C105" s="15" t="s">
+        <v>5373</v>
+      </c>
+      <c r="D105" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="E105" s="16">
+        <v>14333</v>
+      </c>
+      <c r="F105" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="G105" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="H105" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="I105" s="15" t="s">
+        <v>257</v>
+      </c>
+      <c r="J105" s="16">
+        <v>34076</v>
+      </c>
+      <c r="K105" s="16">
+        <v>34496</v>
+      </c>
+      <c r="L105" s="15" t="s">
+        <v>383</v>
+      </c>
+      <c r="M105" s="15" t="s">
+        <v>5363</v>
+      </c>
+      <c r="N105" s="17">
+        <v>273</v>
+      </c>
+      <c r="O105" s="15">
+        <v>1496</v>
+      </c>
+      <c r="P105" s="15" t="s">
+        <v>5441</v>
+      </c>
+    </row>
+    <row r="106" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="14" t="s">
+        <v>254</v>
+      </c>
+      <c r="B106" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="C106" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="D106" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="E106" s="16">
+        <v>13370</v>
+      </c>
+      <c r="F106" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="G106" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="H106" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="I106" s="15" t="s">
+        <v>257</v>
+      </c>
+      <c r="J106" s="16">
+        <v>32677</v>
+      </c>
+      <c r="K106" s="16">
+        <v>34496</v>
+      </c>
+      <c r="L106" s="15" t="s">
+        <v>383</v>
+      </c>
+      <c r="M106" s="15" t="s">
+        <v>515</v>
+      </c>
+      <c r="N106" s="17" t="s">
+        <v>256</v>
+      </c>
+      <c r="O106" s="15">
+        <v>1173</v>
+      </c>
+      <c r="P106" s="15" t="s">
+        <v>5442</v>
+      </c>
+    </row>
+    <row r="107" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="14" t="s">
+        <v>254</v>
+      </c>
+      <c r="B107" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="C107" s="15" t="s">
+        <v>5201</v>
+      </c>
+      <c r="D107" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="E107" s="16">
+        <v>17303</v>
+      </c>
+      <c r="F107" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="G107" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="H107" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="I107" s="15" t="s">
+        <v>257</v>
+      </c>
+      <c r="J107" s="16">
+        <v>32677</v>
+      </c>
+      <c r="K107" s="16">
+        <v>34496</v>
+      </c>
+      <c r="L107" s="15" t="s">
+        <v>383</v>
+      </c>
+      <c r="M107" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="N107" s="17" t="s">
+        <v>256</v>
+      </c>
+      <c r="O107" s="15">
+        <v>1160</v>
+      </c>
+      <c r="P107" s="15" t="s">
+        <v>5277</v>
+      </c>
+    </row>
+    <row r="108" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="14" t="s">
+        <v>254</v>
+      </c>
+      <c r="B108" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="C108" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="D108" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="E108" s="16">
+        <v>17535</v>
+      </c>
+      <c r="F108" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="G108" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="H108" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="I108" s="15" t="s">
+        <v>257</v>
+      </c>
+      <c r="J108" s="16">
+        <v>32677</v>
+      </c>
+      <c r="K108" s="16">
+        <v>34496</v>
+      </c>
+      <c r="L108" s="15" t="s">
+        <v>383</v>
+      </c>
+      <c r="M108" s="15" t="s">
+        <v>4899</v>
+      </c>
+      <c r="N108" s="17">
+        <v>88</v>
+      </c>
+      <c r="O108" s="15">
+        <v>1018</v>
+      </c>
+      <c r="P108" s="15" t="s">
+        <v>689</v>
+      </c>
+    </row>
   </sheetData>
+  <sortState ref="C86:M105">
+    <sortCondition ref="C88:C107"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -21443,10 +27266,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R107"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="K25" sqref="K25"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/in/extraction1/corrections/supp_DE.xlsx
+++ b/in/extraction1/corrections/supp_DE.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10905" uniqueCount="5443">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10953" uniqueCount="5446">
   <si>
     <t>Code sexe</t>
   </si>
@@ -16362,6 +16362,15 @@
   </si>
   <si>
     <t>EUR_0001173</t>
+  </si>
+  <si>
+    <t>RNE_0014769</t>
+  </si>
+  <si>
+    <t>LAUGA</t>
+  </si>
+  <si>
+    <t>EUR_0000962</t>
   </si>
 </sst>
 </file>
@@ -16946,7 +16955,27 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -21827,11 +21856,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P108"/>
+  <dimension ref="A1:P112"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="J111" sqref="J111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21911,14 +21940,14 @@
       <c r="B2" s="15" t="s">
         <v>255</v>
       </c>
-      <c r="C2" s="15" t="s">
-        <v>5325</v>
+      <c r="C2" s="24" t="s">
+        <v>5358</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>147</v>
+        <v>5178</v>
       </c>
       <c r="E2" s="16">
-        <v>583</v>
+        <v>18509</v>
       </c>
       <c r="F2" s="15" t="s">
         <v>3</v>
@@ -21933,25 +21962,25 @@
         <v>257</v>
       </c>
       <c r="J2" s="16">
-        <v>32677</v>
+        <v>34059</v>
       </c>
       <c r="K2" s="16">
-        <v>32755</v>
+        <v>34496</v>
       </c>
       <c r="L2" s="15" t="s">
-        <v>256</v>
+        <v>383</v>
       </c>
       <c r="M2" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="N2" s="17" t="s">
-        <v>256</v>
+        <v>26</v>
+      </c>
+      <c r="N2" s="17">
+        <v>1088</v>
       </c>
       <c r="O2" s="15">
-        <v>1034</v>
+        <v>1829</v>
       </c>
       <c r="P2" s="15" t="s">
-        <v>5375</v>
+        <v>5405</v>
       </c>
     </row>
     <row r="3" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
@@ -21962,16 +21991,16 @@
         <v>255</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>5326</v>
+        <v>349</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>42</v>
+        <v>348</v>
       </c>
       <c r="E3" s="16">
-        <v>11085</v>
+        <v>17520</v>
       </c>
       <c r="F3" s="15" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G3" s="15" t="s">
         <v>256</v>
@@ -21986,22 +22015,22 @@
         <v>32677</v>
       </c>
       <c r="K3" s="16">
-        <v>32755</v>
+        <v>34496</v>
       </c>
       <c r="L3" s="15" t="s">
-        <v>256</v>
+        <v>383</v>
       </c>
       <c r="M3" s="15" t="s">
-        <v>4</v>
+        <v>4899</v>
       </c>
       <c r="N3" s="17" t="s">
         <v>256</v>
       </c>
       <c r="O3" s="15">
-        <v>979</v>
+        <v>1133</v>
       </c>
       <c r="P3" s="15" t="s">
-        <v>5376</v>
+        <v>596</v>
       </c>
     </row>
     <row r="4" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
@@ -22012,13 +22041,13 @@
         <v>255</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>5296</v>
+        <v>5317</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E4" s="16">
-        <v>16664</v>
+        <v>17131</v>
       </c>
       <c r="F4" s="15" t="s">
         <v>3</v>
@@ -22036,22 +22065,22 @@
         <v>32677</v>
       </c>
       <c r="K4" s="16">
-        <v>32796</v>
+        <v>34496</v>
       </c>
       <c r="L4" s="15" t="s">
-        <v>256</v>
+        <v>383</v>
       </c>
       <c r="M4" s="15" t="s">
-        <v>88</v>
+        <v>515</v>
       </c>
       <c r="N4" s="17">
-        <v>859128</v>
+        <v>1350</v>
       </c>
       <c r="O4" s="15">
-        <v>1168</v>
+        <v>1170</v>
       </c>
       <c r="P4" s="15" t="s">
-        <v>5377</v>
+        <v>5403</v>
       </c>
     </row>
     <row r="5" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
@@ -22062,16 +22091,16 @@
         <v>255</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>5297</v>
+        <v>5318</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>414</v>
+        <v>147</v>
       </c>
       <c r="E5" s="16">
-        <v>15898</v>
+        <v>13605</v>
       </c>
       <c r="F5" s="15" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G5" s="15" t="s">
         <v>256</v>
@@ -22086,22 +22115,22 @@
         <v>32677</v>
       </c>
       <c r="K5" s="16">
-        <v>32815</v>
+        <v>32837</v>
       </c>
       <c r="L5" s="15" t="s">
-        <v>256</v>
+        <v>382</v>
       </c>
       <c r="M5" s="15" t="s">
-        <v>88</v>
+        <v>515</v>
       </c>
       <c r="N5" s="17" t="s">
         <v>256</v>
       </c>
       <c r="O5" s="15">
-        <v>1180</v>
+        <v>1171</v>
       </c>
       <c r="P5" s="15" t="s">
-        <v>5378</v>
+        <v>5379</v>
       </c>
     </row>
     <row r="6" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
@@ -22112,16 +22141,16 @@
         <v>255</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>321</v>
+        <v>5298</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>20</v>
+        <v>414</v>
       </c>
       <c r="E6" s="16">
-        <v>16887</v>
+        <v>17055</v>
       </c>
       <c r="F6" s="15" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G6" s="15" t="s">
         <v>256</v>
@@ -22136,22 +22165,22 @@
         <v>32677</v>
       </c>
       <c r="K6" s="16">
-        <v>32815</v>
+        <v>34058</v>
       </c>
       <c r="L6" s="15" t="s">
-        <v>256</v>
+        <v>382</v>
       </c>
       <c r="M6" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="N6" s="18" t="s">
-        <v>733</v>
-      </c>
-      <c r="O6" s="22">
-        <v>1024</v>
+        <v>88</v>
+      </c>
+      <c r="N6" s="17">
+        <v>833186</v>
+      </c>
+      <c r="O6" s="15">
+        <v>1179</v>
       </c>
       <c r="P6" s="15" t="s">
-        <v>732</v>
+        <v>5393</v>
       </c>
     </row>
     <row r="7" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
@@ -22162,13 +22191,13 @@
         <v>255</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>5318</v>
+        <v>5340</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>147</v>
+        <v>131</v>
       </c>
       <c r="E7" s="16">
-        <v>13605</v>
+        <v>14271</v>
       </c>
       <c r="F7" s="15" t="s">
         <v>3</v>
@@ -22186,22 +22215,22 @@
         <v>32677</v>
       </c>
       <c r="K7" s="16">
-        <v>32837</v>
+        <v>33582</v>
       </c>
       <c r="L7" s="15" t="s">
-        <v>256</v>
+        <v>382</v>
       </c>
       <c r="M7" s="15" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="N7" s="17" t="s">
         <v>256</v>
       </c>
       <c r="O7" s="15">
-        <v>1171</v>
+        <v>1083</v>
       </c>
       <c r="P7" s="15" t="s">
-        <v>5379</v>
+        <v>5382</v>
       </c>
     </row>
     <row r="8" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
@@ -22212,16 +22241,16 @@
         <v>255</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>5330</v>
+        <v>5146</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>5329</v>
+        <v>28</v>
       </c>
       <c r="E8" s="16">
-        <v>12524</v>
+        <v>16404</v>
       </c>
       <c r="F8" s="15" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G8" s="15" t="s">
         <v>256</v>
@@ -22236,22 +22265,22 @@
         <v>32677</v>
       </c>
       <c r="K8" s="16">
-        <v>33554</v>
+        <v>34496</v>
       </c>
       <c r="L8" s="15" t="s">
-        <v>256</v>
+        <v>383</v>
       </c>
       <c r="M8" s="15" t="s">
-        <v>513</v>
+        <v>4</v>
       </c>
       <c r="N8" s="17" t="s">
         <v>256</v>
       </c>
       <c r="O8" s="15">
-        <v>1182</v>
+        <v>1209</v>
       </c>
       <c r="P8" s="15" t="s">
-        <v>5380</v>
+        <v>5245</v>
       </c>
     </row>
     <row r="9" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
@@ -22262,16 +22291,16 @@
         <v>255</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>5337</v>
+        <v>5352</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>133</v>
+        <v>5138</v>
       </c>
       <c r="E9" s="16">
-        <v>19544</v>
+        <v>17839</v>
       </c>
       <c r="F9" s="15" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G9" s="15" t="s">
         <v>256</v>
@@ -22283,25 +22312,25 @@
         <v>257</v>
       </c>
       <c r="J9" s="16">
-        <v>32677</v>
+        <v>33791</v>
       </c>
       <c r="K9" s="16">
-        <v>33576</v>
+        <v>34496</v>
       </c>
       <c r="L9" s="15" t="s">
-        <v>256</v>
+        <v>383</v>
       </c>
       <c r="M9" s="15" t="s">
         <v>513</v>
       </c>
-      <c r="N9" s="17" t="s">
-        <v>256</v>
+      <c r="N9" s="17">
+        <v>96635</v>
       </c>
       <c r="O9" s="15">
-        <v>1156</v>
+        <v>1869</v>
       </c>
       <c r="P9" s="15" t="s">
-        <v>5381</v>
+        <v>5404</v>
       </c>
     </row>
     <row r="10" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
@@ -22312,16 +22341,16 @@
         <v>255</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>5340</v>
+        <v>5336</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>131</v>
+        <v>5335</v>
       </c>
       <c r="E10" s="16">
-        <v>14271</v>
+        <v>16506</v>
       </c>
       <c r="F10" s="15" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G10" s="15" t="s">
         <v>256</v>
@@ -22339,7 +22368,7 @@
         <v>33582</v>
       </c>
       <c r="L10" s="15" t="s">
-        <v>256</v>
+        <v>382</v>
       </c>
       <c r="M10" s="15" t="s">
         <v>513</v>
@@ -22348,10 +22377,10 @@
         <v>256</v>
       </c>
       <c r="O10" s="15">
-        <v>1083</v>
+        <v>1124</v>
       </c>
       <c r="P10" s="15" t="s">
-        <v>5382</v>
+        <v>5383</v>
       </c>
     </row>
     <row r="11" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
@@ -22362,16 +22391,16 @@
         <v>255</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>5336</v>
+        <v>5325</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>5335</v>
+        <v>147</v>
       </c>
       <c r="E11" s="16">
-        <v>16506</v>
+        <v>583</v>
       </c>
       <c r="F11" s="15" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G11" s="15" t="s">
         <v>256</v>
@@ -22386,22 +22415,22 @@
         <v>32677</v>
       </c>
       <c r="K11" s="16">
-        <v>33582</v>
+        <v>32755</v>
       </c>
       <c r="L11" s="15" t="s">
-        <v>256</v>
+        <v>382</v>
       </c>
       <c r="M11" s="15" t="s">
-        <v>513</v>
+        <v>4</v>
       </c>
       <c r="N11" s="17" t="s">
         <v>256</v>
       </c>
       <c r="O11" s="15">
-        <v>1124</v>
+        <v>1034</v>
       </c>
       <c r="P11" s="15" t="s">
-        <v>5383</v>
+        <v>5375</v>
       </c>
     </row>
     <row r="12" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
@@ -22412,16 +22441,16 @@
         <v>255</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>5334</v>
+        <v>5297</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>69</v>
+        <v>414</v>
       </c>
       <c r="E12" s="16">
-        <v>16848</v>
+        <v>15898</v>
       </c>
       <c r="F12" s="15" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G12" s="15" t="s">
         <v>256</v>
@@ -22436,22 +22465,22 @@
         <v>32677</v>
       </c>
       <c r="K12" s="16">
-        <v>33582</v>
+        <v>32815</v>
       </c>
       <c r="L12" s="15" t="s">
-        <v>256</v>
+        <v>382</v>
       </c>
       <c r="M12" s="15" t="s">
-        <v>513</v>
-      </c>
-      <c r="N12" s="17">
-        <v>1009</v>
+        <v>88</v>
+      </c>
+      <c r="N12" s="17" t="s">
+        <v>256</v>
       </c>
       <c r="O12" s="15">
-        <v>1202</v>
+        <v>1180</v>
       </c>
       <c r="P12" s="15" t="s">
-        <v>5384</v>
+        <v>5378</v>
       </c>
     </row>
     <row r="13" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
@@ -22462,16 +22491,16 @@
         <v>255</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>5333</v>
+        <v>5303</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>5332</v>
+        <v>115</v>
       </c>
       <c r="E13" s="16">
-        <v>18899</v>
+        <v>10947</v>
       </c>
       <c r="F13" s="15" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G13" s="15" t="s">
         <v>256</v>
@@ -22486,22 +22515,22 @@
         <v>32677</v>
       </c>
       <c r="K13" s="16">
-        <v>33582</v>
+        <v>34074</v>
       </c>
       <c r="L13" s="15" t="s">
-        <v>256</v>
+        <v>382</v>
       </c>
       <c r="M13" s="15" t="s">
-        <v>513</v>
+        <v>26</v>
       </c>
       <c r="N13" s="17" t="s">
         <v>256</v>
       </c>
       <c r="O13" s="15">
-        <v>1126</v>
+        <v>1035</v>
       </c>
       <c r="P13" s="15" t="s">
-        <v>5385</v>
+        <v>5396</v>
       </c>
     </row>
     <row r="14" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
@@ -22512,16 +22541,16 @@
         <v>255</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>5360</v>
+        <v>5041</v>
       </c>
       <c r="D14" s="15" t="s">
-        <v>17</v>
+        <v>390</v>
       </c>
       <c r="E14" s="16">
-        <v>21493</v>
+        <v>13421</v>
       </c>
       <c r="F14" s="15" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G14" s="15" t="s">
         <v>256</v>
@@ -22533,25 +22562,25 @@
         <v>257</v>
       </c>
       <c r="J14" s="16">
-        <v>33555</v>
+        <v>32677</v>
       </c>
       <c r="K14" s="16">
-        <v>33583</v>
+        <v>34496</v>
       </c>
       <c r="L14" s="15" t="s">
-        <v>256</v>
+        <v>383</v>
       </c>
       <c r="M14" s="15" t="s">
-        <v>513</v>
-      </c>
-      <c r="N14" s="17">
-        <v>837955</v>
+        <v>5292</v>
+      </c>
+      <c r="N14" s="17" t="s">
+        <v>256</v>
       </c>
       <c r="O14" s="15">
-        <v>1839</v>
+        <v>1210</v>
       </c>
       <c r="P14" s="15" t="s">
-        <v>5386</v>
+        <v>5406</v>
       </c>
     </row>
     <row r="15" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
@@ -22562,13 +22591,13 @@
         <v>255</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>5328</v>
+        <v>5191</v>
       </c>
       <c r="D15" s="15" t="s">
-        <v>5327</v>
+        <v>38</v>
       </c>
       <c r="E15" s="16">
-        <v>17940</v>
+        <v>16087</v>
       </c>
       <c r="F15" s="15" t="s">
         <v>3</v>
@@ -22586,22 +22615,22 @@
         <v>32677</v>
       </c>
       <c r="K15" s="16">
-        <v>33591</v>
+        <v>34496</v>
       </c>
       <c r="L15" s="15" t="s">
-        <v>256</v>
+        <v>383</v>
       </c>
       <c r="M15" s="15" t="s">
-        <v>513</v>
+        <v>26</v>
       </c>
       <c r="N15" s="17">
-        <v>53206</v>
+        <v>94535</v>
       </c>
       <c r="O15" s="15">
-        <v>1152</v>
+        <v>1036</v>
       </c>
       <c r="P15" s="15" t="s">
-        <v>5387</v>
+        <v>5214</v>
       </c>
     </row>
     <row r="16" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
@@ -22612,13 +22641,13 @@
         <v>255</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>5314</v>
+        <v>5144</v>
       </c>
       <c r="D16" s="15" t="s">
-        <v>5313</v>
+        <v>5145</v>
       </c>
       <c r="E16" s="16">
-        <v>17034</v>
+        <v>17713</v>
       </c>
       <c r="F16" s="15" t="s">
         <v>3</v>
@@ -22636,22 +22665,22 @@
         <v>32677</v>
       </c>
       <c r="K16" s="16">
-        <v>33696</v>
+        <v>34496</v>
       </c>
       <c r="L16" s="15" t="s">
-        <v>256</v>
+        <v>383</v>
       </c>
       <c r="M16" s="15" t="s">
-        <v>515</v>
-      </c>
-      <c r="N16" s="17">
-        <v>1023</v>
+        <v>4</v>
+      </c>
+      <c r="N16" s="17" t="s">
+        <v>256</v>
       </c>
       <c r="O16" s="15">
-        <v>1029</v>
+        <v>1211</v>
       </c>
       <c r="P16" s="15" t="s">
-        <v>5388</v>
+        <v>5247</v>
       </c>
     </row>
     <row r="17" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
@@ -22661,14 +22690,14 @@
       <c r="B17" s="15" t="s">
         <v>255</v>
       </c>
-      <c r="C17" s="15" t="s">
-        <v>5343</v>
+      <c r="C17" s="24" t="s">
+        <v>5361</v>
       </c>
       <c r="D17" s="15" t="s">
-        <v>5342</v>
+        <v>35</v>
       </c>
       <c r="E17" s="16">
-        <v>14703</v>
+        <v>20720</v>
       </c>
       <c r="F17" s="15" t="s">
         <v>3</v>
@@ -22683,25 +22712,25 @@
         <v>257</v>
       </c>
       <c r="J17" s="16">
-        <v>32677</v>
+        <v>33584</v>
       </c>
       <c r="K17" s="16">
-        <v>33699</v>
+        <v>34496</v>
       </c>
       <c r="L17" s="15" t="s">
-        <v>256</v>
+        <v>383</v>
       </c>
       <c r="M17" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="N17" s="17">
-        <v>32410</v>
+        <v>513</v>
+      </c>
+      <c r="N17" s="17" t="s">
+        <v>256</v>
       </c>
       <c r="O17" s="15">
-        <v>1153</v>
+        <v>1834</v>
       </c>
       <c r="P17" s="15" t="s">
-        <v>5389</v>
+        <v>5407</v>
       </c>
     </row>
     <row r="18" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
@@ -22712,16 +22741,16 @@
         <v>255</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>5350</v>
+        <v>217</v>
       </c>
       <c r="D18" s="15" t="s">
-        <v>5351</v>
+        <v>20</v>
       </c>
       <c r="E18" s="16">
-        <v>13922</v>
+        <v>9067</v>
       </c>
       <c r="F18" s="15" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G18" s="15" t="s">
         <v>256</v>
@@ -22733,25 +22762,25 @@
         <v>257</v>
       </c>
       <c r="J18" s="16">
-        <v>33583</v>
+        <v>32677</v>
       </c>
       <c r="K18" s="16">
-        <v>33790</v>
+        <v>34496</v>
       </c>
       <c r="L18" s="15" t="s">
-        <v>256</v>
+        <v>383</v>
       </c>
       <c r="M18" s="15" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="N18" s="17" t="s">
         <v>256</v>
       </c>
       <c r="O18" s="15">
-        <v>1835</v>
+        <v>1212</v>
       </c>
       <c r="P18" s="15" t="s">
-        <v>5390</v>
+        <v>5408</v>
       </c>
     </row>
     <row r="19" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
@@ -22762,13 +22791,13 @@
         <v>255</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>5306</v>
+        <v>5341</v>
       </c>
       <c r="D19" s="15" t="s">
-        <v>5305</v>
+        <v>7</v>
       </c>
       <c r="E19" s="16">
-        <v>19849</v>
+        <v>18725</v>
       </c>
       <c r="F19" s="15" t="s">
         <v>3</v>
@@ -22786,22 +22815,22 @@
         <v>32677</v>
       </c>
       <c r="K19" s="16">
-        <v>33829</v>
+        <v>33851</v>
       </c>
       <c r="L19" s="15" t="s">
-        <v>256</v>
+        <v>382</v>
       </c>
       <c r="M19" s="15" t="s">
-        <v>5291</v>
-      </c>
-      <c r="N19" s="17" t="s">
-        <v>256</v>
+        <v>5294</v>
+      </c>
+      <c r="N19" s="17">
+        <v>447379</v>
       </c>
       <c r="O19" s="15">
-        <v>1172</v>
+        <v>986</v>
       </c>
       <c r="P19" s="15" t="s">
-        <v>5391</v>
+        <v>5392</v>
       </c>
     </row>
     <row r="20" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
@@ -22812,13 +22841,13 @@
         <v>255</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>5341</v>
+        <v>339</v>
       </c>
       <c r="D20" s="15" t="s">
         <v>7</v>
       </c>
       <c r="E20" s="16">
-        <v>18725</v>
+        <v>16996</v>
       </c>
       <c r="F20" s="15" t="s">
         <v>3</v>
@@ -22836,22 +22865,22 @@
         <v>32677</v>
       </c>
       <c r="K20" s="16">
-        <v>33851</v>
+        <v>34496</v>
       </c>
       <c r="L20" s="15" t="s">
-        <v>256</v>
+        <v>383</v>
       </c>
       <c r="M20" s="15" t="s">
-        <v>5294</v>
+        <v>26</v>
       </c>
       <c r="N20" s="17">
-        <v>447379</v>
+        <v>1519893</v>
       </c>
       <c r="O20" s="15">
-        <v>986</v>
+        <v>1026</v>
       </c>
       <c r="P20" s="15" t="s">
-        <v>5392</v>
+        <v>700</v>
       </c>
     </row>
     <row r="21" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
@@ -22862,16 +22891,16 @@
         <v>255</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>5298</v>
+        <v>5306</v>
       </c>
       <c r="D21" s="15" t="s">
-        <v>414</v>
+        <v>5305</v>
       </c>
       <c r="E21" s="16">
-        <v>17055</v>
+        <v>19849</v>
       </c>
       <c r="F21" s="15" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G21" s="15" t="s">
         <v>256</v>
@@ -22886,22 +22915,22 @@
         <v>32677</v>
       </c>
       <c r="K21" s="16">
-        <v>34058</v>
+        <v>33829</v>
       </c>
       <c r="L21" s="15" t="s">
-        <v>256</v>
+        <v>382</v>
       </c>
       <c r="M21" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="N21" s="17">
-        <v>833186</v>
+        <v>5291</v>
+      </c>
+      <c r="N21" s="17" t="s">
+        <v>256</v>
       </c>
       <c r="O21" s="15">
-        <v>1179</v>
+        <v>1172</v>
       </c>
       <c r="P21" s="15" t="s">
-        <v>5393</v>
+        <v>5391</v>
       </c>
     </row>
     <row r="22" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
@@ -22912,16 +22941,16 @@
         <v>255</v>
       </c>
       <c r="C22" s="15" t="s">
-        <v>5344</v>
+        <v>5319</v>
       </c>
       <c r="D22" s="15" t="s">
-        <v>5</v>
+        <v>60</v>
       </c>
       <c r="E22" s="16">
-        <v>19360</v>
+        <v>16083</v>
       </c>
       <c r="F22" s="15" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G22" s="15" t="s">
         <v>256</v>
@@ -22936,22 +22965,22 @@
         <v>32677</v>
       </c>
       <c r="K22" s="16">
-        <v>34058</v>
+        <v>34496</v>
       </c>
       <c r="L22" s="15" t="s">
-        <v>256</v>
+        <v>383</v>
       </c>
       <c r="M22" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="N22" s="17" t="s">
-        <v>256</v>
+        <v>515</v>
+      </c>
+      <c r="N22" s="17">
+        <v>646563</v>
       </c>
       <c r="O22" s="15">
-        <v>1028</v>
+        <v>1181</v>
       </c>
       <c r="P22" s="15" t="s">
-        <v>5394</v>
+        <v>5409</v>
       </c>
     </row>
     <row r="23" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
@@ -22962,13 +22991,13 @@
         <v>255</v>
       </c>
       <c r="C23" s="15" t="s">
-        <v>45</v>
+        <v>293</v>
       </c>
       <c r="D23" s="15" t="s">
-        <v>20</v>
+        <v>133</v>
       </c>
       <c r="E23" s="16">
-        <v>16112</v>
+        <v>16495</v>
       </c>
       <c r="F23" s="15" t="s">
         <v>3</v>
@@ -22986,22 +23015,22 @@
         <v>32677</v>
       </c>
       <c r="K23" s="16">
-        <v>34058</v>
+        <v>34496</v>
       </c>
       <c r="L23" s="15" t="s">
-        <v>256</v>
+        <v>383</v>
       </c>
       <c r="M23" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="N23" s="18" t="s">
-        <v>663</v>
-      </c>
-      <c r="O23" s="22">
-        <v>1204</v>
+        <v>515</v>
+      </c>
+      <c r="N23" s="17">
+        <v>16</v>
+      </c>
+      <c r="O23" s="15">
+        <v>1175</v>
       </c>
       <c r="P23" s="15" t="s">
-        <v>662</v>
+        <v>703</v>
       </c>
     </row>
     <row r="24" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
@@ -23012,13 +23041,13 @@
         <v>255</v>
       </c>
       <c r="C24" s="15" t="s">
-        <v>90</v>
+        <v>5353</v>
       </c>
       <c r="D24" s="15" t="s">
-        <v>89</v>
+        <v>5354</v>
       </c>
       <c r="E24" s="16">
-        <v>46581</v>
+        <v>15850</v>
       </c>
       <c r="F24" s="15" t="s">
         <v>8</v>
@@ -23033,25 +23062,25 @@
         <v>257</v>
       </c>
       <c r="J24" s="16">
-        <v>32677</v>
+        <v>34138</v>
       </c>
       <c r="K24" s="16">
-        <v>34058</v>
+        <v>34496</v>
       </c>
       <c r="L24" s="15" t="s">
-        <v>256</v>
+        <v>383</v>
       </c>
       <c r="M24" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="N24" s="17" t="s">
-        <v>256</v>
+        <v>515</v>
+      </c>
+      <c r="N24" s="17">
+        <v>52113</v>
       </c>
       <c r="O24" s="15">
-        <v>1174</v>
+        <v>1880</v>
       </c>
       <c r="P24" s="15" t="s">
-        <v>5395</v>
+        <v>5410</v>
       </c>
     </row>
     <row r="25" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
@@ -23062,13 +23091,13 @@
         <v>255</v>
       </c>
       <c r="C25" s="15" t="s">
-        <v>5303</v>
+        <v>5324</v>
       </c>
       <c r="D25" s="15" t="s">
-        <v>115</v>
+        <v>38</v>
       </c>
       <c r="E25" s="16">
-        <v>47472</v>
+        <v>17063</v>
       </c>
       <c r="F25" s="15" t="s">
         <v>3</v>
@@ -23086,22 +23115,22 @@
         <v>32677</v>
       </c>
       <c r="K25" s="16">
-        <v>34074</v>
+        <v>34496</v>
       </c>
       <c r="L25" s="15" t="s">
-        <v>256</v>
+        <v>383</v>
       </c>
       <c r="M25" s="15" t="s">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="N25" s="17" t="s">
         <v>256</v>
       </c>
       <c r="O25" s="15">
-        <v>1035</v>
+        <v>1161</v>
       </c>
       <c r="P25" s="15" t="s">
-        <v>5396</v>
+        <v>5411</v>
       </c>
     </row>
     <row r="26" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
@@ -23112,13 +23141,13 @@
         <v>255</v>
       </c>
       <c r="C26" s="15" t="s">
-        <v>5370</v>
+        <v>5310</v>
       </c>
       <c r="D26" s="15" t="s">
-        <v>5371</v>
+        <v>5309</v>
       </c>
       <c r="E26" s="16">
-        <v>15529</v>
+        <v>16713</v>
       </c>
       <c r="F26" s="15" t="s">
         <v>3</v>
@@ -23132,26 +23161,26 @@
       <c r="I26" s="15" t="s">
         <v>257</v>
       </c>
-      <c r="J26" s="23">
-        <v>32816</v>
+      <c r="J26" s="16">
+        <v>32677</v>
       </c>
       <c r="K26" s="16">
-        <v>34075</v>
+        <v>34496</v>
       </c>
       <c r="L26" s="15" t="s">
-        <v>256</v>
+        <v>383</v>
       </c>
       <c r="M26" s="15" t="s">
-        <v>5357</v>
+        <v>88</v>
       </c>
       <c r="N26" s="17">
-        <v>146</v>
+        <v>1090130</v>
       </c>
       <c r="O26" s="15">
-        <v>952</v>
+        <v>1162</v>
       </c>
       <c r="P26" s="15" t="s">
-        <v>5397</v>
+        <v>5412</v>
       </c>
     </row>
     <row r="27" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
@@ -23162,13 +23191,13 @@
         <v>255</v>
       </c>
       <c r="C27" s="15" t="s">
-        <v>5304</v>
+        <v>5190</v>
       </c>
       <c r="D27" s="15" t="s">
-        <v>147</v>
+        <v>194</v>
       </c>
       <c r="E27" s="16">
-        <v>18330</v>
+        <v>13556</v>
       </c>
       <c r="F27" s="15" t="s">
         <v>3</v>
@@ -23183,25 +23212,25 @@
         <v>257</v>
       </c>
       <c r="J27" s="16">
-        <v>32677</v>
+        <v>34377</v>
       </c>
       <c r="K27" s="16">
-        <v>34075</v>
+        <v>34496</v>
       </c>
       <c r="L27" s="15" t="s">
-        <v>256</v>
+        <v>383</v>
       </c>
       <c r="M27" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="N27" s="17">
-        <v>150149</v>
+        <v>88</v>
+      </c>
+      <c r="N27" s="17" t="s">
+        <v>256</v>
       </c>
       <c r="O27" s="15">
-        <v>1025</v>
+        <v>1877</v>
       </c>
       <c r="P27" s="15" t="s">
-        <v>5398</v>
+        <v>5250</v>
       </c>
     </row>
     <row r="28" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
@@ -23212,13 +23241,13 @@
         <v>255</v>
       </c>
       <c r="C28" s="15" t="s">
-        <v>5312</v>
+        <v>5315</v>
       </c>
       <c r="D28" s="15" t="s">
-        <v>42</v>
+        <v>147</v>
       </c>
       <c r="E28" s="16">
-        <v>16256</v>
+        <v>7409</v>
       </c>
       <c r="F28" s="15" t="s">
         <v>3</v>
@@ -23236,22 +23265,22 @@
         <v>32677</v>
       </c>
       <c r="K28" s="16">
-        <v>34076</v>
+        <v>34496</v>
       </c>
       <c r="L28" s="15" t="s">
-        <v>256</v>
+        <v>383</v>
       </c>
       <c r="M28" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="N28" s="17">
-        <v>11291</v>
+        <v>515</v>
+      </c>
+      <c r="N28" s="17" t="s">
+        <v>256</v>
       </c>
       <c r="O28" s="15">
-        <v>1195</v>
+        <v>1163</v>
       </c>
       <c r="P28" s="15" t="s">
-        <v>5399</v>
+        <v>5413</v>
       </c>
     </row>
     <row r="29" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
@@ -23262,16 +23291,16 @@
         <v>255</v>
       </c>
       <c r="C29" s="15" t="s">
-        <v>5346</v>
+        <v>5355</v>
       </c>
       <c r="D29" s="15" t="s">
-        <v>5295</v>
+        <v>5356</v>
       </c>
       <c r="E29" s="16">
-        <v>9530</v>
+        <v>17724</v>
       </c>
       <c r="F29" s="15" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G29" s="15" t="s">
         <v>256</v>
@@ -23283,25 +23312,25 @@
         <v>257</v>
       </c>
       <c r="J29" s="16">
-        <v>32677</v>
+        <v>33583</v>
       </c>
       <c r="K29" s="16">
-        <v>34129</v>
+        <v>34496</v>
       </c>
       <c r="L29" s="15" t="s">
-        <v>256</v>
+        <v>383</v>
       </c>
       <c r="M29" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="N29" s="17" t="s">
-        <v>256</v>
+        <v>513</v>
+      </c>
+      <c r="N29" s="17">
+        <v>839318</v>
       </c>
       <c r="O29" s="15">
-        <v>1030</v>
+        <v>1836</v>
       </c>
       <c r="P29" s="15" t="s">
-        <v>5400</v>
+        <v>5414</v>
       </c>
     </row>
     <row r="30" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
@@ -23312,13 +23341,13 @@
         <v>255</v>
       </c>
       <c r="C30" s="15" t="s">
-        <v>5311</v>
+        <v>5334</v>
       </c>
       <c r="D30" s="15" t="s">
-        <v>20</v>
+        <v>69</v>
       </c>
       <c r="E30" s="16">
-        <v>16804</v>
+        <v>16848</v>
       </c>
       <c r="F30" s="15" t="s">
         <v>3</v>
@@ -23336,22 +23365,22 @@
         <v>32677</v>
       </c>
       <c r="K30" s="16">
-        <v>34137</v>
+        <v>33582</v>
       </c>
       <c r="L30" s="15" t="s">
-        <v>256</v>
+        <v>382</v>
       </c>
       <c r="M30" s="15" t="s">
-        <v>88</v>
+        <v>513</v>
       </c>
       <c r="N30" s="17">
-        <v>734</v>
+        <v>1009</v>
       </c>
       <c r="O30" s="15">
-        <v>1165</v>
+        <v>1202</v>
       </c>
       <c r="P30" s="15" t="s">
-        <v>5401</v>
+        <v>5384</v>
       </c>
     </row>
     <row r="31" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
@@ -23362,16 +23391,16 @@
         <v>255</v>
       </c>
       <c r="C31" s="15" t="s">
-        <v>167</v>
+        <v>5350</v>
       </c>
       <c r="D31" s="15" t="s">
-        <v>166</v>
+        <v>5351</v>
       </c>
       <c r="E31" s="16">
-        <v>14857</v>
+        <v>13922</v>
       </c>
       <c r="F31" s="15" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G31" s="15" t="s">
         <v>256</v>
@@ -23383,25 +23412,25 @@
         <v>257</v>
       </c>
       <c r="J31" s="16">
-        <v>32677</v>
+        <v>33583</v>
       </c>
       <c r="K31" s="16">
-        <v>34376</v>
+        <v>33790</v>
       </c>
       <c r="L31" s="15" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="M31" s="15" t="s">
-        <v>4899</v>
-      </c>
-      <c r="N31" s="17">
-        <v>1057</v>
+        <v>513</v>
+      </c>
+      <c r="N31" s="17" t="s">
+        <v>256</v>
       </c>
       <c r="O31" s="15">
-        <v>1176</v>
+        <v>1835</v>
       </c>
       <c r="P31" s="15" t="s">
-        <v>5402</v>
+        <v>5390</v>
       </c>
     </row>
     <row r="32" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
@@ -23412,13 +23441,13 @@
         <v>255</v>
       </c>
       <c r="C32" s="15" t="s">
-        <v>162</v>
+        <v>5177</v>
       </c>
       <c r="D32" s="15" t="s">
-        <v>161</v>
+        <v>5178</v>
       </c>
       <c r="E32" s="16">
-        <v>11985</v>
+        <v>13781</v>
       </c>
       <c r="F32" s="15" t="s">
         <v>3</v>
@@ -23436,22 +23465,22 @@
         <v>32677</v>
       </c>
       <c r="K32" s="16">
-        <v>34376</v>
+        <v>34496</v>
       </c>
       <c r="L32" s="15" t="s">
         <v>383</v>
       </c>
       <c r="M32" s="15" t="s">
-        <v>4899</v>
+        <v>515</v>
       </c>
       <c r="N32" s="17" t="s">
         <v>256</v>
       </c>
       <c r="O32" s="15">
-        <v>1157</v>
+        <v>1027</v>
       </c>
       <c r="P32" s="15" t="s">
-        <v>5268</v>
+        <v>5251</v>
       </c>
     </row>
     <row r="33" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
@@ -23462,16 +23491,16 @@
         <v>255</v>
       </c>
       <c r="C33" s="15" t="s">
-        <v>349</v>
+        <v>5189</v>
       </c>
       <c r="D33" s="15" t="s">
-        <v>348</v>
+        <v>119</v>
       </c>
       <c r="E33" s="16">
-        <v>17520</v>
+        <v>16182</v>
       </c>
       <c r="F33" s="15" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G33" s="15" t="s">
         <v>256</v>
@@ -23483,7 +23512,7 @@
         <v>257</v>
       </c>
       <c r="J33" s="16">
-        <v>32677</v>
+        <v>34076</v>
       </c>
       <c r="K33" s="16">
         <v>34496</v>
@@ -23492,16 +23521,16 @@
         <v>383</v>
       </c>
       <c r="M33" s="15" t="s">
-        <v>4899</v>
+        <v>26</v>
       </c>
       <c r="N33" s="17" t="s">
         <v>256</v>
       </c>
       <c r="O33" s="15">
-        <v>1133</v>
+        <v>1741</v>
       </c>
       <c r="P33" s="15" t="s">
-        <v>596</v>
+        <v>5252</v>
       </c>
     </row>
     <row r="34" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
@@ -23512,13 +23541,13 @@
         <v>255</v>
       </c>
       <c r="C34" s="15" t="s">
-        <v>5317</v>
+        <v>366</v>
       </c>
       <c r="D34" s="15" t="s">
-        <v>30</v>
+        <v>115</v>
       </c>
       <c r="E34" s="16">
-        <v>17131</v>
+        <v>17801</v>
       </c>
       <c r="F34" s="15" t="s">
         <v>3</v>
@@ -23533,7 +23562,7 @@
         <v>257</v>
       </c>
       <c r="J34" s="16">
-        <v>32677</v>
+        <v>34076</v>
       </c>
       <c r="K34" s="16">
         <v>34496</v>
@@ -23542,16 +23571,16 @@
         <v>383</v>
       </c>
       <c r="M34" s="15" t="s">
-        <v>515</v>
-      </c>
-      <c r="N34" s="17">
-        <v>1350</v>
+        <v>26</v>
+      </c>
+      <c r="N34" s="17" t="s">
+        <v>256</v>
       </c>
       <c r="O34" s="15">
-        <v>1170</v>
+        <v>1878</v>
       </c>
       <c r="P34" s="15" t="s">
-        <v>5403</v>
+        <v>601</v>
       </c>
     </row>
     <row r="35" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
@@ -23562,13 +23591,13 @@
         <v>255</v>
       </c>
       <c r="C35" s="15" t="s">
-        <v>5146</v>
+        <v>5347</v>
       </c>
       <c r="D35" s="15" t="s">
-        <v>28</v>
+        <v>187</v>
       </c>
       <c r="E35" s="16">
-        <v>16404</v>
+        <v>7645</v>
       </c>
       <c r="F35" s="15" t="s">
         <v>3</v>
@@ -23592,16 +23621,16 @@
         <v>383</v>
       </c>
       <c r="M35" s="15" t="s">
-        <v>4</v>
+        <v>88</v>
       </c>
       <c r="N35" s="17" t="s">
         <v>256</v>
       </c>
       <c r="O35" s="15">
-        <v>1209</v>
+        <v>974</v>
       </c>
       <c r="P35" s="15" t="s">
-        <v>5245</v>
+        <v>5415</v>
       </c>
     </row>
     <row r="36" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
@@ -23612,16 +23641,16 @@
         <v>255</v>
       </c>
       <c r="C36" s="15" t="s">
-        <v>5352</v>
+        <v>5370</v>
       </c>
       <c r="D36" s="15" t="s">
-        <v>5138</v>
+        <v>5371</v>
       </c>
       <c r="E36" s="16">
-        <v>17839</v>
+        <v>15529</v>
       </c>
       <c r="F36" s="15" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G36" s="15" t="s">
         <v>256</v>
@@ -23632,26 +23661,26 @@
       <c r="I36" s="15" t="s">
         <v>257</v>
       </c>
-      <c r="J36" s="16">
-        <v>33791</v>
+      <c r="J36" s="23">
+        <v>32816</v>
       </c>
       <c r="K36" s="16">
-        <v>34496</v>
+        <v>34075</v>
       </c>
       <c r="L36" s="15" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="M36" s="15" t="s">
-        <v>513</v>
+        <v>5357</v>
       </c>
       <c r="N36" s="17">
-        <v>96635</v>
+        <v>146</v>
       </c>
       <c r="O36" s="15">
-        <v>1869</v>
+        <v>952</v>
       </c>
       <c r="P36" s="15" t="s">
-        <v>5404</v>
+        <v>5397</v>
       </c>
     </row>
     <row r="37" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
@@ -23661,14 +23690,14 @@
       <c r="B37" s="15" t="s">
         <v>255</v>
       </c>
-      <c r="C37" s="24" t="s">
-        <v>5358</v>
+      <c r="C37" s="15" t="s">
+        <v>101</v>
       </c>
       <c r="D37" s="15" t="s">
-        <v>5178</v>
+        <v>51</v>
       </c>
       <c r="E37" s="16">
-        <v>18509</v>
+        <v>10684</v>
       </c>
       <c r="F37" s="15" t="s">
         <v>3</v>
@@ -23683,7 +23712,7 @@
         <v>257</v>
       </c>
       <c r="J37" s="16">
-        <v>34058</v>
+        <v>33700</v>
       </c>
       <c r="K37" s="16">
         <v>34496</v>
@@ -23694,14 +23723,14 @@
       <c r="M37" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="N37" s="17">
-        <v>1088</v>
+      <c r="N37" s="17" t="s">
+        <v>256</v>
       </c>
       <c r="O37" s="15">
-        <v>1829</v>
+        <v>1710</v>
       </c>
       <c r="P37" s="15" t="s">
-        <v>5405</v>
+        <v>5416</v>
       </c>
     </row>
     <row r="38" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
@@ -23712,13 +23741,13 @@
         <v>255</v>
       </c>
       <c r="C38" s="15" t="s">
-        <v>5041</v>
+        <v>103</v>
       </c>
       <c r="D38" s="15" t="s">
-        <v>390</v>
+        <v>50</v>
       </c>
       <c r="E38" s="16">
-        <v>13421</v>
+        <v>8179</v>
       </c>
       <c r="F38" s="15" t="s">
         <v>3</v>
@@ -23733,7 +23762,7 @@
         <v>257</v>
       </c>
       <c r="J38" s="16">
-        <v>32677</v>
+        <v>34059</v>
       </c>
       <c r="K38" s="16">
         <v>34496</v>
@@ -23742,16 +23771,16 @@
         <v>383</v>
       </c>
       <c r="M38" s="15" t="s">
-        <v>5292</v>
+        <v>5357</v>
       </c>
       <c r="N38" s="17" t="s">
         <v>256</v>
       </c>
       <c r="O38" s="15">
-        <v>1210</v>
+        <v>1703</v>
       </c>
       <c r="P38" s="15" t="s">
-        <v>5406</v>
+        <v>5417</v>
       </c>
     </row>
     <row r="39" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
@@ -23762,16 +23791,16 @@
         <v>255</v>
       </c>
       <c r="C39" s="15" t="s">
-        <v>5191</v>
+        <v>5236</v>
       </c>
       <c r="D39" s="15" t="s">
-        <v>38</v>
+        <v>5231</v>
       </c>
       <c r="E39" s="16">
-        <v>16087</v>
+        <v>18337</v>
       </c>
       <c r="F39" s="15" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G39" s="15" t="s">
         <v>256</v>
@@ -23792,16 +23821,16 @@
         <v>383</v>
       </c>
       <c r="M39" s="15" t="s">
-        <v>26</v>
+        <v>515</v>
       </c>
       <c r="N39" s="17">
-        <v>94535</v>
+        <v>69740</v>
       </c>
       <c r="O39" s="15">
-        <v>1036</v>
+        <v>1001</v>
       </c>
       <c r="P39" s="15" t="s">
-        <v>5214</v>
+        <v>5243</v>
       </c>
     </row>
     <row r="40" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
@@ -23812,16 +23841,16 @@
         <v>255</v>
       </c>
       <c r="C40" s="15" t="s">
-        <v>5144</v>
+        <v>5289</v>
       </c>
       <c r="D40" s="15" t="s">
-        <v>5145</v>
+        <v>5139</v>
       </c>
       <c r="E40" s="16">
-        <v>17713</v>
+        <v>17906</v>
       </c>
       <c r="F40" s="15" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G40" s="15" t="s">
         <v>256</v>
@@ -23842,16 +23871,16 @@
         <v>383</v>
       </c>
       <c r="M40" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="N40" s="17" t="s">
-        <v>256</v>
+        <v>4899</v>
+      </c>
+      <c r="N40" s="17">
+        <v>169991</v>
       </c>
       <c r="O40" s="15">
-        <v>1211</v>
+        <v>1125</v>
       </c>
       <c r="P40" s="15" t="s">
-        <v>5247</v>
+        <v>5285</v>
       </c>
     </row>
     <row r="41" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
@@ -23861,14 +23890,14 @@
       <c r="B41" s="15" t="s">
         <v>255</v>
       </c>
-      <c r="C41" s="24" t="s">
-        <v>5361</v>
+      <c r="C41" s="15" t="s">
+        <v>5344</v>
       </c>
       <c r="D41" s="15" t="s">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="E41" s="16">
-        <v>20720</v>
+        <v>19360</v>
       </c>
       <c r="F41" s="15" t="s">
         <v>3</v>
@@ -23883,25 +23912,25 @@
         <v>257</v>
       </c>
       <c r="J41" s="16">
-        <v>33584</v>
+        <v>32677</v>
       </c>
       <c r="K41" s="16">
-        <v>34496</v>
+        <v>34058</v>
       </c>
       <c r="L41" s="15" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="M41" s="15" t="s">
-        <v>513</v>
+        <v>26</v>
       </c>
       <c r="N41" s="17" t="s">
         <v>256</v>
       </c>
       <c r="O41" s="15">
-        <v>1834</v>
+        <v>1028</v>
       </c>
       <c r="P41" s="15" t="s">
-        <v>5407</v>
+        <v>5394</v>
       </c>
     </row>
     <row r="42" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
@@ -23912,13 +23941,13 @@
         <v>255</v>
       </c>
       <c r="C42" s="15" t="s">
-        <v>217</v>
+        <v>5314</v>
       </c>
       <c r="D42" s="15" t="s">
-        <v>20</v>
+        <v>5313</v>
       </c>
       <c r="E42" s="16">
-        <v>9067</v>
+        <v>17034</v>
       </c>
       <c r="F42" s="15" t="s">
         <v>3</v>
@@ -23936,22 +23965,22 @@
         <v>32677</v>
       </c>
       <c r="K42" s="16">
-        <v>34496</v>
+        <v>33696</v>
       </c>
       <c r="L42" s="15" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="M42" s="15" t="s">
         <v>515</v>
       </c>
-      <c r="N42" s="17" t="s">
-        <v>256</v>
+      <c r="N42" s="17">
+        <v>1023</v>
       </c>
       <c r="O42" s="15">
-        <v>1212</v>
+        <v>1029</v>
       </c>
       <c r="P42" s="15" t="s">
-        <v>5408</v>
+        <v>5388</v>
       </c>
     </row>
     <row r="43" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
@@ -23962,16 +23991,16 @@
         <v>255</v>
       </c>
       <c r="C43" s="15" t="s">
-        <v>339</v>
+        <v>5330</v>
       </c>
       <c r="D43" s="15" t="s">
-        <v>7</v>
+        <v>5329</v>
       </c>
       <c r="E43" s="16">
-        <v>16996</v>
+        <v>12524</v>
       </c>
       <c r="F43" s="15" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G43" s="15" t="s">
         <v>256</v>
@@ -23986,22 +24015,22 @@
         <v>32677</v>
       </c>
       <c r="K43" s="16">
-        <v>34496</v>
+        <v>33554</v>
       </c>
       <c r="L43" s="15" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="M43" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="N43" s="17">
-        <v>1519893</v>
+        <v>513</v>
+      </c>
+      <c r="N43" s="17" t="s">
+        <v>256</v>
       </c>
       <c r="O43" s="15">
-        <v>1026</v>
+        <v>1182</v>
       </c>
       <c r="P43" s="15" t="s">
-        <v>700</v>
+        <v>5380</v>
       </c>
     </row>
     <row r="44" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
@@ -24012,13 +24041,13 @@
         <v>255</v>
       </c>
       <c r="C44" s="15" t="s">
-        <v>5319</v>
+        <v>76</v>
       </c>
       <c r="D44" s="15" t="s">
-        <v>60</v>
+        <v>23</v>
       </c>
       <c r="E44" s="16">
-        <v>16083</v>
+        <v>15357</v>
       </c>
       <c r="F44" s="15" t="s">
         <v>8</v>
@@ -24042,16 +24071,16 @@
         <v>383</v>
       </c>
       <c r="M44" s="15" t="s">
-        <v>515</v>
+        <v>26</v>
       </c>
       <c r="N44" s="17">
-        <v>646563</v>
+        <v>838005</v>
       </c>
       <c r="O44" s="15">
-        <v>1181</v>
+        <v>945</v>
       </c>
       <c r="P44" s="15" t="s">
-        <v>5409</v>
+        <v>657</v>
       </c>
     </row>
     <row r="45" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
@@ -24062,13 +24091,13 @@
         <v>255</v>
       </c>
       <c r="C45" s="15" t="s">
-        <v>293</v>
+        <v>5349</v>
       </c>
       <c r="D45" s="15" t="s">
-        <v>133</v>
+        <v>107</v>
       </c>
       <c r="E45" s="16">
-        <v>16495</v>
+        <v>16868</v>
       </c>
       <c r="F45" s="15" t="s">
         <v>3</v>
@@ -24083,7 +24112,7 @@
         <v>257</v>
       </c>
       <c r="J45" s="16">
-        <v>32677</v>
+        <v>34059</v>
       </c>
       <c r="K45" s="16">
         <v>34496</v>
@@ -24092,16 +24121,16 @@
         <v>383</v>
       </c>
       <c r="M45" s="15" t="s">
-        <v>515</v>
-      </c>
-      <c r="N45" s="17">
-        <v>16</v>
+        <v>5290</v>
+      </c>
+      <c r="N45" s="17" t="s">
+        <v>256</v>
       </c>
       <c r="O45" s="15">
-        <v>1175</v>
+        <v>1692</v>
       </c>
       <c r="P45" s="15" t="s">
-        <v>703</v>
+        <v>5279</v>
       </c>
     </row>
     <row r="46" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
@@ -24112,16 +24141,16 @@
         <v>255</v>
       </c>
       <c r="C46" s="15" t="s">
-        <v>5353</v>
+        <v>5374</v>
       </c>
       <c r="D46" s="15" t="s">
-        <v>5354</v>
+        <v>69</v>
       </c>
       <c r="E46" s="16">
-        <v>15850</v>
+        <v>17332</v>
       </c>
       <c r="F46" s="15" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G46" s="15" t="s">
         <v>256</v>
@@ -24133,7 +24162,7 @@
         <v>257</v>
       </c>
       <c r="J46" s="16">
-        <v>34138</v>
+        <v>33592</v>
       </c>
       <c r="K46" s="16">
         <v>34496</v>
@@ -24142,16 +24171,16 @@
         <v>383</v>
       </c>
       <c r="M46" s="15" t="s">
-        <v>515</v>
-      </c>
-      <c r="N46" s="17">
-        <v>52113</v>
+        <v>513</v>
+      </c>
+      <c r="N46" s="17" t="s">
+        <v>256</v>
       </c>
       <c r="O46" s="15">
-        <v>1880</v>
+        <v>1831</v>
       </c>
       <c r="P46" s="15" t="s">
-        <v>5410</v>
+        <v>5418</v>
       </c>
     </row>
     <row r="47" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
@@ -24162,13 +24191,13 @@
         <v>255</v>
       </c>
       <c r="C47" s="15" t="s">
-        <v>5324</v>
+        <v>5359</v>
       </c>
       <c r="D47" s="15" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="E47" s="16">
-        <v>17063</v>
+        <v>14896</v>
       </c>
       <c r="F47" s="15" t="s">
         <v>3</v>
@@ -24183,7 +24212,7 @@
         <v>257</v>
       </c>
       <c r="J47" s="16">
-        <v>32677</v>
+        <v>33697</v>
       </c>
       <c r="K47" s="16">
         <v>34496</v>
@@ -24192,16 +24221,16 @@
         <v>383</v>
       </c>
       <c r="M47" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="N47" s="17" t="s">
-        <v>256</v>
+        <v>515</v>
+      </c>
+      <c r="N47" s="17">
+        <v>253</v>
       </c>
       <c r="O47" s="15">
-        <v>1161</v>
+        <v>1865</v>
       </c>
       <c r="P47" s="15" t="s">
-        <v>5411</v>
+        <v>5419</v>
       </c>
     </row>
     <row r="48" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
@@ -24212,13 +24241,13 @@
         <v>255</v>
       </c>
       <c r="C48" s="15" t="s">
-        <v>5310</v>
+        <v>5362</v>
       </c>
       <c r="D48" s="15" t="s">
-        <v>5309</v>
+        <v>283</v>
       </c>
       <c r="E48" s="16">
-        <v>16713</v>
+        <v>18026</v>
       </c>
       <c r="F48" s="15" t="s">
         <v>3</v>
@@ -24233,7 +24262,7 @@
         <v>257</v>
       </c>
       <c r="J48" s="16">
-        <v>32677</v>
+        <v>33852</v>
       </c>
       <c r="K48" s="16">
         <v>34496</v>
@@ -24242,16 +24271,16 @@
         <v>383</v>
       </c>
       <c r="M48" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="N48" s="17">
-        <v>1090130</v>
+        <v>5363</v>
+      </c>
+      <c r="N48" s="17" t="s">
+        <v>256</v>
       </c>
       <c r="O48" s="15">
-        <v>1162</v>
+        <v>1872</v>
       </c>
       <c r="P48" s="15" t="s">
-        <v>5412</v>
+        <v>5420</v>
       </c>
     </row>
     <row r="49" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
@@ -24262,13 +24291,13 @@
         <v>255</v>
       </c>
       <c r="C49" s="15" t="s">
-        <v>5315</v>
+        <v>223</v>
       </c>
       <c r="D49" s="15" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="E49" s="16">
-        <v>7409</v>
+        <v>14749</v>
       </c>
       <c r="F49" s="15" t="s">
         <v>3</v>
@@ -24294,14 +24323,14 @@
       <c r="M49" s="15" t="s">
         <v>515</v>
       </c>
-      <c r="N49" s="17" t="s">
-        <v>256</v>
+      <c r="N49" s="17">
+        <v>578649</v>
       </c>
       <c r="O49" s="15">
-        <v>1163</v>
+        <v>967</v>
       </c>
       <c r="P49" s="15" t="s">
-        <v>5413</v>
+        <v>5421</v>
       </c>
     </row>
     <row r="50" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
@@ -24312,16 +24341,16 @@
         <v>255</v>
       </c>
       <c r="C50" s="15" t="s">
-        <v>5355</v>
+        <v>117</v>
       </c>
       <c r="D50" s="15" t="s">
-        <v>5356</v>
+        <v>69</v>
       </c>
       <c r="E50" s="16">
-        <v>17724</v>
+        <v>19477</v>
       </c>
       <c r="F50" s="15" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G50" s="15" t="s">
         <v>256</v>
@@ -24333,7 +24362,7 @@
         <v>257</v>
       </c>
       <c r="J50" s="16">
-        <v>33583</v>
+        <v>32677</v>
       </c>
       <c r="K50" s="16">
         <v>34496</v>
@@ -24342,16 +24371,16 @@
         <v>383</v>
       </c>
       <c r="M50" s="15" t="s">
-        <v>513</v>
+        <v>26</v>
       </c>
       <c r="N50" s="17">
-        <v>839318</v>
+        <v>169458</v>
       </c>
       <c r="O50" s="15">
-        <v>1836</v>
+        <v>1084</v>
       </c>
       <c r="P50" s="15" t="s">
-        <v>5414</v>
+        <v>5209</v>
       </c>
     </row>
     <row r="51" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
@@ -24362,13 +24391,13 @@
         <v>255</v>
       </c>
       <c r="C51" s="15" t="s">
-        <v>5177</v>
+        <v>5321</v>
       </c>
       <c r="D51" s="15" t="s">
-        <v>5178</v>
+        <v>5320</v>
       </c>
       <c r="E51" s="16">
-        <v>13781</v>
+        <v>11695</v>
       </c>
       <c r="F51" s="15" t="s">
         <v>3</v>
@@ -24398,10 +24427,10 @@
         <v>256</v>
       </c>
       <c r="O51" s="15">
-        <v>1027</v>
+        <v>1203</v>
       </c>
       <c r="P51" s="15" t="s">
-        <v>5251</v>
+        <v>5422</v>
       </c>
     </row>
     <row r="52" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
@@ -24412,13 +24441,13 @@
         <v>255</v>
       </c>
       <c r="C52" s="15" t="s">
-        <v>366</v>
+        <v>5346</v>
       </c>
       <c r="D52" s="15" t="s">
-        <v>115</v>
+        <v>5295</v>
       </c>
       <c r="E52" s="16">
-        <v>17801</v>
+        <v>9530</v>
       </c>
       <c r="F52" s="15" t="s">
         <v>3</v>
@@ -24433,13 +24462,13 @@
         <v>257</v>
       </c>
       <c r="J52" s="16">
-        <v>34075</v>
+        <v>32677</v>
       </c>
       <c r="K52" s="16">
-        <v>34496</v>
+        <v>34129</v>
       </c>
       <c r="L52" s="15" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="M52" s="15" t="s">
         <v>26</v>
@@ -24448,10 +24477,10 @@
         <v>256</v>
       </c>
       <c r="O52" s="15">
-        <v>1878</v>
+        <v>1030</v>
       </c>
       <c r="P52" s="15" t="s">
-        <v>601</v>
+        <v>5400</v>
       </c>
     </row>
     <row r="53" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
@@ -24462,13 +24491,13 @@
         <v>255</v>
       </c>
       <c r="C53" s="15" t="s">
-        <v>5347</v>
+        <v>34</v>
       </c>
       <c r="D53" s="15" t="s">
-        <v>187</v>
+        <v>35</v>
       </c>
       <c r="E53" s="16">
-        <v>7645</v>
+        <v>18291</v>
       </c>
       <c r="F53" s="15" t="s">
         <v>3</v>
@@ -24492,16 +24521,16 @@
         <v>383</v>
       </c>
       <c r="M53" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="N53" s="17" t="s">
-        <v>256</v>
+        <v>4</v>
+      </c>
+      <c r="N53" s="17">
+        <v>41</v>
       </c>
       <c r="O53" s="15">
-        <v>974</v>
+        <v>1164</v>
       </c>
       <c r="P53" s="15" t="s">
-        <v>5415</v>
+        <v>659</v>
       </c>
     </row>
     <row r="54" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
@@ -24512,13 +24541,13 @@
         <v>255</v>
       </c>
       <c r="C54" s="15" t="s">
-        <v>101</v>
+        <v>167</v>
       </c>
       <c r="D54" s="15" t="s">
-        <v>51</v>
+        <v>166</v>
       </c>
       <c r="E54" s="16">
-        <v>10684</v>
+        <v>14857</v>
       </c>
       <c r="F54" s="15" t="s">
         <v>3</v>
@@ -24533,25 +24562,25 @@
         <v>257</v>
       </c>
       <c r="J54" s="16">
-        <v>33700</v>
+        <v>32677</v>
       </c>
       <c r="K54" s="16">
-        <v>34496</v>
+        <v>34376</v>
       </c>
       <c r="L54" s="15" t="s">
         <v>383</v>
       </c>
       <c r="M54" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="N54" s="17" t="s">
-        <v>256</v>
+        <v>4899</v>
+      </c>
+      <c r="N54" s="17">
+        <v>1057</v>
       </c>
       <c r="O54" s="15">
-        <v>1710</v>
+        <v>1176</v>
       </c>
       <c r="P54" s="15" t="s">
-        <v>5416</v>
+        <v>5402</v>
       </c>
     </row>
     <row r="55" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
@@ -24562,13 +24591,13 @@
         <v>255</v>
       </c>
       <c r="C55" s="15" t="s">
-        <v>103</v>
+        <v>5364</v>
       </c>
       <c r="D55" s="15" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="E55" s="16">
-        <v>8179</v>
+        <v>10969</v>
       </c>
       <c r="F55" s="15" t="s">
         <v>3</v>
@@ -24583,7 +24612,7 @@
         <v>257</v>
       </c>
       <c r="J55" s="16">
-        <v>34059</v>
+        <v>34077</v>
       </c>
       <c r="K55" s="16">
         <v>34496</v>
@@ -24592,16 +24621,16 @@
         <v>383</v>
       </c>
       <c r="M55" s="15" t="s">
-        <v>5357</v>
+        <v>88</v>
       </c>
       <c r="N55" s="17" t="s">
         <v>256</v>
       </c>
       <c r="O55" s="15">
-        <v>1703</v>
+        <v>1656</v>
       </c>
       <c r="P55" s="15" t="s">
-        <v>5417</v>
+        <v>5423</v>
       </c>
     </row>
     <row r="56" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
@@ -24612,16 +24641,16 @@
         <v>255</v>
       </c>
       <c r="C56" s="15" t="s">
-        <v>5236</v>
+        <v>508</v>
       </c>
       <c r="D56" s="15" t="s">
-        <v>5231</v>
+        <v>283</v>
       </c>
       <c r="E56" s="16">
-        <v>18337</v>
+        <v>11981</v>
       </c>
       <c r="F56" s="15" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G56" s="15" t="s">
         <v>256</v>
@@ -24642,16 +24671,16 @@
         <v>383</v>
       </c>
       <c r="M56" s="15" t="s">
-        <v>515</v>
+        <v>88</v>
       </c>
       <c r="N56" s="17">
-        <v>69740</v>
+        <v>849</v>
       </c>
       <c r="O56" s="15">
-        <v>1001</v>
+        <v>1177</v>
       </c>
       <c r="P56" s="15" t="s">
-        <v>5243</v>
+        <v>5424</v>
       </c>
     </row>
     <row r="57" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
@@ -24662,16 +24691,16 @@
         <v>255</v>
       </c>
       <c r="C57" s="15" t="s">
-        <v>5289</v>
+        <v>5365</v>
       </c>
       <c r="D57" s="15" t="s">
-        <v>5139</v>
+        <v>390</v>
       </c>
       <c r="E57" s="16">
-        <v>17906</v>
+        <v>14289</v>
       </c>
       <c r="F57" s="15" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G57" s="15" t="s">
         <v>256</v>
@@ -24683,7 +24712,7 @@
         <v>257</v>
       </c>
       <c r="J57" s="16">
-        <v>32677</v>
+        <v>34130</v>
       </c>
       <c r="K57" s="16">
         <v>34496</v>
@@ -24692,16 +24721,16 @@
         <v>383</v>
       </c>
       <c r="M57" s="15" t="s">
-        <v>4899</v>
+        <v>88</v>
       </c>
       <c r="N57" s="17">
-        <v>169991</v>
+        <v>1978</v>
       </c>
       <c r="O57" s="15">
-        <v>1125</v>
+        <v>1881</v>
       </c>
       <c r="P57" s="15" t="s">
-        <v>5285</v>
+        <v>5425</v>
       </c>
     </row>
     <row r="58" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
@@ -24712,16 +24741,16 @@
         <v>255</v>
       </c>
       <c r="C58" s="15" t="s">
-        <v>76</v>
+        <v>5197</v>
       </c>
       <c r="D58" s="15" t="s">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="E58" s="16">
-        <v>15357</v>
+        <v>7336</v>
       </c>
       <c r="F58" s="15" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G58" s="15" t="s">
         <v>256</v>
@@ -24744,14 +24773,14 @@
       <c r="M58" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="N58" s="17">
-        <v>838005</v>
+      <c r="N58" s="17" t="s">
+        <v>256</v>
       </c>
       <c r="O58" s="15">
-        <v>945</v>
+        <v>1193</v>
       </c>
       <c r="P58" s="15" t="s">
-        <v>657</v>
+        <v>5256</v>
       </c>
     </row>
     <row r="59" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
@@ -24762,13 +24791,13 @@
         <v>255</v>
       </c>
       <c r="C59" s="15" t="s">
-        <v>5349</v>
+        <v>5348</v>
       </c>
       <c r="D59" s="15" t="s">
-        <v>107</v>
+        <v>51</v>
       </c>
       <c r="E59" s="16">
-        <v>16868</v>
+        <v>16709</v>
       </c>
       <c r="F59" s="15" t="s">
         <v>3</v>
@@ -24783,7 +24812,7 @@
         <v>257</v>
       </c>
       <c r="J59" s="16">
-        <v>34059</v>
+        <v>32838</v>
       </c>
       <c r="K59" s="16">
         <v>34496</v>
@@ -24792,16 +24821,16 @@
         <v>383</v>
       </c>
       <c r="M59" s="15" t="s">
-        <v>5290</v>
+        <v>515</v>
       </c>
       <c r="N59" s="17" t="s">
         <v>256</v>
       </c>
       <c r="O59" s="15">
-        <v>1692</v>
+        <v>954</v>
       </c>
       <c r="P59" s="15" t="s">
-        <v>5279</v>
+        <v>5426</v>
       </c>
     </row>
     <row r="60" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
@@ -24812,13 +24841,13 @@
         <v>255</v>
       </c>
       <c r="C60" s="15" t="s">
-        <v>5374</v>
+        <v>376</v>
       </c>
       <c r="D60" s="15" t="s">
-        <v>69</v>
+        <v>5</v>
       </c>
       <c r="E60" s="16">
-        <v>17332</v>
+        <v>14676</v>
       </c>
       <c r="F60" s="15" t="s">
         <v>3</v>
@@ -24833,7 +24862,7 @@
         <v>257</v>
       </c>
       <c r="J60" s="16">
-        <v>33577</v>
+        <v>32677</v>
       </c>
       <c r="K60" s="16">
         <v>34496</v>
@@ -24842,16 +24871,16 @@
         <v>383</v>
       </c>
       <c r="M60" s="15" t="s">
-        <v>513</v>
+        <v>4899</v>
       </c>
       <c r="N60" s="17" t="s">
         <v>256</v>
       </c>
       <c r="O60" s="15">
-        <v>1831</v>
+        <v>1167</v>
       </c>
       <c r="P60" s="15" t="s">
-        <v>5418</v>
+        <v>609</v>
       </c>
     </row>
     <row r="61" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
@@ -24862,13 +24891,13 @@
         <v>255</v>
       </c>
       <c r="C61" s="15" t="s">
-        <v>5359</v>
+        <v>5161</v>
       </c>
       <c r="D61" s="15" t="s">
-        <v>28</v>
+        <v>94</v>
       </c>
       <c r="E61" s="16">
-        <v>14896</v>
+        <v>18033</v>
       </c>
       <c r="F61" s="15" t="s">
         <v>3</v>
@@ -24883,7 +24912,7 @@
         <v>257</v>
       </c>
       <c r="J61" s="16">
-        <v>33696</v>
+        <v>32677</v>
       </c>
       <c r="K61" s="16">
         <v>34496</v>
@@ -24892,16 +24921,16 @@
         <v>383</v>
       </c>
       <c r="M61" s="15" t="s">
-        <v>515</v>
-      </c>
-      <c r="N61" s="17">
-        <v>253</v>
+        <v>84</v>
+      </c>
+      <c r="N61" s="17" t="s">
+        <v>256</v>
       </c>
       <c r="O61" s="15">
-        <v>1865</v>
+        <v>1213</v>
       </c>
       <c r="P61" s="15" t="s">
-        <v>5419</v>
+        <v>5257</v>
       </c>
     </row>
     <row r="62" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
@@ -24912,16 +24941,16 @@
         <v>255</v>
       </c>
       <c r="C62" s="15" t="s">
-        <v>5362</v>
+        <v>5366</v>
       </c>
       <c r="D62" s="15" t="s">
-        <v>283</v>
+        <v>5367</v>
       </c>
       <c r="E62" s="16">
-        <v>18026</v>
+        <v>20636</v>
       </c>
       <c r="F62" s="15" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G62" s="15" t="s">
         <v>256</v>
@@ -24933,7 +24962,7 @@
         <v>257</v>
       </c>
       <c r="J62" s="16">
-        <v>33852</v>
+        <v>33583</v>
       </c>
       <c r="K62" s="16">
         <v>34496</v>
@@ -24942,16 +24971,16 @@
         <v>383</v>
       </c>
       <c r="M62" s="15" t="s">
-        <v>5363</v>
-      </c>
-      <c r="N62" s="17" t="s">
-        <v>256</v>
+        <v>513</v>
+      </c>
+      <c r="N62" s="17">
+        <v>48</v>
       </c>
       <c r="O62" s="15">
-        <v>1872</v>
+        <v>1833</v>
       </c>
       <c r="P62" s="15" t="s">
-        <v>5420</v>
+        <v>728</v>
       </c>
     </row>
     <row r="63" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
@@ -24962,16 +24991,16 @@
         <v>255</v>
       </c>
       <c r="C63" s="15" t="s">
-        <v>223</v>
+        <v>5333</v>
       </c>
       <c r="D63" s="15" t="s">
-        <v>133</v>
+        <v>5332</v>
       </c>
       <c r="E63" s="16">
-        <v>14749</v>
+        <v>18899</v>
       </c>
       <c r="F63" s="15" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G63" s="15" t="s">
         <v>256</v>
@@ -24986,22 +25015,22 @@
         <v>32677</v>
       </c>
       <c r="K63" s="16">
-        <v>34496</v>
+        <v>33582</v>
       </c>
       <c r="L63" s="15" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="M63" s="15" t="s">
-        <v>515</v>
-      </c>
-      <c r="N63" s="17">
-        <v>578649</v>
+        <v>513</v>
+      </c>
+      <c r="N63" s="17" t="s">
+        <v>256</v>
       </c>
       <c r="O63" s="15">
-        <v>967</v>
+        <v>1126</v>
       </c>
       <c r="P63" s="15" t="s">
-        <v>5421</v>
+        <v>5385</v>
       </c>
     </row>
     <row r="64" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
@@ -25012,13 +25041,13 @@
         <v>255</v>
       </c>
       <c r="C64" s="15" t="s">
-        <v>117</v>
+        <v>5296</v>
       </c>
       <c r="D64" s="15" t="s">
-        <v>69</v>
+        <v>20</v>
       </c>
       <c r="E64" s="16">
-        <v>19477</v>
+        <v>16664</v>
       </c>
       <c r="F64" s="15" t="s">
         <v>3</v>
@@ -25036,22 +25065,22 @@
         <v>32677</v>
       </c>
       <c r="K64" s="16">
-        <v>34496</v>
+        <v>32796</v>
       </c>
       <c r="L64" s="15" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="M64" s="15" t="s">
-        <v>26</v>
+        <v>88</v>
       </c>
       <c r="N64" s="17">
-        <v>169458</v>
+        <v>859128</v>
       </c>
       <c r="O64" s="15">
-        <v>1084</v>
+        <v>1168</v>
       </c>
       <c r="P64" s="15" t="s">
-        <v>5209</v>
+        <v>5377</v>
       </c>
     </row>
     <row r="65" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
@@ -25062,16 +25091,16 @@
         <v>255</v>
       </c>
       <c r="C65" s="15" t="s">
-        <v>5321</v>
+        <v>5300</v>
       </c>
       <c r="D65" s="15" t="s">
-        <v>5320</v>
+        <v>5299</v>
       </c>
       <c r="E65" s="16">
-        <v>11695</v>
+        <v>8808</v>
       </c>
       <c r="F65" s="15" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G65" s="15" t="s">
         <v>256</v>
@@ -25092,16 +25121,16 @@
         <v>383</v>
       </c>
       <c r="M65" s="15" t="s">
-        <v>515</v>
+        <v>5291</v>
       </c>
       <c r="N65" s="17" t="s">
         <v>256</v>
       </c>
       <c r="O65" s="15">
-        <v>1203</v>
+        <v>1169</v>
       </c>
       <c r="P65" s="15" t="s">
-        <v>5422</v>
+        <v>5427</v>
       </c>
     </row>
     <row r="66" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
@@ -25112,13 +25141,13 @@
         <v>255</v>
       </c>
       <c r="C66" s="15" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="D66" s="15" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="E66" s="16">
-        <v>18291</v>
+        <v>16112</v>
       </c>
       <c r="F66" s="15" t="s">
         <v>3</v>
@@ -25136,22 +25165,22 @@
         <v>32677</v>
       </c>
       <c r="K66" s="16">
-        <v>34496</v>
+        <v>34058</v>
       </c>
       <c r="L66" s="15" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="M66" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="N66" s="17">
-        <v>41</v>
-      </c>
-      <c r="O66" s="15">
-        <v>1164</v>
+        <v>26</v>
+      </c>
+      <c r="N66" s="18" t="s">
+        <v>663</v>
+      </c>
+      <c r="O66" s="22">
+        <v>1204</v>
       </c>
       <c r="P66" s="15" t="s">
-        <v>659</v>
+        <v>662</v>
       </c>
     </row>
     <row r="67" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
@@ -25162,13 +25191,13 @@
         <v>255</v>
       </c>
       <c r="C67" s="15" t="s">
-        <v>5364</v>
+        <v>5237</v>
       </c>
       <c r="D67" s="15" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="E67" s="16">
-        <v>10969</v>
+        <v>12171</v>
       </c>
       <c r="F67" s="15" t="s">
         <v>3</v>
@@ -25183,7 +25212,7 @@
         <v>257</v>
       </c>
       <c r="J67" s="16">
-        <v>34077</v>
+        <v>32677</v>
       </c>
       <c r="K67" s="16">
         <v>34496</v>
@@ -25197,11 +25226,11 @@
       <c r="N67" s="17" t="s">
         <v>256</v>
       </c>
-      <c r="O67" s="15">
-        <v>1656</v>
+      <c r="O67" s="21">
+        <v>1021</v>
       </c>
       <c r="P67" s="15" t="s">
-        <v>5423</v>
+        <v>5280</v>
       </c>
     </row>
     <row r="68" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
@@ -25212,13 +25241,13 @@
         <v>255</v>
       </c>
       <c r="C68" s="15" t="s">
-        <v>508</v>
+        <v>5444</v>
       </c>
       <c r="D68" s="15" t="s">
-        <v>283</v>
+        <v>40</v>
       </c>
       <c r="E68" s="16">
-        <v>11981</v>
+        <v>14657</v>
       </c>
       <c r="F68" s="15" t="s">
         <v>3</v>
@@ -25233,7 +25262,7 @@
         <v>257</v>
       </c>
       <c r="J68" s="16">
-        <v>32677</v>
+        <v>32816</v>
       </c>
       <c r="K68" s="16">
         <v>34496</v>
@@ -25242,16 +25271,16 @@
         <v>383</v>
       </c>
       <c r="M68" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="N68" s="17">
-        <v>849</v>
+        <v>26</v>
+      </c>
+      <c r="N68" s="17" t="s">
+        <v>256</v>
       </c>
       <c r="O68" s="15">
-        <v>1177</v>
+        <v>962</v>
       </c>
       <c r="P68" s="15" t="s">
-        <v>5424</v>
+        <v>5445</v>
       </c>
     </row>
     <row r="69" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
@@ -25262,13 +25291,13 @@
         <v>255</v>
       </c>
       <c r="C69" s="15" t="s">
-        <v>5365</v>
+        <v>5143</v>
       </c>
       <c r="D69" s="15" t="s">
-        <v>390</v>
+        <v>30</v>
       </c>
       <c r="E69" s="16">
-        <v>14289</v>
+        <v>13476</v>
       </c>
       <c r="F69" s="15" t="s">
         <v>3</v>
@@ -25283,7 +25312,7 @@
         <v>257</v>
       </c>
       <c r="J69" s="16">
-        <v>34131</v>
+        <v>32677</v>
       </c>
       <c r="K69" s="16">
         <v>34496</v>
@@ -25292,16 +25321,16 @@
         <v>383</v>
       </c>
       <c r="M69" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="N69" s="17">
-        <v>1978</v>
+        <v>4</v>
+      </c>
+      <c r="N69" s="17" t="s">
+        <v>256</v>
       </c>
       <c r="O69" s="15">
-        <v>1881</v>
+        <v>1022</v>
       </c>
       <c r="P69" s="15" t="s">
-        <v>5425</v>
+        <v>5259</v>
       </c>
     </row>
     <row r="70" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
@@ -25312,13 +25341,13 @@
         <v>255</v>
       </c>
       <c r="C70" s="15" t="s">
-        <v>5197</v>
+        <v>13</v>
       </c>
       <c r="D70" s="15" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="E70" s="16">
-        <v>7336</v>
+        <v>10399</v>
       </c>
       <c r="F70" s="15" t="s">
         <v>3</v>
@@ -25342,16 +25371,16 @@
         <v>383</v>
       </c>
       <c r="M70" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="N70" s="17" t="s">
-        <v>256</v>
+        <v>4</v>
+      </c>
+      <c r="N70" s="17">
+        <v>837980</v>
       </c>
       <c r="O70" s="15">
-        <v>1193</v>
+        <v>1023</v>
       </c>
       <c r="P70" s="15" t="s">
-        <v>5256</v>
+        <v>670</v>
       </c>
     </row>
     <row r="71" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
@@ -25362,16 +25391,16 @@
         <v>255</v>
       </c>
       <c r="C71" s="15" t="s">
-        <v>5348</v>
+        <v>4930</v>
       </c>
       <c r="D71" s="15" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="E71" s="16">
-        <v>16709</v>
+        <v>12201</v>
       </c>
       <c r="F71" s="15" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G71" s="15" t="s">
         <v>256</v>
@@ -25383,7 +25412,7 @@
         <v>257</v>
       </c>
       <c r="J71" s="16">
-        <v>32838</v>
+        <v>32677</v>
       </c>
       <c r="K71" s="16">
         <v>34496</v>
@@ -25392,16 +25421,16 @@
         <v>383</v>
       </c>
       <c r="M71" s="15" t="s">
-        <v>515</v>
-      </c>
-      <c r="N71" s="17" t="s">
-        <v>256</v>
+        <v>4</v>
+      </c>
+      <c r="N71" s="17">
+        <v>14769</v>
       </c>
       <c r="O71" s="15">
-        <v>954</v>
+        <v>1127</v>
       </c>
       <c r="P71" s="15" t="s">
-        <v>5426</v>
+        <v>5443</v>
       </c>
     </row>
     <row r="72" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
@@ -25412,13 +25441,13 @@
         <v>255</v>
       </c>
       <c r="C72" s="15" t="s">
-        <v>376</v>
+        <v>321</v>
       </c>
       <c r="D72" s="15" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="E72" s="16">
-        <v>14676</v>
+        <v>16887</v>
       </c>
       <c r="F72" s="15" t="s">
         <v>3</v>
@@ -25436,22 +25465,22 @@
         <v>32677</v>
       </c>
       <c r="K72" s="16">
-        <v>34496</v>
+        <v>32815</v>
       </c>
       <c r="L72" s="15" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="M72" s="15" t="s">
-        <v>4899</v>
-      </c>
-      <c r="N72" s="17" t="s">
-        <v>256</v>
-      </c>
-      <c r="O72" s="15">
-        <v>1167</v>
+        <v>26</v>
+      </c>
+      <c r="N72" s="18" t="s">
+        <v>733</v>
+      </c>
+      <c r="O72" s="22">
+        <v>1024</v>
       </c>
       <c r="P72" s="15" t="s">
-        <v>609</v>
+        <v>732</v>
       </c>
     </row>
     <row r="73" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
@@ -25462,13 +25491,13 @@
         <v>255</v>
       </c>
       <c r="C73" s="15" t="s">
-        <v>5161</v>
+        <v>5304</v>
       </c>
       <c r="D73" s="15" t="s">
-        <v>94</v>
+        <v>147</v>
       </c>
       <c r="E73" s="16">
-        <v>18033</v>
+        <v>18330</v>
       </c>
       <c r="F73" s="15" t="s">
         <v>3</v>
@@ -25486,22 +25515,22 @@
         <v>32677</v>
       </c>
       <c r="K73" s="16">
-        <v>34496</v>
+        <v>34075</v>
       </c>
       <c r="L73" s="15" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="M73" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="N73" s="17" t="s">
-        <v>256</v>
+        <v>26</v>
+      </c>
+      <c r="N73" s="17">
+        <v>150149</v>
       </c>
       <c r="O73" s="15">
-        <v>1213</v>
+        <v>1025</v>
       </c>
       <c r="P73" s="15" t="s">
-        <v>5257</v>
+        <v>5398</v>
       </c>
     </row>
     <row r="74" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
@@ -25512,16 +25541,16 @@
         <v>255</v>
       </c>
       <c r="C74" s="15" t="s">
-        <v>5366</v>
+        <v>5311</v>
       </c>
       <c r="D74" s="15" t="s">
-        <v>5367</v>
+        <v>20</v>
       </c>
       <c r="E74" s="16">
-        <v>20636</v>
+        <v>16804</v>
       </c>
       <c r="F74" s="15" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G74" s="15" t="s">
         <v>256</v>
@@ -25533,25 +25562,25 @@
         <v>257</v>
       </c>
       <c r="J74" s="16">
-        <v>33583</v>
+        <v>32677</v>
       </c>
       <c r="K74" s="16">
-        <v>34496</v>
+        <v>34137</v>
       </c>
       <c r="L74" s="15" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="M74" s="15" t="s">
-        <v>513</v>
+        <v>88</v>
       </c>
       <c r="N74" s="17">
-        <v>48</v>
+        <v>734</v>
       </c>
       <c r="O74" s="15">
-        <v>1833</v>
+        <v>1165</v>
       </c>
       <c r="P74" s="15" t="s">
-        <v>728</v>
+        <v>5401</v>
       </c>
     </row>
     <row r="75" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
@@ -25562,13 +25591,13 @@
         <v>255</v>
       </c>
       <c r="C75" s="15" t="s">
-        <v>5300</v>
+        <v>36</v>
       </c>
       <c r="D75" s="15" t="s">
-        <v>5299</v>
+        <v>89</v>
       </c>
       <c r="E75" s="16">
-        <v>8808</v>
+        <v>19685</v>
       </c>
       <c r="F75" s="15" t="s">
         <v>8</v>
@@ -25592,16 +25621,16 @@
         <v>383</v>
       </c>
       <c r="M75" s="15" t="s">
-        <v>5291</v>
-      </c>
-      <c r="N75" s="17" t="s">
-        <v>256</v>
+        <v>26</v>
+      </c>
+      <c r="N75" s="17">
+        <v>649</v>
       </c>
       <c r="O75" s="15">
-        <v>1169</v>
+        <v>2215</v>
       </c>
       <c r="P75" s="15" t="s">
-        <v>5427</v>
+        <v>5220</v>
       </c>
     </row>
     <row r="76" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
@@ -25612,13 +25641,13 @@
         <v>255</v>
       </c>
       <c r="C76" s="15" t="s">
-        <v>5237</v>
+        <v>46</v>
       </c>
       <c r="D76" s="15" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="E76" s="16">
-        <v>12171</v>
+        <v>16648</v>
       </c>
       <c r="F76" s="15" t="s">
         <v>3</v>
@@ -25633,7 +25662,7 @@
         <v>257</v>
       </c>
       <c r="J76" s="16">
-        <v>32677</v>
+        <v>32756</v>
       </c>
       <c r="K76" s="16">
         <v>34496</v>
@@ -25642,16 +25671,16 @@
         <v>383</v>
       </c>
       <c r="M76" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="N76" s="17" t="s">
-        <v>256</v>
-      </c>
-      <c r="O76" s="21">
-        <v>1021</v>
+        <v>4</v>
+      </c>
+      <c r="N76" s="17">
+        <v>61</v>
+      </c>
+      <c r="O76" s="15">
+        <v>966</v>
       </c>
       <c r="P76" s="15" t="s">
-        <v>5280</v>
+        <v>674</v>
       </c>
     </row>
     <row r="77" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
@@ -25662,16 +25691,16 @@
         <v>255</v>
       </c>
       <c r="C77" s="15" t="s">
-        <v>5143</v>
+        <v>5345</v>
       </c>
       <c r="D77" s="15" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="E77" s="16">
-        <v>13476</v>
+        <v>17088</v>
       </c>
       <c r="F77" s="15" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G77" s="15" t="s">
         <v>256</v>
@@ -25692,16 +25721,16 @@
         <v>383</v>
       </c>
       <c r="M77" s="15" t="s">
-        <v>4</v>
+        <v>4899</v>
       </c>
       <c r="N77" s="17" t="s">
         <v>256</v>
       </c>
       <c r="O77" s="15">
-        <v>1022</v>
+        <v>1128</v>
       </c>
       <c r="P77" s="15" t="s">
-        <v>5259</v>
+        <v>5428</v>
       </c>
     </row>
     <row r="78" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
@@ -25712,16 +25741,16 @@
         <v>255</v>
       </c>
       <c r="C78" s="15" t="s">
-        <v>13</v>
+        <v>5323</v>
       </c>
       <c r="D78" s="15" t="s">
-        <v>30</v>
+        <v>437</v>
       </c>
       <c r="E78" s="16">
-        <v>10399</v>
+        <v>23929</v>
       </c>
       <c r="F78" s="15" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G78" s="15" t="s">
         <v>256</v>
@@ -25742,16 +25771,16 @@
         <v>383</v>
       </c>
       <c r="M78" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="N78" s="17">
-        <v>837980</v>
+        <v>48</v>
+      </c>
+      <c r="N78" s="17" t="s">
+        <v>256</v>
       </c>
       <c r="O78" s="15">
-        <v>1023</v>
+        <v>992</v>
       </c>
       <c r="P78" s="15" t="s">
-        <v>670</v>
+        <v>5429</v>
       </c>
     </row>
     <row r="79" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
@@ -25762,16 +25791,16 @@
         <v>255</v>
       </c>
       <c r="C79" s="15" t="s">
-        <v>4930</v>
+        <v>5147</v>
       </c>
       <c r="D79" s="15" t="s">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="E79" s="16">
-        <v>16338</v>
+        <v>17992</v>
       </c>
       <c r="F79" s="15" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G79" s="15" t="s">
         <v>256</v>
@@ -25795,13 +25824,13 @@
         <v>4</v>
       </c>
       <c r="N79" s="17">
-        <v>28517</v>
+        <v>3392</v>
       </c>
       <c r="O79" s="15">
-        <v>2326</v>
+        <v>1166</v>
       </c>
       <c r="P79" s="15" t="s">
-        <v>5070</v>
+        <v>5227</v>
       </c>
     </row>
     <row r="80" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
@@ -25812,16 +25841,16 @@
         <v>255</v>
       </c>
       <c r="C80" s="15" t="s">
-        <v>36</v>
+        <v>5337</v>
       </c>
       <c r="D80" s="15" t="s">
-        <v>89</v>
+        <v>133</v>
       </c>
       <c r="E80" s="16">
-        <v>19685</v>
+        <v>19544</v>
       </c>
       <c r="F80" s="15" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G80" s="15" t="s">
         <v>256</v>
@@ -25836,22 +25865,22 @@
         <v>32677</v>
       </c>
       <c r="K80" s="16">
-        <v>34496</v>
+        <v>33576</v>
       </c>
       <c r="L80" s="15" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="M80" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="N80" s="17">
-        <v>649</v>
+        <v>513</v>
+      </c>
+      <c r="N80" s="17" t="s">
+        <v>256</v>
       </c>
       <c r="O80" s="15">
-        <v>2215</v>
+        <v>1156</v>
       </c>
       <c r="P80" s="15" t="s">
-        <v>5220</v>
+        <v>5381</v>
       </c>
     </row>
     <row r="81" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
@@ -25862,13 +25891,13 @@
         <v>255</v>
       </c>
       <c r="C81" s="15" t="s">
-        <v>46</v>
+        <v>5369</v>
       </c>
       <c r="D81" s="15" t="s">
-        <v>47</v>
+        <v>283</v>
       </c>
       <c r="E81" s="16">
-        <v>16648</v>
+        <v>13058</v>
       </c>
       <c r="F81" s="15" t="s">
         <v>3</v>
@@ -25883,7 +25912,7 @@
         <v>257</v>
       </c>
       <c r="J81" s="16">
-        <v>32756</v>
+        <v>32797</v>
       </c>
       <c r="K81" s="16">
         <v>34496</v>
@@ -25892,16 +25921,16 @@
         <v>383</v>
       </c>
       <c r="M81" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="N81" s="17">
-        <v>61</v>
+        <v>88</v>
+      </c>
+      <c r="N81" s="17" t="s">
+        <v>256</v>
       </c>
       <c r="O81" s="15">
-        <v>966</v>
+        <v>960</v>
       </c>
       <c r="P81" s="15" t="s">
-        <v>674</v>
+        <v>5430</v>
       </c>
     </row>
     <row r="82" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
@@ -25912,16 +25941,16 @@
         <v>255</v>
       </c>
       <c r="C82" s="15" t="s">
-        <v>5345</v>
+        <v>253</v>
       </c>
       <c r="D82" s="15" t="s">
-        <v>10</v>
+        <v>209</v>
       </c>
       <c r="E82" s="16">
-        <v>17088</v>
+        <v>16849</v>
       </c>
       <c r="F82" s="15" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G82" s="15" t="s">
         <v>256</v>
@@ -25942,16 +25971,16 @@
         <v>383</v>
       </c>
       <c r="M82" s="15" t="s">
-        <v>4899</v>
+        <v>26</v>
       </c>
       <c r="N82" s="17" t="s">
         <v>256</v>
       </c>
       <c r="O82" s="15">
-        <v>1128</v>
+        <v>1194</v>
       </c>
       <c r="P82" s="15" t="s">
-        <v>5428</v>
+        <v>617</v>
       </c>
     </row>
     <row r="83" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
@@ -25962,16 +25991,16 @@
         <v>255</v>
       </c>
       <c r="C83" s="15" t="s">
-        <v>5323</v>
+        <v>332</v>
       </c>
       <c r="D83" s="15" t="s">
-        <v>437</v>
+        <v>133</v>
       </c>
       <c r="E83" s="16">
-        <v>23929</v>
+        <v>22133</v>
       </c>
       <c r="F83" s="15" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G83" s="15" t="s">
         <v>256</v>
@@ -25983,7 +26012,7 @@
         <v>257</v>
       </c>
       <c r="J83" s="16">
-        <v>32677</v>
+        <v>33583</v>
       </c>
       <c r="K83" s="16">
         <v>34496</v>
@@ -25992,16 +26021,16 @@
         <v>383</v>
       </c>
       <c r="M83" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="N83" s="17" t="s">
-        <v>256</v>
-      </c>
-      <c r="O83" s="15">
-        <v>992</v>
+        <v>513</v>
+      </c>
+      <c r="N83" s="18" t="s">
+        <v>650</v>
+      </c>
+      <c r="O83" s="22">
+        <v>1838</v>
       </c>
       <c r="P83" s="15" t="s">
-        <v>5429</v>
+        <v>740</v>
       </c>
     </row>
     <row r="84" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
@@ -26012,13 +26041,13 @@
         <v>255</v>
       </c>
       <c r="C84" s="15" t="s">
-        <v>5147</v>
+        <v>5194</v>
       </c>
       <c r="D84" s="15" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="E84" s="16">
-        <v>17992</v>
+        <v>13681</v>
       </c>
       <c r="F84" s="15" t="s">
         <v>3</v>
@@ -26042,16 +26071,16 @@
         <v>383</v>
       </c>
       <c r="M84" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="N84" s="17">
-        <v>3392</v>
+        <v>88</v>
+      </c>
+      <c r="N84" s="17" t="s">
+        <v>256</v>
       </c>
       <c r="O84" s="15">
-        <v>1166</v>
+        <v>1205</v>
       </c>
       <c r="P84" s="15" t="s">
-        <v>5227</v>
+        <v>5266</v>
       </c>
     </row>
     <row r="85" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
@@ -26062,16 +26091,16 @@
         <v>255</v>
       </c>
       <c r="C85" s="15" t="s">
-        <v>5369</v>
+        <v>5184</v>
       </c>
       <c r="D85" s="15" t="s">
-        <v>283</v>
+        <v>23</v>
       </c>
       <c r="E85" s="16">
-        <v>13058</v>
+        <v>15841</v>
       </c>
       <c r="F85" s="15" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G85" s="15" t="s">
         <v>256</v>
@@ -26083,7 +26112,7 @@
         <v>257</v>
       </c>
       <c r="J85" s="16">
-        <v>32816</v>
+        <v>32677</v>
       </c>
       <c r="K85" s="16">
         <v>34496</v>
@@ -26092,16 +26121,16 @@
         <v>383</v>
       </c>
       <c r="M85" s="15" t="s">
-        <v>88</v>
+        <v>515</v>
       </c>
       <c r="N85" s="17" t="s">
         <v>256</v>
       </c>
       <c r="O85" s="15">
-        <v>960</v>
+        <v>1068</v>
       </c>
       <c r="P85" s="15" t="s">
-        <v>5430</v>
+        <v>5267</v>
       </c>
     </row>
     <row r="86" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
@@ -26112,13 +26141,13 @@
         <v>255</v>
       </c>
       <c r="C86" s="15" t="s">
-        <v>253</v>
+        <v>5372</v>
       </c>
       <c r="D86" s="15" t="s">
-        <v>209</v>
+        <v>51</v>
       </c>
       <c r="E86" s="16">
-        <v>16849</v>
+        <v>13872</v>
       </c>
       <c r="F86" s="15" t="s">
         <v>3</v>
@@ -26133,7 +26162,7 @@
         <v>257</v>
       </c>
       <c r="J86" s="16">
-        <v>32677</v>
+        <v>34076</v>
       </c>
       <c r="K86" s="16">
         <v>34496</v>
@@ -26144,14 +26173,14 @@
       <c r="M86" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="N86" s="17" t="s">
-        <v>256</v>
+      <c r="N86" s="17">
+        <v>144180</v>
       </c>
       <c r="O86" s="15">
-        <v>1194</v>
+        <v>1876</v>
       </c>
       <c r="P86" s="15" t="s">
-        <v>617</v>
+        <v>5431</v>
       </c>
     </row>
     <row r="87" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
@@ -26162,13 +26191,13 @@
         <v>255</v>
       </c>
       <c r="C87" s="15" t="s">
-        <v>5194</v>
+        <v>162</v>
       </c>
       <c r="D87" s="15" t="s">
-        <v>47</v>
+        <v>161</v>
       </c>
       <c r="E87" s="16">
-        <v>13681</v>
+        <v>11985</v>
       </c>
       <c r="F87" s="15" t="s">
         <v>3</v>
@@ -26186,22 +26215,22 @@
         <v>32677</v>
       </c>
       <c r="K87" s="16">
-        <v>34496</v>
+        <v>34376</v>
       </c>
       <c r="L87" s="15" t="s">
         <v>383</v>
       </c>
       <c r="M87" s="15" t="s">
-        <v>88</v>
+        <v>4899</v>
       </c>
       <c r="N87" s="17" t="s">
         <v>256</v>
       </c>
       <c r="O87" s="15">
-        <v>1205</v>
+        <v>1157</v>
       </c>
       <c r="P87" s="15" t="s">
-        <v>5266</v>
+        <v>5268</v>
       </c>
     </row>
     <row r="88" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
@@ -26212,16 +26241,16 @@
         <v>255</v>
       </c>
       <c r="C88" s="15" t="s">
-        <v>5184</v>
+        <v>5202</v>
       </c>
       <c r="D88" s="15" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E88" s="16">
-        <v>15841</v>
+        <v>15436</v>
       </c>
       <c r="F88" s="15" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G88" s="15" t="s">
         <v>256</v>
@@ -26242,16 +26271,16 @@
         <v>383</v>
       </c>
       <c r="M88" s="15" t="s">
-        <v>515</v>
+        <v>88</v>
       </c>
       <c r="N88" s="17" t="s">
         <v>256</v>
       </c>
       <c r="O88" s="15">
-        <v>1068</v>
+        <v>1206</v>
       </c>
       <c r="P88" s="15" t="s">
-        <v>5267</v>
+        <v>5270</v>
       </c>
     </row>
     <row r="89" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
@@ -26262,13 +26291,13 @@
         <v>255</v>
       </c>
       <c r="C89" s="15" t="s">
-        <v>5372</v>
+        <v>5234</v>
       </c>
       <c r="D89" s="15" t="s">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="E89" s="16">
-        <v>13872</v>
+        <v>17448</v>
       </c>
       <c r="F89" s="15" t="s">
         <v>3</v>
@@ -26283,7 +26312,7 @@
         <v>257</v>
       </c>
       <c r="J89" s="16">
-        <v>34076</v>
+        <v>34377</v>
       </c>
       <c r="K89" s="16">
         <v>34496</v>
@@ -26292,16 +26321,16 @@
         <v>383</v>
       </c>
       <c r="M89" s="15" t="s">
-        <v>26</v>
+        <v>4899</v>
       </c>
       <c r="N89" s="17">
-        <v>144180</v>
+        <v>801238</v>
       </c>
       <c r="O89" s="15">
-        <v>1876</v>
+        <v>1894</v>
       </c>
       <c r="P89" s="15" t="s">
-        <v>5431</v>
+        <v>5241</v>
       </c>
     </row>
     <row r="90" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
@@ -26312,13 +26341,13 @@
         <v>255</v>
       </c>
       <c r="C90" s="15" t="s">
-        <v>5202</v>
+        <v>5205</v>
       </c>
       <c r="D90" s="15" t="s">
-        <v>20</v>
+        <v>5178</v>
       </c>
       <c r="E90" s="16">
-        <v>15436</v>
+        <v>17748</v>
       </c>
       <c r="F90" s="15" t="s">
         <v>3</v>
@@ -26342,16 +26371,16 @@
         <v>383</v>
       </c>
       <c r="M90" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="N90" s="17" t="s">
-        <v>256</v>
+        <v>26</v>
+      </c>
+      <c r="N90" s="17">
+        <v>845021</v>
       </c>
       <c r="O90" s="15">
-        <v>1206</v>
+        <v>1207</v>
       </c>
       <c r="P90" s="15" t="s">
-        <v>5270</v>
+        <v>5211</v>
       </c>
     </row>
     <row r="91" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
@@ -26362,13 +26391,13 @@
         <v>255</v>
       </c>
       <c r="C91" s="15" t="s">
-        <v>5234</v>
+        <v>5368</v>
       </c>
       <c r="D91" s="15" t="s">
-        <v>19</v>
+        <v>5178</v>
       </c>
       <c r="E91" s="16">
-        <v>17448</v>
+        <v>13606</v>
       </c>
       <c r="F91" s="15" t="s">
         <v>3</v>
@@ -26383,7 +26412,7 @@
         <v>257</v>
       </c>
       <c r="J91" s="16">
-        <v>34377</v>
+        <v>33577</v>
       </c>
       <c r="K91" s="16">
         <v>34496</v>
@@ -26392,16 +26421,16 @@
         <v>383</v>
       </c>
       <c r="M91" s="15" t="s">
-        <v>4899</v>
-      </c>
-      <c r="N91" s="17">
-        <v>801238</v>
+        <v>513</v>
+      </c>
+      <c r="N91" s="17" t="s">
+        <v>256</v>
       </c>
       <c r="O91" s="15">
-        <v>1894</v>
+        <v>1837</v>
       </c>
       <c r="P91" s="15" t="s">
-        <v>5241</v>
+        <v>5432</v>
       </c>
     </row>
     <row r="92" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
@@ -26412,13 +26441,13 @@
         <v>255</v>
       </c>
       <c r="C92" s="15" t="s">
-        <v>5205</v>
+        <v>5308</v>
       </c>
       <c r="D92" s="15" t="s">
-        <v>5178</v>
+        <v>5307</v>
       </c>
       <c r="E92" s="16">
-        <v>17748</v>
+        <v>13673</v>
       </c>
       <c r="F92" s="15" t="s">
         <v>3</v>
@@ -26445,13 +26474,13 @@
         <v>26</v>
       </c>
       <c r="N92" s="17">
-        <v>845021</v>
+        <v>948</v>
       </c>
       <c r="O92" s="15">
-        <v>1207</v>
+        <v>1016</v>
       </c>
       <c r="P92" s="15" t="s">
-        <v>5211</v>
+        <v>5433</v>
       </c>
     </row>
     <row r="93" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
@@ -26462,13 +26491,13 @@
         <v>255</v>
       </c>
       <c r="C93" s="15" t="s">
-        <v>5368</v>
+        <v>5322</v>
       </c>
       <c r="D93" s="15" t="s">
-        <v>5178</v>
+        <v>199</v>
       </c>
       <c r="E93" s="16">
-        <v>13606</v>
+        <v>14749</v>
       </c>
       <c r="F93" s="15" t="s">
         <v>3</v>
@@ -26483,7 +26512,7 @@
         <v>257</v>
       </c>
       <c r="J93" s="16">
-        <v>33583</v>
+        <v>32677</v>
       </c>
       <c r="K93" s="16">
         <v>34496</v>
@@ -26492,16 +26521,16 @@
         <v>383</v>
       </c>
       <c r="M93" s="15" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="N93" s="17" t="s">
         <v>256</v>
       </c>
       <c r="O93" s="15">
-        <v>1837</v>
+        <v>1208</v>
       </c>
       <c r="P93" s="15" t="s">
-        <v>5432</v>
+        <v>5434</v>
       </c>
     </row>
     <row r="94" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
@@ -26512,13 +26541,13 @@
         <v>255</v>
       </c>
       <c r="C94" s="15" t="s">
-        <v>5308</v>
+        <v>218</v>
       </c>
       <c r="D94" s="15" t="s">
-        <v>5307</v>
+        <v>5309</v>
       </c>
       <c r="E94" s="16">
-        <v>13673</v>
+        <v>12274</v>
       </c>
       <c r="F94" s="15" t="s">
         <v>3</v>
@@ -26542,16 +26571,16 @@
         <v>383</v>
       </c>
       <c r="M94" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="N94" s="17">
-        <v>948</v>
+        <v>515</v>
+      </c>
+      <c r="N94" s="17" t="s">
+        <v>256</v>
       </c>
       <c r="O94" s="15">
-        <v>1016</v>
+        <v>975</v>
       </c>
       <c r="P94" s="15" t="s">
-        <v>5433</v>
+        <v>5435</v>
       </c>
     </row>
     <row r="95" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
@@ -26562,13 +26591,13 @@
         <v>255</v>
       </c>
       <c r="C95" s="15" t="s">
-        <v>5322</v>
+        <v>5156</v>
       </c>
       <c r="D95" s="15" t="s">
-        <v>199</v>
+        <v>107</v>
       </c>
       <c r="E95" s="16">
-        <v>14749</v>
+        <v>15910</v>
       </c>
       <c r="F95" s="15" t="s">
         <v>3</v>
@@ -26592,16 +26621,16 @@
         <v>383</v>
       </c>
       <c r="M95" s="15" t="s">
-        <v>515</v>
+        <v>84</v>
       </c>
       <c r="N95" s="17" t="s">
         <v>256</v>
       </c>
       <c r="O95" s="15">
-        <v>1208</v>
+        <v>1158</v>
       </c>
       <c r="P95" s="15" t="s">
-        <v>5434</v>
+        <v>5271</v>
       </c>
     </row>
     <row r="96" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
@@ -26612,13 +26641,13 @@
         <v>255</v>
       </c>
       <c r="C96" s="15" t="s">
-        <v>218</v>
+        <v>151</v>
       </c>
       <c r="D96" s="15" t="s">
-        <v>5309</v>
+        <v>5316</v>
       </c>
       <c r="E96" s="16">
-        <v>12274</v>
+        <v>8737</v>
       </c>
       <c r="F96" s="15" t="s">
         <v>3</v>
@@ -26642,16 +26671,16 @@
         <v>383</v>
       </c>
       <c r="M96" s="15" t="s">
-        <v>515</v>
+        <v>48</v>
       </c>
       <c r="N96" s="17" t="s">
         <v>256</v>
       </c>
       <c r="O96" s="15">
-        <v>975</v>
+        <v>978</v>
       </c>
       <c r="P96" s="15" t="s">
-        <v>5435</v>
+        <v>5436</v>
       </c>
     </row>
     <row r="97" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
@@ -26662,13 +26691,13 @@
         <v>255</v>
       </c>
       <c r="C97" s="15" t="s">
-        <v>5156</v>
+        <v>5331</v>
       </c>
       <c r="D97" s="15" t="s">
-        <v>107</v>
+        <v>5320</v>
       </c>
       <c r="E97" s="16">
-        <v>15910</v>
+        <v>10833</v>
       </c>
       <c r="F97" s="15" t="s">
         <v>3</v>
@@ -26692,16 +26721,16 @@
         <v>383</v>
       </c>
       <c r="M97" s="15" t="s">
-        <v>84</v>
+        <v>5293</v>
       </c>
       <c r="N97" s="17" t="s">
         <v>256</v>
       </c>
       <c r="O97" s="15">
-        <v>1158</v>
+        <v>1159</v>
       </c>
       <c r="P97" s="15" t="s">
-        <v>5271</v>
+        <v>5437</v>
       </c>
     </row>
     <row r="98" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
@@ -26712,13 +26741,13 @@
         <v>255</v>
       </c>
       <c r="C98" s="15" t="s">
-        <v>151</v>
+        <v>5193</v>
       </c>
       <c r="D98" s="15" t="s">
-        <v>5316</v>
+        <v>107</v>
       </c>
       <c r="E98" s="16">
-        <v>8737</v>
+        <v>12345</v>
       </c>
       <c r="F98" s="15" t="s">
         <v>3</v>
@@ -26733,7 +26762,7 @@
         <v>257</v>
       </c>
       <c r="J98" s="16">
-        <v>32677</v>
+        <v>33830</v>
       </c>
       <c r="K98" s="16">
         <v>34496</v>
@@ -26742,16 +26771,16 @@
         <v>383</v>
       </c>
       <c r="M98" s="15" t="s">
-        <v>48</v>
+        <v>5357</v>
       </c>
       <c r="N98" s="17" t="s">
         <v>256</v>
       </c>
       <c r="O98" s="15">
-        <v>978</v>
+        <v>1871</v>
       </c>
       <c r="P98" s="15" t="s">
-        <v>5436</v>
+        <v>5274</v>
       </c>
     </row>
     <row r="99" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
@@ -26762,13 +26791,13 @@
         <v>255</v>
       </c>
       <c r="C99" s="15" t="s">
-        <v>5331</v>
+        <v>5326</v>
       </c>
       <c r="D99" s="15" t="s">
-        <v>5320</v>
+        <v>42</v>
       </c>
       <c r="E99" s="16">
-        <v>10833</v>
+        <v>11085</v>
       </c>
       <c r="F99" s="15" t="s">
         <v>3</v>
@@ -26792,16 +26821,16 @@
         <v>383</v>
       </c>
       <c r="M99" s="15" t="s">
-        <v>5293</v>
+        <v>4</v>
       </c>
       <c r="N99" s="17" t="s">
         <v>256</v>
       </c>
       <c r="O99" s="15">
-        <v>1159</v>
+        <v>979</v>
       </c>
       <c r="P99" s="15" t="s">
-        <v>5437</v>
+        <v>5376</v>
       </c>
     </row>
     <row r="100" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
@@ -26812,16 +26841,16 @@
         <v>255</v>
       </c>
       <c r="C100" s="15" t="s">
-        <v>5193</v>
+        <v>5339</v>
       </c>
       <c r="D100" s="15" t="s">
-        <v>107</v>
+        <v>5338</v>
       </c>
       <c r="E100" s="16">
-        <v>12345</v>
+        <v>20918</v>
       </c>
       <c r="F100" s="15" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G100" s="15" t="s">
         <v>256</v>
@@ -26833,7 +26862,7 @@
         <v>257</v>
       </c>
       <c r="J100" s="16">
-        <v>33830</v>
+        <v>32677</v>
       </c>
       <c r="K100" s="16">
         <v>34496</v>
@@ -26842,16 +26871,16 @@
         <v>383</v>
       </c>
       <c r="M100" s="15" t="s">
-        <v>5357</v>
-      </c>
-      <c r="N100" s="17" t="s">
-        <v>256</v>
+        <v>513</v>
+      </c>
+      <c r="N100" s="17">
+        <v>1499712</v>
       </c>
       <c r="O100" s="15">
-        <v>1871</v>
+        <v>1119</v>
       </c>
       <c r="P100" s="15" t="s">
-        <v>5274</v>
+        <v>5438</v>
       </c>
     </row>
     <row r="101" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
@@ -26862,16 +26891,16 @@
         <v>255</v>
       </c>
       <c r="C101" s="15" t="s">
-        <v>5339</v>
+        <v>220</v>
       </c>
       <c r="D101" s="15" t="s">
-        <v>5338</v>
+        <v>28</v>
       </c>
       <c r="E101" s="16">
-        <v>20918</v>
+        <v>13395</v>
       </c>
       <c r="F101" s="15" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G101" s="15" t="s">
         <v>256</v>
@@ -26892,16 +26921,16 @@
         <v>383</v>
       </c>
       <c r="M101" s="15" t="s">
-        <v>513</v>
-      </c>
-      <c r="N101" s="17">
-        <v>1499712</v>
+        <v>515</v>
+      </c>
+      <c r="N101" s="17" t="s">
+        <v>256</v>
       </c>
       <c r="O101" s="15">
-        <v>1119</v>
+        <v>976</v>
       </c>
       <c r="P101" s="15" t="s">
-        <v>5438</v>
+        <v>5439</v>
       </c>
     </row>
     <row r="102" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
@@ -26912,16 +26941,16 @@
         <v>255</v>
       </c>
       <c r="C102" s="15" t="s">
-        <v>220</v>
+        <v>4922</v>
       </c>
       <c r="D102" s="15" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E102" s="16">
-        <v>13395</v>
+        <v>18643</v>
       </c>
       <c r="F102" s="15" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G102" s="15" t="s">
         <v>256</v>
@@ -26944,14 +26973,14 @@
       <c r="M102" s="15" t="s">
         <v>515</v>
       </c>
-      <c r="N102" s="17" t="s">
-        <v>256</v>
+      <c r="N102" s="17">
+        <v>584032</v>
       </c>
       <c r="O102" s="15">
-        <v>976</v>
+        <v>1129</v>
       </c>
       <c r="P102" s="15" t="s">
-        <v>5439</v>
+        <v>5113</v>
       </c>
     </row>
     <row r="103" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
@@ -26962,16 +26991,16 @@
         <v>255</v>
       </c>
       <c r="C103" s="15" t="s">
-        <v>4922</v>
+        <v>5302</v>
       </c>
       <c r="D103" s="15" t="s">
-        <v>31</v>
+        <v>5301</v>
       </c>
       <c r="E103" s="16">
-        <v>18643</v>
+        <v>10575</v>
       </c>
       <c r="F103" s="15" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G103" s="15" t="s">
         <v>256</v>
@@ -26992,16 +27021,16 @@
         <v>383</v>
       </c>
       <c r="M103" s="15" t="s">
-        <v>515</v>
-      </c>
-      <c r="N103" s="17">
-        <v>584032</v>
+        <v>88</v>
+      </c>
+      <c r="N103" s="17" t="s">
+        <v>256</v>
       </c>
       <c r="O103" s="15">
-        <v>1129</v>
+        <v>1017</v>
       </c>
       <c r="P103" s="15" t="s">
-        <v>5113</v>
+        <v>5440</v>
       </c>
     </row>
     <row r="104" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
@@ -27012,13 +27041,13 @@
         <v>255</v>
       </c>
       <c r="C104" s="15" t="s">
-        <v>5302</v>
+        <v>5373</v>
       </c>
       <c r="D104" s="15" t="s">
-        <v>5301</v>
+        <v>30</v>
       </c>
       <c r="E104" s="16">
-        <v>47100</v>
+        <v>14333</v>
       </c>
       <c r="F104" s="15" t="s">
         <v>3</v>
@@ -27033,7 +27062,7 @@
         <v>257</v>
       </c>
       <c r="J104" s="16">
-        <v>32677</v>
+        <v>34059</v>
       </c>
       <c r="K104" s="16">
         <v>34496</v>
@@ -27042,16 +27071,16 @@
         <v>383</v>
       </c>
       <c r="M104" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="N104" s="17" t="s">
-        <v>256</v>
+        <v>5363</v>
+      </c>
+      <c r="N104" s="17">
+        <v>273</v>
       </c>
       <c r="O104" s="15">
-        <v>1017</v>
+        <v>1496</v>
       </c>
       <c r="P104" s="15" t="s">
-        <v>5440</v>
+        <v>5441</v>
       </c>
     </row>
     <row r="105" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
@@ -27062,16 +27091,16 @@
         <v>255</v>
       </c>
       <c r="C105" s="15" t="s">
-        <v>5373</v>
+        <v>136</v>
       </c>
       <c r="D105" s="15" t="s">
-        <v>30</v>
+        <v>135</v>
       </c>
       <c r="E105" s="16">
-        <v>14333</v>
+        <v>13370</v>
       </c>
       <c r="F105" s="15" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G105" s="15" t="s">
         <v>256</v>
@@ -27083,7 +27112,7 @@
         <v>257</v>
       </c>
       <c r="J105" s="16">
-        <v>34076</v>
+        <v>32677</v>
       </c>
       <c r="K105" s="16">
         <v>34496</v>
@@ -27092,16 +27121,16 @@
         <v>383</v>
       </c>
       <c r="M105" s="15" t="s">
-        <v>5363</v>
-      </c>
-      <c r="N105" s="17">
-        <v>273</v>
+        <v>515</v>
+      </c>
+      <c r="N105" s="17" t="s">
+        <v>256</v>
       </c>
       <c r="O105" s="15">
-        <v>1496</v>
+        <v>1173</v>
       </c>
       <c r="P105" s="15" t="s">
-        <v>5441</v>
+        <v>5442</v>
       </c>
     </row>
     <row r="106" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
@@ -27112,13 +27141,13 @@
         <v>255</v>
       </c>
       <c r="C106" s="15" t="s">
-        <v>136</v>
+        <v>90</v>
       </c>
       <c r="D106" s="15" t="s">
-        <v>135</v>
+        <v>89</v>
       </c>
       <c r="E106" s="16">
-        <v>13370</v>
+        <v>10056</v>
       </c>
       <c r="F106" s="15" t="s">
         <v>8</v>
@@ -27136,22 +27165,22 @@
         <v>32677</v>
       </c>
       <c r="K106" s="16">
-        <v>34496</v>
+        <v>34058</v>
       </c>
       <c r="L106" s="15" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="M106" s="15" t="s">
-        <v>515</v>
+        <v>26</v>
       </c>
       <c r="N106" s="17" t="s">
         <v>256</v>
       </c>
       <c r="O106" s="15">
-        <v>1173</v>
+        <v>1174</v>
       </c>
       <c r="P106" s="15" t="s">
-        <v>5442</v>
+        <v>5395</v>
       </c>
     </row>
     <row r="107" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
@@ -27162,13 +27191,13 @@
         <v>255</v>
       </c>
       <c r="C107" s="15" t="s">
-        <v>5201</v>
+        <v>5312</v>
       </c>
       <c r="D107" s="15" t="s">
-        <v>69</v>
+        <v>42</v>
       </c>
       <c r="E107" s="16">
-        <v>17303</v>
+        <v>16256</v>
       </c>
       <c r="F107" s="15" t="s">
         <v>3</v>
@@ -27186,22 +27215,22 @@
         <v>32677</v>
       </c>
       <c r="K107" s="16">
-        <v>34496</v>
+        <v>34076</v>
       </c>
       <c r="L107" s="15" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="M107" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="N107" s="17" t="s">
-        <v>256</v>
+        <v>88</v>
+      </c>
+      <c r="N107" s="17">
+        <v>11291</v>
       </c>
       <c r="O107" s="15">
-        <v>1160</v>
+        <v>1195</v>
       </c>
       <c r="P107" s="15" t="s">
-        <v>5277</v>
+        <v>5399</v>
       </c>
     </row>
     <row r="108" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
@@ -27212,13 +27241,13 @@
         <v>255</v>
       </c>
       <c r="C108" s="15" t="s">
-        <v>79</v>
+        <v>5201</v>
       </c>
       <c r="D108" s="15" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="E108" s="16">
-        <v>17535</v>
+        <v>17303</v>
       </c>
       <c r="F108" s="15" t="s">
         <v>3</v>
@@ -27242,22 +27271,228 @@
         <v>383</v>
       </c>
       <c r="M108" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="N108" s="17" t="s">
+        <v>256</v>
+      </c>
+      <c r="O108" s="15">
+        <v>1160</v>
+      </c>
+      <c r="P108" s="15" t="s">
+        <v>5277</v>
+      </c>
+    </row>
+    <row r="109" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="14" t="s">
+        <v>254</v>
+      </c>
+      <c r="B109" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="C109" s="15" t="s">
+        <v>5360</v>
+      </c>
+      <c r="D109" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="E109" s="16">
+        <v>21493</v>
+      </c>
+      <c r="F109" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="G109" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="H109" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="I109" s="15" t="s">
+        <v>257</v>
+      </c>
+      <c r="J109" s="16">
+        <v>33555</v>
+      </c>
+      <c r="K109" s="16">
+        <v>33583</v>
+      </c>
+      <c r="L109" s="15" t="s">
+        <v>382</v>
+      </c>
+      <c r="M109" s="15" t="s">
+        <v>513</v>
+      </c>
+      <c r="N109" s="17">
+        <v>837955</v>
+      </c>
+      <c r="O109" s="15">
+        <v>1839</v>
+      </c>
+      <c r="P109" s="15" t="s">
+        <v>5386</v>
+      </c>
+    </row>
+    <row r="110" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="14" t="s">
+        <v>254</v>
+      </c>
+      <c r="B110" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="C110" s="15" t="s">
+        <v>5328</v>
+      </c>
+      <c r="D110" s="15" t="s">
+        <v>5327</v>
+      </c>
+      <c r="E110" s="16">
+        <v>17940</v>
+      </c>
+      <c r="F110" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="G110" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="H110" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="I110" s="15" t="s">
+        <v>257</v>
+      </c>
+      <c r="J110" s="16">
+        <v>32677</v>
+      </c>
+      <c r="K110" s="16">
+        <v>33591</v>
+      </c>
+      <c r="L110" s="15" t="s">
+        <v>382</v>
+      </c>
+      <c r="M110" s="15" t="s">
+        <v>513</v>
+      </c>
+      <c r="N110" s="17">
+        <v>53206</v>
+      </c>
+      <c r="O110" s="15">
+        <v>1152</v>
+      </c>
+      <c r="P110" s="15" t="s">
+        <v>5387</v>
+      </c>
+    </row>
+    <row r="111" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="14" t="s">
+        <v>254</v>
+      </c>
+      <c r="B111" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="C111" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="D111" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="E111" s="16">
+        <v>17535</v>
+      </c>
+      <c r="F111" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="G111" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="H111" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="I111" s="15" t="s">
+        <v>257</v>
+      </c>
+      <c r="J111" s="16">
+        <v>32677</v>
+      </c>
+      <c r="K111" s="16">
+        <v>34496</v>
+      </c>
+      <c r="L111" s="15" t="s">
+        <v>383</v>
+      </c>
+      <c r="M111" s="15" t="s">
         <v>4899</v>
       </c>
-      <c r="N108" s="17">
+      <c r="N111" s="17">
         <v>88</v>
       </c>
-      <c r="O108" s="15">
+      <c r="O111" s="15">
         <v>1018</v>
       </c>
-      <c r="P108" s="15" t="s">
+      <c r="P111" s="15" t="s">
         <v>689</v>
       </c>
     </row>
+    <row r="112" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="14" t="s">
+        <v>254</v>
+      </c>
+      <c r="B112" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="C112" s="15" t="s">
+        <v>5343</v>
+      </c>
+      <c r="D112" s="15" t="s">
+        <v>5342</v>
+      </c>
+      <c r="E112" s="16">
+        <v>14703</v>
+      </c>
+      <c r="F112" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="G112" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="H112" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="I112" s="15" t="s">
+        <v>257</v>
+      </c>
+      <c r="J112" s="16">
+        <v>32677</v>
+      </c>
+      <c r="K112" s="16">
+        <v>33699</v>
+      </c>
+      <c r="L112" s="15" t="s">
+        <v>382</v>
+      </c>
+      <c r="M112" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="N112" s="17">
+        <v>32410</v>
+      </c>
+      <c r="O112" s="15">
+        <v>1153</v>
+      </c>
+      <c r="P112" s="15" t="s">
+        <v>5389</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState ref="C86:M105">
-    <sortCondition ref="C88:C107"/>
+  <sortState ref="A2:P112">
+    <sortCondition ref="C2:C112"/>
+    <sortCondition ref="D2:D112"/>
+    <sortCondition ref="J2:J112"/>
+    <sortCondition ref="K2:K112"/>
   </sortState>
+  <conditionalFormatting sqref="C111">
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -27269,7 +27504,7 @@
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="A20" sqref="A20:XFD20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -32661,8 +32896,8 @@
   <dimension ref="A1:P102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A78" sqref="A78:XFD78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -37787,7 +38022,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C2:C89">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/in/extraction1/corrections/supp_DE.xlsx
+++ b/in/extraction1/corrections/supp_DE.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10953" uniqueCount="5446">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10953" uniqueCount="5447">
   <si>
     <t>Code sexe</t>
   </si>
@@ -16371,6 +16371,9 @@
   </si>
   <si>
     <t>EUR_0000962</t>
+  </si>
+  <si>
+    <t>DC</t>
   </si>
 </sst>
 </file>
@@ -21860,7 +21863,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J111" sqref="J111"/>
+      <selection pane="bottomLeft" activeCell="L31" sqref="L31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22918,7 +22921,7 @@
         <v>33829</v>
       </c>
       <c r="L21" s="15" t="s">
-        <v>382</v>
+        <v>5446</v>
       </c>
       <c r="M21" s="15" t="s">
         <v>5291</v>
@@ -23418,7 +23421,7 @@
         <v>33790</v>
       </c>
       <c r="L31" s="15" t="s">
-        <v>382</v>
+        <v>5446</v>
       </c>
       <c r="M31" s="15" t="s">
         <v>513</v>

--- a/in/extraction1/corrections/supp_DE.xlsx
+++ b/in/extraction1/corrections/supp_DE.xlsx
@@ -22,7 +22,7 @@
     <sheet name="MEPS_all" sheetId="12" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'1979'!$A$1:$P$125</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'1979'!$A$1:$P$124</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'1984'!$A$1:$P$112</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'1989'!$A$1:$P$108</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'1994'!$A$1:$P$107</definedName>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12625" uniqueCount="5642">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12626" uniqueCount="5643">
   <si>
     <t>Code sexe</t>
   </si>
@@ -16961,6 +16961,9 @@
   </si>
   <si>
     <t>EUR_0000647</t>
+  </si>
+  <si>
+    <t>EUR_0000930</t>
   </si>
 </sst>
 </file>
@@ -17500,7 +17503,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -17845,12 +17848,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:P125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="M124" sqref="M124"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -17924,23 +17924,23 @@
         <v>262</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="14" t="s">
         <v>245</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="15" t="s">
         <v>246</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2" s="16">
         <v>13253</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="15" t="s">
         <v>3</v>
       </c>
       <c r="G2" s="15" t="s">
@@ -17952,45 +17952,45 @@
       <c r="I2" s="15" t="s">
         <v>248</v>
       </c>
-      <c r="J2" s="1">
+      <c r="J2" s="16">
         <v>29830</v>
       </c>
-      <c r="K2" s="1">
+      <c r="K2" s="16">
         <v>30849</v>
       </c>
-      <c r="L2" t="s">
+      <c r="L2" s="15" t="s">
         <v>372</v>
       </c>
-      <c r="M2" t="s">
+      <c r="M2" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="N2" s="8">
+      <c r="N2" s="19">
         <v>161</v>
       </c>
-      <c r="O2" s="6">
+      <c r="O2" s="22">
         <v>951</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="P2" s="16" t="s">
         <v>5563</v>
       </c>
     </row>
-    <row r="3" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="14" t="s">
         <v>245</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="15" t="s">
         <v>246</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="15" t="s">
         <v>239</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="15" t="s">
         <v>202</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="16">
         <v>7857</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="15" t="s">
         <v>8</v>
       </c>
       <c r="G3" s="15" t="s">
@@ -18002,45 +18002,45 @@
       <c r="I3" s="15" t="s">
         <v>248</v>
       </c>
-      <c r="J3" s="1">
+      <c r="J3" s="16">
         <v>30225</v>
       </c>
-      <c r="K3" s="1">
+      <c r="K3" s="16">
         <v>30638</v>
       </c>
-      <c r="L3" t="s">
+      <c r="L3" s="15" t="s">
         <v>371</v>
       </c>
-      <c r="M3" t="s">
+      <c r="M3" s="15" t="s">
         <v>5218</v>
       </c>
-      <c r="N3" s="11" t="s">
-        <v>247</v>
-      </c>
-      <c r="O3">
+      <c r="N3" s="17" t="s">
+        <v>247</v>
+      </c>
+      <c r="O3" s="15">
         <v>1772</v>
       </c>
-      <c r="P3" t="s">
+      <c r="P3" s="15" t="s">
         <v>5490</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+    <row r="4" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="14" t="s">
         <v>245</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="15" t="s">
         <v>246</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="15" t="s">
         <v>154</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="15" t="s">
         <v>153</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="16">
         <v>8465</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="15" t="s">
         <v>3</v>
       </c>
       <c r="G4" s="15" t="s">
@@ -18052,45 +18052,45 @@
       <c r="I4" s="15" t="s">
         <v>248</v>
       </c>
-      <c r="J4" s="1">
+      <c r="J4" s="16">
         <v>29013</v>
       </c>
-      <c r="K4" s="1">
+      <c r="K4" s="16">
         <v>29856</v>
       </c>
-      <c r="L4" t="s">
+      <c r="L4" s="15" t="s">
         <v>371</v>
       </c>
-      <c r="M4" t="s">
+      <c r="M4" s="15" t="s">
         <v>4888</v>
       </c>
-      <c r="N4" s="8" t="s">
-        <v>247</v>
-      </c>
-      <c r="O4" s="6">
+      <c r="N4" s="19" t="s">
+        <v>247</v>
+      </c>
+      <c r="O4" s="22">
         <v>936</v>
       </c>
-      <c r="P4" t="s">
+      <c r="P4" s="15" t="s">
         <v>5564</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+    <row r="5" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="14" t="s">
         <v>245</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="15" t="s">
         <v>246</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="15" t="s">
         <v>187</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="16">
         <v>9143</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="15" t="s">
         <v>3</v>
       </c>
       <c r="G5" s="15" t="s">
@@ -18102,45 +18102,45 @@
       <c r="I5" s="15" t="s">
         <v>248</v>
       </c>
-      <c r="J5" s="1">
+      <c r="J5" s="16">
         <v>29013</v>
       </c>
-      <c r="K5" s="1">
+      <c r="K5" s="16">
         <v>30849</v>
       </c>
-      <c r="L5" t="s">
+      <c r="L5" s="15" t="s">
         <v>372</v>
       </c>
-      <c r="M5" t="s">
+      <c r="M5" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="N5" s="8" t="s">
-        <v>247</v>
-      </c>
-      <c r="O5" s="6">
+      <c r="N5" s="19" t="s">
+        <v>247</v>
+      </c>
+      <c r="O5" s="22">
         <v>937</v>
       </c>
-      <c r="P5" t="s">
+      <c r="P5" s="15" t="s">
         <v>5565</v>
       </c>
     </row>
-    <row r="6" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+    <row r="6" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="14" t="s">
         <v>245</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="15" t="s">
         <v>246</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="15" t="s">
         <v>165</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="16">
         <v>8898</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="15" t="s">
         <v>3</v>
       </c>
       <c r="G6" s="15" t="s">
@@ -18152,45 +18152,45 @@
       <c r="I6" s="15" t="s">
         <v>248</v>
       </c>
-      <c r="J6" s="1">
+      <c r="J6" s="16">
         <v>29013</v>
       </c>
-      <c r="K6" s="1">
+      <c r="K6" s="16">
         <v>30849</v>
       </c>
-      <c r="L6" t="s">
+      <c r="L6" s="15" t="s">
         <v>372</v>
       </c>
-      <c r="M6" t="s">
+      <c r="M6" s="15" t="s">
         <v>4888</v>
       </c>
-      <c r="N6" s="11" t="s">
-        <v>247</v>
-      </c>
-      <c r="O6">
+      <c r="N6" s="17" t="s">
+        <v>247</v>
+      </c>
+      <c r="O6" s="15">
         <v>1787</v>
       </c>
-      <c r="P6" t="s">
+      <c r="P6" s="15" t="s">
         <v>5493</v>
       </c>
     </row>
-    <row r="7" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+    <row r="7" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="14" t="s">
         <v>245</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="15" t="s">
         <v>246</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="15" t="s">
         <v>38</v>
       </c>
       <c r="E7" s="16">
-        <v>17271</v>
-      </c>
-      <c r="F7" t="s">
+        <v>5976</v>
+      </c>
+      <c r="F7" s="15" t="s">
         <v>3</v>
       </c>
       <c r="G7" s="15" t="s">
@@ -18202,45 +18202,45 @@
       <c r="I7" s="15" t="s">
         <v>248</v>
       </c>
-      <c r="J7" s="1">
+      <c r="J7" s="16">
         <v>29013</v>
       </c>
-      <c r="K7" s="1">
+      <c r="K7" s="16">
         <v>30849</v>
       </c>
-      <c r="L7" t="s">
+      <c r="L7" s="15" t="s">
         <v>372</v>
       </c>
-      <c r="M7" t="s">
+      <c r="M7" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="N7" s="17">
-        <v>1177455</v>
+      <c r="N7" s="17" t="s">
+        <v>247</v>
       </c>
       <c r="O7" s="15">
-        <v>1759</v>
+        <v>930</v>
       </c>
       <c r="P7" s="15" t="s">
-        <v>5197</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+        <v>5642</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="14" t="s">
         <v>245</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="15" t="s">
         <v>246</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="15" t="s">
         <v>213</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8" s="16">
         <v>11628</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="15" t="s">
         <v>3</v>
       </c>
       <c r="G8" s="15" t="s">
@@ -18252,45 +18252,45 @@
       <c r="I8" s="15" t="s">
         <v>248</v>
       </c>
-      <c r="J8" s="1">
+      <c r="J8" s="16">
         <v>30399</v>
       </c>
-      <c r="K8" s="1">
+      <c r="K8" s="16">
         <v>30849</v>
       </c>
-      <c r="L8" t="s">
+      <c r="L8" s="15" t="s">
         <v>372</v>
       </c>
-      <c r="M8" t="s">
+      <c r="M8" s="15" t="s">
         <v>504</v>
       </c>
-      <c r="N8" s="8" t="s">
-        <v>247</v>
-      </c>
-      <c r="O8" s="6">
+      <c r="N8" s="19" t="s">
+        <v>247</v>
+      </c>
+      <c r="O8" s="22">
         <v>932</v>
       </c>
-      <c r="P8" t="s">
+      <c r="P8" s="15" t="s">
         <v>5566</v>
       </c>
     </row>
-    <row r="9" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+    <row r="9" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="14" t="s">
         <v>245</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="15" t="s">
         <v>246</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="15" t="s">
         <v>209</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="15" t="s">
         <v>20</v>
       </c>
       <c r="E9" s="16">
         <v>9067</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" s="15" t="s">
         <v>3</v>
       </c>
       <c r="G9" s="15" t="s">
@@ -18302,16 +18302,16 @@
       <c r="I9" s="15" t="s">
         <v>248</v>
       </c>
-      <c r="J9" s="1">
+      <c r="J9" s="16">
         <v>29830</v>
       </c>
-      <c r="K9" s="1">
+      <c r="K9" s="16">
         <v>30849</v>
       </c>
-      <c r="L9" t="s">
+      <c r="L9" s="15" t="s">
         <v>372</v>
       </c>
-      <c r="M9" t="s">
+      <c r="M9" s="15" t="s">
         <v>504</v>
       </c>
       <c r="N9" s="17" t="s">
@@ -18324,23 +18324,23 @@
         <v>5397</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+    <row r="10" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="14" t="s">
         <v>245</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="15" t="s">
         <v>246</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="15" t="s">
         <v>242</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10" s="16">
         <v>8370</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F10" s="15" t="s">
         <v>3</v>
       </c>
       <c r="G10" s="15" t="s">
@@ -18352,45 +18352,45 @@
       <c r="I10" s="15" t="s">
         <v>248</v>
       </c>
-      <c r="J10" s="1">
+      <c r="J10" s="16">
         <v>30058</v>
       </c>
-      <c r="K10" s="1">
+      <c r="K10" s="16">
         <v>30849</v>
       </c>
-      <c r="L10" t="s">
+      <c r="L10" s="15" t="s">
         <v>372</v>
       </c>
-      <c r="M10" t="s">
+      <c r="M10" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="N10" s="8" t="s">
-        <v>247</v>
-      </c>
-      <c r="O10" s="6">
+      <c r="N10" s="19" t="s">
+        <v>247</v>
+      </c>
+      <c r="O10" s="22">
         <v>924</v>
       </c>
-      <c r="P10" t="s">
+      <c r="P10" s="15" t="s">
         <v>5567</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+    <row r="11" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="14" t="s">
         <v>245</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="15" t="s">
         <v>246</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="15" t="s">
         <v>220</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E11" s="16">
         <v>15730</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11" s="15" t="s">
         <v>3</v>
       </c>
       <c r="G11" s="15" t="s">
@@ -18402,45 +18402,45 @@
       <c r="I11" s="15" t="s">
         <v>248</v>
       </c>
-      <c r="J11" s="1">
+      <c r="J11" s="16">
         <v>29857</v>
       </c>
-      <c r="K11" s="1">
+      <c r="K11" s="16">
         <v>30849</v>
       </c>
-      <c r="L11" t="s">
+      <c r="L11" s="15" t="s">
         <v>372</v>
       </c>
-      <c r="M11" t="s">
+      <c r="M11" s="15" t="s">
         <v>4888</v>
       </c>
-      <c r="N11" s="8">
+      <c r="N11" s="19">
         <v>834626</v>
       </c>
-      <c r="O11" s="6">
+      <c r="O11" s="22">
         <v>920</v>
       </c>
-      <c r="P11" t="s">
+      <c r="P11" s="15" t="s">
         <v>5568</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+    <row r="12" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="14" t="s">
         <v>245</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="15" t="s">
         <v>246</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="15" t="s">
         <v>180</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="15" t="s">
         <v>179</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E12" s="16">
         <v>9133</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F12" s="15" t="s">
         <v>3</v>
       </c>
       <c r="G12" s="15" t="s">
@@ -18452,45 +18452,45 @@
       <c r="I12" s="15" t="s">
         <v>248</v>
       </c>
-      <c r="J12" s="1">
+      <c r="J12" s="16">
         <v>29013</v>
       </c>
-      <c r="K12" s="1">
+      <c r="K12" s="16">
         <v>29507</v>
       </c>
-      <c r="L12" t="s">
+      <c r="L12" s="15" t="s">
         <v>371</v>
       </c>
-      <c r="M12" t="s">
+      <c r="M12" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="N12" s="8" t="s">
-        <v>247</v>
-      </c>
-      <c r="O12" s="6">
+      <c r="N12" s="19" t="s">
+        <v>247</v>
+      </c>
+      <c r="O12" s="22">
         <v>1767</v>
       </c>
-      <c r="P12" t="s">
+      <c r="P12" s="15" t="s">
         <v>5569</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+    <row r="13" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="14" t="s">
         <v>245</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="15" t="s">
         <v>246</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E13" s="16">
         <v>5158</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F13" s="15" t="s">
         <v>3</v>
       </c>
       <c r="G13" s="15" t="s">
@@ -18502,45 +18502,45 @@
       <c r="I13" s="15" t="s">
         <v>248</v>
       </c>
-      <c r="J13" s="1">
+      <c r="J13" s="16">
         <v>29013</v>
       </c>
-      <c r="K13" s="1">
+      <c r="K13" s="16">
         <v>30849</v>
       </c>
-      <c r="L13" t="s">
+      <c r="L13" s="15" t="s">
         <v>372</v>
       </c>
-      <c r="M13" t="s">
+      <c r="M13" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="N13" s="8" t="s">
-        <v>247</v>
-      </c>
-      <c r="O13" s="6">
+      <c r="N13" s="19" t="s">
+        <v>247</v>
+      </c>
+      <c r="O13" s="22">
         <v>917</v>
       </c>
-      <c r="P13" s="6" t="s">
+      <c r="P13" s="22" t="s">
         <v>5570</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
+    <row r="14" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="14" t="s">
         <v>245</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="15" t="s">
         <v>246</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="E14" s="1">
+      <c r="E14" s="16">
         <v>7483</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F14" s="15" t="s">
         <v>3</v>
       </c>
       <c r="G14" s="15" t="s">
@@ -18552,45 +18552,45 @@
       <c r="I14" s="15" t="s">
         <v>248</v>
       </c>
-      <c r="J14" s="1">
+      <c r="J14" s="16">
         <v>29013</v>
       </c>
-      <c r="K14" s="1">
+      <c r="K14" s="16">
         <v>30849</v>
       </c>
-      <c r="L14" t="s">
+      <c r="L14" s="15" t="s">
         <v>372</v>
       </c>
-      <c r="M14" t="s">
+      <c r="M14" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="N14" s="8" t="s">
-        <v>247</v>
-      </c>
-      <c r="O14" s="6">
+      <c r="N14" s="19" t="s">
+        <v>247</v>
+      </c>
+      <c r="O14" s="22">
         <v>918</v>
       </c>
-      <c r="P14" s="6" t="s">
+      <c r="P14" s="22" t="s">
         <v>5571</v>
       </c>
     </row>
-    <row r="15" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
+    <row r="15" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="14" t="s">
         <v>245</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="15" t="s">
         <v>246</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="15" t="s">
         <v>164</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="E15" s="1">
+      <c r="E15" s="16">
         <v>5621</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F15" s="15" t="s">
         <v>3</v>
       </c>
       <c r="G15" s="15" t="s">
@@ -18602,45 +18602,45 @@
       <c r="I15" s="15" t="s">
         <v>248</v>
       </c>
-      <c r="J15" s="1">
+      <c r="J15" s="16">
         <v>29013</v>
       </c>
-      <c r="K15" s="1">
+      <c r="K15" s="16">
         <v>30849</v>
       </c>
-      <c r="L15" t="s">
+      <c r="L15" s="15" t="s">
         <v>372</v>
       </c>
-      <c r="M15" t="s">
+      <c r="M15" s="15" t="s">
         <v>4888</v>
       </c>
-      <c r="N15" s="11" t="s">
-        <v>247</v>
-      </c>
-      <c r="O15">
+      <c r="N15" s="17" t="s">
+        <v>247</v>
+      </c>
+      <c r="O15" s="15">
         <v>1723</v>
       </c>
-      <c r="P15" t="s">
+      <c r="P15" s="15" t="s">
         <v>5503</v>
       </c>
     </row>
-    <row r="16" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
+    <row r="16" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="14" t="s">
         <v>245</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="15" t="s">
         <v>246</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="15" t="s">
         <v>142</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="15" t="s">
         <v>141</v>
       </c>
-      <c r="E16" s="1">
+      <c r="E16" s="16">
         <v>15024</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F16" s="15" t="s">
         <v>8</v>
       </c>
       <c r="G16" s="15" t="s">
@@ -18652,45 +18652,45 @@
       <c r="I16" s="15" t="s">
         <v>248</v>
       </c>
-      <c r="J16" s="1">
+      <c r="J16" s="16">
         <v>29013</v>
       </c>
-      <c r="K16" s="1">
+      <c r="K16" s="16">
         <v>30849</v>
       </c>
-      <c r="L16" t="s">
+      <c r="L16" s="15" t="s">
         <v>372</v>
       </c>
-      <c r="M16" t="s">
+      <c r="M16" s="15" t="s">
         <v>504</v>
       </c>
-      <c r="N16" s="11" t="s">
-        <v>247</v>
-      </c>
-      <c r="O16">
+      <c r="N16" s="17" t="s">
+        <v>247</v>
+      </c>
+      <c r="O16" s="15">
         <v>1707</v>
       </c>
-      <c r="P16" t="s">
+      <c r="P16" s="15" t="s">
         <v>5504</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
+    <row r="17" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="14" t="s">
         <v>245</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="15" t="s">
         <v>246</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="15" t="s">
         <v>170</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="E17" s="1">
+      <c r="E17" s="16">
         <v>12022</v>
       </c>
-      <c r="F17" t="s">
+      <c r="F17" s="15" t="s">
         <v>3</v>
       </c>
       <c r="G17" s="15" t="s">
@@ -18702,45 +18702,45 @@
       <c r="I17" s="15" t="s">
         <v>248</v>
       </c>
-      <c r="J17" s="1">
+      <c r="J17" s="16">
         <v>29013</v>
       </c>
-      <c r="K17" s="1">
+      <c r="K17" s="16">
         <v>29339</v>
       </c>
-      <c r="L17" t="s">
+      <c r="L17" s="15" t="s">
         <v>371</v>
       </c>
-      <c r="M17" t="s">
+      <c r="M17" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="N17" s="8" t="s">
-        <v>247</v>
-      </c>
-      <c r="O17" s="6">
+      <c r="N17" s="19" t="s">
+        <v>247</v>
+      </c>
+      <c r="O17" s="22">
         <v>916</v>
       </c>
-      <c r="P17" s="6" t="s">
+      <c r="P17" s="22" t="s">
         <v>5572</v>
       </c>
     </row>
-    <row r="18" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
+    <row r="18" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="14" t="s">
         <v>245</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="15" t="s">
         <v>246</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="15" t="s">
         <v>181</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="E18" s="1">
+      <c r="E18" s="16">
         <v>13957</v>
       </c>
-      <c r="F18" t="s">
+      <c r="F18" s="15" t="s">
         <v>8</v>
       </c>
       <c r="G18" s="15" t="s">
@@ -18752,45 +18752,45 @@
       <c r="I18" s="15" t="s">
         <v>248</v>
       </c>
-      <c r="J18" s="1">
+      <c r="J18" s="16">
         <v>29013</v>
       </c>
-      <c r="K18" s="1">
+      <c r="K18" s="16">
         <v>29510</v>
       </c>
-      <c r="L18" t="s">
+      <c r="L18" s="15" t="s">
         <v>371</v>
       </c>
-      <c r="M18" t="s">
+      <c r="M18" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="N18" s="11" t="s">
-        <v>247</v>
-      </c>
-      <c r="O18">
+      <c r="N18" s="17" t="s">
+        <v>247</v>
+      </c>
+      <c r="O18" s="15">
         <v>1774</v>
       </c>
-      <c r="P18" t="s">
+      <c r="P18" s="15" t="s">
         <v>5507</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
+    <row r="19" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="14" t="s">
         <v>245</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="15" t="s">
         <v>246</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="15" t="s">
         <v>238</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" s="15" t="s">
         <v>201</v>
       </c>
-      <c r="E19" s="1">
+      <c r="E19" s="16">
         <v>11907</v>
       </c>
-      <c r="F19" t="s">
+      <c r="F19" s="15" t="s">
         <v>3</v>
       </c>
       <c r="G19" s="15" t="s">
@@ -18802,45 +18802,45 @@
       <c r="I19" s="15" t="s">
         <v>248</v>
       </c>
-      <c r="J19" s="1">
+      <c r="J19" s="16">
         <v>29412</v>
       </c>
-      <c r="K19" s="1">
+      <c r="K19" s="16">
         <v>29997</v>
       </c>
-      <c r="L19" t="s">
+      <c r="L19" s="15" t="s">
         <v>371</v>
       </c>
-      <c r="M19" t="s">
+      <c r="M19" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="N19" s="8" t="s">
-        <v>247</v>
-      </c>
-      <c r="O19" s="6">
+      <c r="N19" s="19" t="s">
+        <v>247</v>
+      </c>
+      <c r="O19" s="22">
         <v>908</v>
       </c>
-      <c r="P19" t="s">
+      <c r="P19" s="15" t="s">
         <v>5573</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
+    <row r="20" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="14" t="s">
         <v>245</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="15" t="s">
         <v>246</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="E20" s="1">
+      <c r="E20" s="16">
         <v>4006</v>
       </c>
-      <c r="F20" t="s">
+      <c r="F20" s="15" t="s">
         <v>3</v>
       </c>
       <c r="G20" s="15" t="s">
@@ -18852,45 +18852,45 @@
       <c r="I20" s="15" t="s">
         <v>248</v>
       </c>
-      <c r="J20" s="1">
+      <c r="J20" s="16">
         <v>29013</v>
       </c>
-      <c r="K20" s="1">
+      <c r="K20" s="16">
         <v>30849</v>
       </c>
-      <c r="L20" t="s">
+      <c r="L20" s="15" t="s">
         <v>372</v>
       </c>
-      <c r="M20" t="s">
+      <c r="M20" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="N20" s="8" t="s">
-        <v>247</v>
-      </c>
-      <c r="O20" s="6">
+      <c r="N20" s="19" t="s">
+        <v>247</v>
+      </c>
+      <c r="O20" s="22">
         <v>905</v>
       </c>
-      <c r="P20" s="6" t="s">
+      <c r="P20" s="22" t="s">
         <v>5574</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
+    <row r="21" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="14" t="s">
         <v>245</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="15" t="s">
         <v>246</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="E21" s="1">
+      <c r="E21" s="16">
         <v>9631</v>
       </c>
-      <c r="F21" t="s">
+      <c r="F21" s="15" t="s">
         <v>3</v>
       </c>
       <c r="G21" s="15" t="s">
@@ -18902,45 +18902,45 @@
       <c r="I21" s="15" t="s">
         <v>248</v>
       </c>
-      <c r="J21" s="1">
+      <c r="J21" s="16">
         <v>29013</v>
       </c>
-      <c r="K21" s="1">
+      <c r="K21" s="16">
         <v>30056</v>
       </c>
-      <c r="L21" t="s">
+      <c r="L21" s="15" t="s">
         <v>371</v>
       </c>
-      <c r="M21" t="s">
+      <c r="M21" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="N21" s="8" t="s">
-        <v>247</v>
-      </c>
-      <c r="O21" s="6">
+      <c r="N21" s="19" t="s">
+        <v>247</v>
+      </c>
+      <c r="O21" s="22">
         <v>902</v>
       </c>
-      <c r="P21" t="s">
+      <c r="P21" s="15" t="s">
         <v>5575</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
+    <row r="22" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="14" t="s">
         <v>245</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="15" t="s">
         <v>246</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="15" t="s">
         <v>221</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D22" s="15" t="s">
         <v>195</v>
       </c>
-      <c r="E22" s="1">
+      <c r="E22" s="16">
         <v>7486</v>
       </c>
-      <c r="F22" t="s">
+      <c r="F22" s="15" t="s">
         <v>3</v>
       </c>
       <c r="G22" s="15" t="s">
@@ -18952,45 +18952,45 @@
       <c r="I22" s="15" t="s">
         <v>248</v>
       </c>
-      <c r="J22" s="1">
+      <c r="J22" s="16">
         <v>29495</v>
       </c>
-      <c r="K22" s="1">
+      <c r="K22" s="16">
         <v>30849</v>
       </c>
-      <c r="L22" t="s">
+      <c r="L22" s="15" t="s">
         <v>372</v>
       </c>
-      <c r="M22" t="s">
+      <c r="M22" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="N22" s="8" t="s">
-        <v>247</v>
-      </c>
-      <c r="O22" s="6">
+      <c r="N22" s="19" t="s">
+        <v>247</v>
+      </c>
+      <c r="O22" s="22">
         <v>897</v>
       </c>
-      <c r="P22" s="6" t="s">
+      <c r="P22" s="22" t="s">
         <v>5576</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
+    <row r="23" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="14" t="s">
         <v>245</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="15" t="s">
         <v>246</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="15" t="s">
         <v>126</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D23" s="15" t="s">
         <v>5560</v>
       </c>
-      <c r="E23" s="1">
+      <c r="E23" s="16">
         <v>12446</v>
       </c>
-      <c r="F23" t="s">
+      <c r="F23" s="15" t="s">
         <v>8</v>
       </c>
       <c r="G23" s="15" t="s">
@@ -19002,45 +19002,45 @@
       <c r="I23" s="15" t="s">
         <v>248</v>
       </c>
-      <c r="J23" s="1">
+      <c r="J23" s="16">
         <v>29013</v>
       </c>
-      <c r="K23" s="1">
+      <c r="K23" s="16">
         <v>29753</v>
       </c>
-      <c r="L23" t="s">
+      <c r="L23" s="15" t="s">
         <v>371</v>
       </c>
-      <c r="M23" t="s">
+      <c r="M23" s="15" t="s">
         <v>504</v>
       </c>
-      <c r="N23" s="8">
+      <c r="N23" s="19">
         <v>702648</v>
       </c>
-      <c r="O23" s="6">
+      <c r="O23" s="22">
         <v>870</v>
       </c>
-      <c r="P23" t="s">
+      <c r="P23" s="15" t="s">
         <v>5577</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
+    <row r="24" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="14" t="s">
         <v>245</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="15" t="s">
         <v>246</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="15" t="s">
         <v>160</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D24" s="15" t="s">
         <v>159</v>
       </c>
-      <c r="E24" s="1">
+      <c r="E24" s="16">
         <v>13303</v>
       </c>
-      <c r="F24" t="s">
+      <c r="F24" s="15" t="s">
         <v>3</v>
       </c>
       <c r="G24" s="15" t="s">
@@ -19052,45 +19052,45 @@
       <c r="I24" s="15" t="s">
         <v>248</v>
       </c>
-      <c r="J24" s="1">
+      <c r="J24" s="16">
         <v>29013</v>
       </c>
-      <c r="K24" s="1">
+      <c r="K24" s="16">
         <v>30849</v>
       </c>
-      <c r="L24" t="s">
+      <c r="L24" s="15" t="s">
         <v>372</v>
       </c>
-      <c r="M24" t="s">
+      <c r="M24" s="15" t="s">
         <v>4888</v>
       </c>
-      <c r="N24" s="8" t="s">
-        <v>247</v>
-      </c>
-      <c r="O24" s="6">
+      <c r="N24" s="19" t="s">
+        <v>247</v>
+      </c>
+      <c r="O24" s="22">
         <v>896</v>
       </c>
-      <c r="P24" s="6" t="s">
+      <c r="P24" s="22" t="s">
         <v>5578</v>
       </c>
     </row>
-    <row r="25" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
+    <row r="25" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="14" t="s">
         <v>245</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="15" t="s">
         <v>246</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" s="15" t="s">
         <v>205</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D25" s="15" t="s">
         <v>182</v>
       </c>
       <c r="E25" s="16">
         <v>7645</v>
       </c>
-      <c r="F25" t="s">
+      <c r="F25" s="15" t="s">
         <v>3</v>
       </c>
       <c r="G25" s="15" t="s">
@@ -19102,16 +19102,16 @@
       <c r="I25" s="15" t="s">
         <v>248</v>
       </c>
-      <c r="J25" s="1">
+      <c r="J25" s="16">
         <v>29013</v>
       </c>
-      <c r="K25" s="1">
+      <c r="K25" s="16">
         <v>30849</v>
       </c>
-      <c r="L25" t="s">
+      <c r="L25" s="15" t="s">
         <v>372</v>
       </c>
-      <c r="M25" t="s">
+      <c r="M25" s="15" t="s">
         <v>87</v>
       </c>
       <c r="N25" s="17" t="s">
@@ -19124,23 +19124,23 @@
         <v>5404</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
+    <row r="26" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="14" t="s">
         <v>245</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="15" t="s">
         <v>246</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26" s="15" t="s">
         <v>227</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D26" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="E26" s="1">
+      <c r="E26" s="16">
         <v>7665</v>
       </c>
-      <c r="F26" t="s">
+      <c r="F26" s="15" t="s">
         <v>3</v>
       </c>
       <c r="G26" s="15" t="s">
@@ -19152,45 +19152,45 @@
       <c r="I26" s="15" t="s">
         <v>248</v>
       </c>
-      <c r="J26" s="1">
+      <c r="J26" s="16">
         <v>29495</v>
       </c>
-      <c r="K26" s="1">
+      <c r="K26" s="16">
         <v>29935</v>
       </c>
-      <c r="L26" t="s">
+      <c r="L26" s="15" t="s">
         <v>372</v>
       </c>
-      <c r="M26" t="s">
+      <c r="M26" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="N26" s="8" t="s">
-        <v>247</v>
-      </c>
-      <c r="O26" s="6">
+      <c r="N26" s="19" t="s">
+        <v>247</v>
+      </c>
+      <c r="O26" s="22">
         <v>786</v>
       </c>
-      <c r="P26" s="6" t="s">
+      <c r="P26" s="22" t="s">
         <v>5579</v>
       </c>
     </row>
-    <row r="27" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
+    <row r="27" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="14" t="s">
         <v>245</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="15" t="s">
         <v>246</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27" s="15" t="s">
         <v>5481</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D27" s="15" t="s">
         <v>278</v>
       </c>
-      <c r="E27" s="1">
+      <c r="E27" s="16">
         <v>14462</v>
       </c>
-      <c r="F27" t="s">
+      <c r="F27" s="15" t="s">
         <v>8</v>
       </c>
       <c r="G27" s="15" t="s">
@@ -19202,45 +19202,45 @@
       <c r="I27" s="15" t="s">
         <v>248</v>
       </c>
-      <c r="J27" s="1">
+      <c r="J27" s="16">
         <v>29013</v>
       </c>
-      <c r="K27" s="1">
+      <c r="K27" s="16">
         <v>30849</v>
       </c>
-      <c r="L27" t="s">
+      <c r="L27" s="15" t="s">
         <v>372</v>
       </c>
-      <c r="M27" t="s">
+      <c r="M27" s="15" t="s">
         <v>4888</v>
       </c>
-      <c r="N27" s="11" t="s">
-        <v>247</v>
-      </c>
-      <c r="O27">
+      <c r="N27" s="17" t="s">
+        <v>247</v>
+      </c>
+      <c r="O27" s="15">
         <v>1691</v>
       </c>
-      <c r="P27" t="s">
+      <c r="P27" s="15" t="s">
         <v>5512</v>
       </c>
     </row>
-    <row r="28" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
+    <row r="28" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="14" t="s">
         <v>245</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="15" t="s">
         <v>246</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D28" s="15" t="s">
         <v>51</v>
       </c>
       <c r="E28" s="16">
         <v>10684</v>
       </c>
-      <c r="F28" t="s">
+      <c r="F28" s="15" t="s">
         <v>3</v>
       </c>
       <c r="G28" s="15" t="s">
@@ -19252,16 +19252,16 @@
       <c r="I28" s="15" t="s">
         <v>248</v>
       </c>
-      <c r="J28" s="1">
+      <c r="J28" s="16">
         <v>29013</v>
       </c>
-      <c r="K28" s="1">
+      <c r="K28" s="16">
         <v>29151</v>
       </c>
-      <c r="L28" t="s">
+      <c r="L28" s="15" t="s">
         <v>5043</v>
       </c>
-      <c r="M28" t="s">
+      <c r="M28" s="15" t="s">
         <v>26</v>
       </c>
       <c r="N28" s="17" t="s">
@@ -19274,23 +19274,23 @@
         <v>5405</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
+    <row r="29" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="14" t="s">
         <v>245</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="15" t="s">
         <v>246</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C29" s="15" t="s">
         <v>171</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D29" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="E29" s="1">
+      <c r="E29" s="16">
         <v>4398</v>
       </c>
-      <c r="F29" t="s">
+      <c r="F29" s="15" t="s">
         <v>3</v>
       </c>
       <c r="G29" s="15" t="s">
@@ -19302,45 +19302,45 @@
       <c r="I29" s="15" t="s">
         <v>248</v>
       </c>
-      <c r="J29" s="1">
+      <c r="J29" s="16">
         <v>29013</v>
       </c>
-      <c r="K29" s="1">
+      <c r="K29" s="16">
         <v>29494</v>
       </c>
-      <c r="L29" t="s">
+      <c r="L29" s="15" t="s">
         <v>371</v>
       </c>
-      <c r="M29" t="s">
+      <c r="M29" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="N29" s="8" t="s">
-        <v>247</v>
-      </c>
-      <c r="O29" s="6">
+      <c r="N29" s="19" t="s">
+        <v>247</v>
+      </c>
+      <c r="O29" s="22">
         <v>888</v>
       </c>
-      <c r="P29" s="6" t="s">
+      <c r="P29" s="22" t="s">
         <v>5581</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
+    <row r="30" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="14" t="s">
         <v>245</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="15" t="s">
         <v>246</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C30" s="15" t="s">
         <v>115</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D30" s="15" t="s">
         <v>114</v>
       </c>
-      <c r="E30" s="1">
+      <c r="E30" s="16">
         <v>8046</v>
       </c>
-      <c r="F30" t="s">
+      <c r="F30" s="15" t="s">
         <v>3</v>
       </c>
       <c r="G30" s="15" t="s">
@@ -19352,45 +19352,45 @@
       <c r="I30" s="15" t="s">
         <v>248</v>
       </c>
-      <c r="J30" s="1">
+      <c r="J30" s="16">
         <v>29013</v>
       </c>
-      <c r="K30" s="1">
+      <c r="K30" s="16">
         <v>30849</v>
       </c>
-      <c r="L30" t="s">
+      <c r="L30" s="15" t="s">
         <v>372</v>
       </c>
-      <c r="M30" t="s">
+      <c r="M30" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="N30" s="8" t="s">
-        <v>247</v>
-      </c>
-      <c r="O30" s="6">
+      <c r="N30" s="19" t="s">
+        <v>247</v>
+      </c>
+      <c r="O30" s="22">
         <v>890</v>
       </c>
-      <c r="P30" s="6" t="s">
+      <c r="P30" s="22" t="s">
         <v>5580</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
+    <row r="31" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="14" t="s">
         <v>245</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="15" t="s">
         <v>246</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C31" s="15" t="s">
         <v>175</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D31" s="15" t="s">
         <v>153</v>
       </c>
-      <c r="E31" s="1">
+      <c r="E31" s="16">
         <v>3549</v>
       </c>
-      <c r="F31" t="s">
+      <c r="F31" s="15" t="s">
         <v>3</v>
       </c>
       <c r="G31" s="15" t="s">
@@ -19402,45 +19402,45 @@
       <c r="I31" s="15" t="s">
         <v>248</v>
       </c>
-      <c r="J31" s="1">
+      <c r="J31" s="16">
         <v>29013</v>
       </c>
-      <c r="K31" s="1">
+      <c r="K31" s="16">
         <v>30849</v>
       </c>
-      <c r="L31" t="s">
+      <c r="L31" s="15" t="s">
         <v>372</v>
       </c>
-      <c r="M31" t="s">
+      <c r="M31" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="N31" s="8" t="s">
-        <v>247</v>
-      </c>
-      <c r="O31" s="6">
+      <c r="N31" s="19" t="s">
+        <v>247</v>
+      </c>
+      <c r="O31" s="22">
         <v>884</v>
       </c>
-      <c r="P31" s="6" t="s">
+      <c r="P31" s="22" t="s">
         <v>5582</v>
       </c>
     </row>
-    <row r="32" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
+    <row r="32" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="14" t="s">
         <v>245</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="15" t="s">
         <v>246</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C32" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D32" s="15" t="s">
         <v>50</v>
       </c>
       <c r="E32" s="16">
         <v>8179</v>
       </c>
-      <c r="F32" t="s">
+      <c r="F32" s="15" t="s">
         <v>3</v>
       </c>
       <c r="G32" s="15" t="s">
@@ -19452,16 +19452,16 @@
       <c r="I32" s="15" t="s">
         <v>248</v>
       </c>
-      <c r="J32" s="1">
+      <c r="J32" s="16">
         <v>29013</v>
       </c>
-      <c r="K32" s="1">
+      <c r="K32" s="16">
         <v>30849</v>
       </c>
-      <c r="L32" t="s">
+      <c r="L32" s="15" t="s">
         <v>372</v>
       </c>
-      <c r="M32" t="s">
+      <c r="M32" s="15" t="s">
         <v>26</v>
       </c>
       <c r="N32" s="17" t="s">
@@ -19474,23 +19474,23 @@
         <v>5406</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A33" s="2" t="s">
+    <row r="33" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="14" t="s">
         <v>245</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="15" t="s">
         <v>246</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C33" s="15" t="s">
         <v>148</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D33" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="E33" s="1">
+      <c r="E33" s="16">
         <v>9333</v>
       </c>
-      <c r="F33" t="s">
+      <c r="F33" s="15" t="s">
         <v>3</v>
       </c>
       <c r="G33" s="15" t="s">
@@ -19502,45 +19502,45 @@
       <c r="I33" s="15" t="s">
         <v>248</v>
       </c>
-      <c r="J33" s="1">
+      <c r="J33" s="16">
         <v>29013</v>
       </c>
-      <c r="K33" s="1">
+      <c r="K33" s="16">
         <v>29753</v>
       </c>
-      <c r="L33" t="s">
+      <c r="L33" s="15" t="s">
         <v>371</v>
       </c>
-      <c r="M33" t="s">
+      <c r="M33" s="15" t="s">
         <v>504</v>
       </c>
-      <c r="N33" s="8" t="s">
-        <v>247</v>
-      </c>
-      <c r="O33" s="6">
+      <c r="N33" s="19" t="s">
+        <v>247</v>
+      </c>
+      <c r="O33" s="22">
         <v>885</v>
       </c>
-      <c r="P33" s="6" t="s">
+      <c r="P33" s="22" t="s">
         <v>5583</v>
       </c>
     </row>
-    <row r="34" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="2" t="s">
+    <row r="34" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="14" t="s">
         <v>245</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="15" t="s">
         <v>246</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C34" s="15" t="s">
         <v>225</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D34" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="E34" s="1">
+      <c r="E34" s="16">
         <v>10532</v>
       </c>
-      <c r="F34" t="s">
+      <c r="F34" s="15" t="s">
         <v>3</v>
       </c>
       <c r="G34" s="15" t="s">
@@ -19552,45 +19552,45 @@
       <c r="I34" s="15" t="s">
         <v>248</v>
       </c>
-      <c r="J34" s="1">
+      <c r="J34" s="16">
         <v>29847</v>
       </c>
-      <c r="K34" s="1">
+      <c r="K34" s="16">
         <v>30420</v>
       </c>
-      <c r="L34" t="s">
+      <c r="L34" s="15" t="s">
         <v>371</v>
       </c>
-      <c r="M34" t="s">
+      <c r="M34" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="N34" s="11" t="s">
-        <v>247</v>
-      </c>
-      <c r="O34">
+      <c r="N34" s="17" t="s">
+        <v>247</v>
+      </c>
+      <c r="O34" s="15">
         <v>1747</v>
       </c>
-      <c r="P34" t="s">
+      <c r="P34" s="15" t="s">
         <v>5513</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A35" s="2" t="s">
+    <row r="35" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="14" t="s">
         <v>245</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="15" t="s">
         <v>246</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C35" s="15" t="s">
         <v>169</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D35" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="E35" s="1">
+      <c r="E35" s="16">
         <v>8181</v>
       </c>
-      <c r="F35" t="s">
+      <c r="F35" s="15" t="s">
         <v>3</v>
       </c>
       <c r="G35" s="15" t="s">
@@ -19602,45 +19602,45 @@
       <c r="I35" s="15" t="s">
         <v>248</v>
       </c>
-      <c r="J35" s="1">
+      <c r="J35" s="16">
         <v>29013</v>
       </c>
-      <c r="K35" s="1">
+      <c r="K35" s="16">
         <v>30849</v>
       </c>
-      <c r="L35" t="s">
+      <c r="L35" s="15" t="s">
         <v>372</v>
       </c>
-      <c r="M35" t="s">
+      <c r="M35" s="15" t="s">
         <v>4888</v>
       </c>
-      <c r="N35" s="8" t="s">
-        <v>247</v>
-      </c>
-      <c r="O35" s="6">
+      <c r="N35" s="19" t="s">
+        <v>247</v>
+      </c>
+      <c r="O35" s="22">
         <v>887</v>
       </c>
-      <c r="P35" s="6" t="s">
+      <c r="P35" s="22" t="s">
         <v>5584</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A36" s="2" t="s">
+    <row r="36" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="14" t="s">
         <v>245</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" s="15" t="s">
         <v>246</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C36" s="15" t="s">
         <v>208</v>
       </c>
-      <c r="D36" t="s">
+      <c r="D36" s="15" t="s">
         <v>190</v>
       </c>
-      <c r="E36" s="1">
+      <c r="E36" s="16">
         <v>10808</v>
       </c>
-      <c r="F36" t="s">
+      <c r="F36" s="15" t="s">
         <v>8</v>
       </c>
       <c r="G36" s="15" t="s">
@@ -19652,45 +19652,45 @@
       <c r="I36" s="15" t="s">
         <v>248</v>
       </c>
-      <c r="J36" s="1">
+      <c r="J36" s="16">
         <v>29840</v>
       </c>
-      <c r="K36" s="1">
+      <c r="K36" s="16">
         <v>30849</v>
       </c>
-      <c r="L36" t="s">
+      <c r="L36" s="15" t="s">
         <v>372</v>
       </c>
-      <c r="M36" t="s">
+      <c r="M36" s="15" t="s">
         <v>504</v>
       </c>
-      <c r="N36" s="8" t="s">
-        <v>247</v>
-      </c>
-      <c r="O36" s="6">
+      <c r="N36" s="19" t="s">
+        <v>247</v>
+      </c>
+      <c r="O36" s="22">
         <v>873</v>
       </c>
-      <c r="P36" s="6" t="s">
+      <c r="P36" s="22" t="s">
         <v>5585</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A37" s="2" t="s">
+    <row r="37" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="14" t="s">
         <v>245</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" s="15" t="s">
         <v>246</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C37" s="15" t="s">
         <v>177</v>
       </c>
-      <c r="D37" t="s">
+      <c r="D37" s="15" t="s">
         <v>176</v>
       </c>
-      <c r="E37" s="1">
+      <c r="E37" s="16">
         <v>5207</v>
       </c>
-      <c r="F37" t="s">
+      <c r="F37" s="15" t="s">
         <v>8</v>
       </c>
       <c r="G37" s="15" t="s">
@@ -19702,45 +19702,45 @@
       <c r="I37" s="15" t="s">
         <v>248</v>
       </c>
-      <c r="J37" s="1">
+      <c r="J37" s="16">
         <v>29013</v>
       </c>
-      <c r="K37" s="1">
+      <c r="K37" s="16">
         <v>29494</v>
       </c>
-      <c r="L37" t="s">
+      <c r="L37" s="15" t="s">
         <v>371</v>
       </c>
-      <c r="M37" t="s">
+      <c r="M37" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="N37" s="8" t="s">
-        <v>247</v>
-      </c>
-      <c r="O37" s="6">
+      <c r="N37" s="19" t="s">
+        <v>247</v>
+      </c>
+      <c r="O37" s="22">
         <v>864</v>
       </c>
-      <c r="P37" t="s">
+      <c r="P37" s="15" t="s">
         <v>5586</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A38" s="2" t="s">
+    <row r="38" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="14" t="s">
         <v>245</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" s="15" t="s">
         <v>246</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C38" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="D38" t="s">
+      <c r="D38" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="E38" s="1">
+      <c r="E38" s="16">
         <v>7070</v>
       </c>
-      <c r="F38" t="s">
+      <c r="F38" s="15" t="s">
         <v>3</v>
       </c>
       <c r="G38" s="15" t="s">
@@ -19752,45 +19752,45 @@
       <c r="I38" s="15" t="s">
         <v>248</v>
       </c>
-      <c r="J38" s="1">
+      <c r="J38" s="16">
         <v>29013</v>
       </c>
-      <c r="K38" s="1">
+      <c r="K38" s="16">
         <v>30849</v>
       </c>
-      <c r="L38" t="s">
+      <c r="L38" s="15" t="s">
         <v>372</v>
       </c>
-      <c r="M38" t="s">
+      <c r="M38" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="N38" s="8" t="s">
-        <v>247</v>
-      </c>
-      <c r="O38" s="6">
+      <c r="N38" s="19" t="s">
+        <v>247</v>
+      </c>
+      <c r="O38" s="22">
         <v>880</v>
       </c>
-      <c r="P38" s="6" t="s">
+      <c r="P38" s="22" t="s">
         <v>5587</v>
       </c>
     </row>
-    <row r="39" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="2" t="s">
+    <row r="39" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="14" t="s">
         <v>245</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" s="15" t="s">
         <v>246</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C39" s="15" t="s">
         <v>119</v>
       </c>
-      <c r="D39" t="s">
+      <c r="D39" s="15" t="s">
         <v>118</v>
       </c>
-      <c r="E39" s="1">
+      <c r="E39" s="16">
         <v>8207</v>
       </c>
-      <c r="F39" t="s">
+      <c r="F39" s="15" t="s">
         <v>3</v>
       </c>
       <c r="G39" s="15" t="s">
@@ -19802,45 +19802,45 @@
       <c r="I39" s="15" t="s">
         <v>248</v>
       </c>
-      <c r="J39" s="1">
+      <c r="J39" s="16">
         <v>29013</v>
       </c>
-      <c r="K39" s="1">
+      <c r="K39" s="16">
         <v>30849</v>
       </c>
-      <c r="L39" t="s">
+      <c r="L39" s="15" t="s">
         <v>372</v>
       </c>
-      <c r="M39" t="s">
+      <c r="M39" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="N39" s="11" t="s">
-        <v>247</v>
-      </c>
-      <c r="O39">
+      <c r="N39" s="17" t="s">
+        <v>247</v>
+      </c>
+      <c r="O39" s="15">
         <v>1700</v>
       </c>
-      <c r="P39" t="s">
+      <c r="P39" s="15" t="s">
         <v>5516</v>
       </c>
     </row>
-    <row r="40" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="2" t="s">
+    <row r="40" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="14" t="s">
         <v>245</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" s="15" t="s">
         <v>246</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C40" s="15" t="s">
         <v>5486</v>
       </c>
-      <c r="D40" t="s">
+      <c r="D40" s="15" t="s">
         <v>290</v>
       </c>
-      <c r="E40" s="1">
+      <c r="E40" s="16">
         <v>6792</v>
       </c>
-      <c r="F40" t="s">
+      <c r="F40" s="15" t="s">
         <v>3</v>
       </c>
       <c r="G40" s="15" t="s">
@@ -19852,45 +19852,45 @@
       <c r="I40" s="15" t="s">
         <v>248</v>
       </c>
-      <c r="J40" s="1">
+      <c r="J40" s="16">
         <v>29013</v>
       </c>
-      <c r="K40" s="1">
+      <c r="K40" s="16">
         <v>30849</v>
       </c>
-      <c r="L40" t="s">
+      <c r="L40" s="15" t="s">
         <v>372</v>
       </c>
-      <c r="M40" t="s">
+      <c r="M40" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="N40" s="11" t="s">
-        <v>247</v>
-      </c>
-      <c r="O40">
+      <c r="N40" s="17" t="s">
+        <v>247</v>
+      </c>
+      <c r="O40" s="15">
         <v>1569</v>
       </c>
-      <c r="P40" t="s">
+      <c r="P40" s="15" t="s">
         <v>5517</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A41" s="2" t="s">
+    <row r="41" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="14" t="s">
         <v>245</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41" s="15" t="s">
         <v>246</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C41" s="15" t="s">
         <v>235</v>
       </c>
-      <c r="D41" t="s">
+      <c r="D41" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="E41" s="1">
+      <c r="E41" s="16">
         <v>5212</v>
       </c>
-      <c r="F41" t="s">
+      <c r="F41" s="15" t="s">
         <v>3</v>
       </c>
       <c r="G41" s="15" t="s">
@@ -19902,45 +19902,45 @@
       <c r="I41" s="15" t="s">
         <v>248</v>
       </c>
-      <c r="J41" s="1">
-        <v>29399</v>
-      </c>
-      <c r="K41" s="1">
+      <c r="J41" s="16">
+        <v>29400</v>
+      </c>
+      <c r="K41" s="16">
         <v>29755</v>
       </c>
-      <c r="L41" t="s">
+      <c r="L41" s="15" t="s">
         <v>371</v>
       </c>
-      <c r="M41" t="s">
+      <c r="M41" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="N41" s="8" t="s">
-        <v>247</v>
-      </c>
-      <c r="O41" s="6">
+      <c r="N41" s="19" t="s">
+        <v>247</v>
+      </c>
+      <c r="O41" s="22">
         <v>882</v>
       </c>
-      <c r="P41" s="6" t="s">
+      <c r="P41" s="22" t="s">
         <v>5588</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A42" s="2" t="s">
+    <row r="42" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="14" t="s">
         <v>245</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B42" s="15" t="s">
         <v>246</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C42" s="15" t="s">
         <v>178</v>
       </c>
-      <c r="D42" t="s">
+      <c r="D42" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="E42" s="1">
+      <c r="E42" s="16">
         <v>6688</v>
       </c>
-      <c r="F42" t="s">
+      <c r="F42" s="15" t="s">
         <v>3</v>
       </c>
       <c r="G42" s="15" t="s">
@@ -19952,45 +19952,45 @@
       <c r="I42" s="15" t="s">
         <v>248</v>
       </c>
-      <c r="J42" s="1">
+      <c r="J42" s="16">
         <v>29013</v>
       </c>
-      <c r="K42" s="1">
+      <c r="K42" s="16">
         <v>29392</v>
       </c>
-      <c r="L42" t="s">
+      <c r="L42" s="15" t="s">
         <v>371</v>
       </c>
-      <c r="M42" t="s">
+      <c r="M42" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="N42" s="8" t="s">
-        <v>247</v>
-      </c>
-      <c r="O42" s="6">
+      <c r="N42" s="19" t="s">
+        <v>247</v>
+      </c>
+      <c r="O42" s="22">
         <v>874</v>
       </c>
-      <c r="P42" s="6" t="s">
+      <c r="P42" s="22" t="s">
         <v>5589</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A43" s="2" t="s">
+    <row r="43" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="14" t="s">
         <v>245</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43" s="15" t="s">
         <v>246</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C43" s="15" t="s">
         <v>217</v>
       </c>
-      <c r="D43" t="s">
+      <c r="D43" s="15" t="s">
         <v>193</v>
       </c>
-      <c r="E43" s="1">
+      <c r="E43" s="16">
         <v>10118</v>
       </c>
-      <c r="F43" t="s">
+      <c r="F43" s="15" t="s">
         <v>8</v>
       </c>
       <c r="G43" s="15" t="s">
@@ -20002,45 +20002,45 @@
       <c r="I43" s="15" t="s">
         <v>248</v>
       </c>
-      <c r="J43" s="1">
-        <v>29526</v>
-      </c>
-      <c r="K43" s="1">
+      <c r="J43" s="16">
+        <v>29891</v>
+      </c>
+      <c r="K43" s="16">
         <v>30849</v>
       </c>
-      <c r="L43" t="s">
+      <c r="L43" s="15" t="s">
         <v>372</v>
       </c>
-      <c r="M43" t="s">
+      <c r="M43" s="15" t="s">
         <v>504</v>
       </c>
-      <c r="N43" s="8" t="s">
-        <v>247</v>
-      </c>
-      <c r="O43" s="6">
+      <c r="N43" s="19" t="s">
+        <v>247</v>
+      </c>
+      <c r="O43" s="22">
         <v>865</v>
       </c>
-      <c r="P43" s="6" t="s">
+      <c r="P43" s="22" t="s">
         <v>5590</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A44" s="2" t="s">
+    <row r="44" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="14" t="s">
         <v>245</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B44" s="15" t="s">
         <v>246</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C44" s="15" t="s">
         <v>144</v>
       </c>
-      <c r="D44" t="s">
+      <c r="D44" s="15" t="s">
         <v>143</v>
       </c>
-      <c r="E44" s="1">
+      <c r="E44" s="16">
         <v>3099</v>
       </c>
-      <c r="F44" t="s">
+      <c r="F44" s="15" t="s">
         <v>3</v>
       </c>
       <c r="G44" s="15" t="s">
@@ -20052,45 +20052,45 @@
       <c r="I44" s="15" t="s">
         <v>248</v>
       </c>
-      <c r="J44" s="1">
+      <c r="J44" s="16">
         <v>29013</v>
       </c>
-      <c r="K44" s="1">
+      <c r="K44" s="16">
         <v>29829</v>
       </c>
-      <c r="L44" t="s">
+      <c r="L44" s="15" t="s">
         <v>371</v>
       </c>
-      <c r="M44" t="s">
+      <c r="M44" s="15" t="s">
         <v>504</v>
       </c>
-      <c r="N44" s="8" t="s">
-        <v>247</v>
-      </c>
-      <c r="O44" s="6">
+      <c r="N44" s="19" t="s">
+        <v>247</v>
+      </c>
+      <c r="O44" s="22">
         <v>876</v>
       </c>
-      <c r="P44" s="6" t="s">
+      <c r="P44" s="22" t="s">
         <v>5591</v>
       </c>
     </row>
-    <row r="45" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="2" t="s">
+    <row r="45" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="14" t="s">
         <v>245</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B45" s="15" t="s">
         <v>246</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C45" s="15" t="s">
         <v>218</v>
       </c>
-      <c r="D45" t="s">
+      <c r="D45" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="E45" s="1">
+      <c r="E45" s="16">
         <v>8174</v>
       </c>
-      <c r="F45" t="s">
+      <c r="F45" s="15" t="s">
         <v>3</v>
       </c>
       <c r="G45" s="15" t="s">
@@ -20102,45 +20102,45 @@
       <c r="I45" s="15" t="s">
         <v>248</v>
       </c>
-      <c r="J45" s="1">
+      <c r="J45" s="16">
         <v>29844</v>
       </c>
-      <c r="K45" s="1">
+      <c r="K45" s="16">
         <v>30849</v>
       </c>
-      <c r="L45" t="s">
+      <c r="L45" s="15" t="s">
         <v>372</v>
       </c>
-      <c r="M45" t="s">
+      <c r="M45" s="15" t="s">
         <v>504</v>
       </c>
-      <c r="N45" s="11" t="s">
-        <v>247</v>
-      </c>
-      <c r="O45">
+      <c r="N45" s="17" t="s">
+        <v>247</v>
+      </c>
+      <c r="O45" s="15">
         <v>1679</v>
       </c>
-      <c r="P45" t="s">
+      <c r="P45" s="15" t="s">
         <v>5519</v>
       </c>
     </row>
-    <row r="46" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="2" t="s">
+    <row r="46" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="14" t="s">
         <v>245</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B46" s="15" t="s">
         <v>246</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C46" s="15" t="s">
         <v>206</v>
       </c>
-      <c r="D46" t="s">
+      <c r="D46" s="15" t="s">
         <v>188</v>
       </c>
-      <c r="E46" s="1">
+      <c r="E46" s="16">
         <v>11205</v>
       </c>
-      <c r="F46" t="s">
+      <c r="F46" s="15" t="s">
         <v>3</v>
       </c>
       <c r="G46" s="15" t="s">
@@ -20152,45 +20152,45 @@
       <c r="I46" s="15" t="s">
         <v>248</v>
       </c>
-      <c r="J46" s="1">
+      <c r="J46" s="16">
         <v>29754</v>
       </c>
-      <c r="K46" s="1">
+      <c r="K46" s="16">
         <v>30849</v>
       </c>
-      <c r="L46" t="s">
+      <c r="L46" s="15" t="s">
         <v>372</v>
       </c>
-      <c r="M46" t="s">
+      <c r="M46" s="15" t="s">
         <v>504</v>
       </c>
-      <c r="N46" s="11" t="s">
-        <v>247</v>
-      </c>
-      <c r="O46">
+      <c r="N46" s="17" t="s">
+        <v>247</v>
+      </c>
+      <c r="O46" s="15">
         <v>1803</v>
       </c>
-      <c r="P46" t="s">
+      <c r="P46" s="15" t="s">
         <v>5520</v>
       </c>
     </row>
-    <row r="47" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="2" t="s">
+    <row r="47" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="14" t="s">
         <v>245</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B47" s="15" t="s">
         <v>246</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C47" s="15" t="s">
         <v>243</v>
       </c>
-      <c r="D47" t="s">
+      <c r="D47" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="E47" s="1">
+      <c r="E47" s="16">
         <v>10318</v>
       </c>
-      <c r="F47" t="s">
+      <c r="F47" s="15" t="s">
         <v>3</v>
       </c>
       <c r="G47" s="15" t="s">
@@ -20202,45 +20202,45 @@
       <c r="I47" s="15" t="s">
         <v>248</v>
       </c>
-      <c r="J47" s="1">
+      <c r="J47" s="16">
         <v>29393</v>
       </c>
-      <c r="K47" s="1">
+      <c r="K47" s="16">
         <v>30057</v>
       </c>
-      <c r="L47" t="s">
+      <c r="L47" s="15" t="s">
         <v>371</v>
       </c>
-      <c r="M47" t="s">
+      <c r="M47" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="N47" s="11" t="s">
-        <v>247</v>
-      </c>
-      <c r="O47">
+      <c r="N47" s="17" t="s">
+        <v>247</v>
+      </c>
+      <c r="O47" s="15">
         <v>433</v>
       </c>
-      <c r="P47" t="s">
+      <c r="P47" s="15" t="s">
         <v>5521</v>
       </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A48" s="2" t="s">
+    <row r="48" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="14" t="s">
         <v>245</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B48" s="15" t="s">
         <v>246</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C48" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="D48" t="s">
+      <c r="D48" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="E48" s="1">
+      <c r="E48" s="16">
         <v>3153</v>
       </c>
-      <c r="F48" t="s">
+      <c r="F48" s="15" t="s">
         <v>3</v>
       </c>
       <c r="G48" s="15" t="s">
@@ -20252,45 +20252,45 @@
       <c r="I48" s="15" t="s">
         <v>248</v>
       </c>
-      <c r="J48" s="1">
+      <c r="J48" s="16">
         <v>29013</v>
       </c>
-      <c r="K48" s="1">
+      <c r="K48" s="16">
         <v>30849</v>
       </c>
-      <c r="L48" t="s">
+      <c r="L48" s="15" t="s">
         <v>372</v>
       </c>
-      <c r="M48" t="s">
+      <c r="M48" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="N48" s="8" t="s">
-        <v>247</v>
-      </c>
-      <c r="O48" s="6">
+      <c r="N48" s="19" t="s">
+        <v>247</v>
+      </c>
+      <c r="O48" s="22">
         <v>868</v>
       </c>
-      <c r="P48" s="6" t="s">
+      <c r="P48" s="22" t="s">
         <v>5592</v>
       </c>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A49" s="2" t="s">
+    <row r="49" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="14" t="s">
         <v>245</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B49" s="15" t="s">
         <v>246</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C49" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="D49" t="s">
+      <c r="D49" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="E49" s="1">
+      <c r="E49" s="16">
         <v>8038</v>
       </c>
-      <c r="F49" t="s">
+      <c r="F49" s="15" t="s">
         <v>3</v>
       </c>
       <c r="G49" s="15" t="s">
@@ -20302,45 +20302,45 @@
       <c r="I49" s="15" t="s">
         <v>248</v>
       </c>
-      <c r="J49" s="1">
+      <c r="J49" s="16">
         <v>29013</v>
       </c>
-      <c r="K49" s="1">
+      <c r="K49" s="16">
         <v>29741</v>
       </c>
-      <c r="L49" t="s">
+      <c r="L49" s="15" t="s">
         <v>371</v>
       </c>
-      <c r="M49" t="s">
+      <c r="M49" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="N49" s="8" t="s">
-        <v>247</v>
-      </c>
-      <c r="O49" s="6">
+      <c r="N49" s="19" t="s">
+        <v>247</v>
+      </c>
+      <c r="O49" s="22">
         <v>853</v>
       </c>
-      <c r="P49" s="6" t="s">
+      <c r="P49" s="22" t="s">
         <v>5593</v>
       </c>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A50" s="2" t="s">
+    <row r="50" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="14" t="s">
         <v>245</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B50" s="15" t="s">
         <v>246</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C50" s="15" t="s">
         <v>168</v>
       </c>
-      <c r="D50" t="s">
+      <c r="D50" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="E50" s="1">
+      <c r="E50" s="16">
         <v>15643</v>
       </c>
-      <c r="F50" t="s">
+      <c r="F50" s="15" t="s">
         <v>3</v>
       </c>
       <c r="G50" s="15" t="s">
@@ -20352,45 +20352,45 @@
       <c r="I50" s="15" t="s">
         <v>248</v>
       </c>
-      <c r="J50" s="1">
+      <c r="J50" s="16">
         <v>29013</v>
       </c>
-      <c r="K50" s="1">
+      <c r="K50" s="16">
         <v>30849</v>
       </c>
-      <c r="L50" t="s">
+      <c r="L50" s="15" t="s">
         <v>372</v>
       </c>
-      <c r="M50" t="s">
+      <c r="M50" s="15" t="s">
         <v>4888</v>
       </c>
-      <c r="N50" s="8" t="s">
-        <v>247</v>
-      </c>
-      <c r="O50" s="6">
+      <c r="N50" s="19" t="s">
+        <v>247</v>
+      </c>
+      <c r="O50" s="22">
         <v>866</v>
       </c>
-      <c r="P50" s="6" t="s">
+      <c r="P50" s="22" t="s">
         <v>5594</v>
       </c>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A51" s="2" t="s">
+    <row r="51" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="14" t="s">
         <v>245</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B51" s="15" t="s">
         <v>246</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C51" s="15" t="s">
         <v>207</v>
       </c>
-      <c r="D51" t="s">
+      <c r="D51" s="15" t="s">
         <v>189</v>
       </c>
-      <c r="E51" s="1">
+      <c r="E51" s="16">
         <v>15121</v>
       </c>
-      <c r="F51" t="s">
+      <c r="F51" s="15" t="s">
         <v>3</v>
       </c>
       <c r="G51" s="15" t="s">
@@ -20402,45 +20402,45 @@
       <c r="I51" s="15" t="s">
         <v>248</v>
       </c>
-      <c r="J51" s="1">
+      <c r="J51" s="16">
         <v>29754</v>
       </c>
-      <c r="K51" s="1">
+      <c r="K51" s="16">
         <v>29839</v>
       </c>
-      <c r="L51" t="s">
+      <c r="L51" s="15" t="s">
         <v>371</v>
       </c>
-      <c r="M51" t="s">
+      <c r="M51" s="15" t="s">
         <v>504</v>
       </c>
-      <c r="N51" s="8" t="s">
-        <v>247</v>
-      </c>
-      <c r="O51" s="6">
+      <c r="N51" s="19" t="s">
+        <v>247</v>
+      </c>
+      <c r="O51" s="22">
         <v>854</v>
       </c>
-      <c r="P51" t="s">
+      <c r="P51" s="15" t="s">
         <v>5595</v>
       </c>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A52" s="2" t="s">
+    <row r="52" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="14" t="s">
         <v>245</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B52" s="15" t="s">
         <v>246</v>
       </c>
-      <c r="C52" t="s">
+      <c r="C52" s="15" t="s">
         <v>224</v>
       </c>
-      <c r="D52" t="s">
+      <c r="D52" s="15" t="s">
         <v>176</v>
       </c>
-      <c r="E52" s="1">
+      <c r="E52" s="16">
         <v>3600</v>
       </c>
-      <c r="F52" t="s">
+      <c r="F52" s="15" t="s">
         <v>8</v>
       </c>
       <c r="G52" s="15" t="s">
@@ -20452,45 +20452,45 @@
       <c r="I52" s="15" t="s">
         <v>248</v>
       </c>
-      <c r="J52" s="1">
+      <c r="J52" s="16">
         <v>29495</v>
       </c>
-      <c r="K52" s="1">
+      <c r="K52" s="16">
         <v>29846</v>
       </c>
-      <c r="L52" t="s">
+      <c r="L52" s="15" t="s">
         <v>371</v>
       </c>
-      <c r="M52" t="s">
+      <c r="M52" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="N52" s="8" t="s">
-        <v>247</v>
-      </c>
-      <c r="O52" s="6">
+      <c r="N52" s="19" t="s">
+        <v>247</v>
+      </c>
+      <c r="O52" s="22">
         <v>828</v>
       </c>
-      <c r="P52" s="6" t="s">
+      <c r="P52" s="22" t="s">
         <v>5596</v>
       </c>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A53" s="2" t="s">
+    <row r="53" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="14" t="s">
         <v>245</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B53" s="15" t="s">
         <v>246</v>
       </c>
-      <c r="C53" t="s">
+      <c r="C53" s="15" t="s">
         <v>163</v>
       </c>
-      <c r="D53" t="s">
+      <c r="D53" s="15" t="s">
         <v>118</v>
       </c>
-      <c r="E53" s="1">
+      <c r="E53" s="16">
         <v>7157</v>
       </c>
-      <c r="F53" t="s">
+      <c r="F53" s="15" t="s">
         <v>3</v>
       </c>
       <c r="G53" s="15" t="s">
@@ -20502,33 +20502,33 @@
       <c r="I53" s="15" t="s">
         <v>248</v>
       </c>
-      <c r="J53" s="1">
+      <c r="J53" s="16">
         <v>29013</v>
       </c>
-      <c r="K53" s="1">
+      <c r="K53" s="16">
         <v>30849</v>
       </c>
-      <c r="L53" t="s">
+      <c r="L53" s="15" t="s">
         <v>372</v>
       </c>
-      <c r="M53" t="s">
+      <c r="M53" s="15" t="s">
         <v>4888</v>
       </c>
-      <c r="N53" s="8" t="s">
-        <v>247</v>
-      </c>
-      <c r="O53" s="6">
+      <c r="N53" s="19" t="s">
+        <v>247</v>
+      </c>
+      <c r="O53" s="22">
         <v>858</v>
       </c>
-      <c r="P53" t="s">
+      <c r="P53" s="15" t="s">
         <v>5597</v>
       </c>
     </row>
-    <row r="54" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="2" t="s">
+    <row r="54" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="14" t="s">
         <v>245</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B54" s="15" t="s">
         <v>246</v>
       </c>
       <c r="C54" s="15" t="s">
@@ -20540,7 +20540,7 @@
       <c r="E54" s="16">
         <v>14749</v>
       </c>
-      <c r="F54" t="s">
+      <c r="F54" s="15" t="s">
         <v>3</v>
       </c>
       <c r="G54" s="15" t="s">
@@ -20552,16 +20552,16 @@
       <c r="I54" s="15" t="s">
         <v>248</v>
       </c>
-      <c r="J54" s="1">
+      <c r="J54" s="16">
         <v>29754</v>
       </c>
-      <c r="K54" s="1">
+      <c r="K54" s="16">
         <v>30849</v>
       </c>
-      <c r="L54" t="s">
+      <c r="L54" s="15" t="s">
         <v>372</v>
       </c>
-      <c r="M54" t="s">
+      <c r="M54" s="15" t="s">
         <v>504</v>
       </c>
       <c r="N54" s="17">
@@ -20574,23 +20574,23 @@
         <v>5410</v>
       </c>
     </row>
-    <row r="55" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="2" t="s">
+    <row r="55" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="14" t="s">
         <v>245</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B55" s="15" t="s">
         <v>246</v>
       </c>
-      <c r="C55" t="s">
+      <c r="C55" s="15" t="s">
         <v>124</v>
       </c>
-      <c r="D55" t="s">
+      <c r="D55" s="15" t="s">
         <v>123</v>
       </c>
-      <c r="E55" s="1">
+      <c r="E55" s="16">
         <v>8461</v>
       </c>
-      <c r="F55" t="s">
+      <c r="F55" s="15" t="s">
         <v>8</v>
       </c>
       <c r="G55" s="15" t="s">
@@ -20602,45 +20602,45 @@
       <c r="I55" s="15" t="s">
         <v>248</v>
       </c>
-      <c r="J55" s="1">
+      <c r="J55" s="16">
         <v>29013</v>
       </c>
-      <c r="K55" s="1">
+      <c r="K55" s="16">
         <v>30849</v>
       </c>
-      <c r="L55" t="s">
+      <c r="L55" s="15" t="s">
         <v>372</v>
       </c>
-      <c r="M55" t="s">
+      <c r="M55" s="15" t="s">
         <v>504</v>
       </c>
-      <c r="N55" s="11" t="s">
-        <v>247</v>
-      </c>
-      <c r="O55">
+      <c r="N55" s="17" t="s">
+        <v>247</v>
+      </c>
+      <c r="O55" s="15">
         <v>1659</v>
       </c>
-      <c r="P55" t="s">
+      <c r="P55" s="15" t="s">
         <v>5524</v>
       </c>
     </row>
-    <row r="56" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="2" t="s">
+    <row r="56" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="14" t="s">
         <v>245</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B56" s="15" t="s">
         <v>246</v>
       </c>
-      <c r="C56" t="s">
+      <c r="C56" s="15" t="s">
         <v>116</v>
       </c>
-      <c r="D56" t="s">
+      <c r="D56" s="15" t="s">
         <v>69</v>
       </c>
       <c r="E56" s="16">
         <v>19477</v>
       </c>
-      <c r="F56" t="s">
+      <c r="F56" s="15" t="s">
         <v>3</v>
       </c>
       <c r="G56" s="15" t="s">
@@ -20652,16 +20652,16 @@
       <c r="I56" s="15" t="s">
         <v>248</v>
       </c>
-      <c r="J56" s="1">
+      <c r="J56" s="16">
         <v>29013</v>
       </c>
-      <c r="K56" s="1">
+      <c r="K56" s="16">
         <v>30849</v>
       </c>
-      <c r="L56" t="s">
+      <c r="L56" s="15" t="s">
         <v>372</v>
       </c>
-      <c r="M56" t="s">
+      <c r="M56" s="15" t="s">
         <v>26</v>
       </c>
       <c r="N56" s="17">
@@ -20674,23 +20674,23 @@
         <v>5198</v>
       </c>
     </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A57" s="2" t="s">
+    <row r="57" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="14" t="s">
         <v>245</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B57" s="15" t="s">
         <v>246</v>
       </c>
-      <c r="C57" t="s">
+      <c r="C57" s="15" t="s">
         <v>135</v>
       </c>
-      <c r="D57" t="s">
+      <c r="D57" s="15" t="s">
         <v>134</v>
       </c>
-      <c r="E57" s="1">
+      <c r="E57" s="16">
         <v>16624</v>
       </c>
-      <c r="F57" t="s">
+      <c r="F57" s="15" t="s">
         <v>8</v>
       </c>
       <c r="G57" s="15" t="s">
@@ -20702,45 +20702,45 @@
       <c r="I57" s="15" t="s">
         <v>248</v>
       </c>
-      <c r="J57" s="1">
+      <c r="J57" s="16">
         <v>29013</v>
       </c>
-      <c r="K57" s="1">
+      <c r="K57" s="16">
         <v>29829</v>
       </c>
-      <c r="L57" t="s">
+      <c r="L57" s="15" t="s">
         <v>371</v>
       </c>
-      <c r="M57" t="s">
+      <c r="M57" s="15" t="s">
         <v>504</v>
       </c>
-      <c r="N57" s="8" t="s">
-        <v>247</v>
-      </c>
-      <c r="O57" s="6">
+      <c r="N57" s="19" t="s">
+        <v>247</v>
+      </c>
+      <c r="O57" s="22">
         <v>820</v>
       </c>
-      <c r="P57" t="s">
+      <c r="P57" s="15" t="s">
         <v>5598</v>
       </c>
     </row>
-    <row r="58" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="2" t="s">
+    <row r="58" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="14" t="s">
         <v>245</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B58" s="15" t="s">
         <v>246</v>
       </c>
-      <c r="C58" t="s">
+      <c r="C58" s="15" t="s">
         <v>233</v>
       </c>
-      <c r="D58" t="s">
+      <c r="D58" s="15" t="s">
         <v>188</v>
       </c>
-      <c r="E58" s="1">
+      <c r="E58" s="16">
         <v>12758</v>
       </c>
-      <c r="F58" t="s">
+      <c r="F58" s="15" t="s">
         <v>3</v>
       </c>
       <c r="G58" s="15" t="s">
@@ -20752,45 +20752,45 @@
       <c r="I58" s="15" t="s">
         <v>248</v>
       </c>
-      <c r="J58" s="1">
+      <c r="J58" s="16">
         <v>30329</v>
       </c>
-      <c r="K58" s="1">
+      <c r="K58" s="16">
         <v>30849</v>
       </c>
-      <c r="L58" t="s">
+      <c r="L58" s="15" t="s">
         <v>372</v>
       </c>
-      <c r="M58" t="s">
+      <c r="M58" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="N58" s="11" t="s">
-        <v>247</v>
-      </c>
-      <c r="O58">
+      <c r="N58" s="17" t="s">
+        <v>247</v>
+      </c>
+      <c r="O58" s="15">
         <v>1650</v>
       </c>
-      <c r="P58" t="s">
+      <c r="P58" s="15" t="s">
         <v>5526</v>
       </c>
     </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A59" s="2" t="s">
+    <row r="59" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="14" t="s">
         <v>245</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B59" s="15" t="s">
         <v>246</v>
       </c>
-      <c r="C59" t="s">
+      <c r="C59" s="15" t="s">
         <v>223</v>
       </c>
-      <c r="D59" t="s">
+      <c r="D59" s="15" t="s">
         <v>196</v>
       </c>
-      <c r="E59" s="1">
+      <c r="E59" s="16">
         <v>4069</v>
       </c>
-      <c r="F59" t="s">
+      <c r="F59" s="15" t="s">
         <v>3</v>
       </c>
       <c r="G59" s="15" t="s">
@@ -20802,45 +20802,45 @@
       <c r="I59" s="15" t="s">
         <v>248</v>
       </c>
-      <c r="J59" s="1">
+      <c r="J59" s="16">
         <v>29511</v>
       </c>
-      <c r="K59" s="1">
+      <c r="K59" s="16">
         <v>30849</v>
       </c>
-      <c r="L59" t="s">
+      <c r="L59" s="15" t="s">
         <v>372</v>
       </c>
-      <c r="M59" t="s">
+      <c r="M59" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="N59" s="8" t="s">
-        <v>247</v>
-      </c>
-      <c r="O59" s="6">
+      <c r="N59" s="19" t="s">
+        <v>247</v>
+      </c>
+      <c r="O59" s="22">
         <v>844</v>
       </c>
-      <c r="P59" t="s">
+      <c r="P59" s="15" t="s">
         <v>5599</v>
       </c>
     </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A60" s="2" t="s">
+    <row r="60" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="14" t="s">
         <v>245</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B60" s="15" t="s">
         <v>246</v>
       </c>
-      <c r="C60" t="s">
+      <c r="C60" s="15" t="s">
         <v>184</v>
       </c>
-      <c r="D60" t="s">
+      <c r="D60" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="E60" s="1">
+      <c r="E60" s="16">
         <v>9942</v>
       </c>
-      <c r="F60" t="s">
+      <c r="F60" s="15" t="s">
         <v>3</v>
       </c>
       <c r="G60" s="15" t="s">
@@ -20852,45 +20852,45 @@
       <c r="I60" s="15" t="s">
         <v>248</v>
       </c>
-      <c r="J60" s="1">
+      <c r="J60" s="16">
         <v>29013</v>
       </c>
-      <c r="K60" s="1">
+      <c r="K60" s="16">
         <v>29494</v>
       </c>
-      <c r="L60" t="s">
+      <c r="L60" s="15" t="s">
         <v>371</v>
       </c>
-      <c r="M60" t="s">
+      <c r="M60" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="N60" s="8" t="s">
-        <v>247</v>
-      </c>
-      <c r="O60" s="6">
+      <c r="N60" s="19" t="s">
+        <v>247</v>
+      </c>
+      <c r="O60" s="22">
         <v>846</v>
       </c>
-      <c r="P60" s="6" t="s">
+      <c r="P60" s="22" t="s">
         <v>5600</v>
       </c>
     </row>
-    <row r="61" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="2" t="s">
+    <row r="61" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="14" t="s">
         <v>245</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B61" s="15" t="s">
         <v>246</v>
       </c>
-      <c r="C61" t="s">
+      <c r="C61" s="15" t="s">
         <v>162</v>
       </c>
-      <c r="D61" t="s">
+      <c r="D61" s="15" t="s">
         <v>161</v>
       </c>
       <c r="E61" s="16">
         <v>14857</v>
       </c>
-      <c r="F61" t="s">
+      <c r="F61" s="15" t="s">
         <v>3</v>
       </c>
       <c r="G61" s="15" t="s">
@@ -20902,16 +20902,16 @@
       <c r="I61" s="15" t="s">
         <v>248</v>
       </c>
-      <c r="J61" s="1">
+      <c r="J61" s="16">
         <v>29013</v>
       </c>
-      <c r="K61" s="1">
+      <c r="K61" s="16">
         <v>30849</v>
       </c>
-      <c r="L61" t="s">
+      <c r="L61" s="15" t="s">
         <v>372</v>
       </c>
-      <c r="M61" t="s">
+      <c r="M61" s="15" t="s">
         <v>4888</v>
       </c>
       <c r="N61" s="17">
@@ -20924,23 +20924,23 @@
         <v>5391</v>
       </c>
     </row>
-    <row r="62" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="2" t="s">
+    <row r="62" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="14" t="s">
         <v>245</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B62" s="15" t="s">
         <v>246</v>
       </c>
-      <c r="C62" t="s">
+      <c r="C62" s="15" t="s">
         <v>152</v>
       </c>
-      <c r="D62" t="s">
+      <c r="D62" s="15" t="s">
         <v>151</v>
       </c>
-      <c r="E62" s="1">
+      <c r="E62" s="16">
         <v>16066</v>
       </c>
-      <c r="F62" t="s">
+      <c r="F62" s="15" t="s">
         <v>8</v>
       </c>
       <c r="G62" s="15" t="s">
@@ -20952,45 +20952,45 @@
       <c r="I62" s="15" t="s">
         <v>248</v>
       </c>
-      <c r="J62" s="1">
+      <c r="J62" s="16">
         <v>29013</v>
       </c>
-      <c r="K62" s="1">
+      <c r="K62" s="16">
         <v>30849</v>
       </c>
-      <c r="L62" t="s">
+      <c r="L62" s="15" t="s">
         <v>372</v>
       </c>
-      <c r="M62" t="s">
+      <c r="M62" s="15" t="s">
         <v>4888</v>
       </c>
-      <c r="N62" s="11" t="s">
-        <v>247</v>
-      </c>
-      <c r="O62">
+      <c r="N62" s="17" t="s">
+        <v>247</v>
+      </c>
+      <c r="O62" s="15">
         <v>1617</v>
       </c>
-      <c r="P62" t="s">
+      <c r="P62" s="15" t="s">
         <v>5529</v>
       </c>
     </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A63" s="2" t="s">
+    <row r="63" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="14" t="s">
         <v>245</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B63" s="15" t="s">
         <v>246</v>
       </c>
-      <c r="C63" t="s">
+      <c r="C63" s="15" t="s">
         <v>222</v>
       </c>
-      <c r="D63" t="s">
+      <c r="D63" s="15" t="s">
         <v>130</v>
       </c>
-      <c r="E63" s="1">
+      <c r="E63" s="16">
         <v>10556</v>
       </c>
-      <c r="F63" t="s">
+      <c r="F63" s="15" t="s">
         <v>3</v>
       </c>
       <c r="G63" s="15" t="s">
@@ -21002,45 +21002,45 @@
       <c r="I63" s="15" t="s">
         <v>248</v>
       </c>
-      <c r="J63" s="1">
+      <c r="J63" s="16">
         <v>29340</v>
       </c>
-      <c r="K63" s="1">
+      <c r="K63" s="16">
         <v>30849</v>
       </c>
-      <c r="L63" t="s">
+      <c r="L63" s="15" t="s">
         <v>372</v>
       </c>
-      <c r="M63" t="s">
+      <c r="M63" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="N63" s="8" t="s">
-        <v>247</v>
-      </c>
-      <c r="O63" s="6">
+      <c r="N63" s="19" t="s">
+        <v>247</v>
+      </c>
+      <c r="O63" s="22">
         <v>817</v>
       </c>
-      <c r="P63" s="6" t="s">
+      <c r="P63" s="22" t="s">
         <v>5601</v>
       </c>
     </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A64" s="2" t="s">
+    <row r="64" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="14" t="s">
         <v>245</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B64" s="15" t="s">
         <v>246</v>
       </c>
-      <c r="C64" t="s">
+      <c r="C64" s="15" t="s">
         <v>219</v>
       </c>
-      <c r="D64" t="s">
+      <c r="D64" s="15" t="s">
         <v>194</v>
       </c>
-      <c r="E64" s="1">
+      <c r="E64" s="16">
         <v>8818</v>
       </c>
-      <c r="F64" t="s">
+      <c r="F64" s="15" t="s">
         <v>3</v>
       </c>
       <c r="G64" s="15" t="s">
@@ -21052,45 +21052,45 @@
       <c r="I64" s="15" t="s">
         <v>248</v>
       </c>
-      <c r="J64" s="1">
+      <c r="J64" s="16">
         <v>29287</v>
       </c>
-      <c r="K64" s="1">
+      <c r="K64" s="16">
         <v>29843</v>
       </c>
-      <c r="L64" t="s">
+      <c r="L64" s="15" t="s">
         <v>371</v>
       </c>
-      <c r="M64" t="s">
+      <c r="M64" s="15" t="s">
         <v>504</v>
       </c>
-      <c r="N64" s="8" t="s">
-        <v>247</v>
-      </c>
-      <c r="O64" s="6">
+      <c r="N64" s="19" t="s">
+        <v>247</v>
+      </c>
+      <c r="O64" s="22">
         <v>819</v>
       </c>
-      <c r="P64" s="6" t="s">
+      <c r="P64" s="22" t="s">
         <v>5602</v>
       </c>
     </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A65" s="2" t="s">
+    <row r="65" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="14" t="s">
         <v>245</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B65" s="15" t="s">
         <v>246</v>
       </c>
-      <c r="C65" t="s">
+      <c r="C65" s="15" t="s">
         <v>131</v>
       </c>
-      <c r="D65" t="s">
+      <c r="D65" s="15" t="s">
         <v>130</v>
       </c>
-      <c r="E65" s="1">
+      <c r="E65" s="16">
         <v>5856</v>
       </c>
-      <c r="F65" t="s">
+      <c r="F65" s="15" t="s">
         <v>3</v>
       </c>
       <c r="G65" s="15" t="s">
@@ -21102,45 +21102,45 @@
       <c r="I65" s="15" t="s">
         <v>248</v>
       </c>
-      <c r="J65" s="1">
+      <c r="J65" s="16">
         <v>29013</v>
       </c>
-      <c r="K65" s="1">
+      <c r="K65" s="16">
         <v>30849</v>
       </c>
-      <c r="L65" t="s">
+      <c r="L65" s="15" t="s">
         <v>372</v>
       </c>
-      <c r="M65" t="s">
+      <c r="M65" s="15" t="s">
         <v>504</v>
       </c>
-      <c r="N65" s="8" t="s">
-        <v>247</v>
-      </c>
-      <c r="O65" s="6">
+      <c r="N65" s="19" t="s">
+        <v>247</v>
+      </c>
+      <c r="O65" s="22">
         <v>810</v>
       </c>
-      <c r="P65" s="6" t="s">
+      <c r="P65" s="22" t="s">
         <v>5603</v>
       </c>
     </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A66" s="2" t="s">
+    <row r="66" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="14" t="s">
         <v>245</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B66" s="15" t="s">
         <v>246</v>
       </c>
-      <c r="C66" t="s">
+      <c r="C66" s="15" t="s">
         <v>139</v>
       </c>
-      <c r="D66" t="s">
+      <c r="D66" s="15" t="s">
         <v>114</v>
       </c>
-      <c r="E66" s="1">
+      <c r="E66" s="16">
         <v>13970</v>
       </c>
-      <c r="F66" t="s">
+      <c r="F66" s="15" t="s">
         <v>3</v>
       </c>
       <c r="G66" s="15" t="s">
@@ -21152,45 +21152,45 @@
       <c r="I66" s="15" t="s">
         <v>248</v>
       </c>
-      <c r="J66" s="1">
+      <c r="J66" s="16">
         <v>29013</v>
       </c>
-      <c r="K66" s="1">
+      <c r="K66" s="16">
         <v>29782</v>
       </c>
-      <c r="L66" t="s">
+      <c r="L66" s="15" t="s">
         <v>371</v>
       </c>
-      <c r="M66" t="s">
+      <c r="M66" s="15" t="s">
         <v>504</v>
       </c>
-      <c r="N66" s="8">
+      <c r="N66" s="19">
         <v>53761</v>
       </c>
-      <c r="O66" s="6">
+      <c r="O66" s="22">
         <v>813</v>
       </c>
-      <c r="P66" s="6" t="s">
+      <c r="P66" s="22" t="s">
         <v>5604</v>
       </c>
     </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A67" s="2" t="s">
+    <row r="67" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="14" t="s">
         <v>245</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B67" s="15" t="s">
         <v>246</v>
       </c>
-      <c r="C67" t="s">
+      <c r="C67" s="15" t="s">
         <v>234</v>
       </c>
-      <c r="D67" t="s">
+      <c r="D67" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="E67" s="1">
+      <c r="E67" s="16">
         <v>6117</v>
       </c>
-      <c r="F67" t="s">
+      <c r="F67" s="15" t="s">
         <v>3</v>
       </c>
       <c r="G67" s="15" t="s">
@@ -21202,45 +21202,45 @@
       <c r="I67" s="15" t="s">
         <v>248</v>
       </c>
-      <c r="J67" s="1">
+      <c r="J67" s="16">
         <v>29756</v>
       </c>
-      <c r="K67" s="1">
+      <c r="K67" s="16">
         <v>30328</v>
       </c>
-      <c r="L67" t="s">
+      <c r="L67" s="15" t="s">
         <v>371</v>
       </c>
-      <c r="M67" t="s">
+      <c r="M67" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="N67" s="8" t="s">
-        <v>247</v>
-      </c>
-      <c r="O67" s="6">
+      <c r="N67" s="19" t="s">
+        <v>247</v>
+      </c>
+      <c r="O67" s="22">
         <v>814</v>
       </c>
-      <c r="P67" s="6" t="s">
+      <c r="P67" s="22" t="s">
         <v>5605</v>
       </c>
     </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A68" s="2" t="s">
+    <row r="68" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="14" t="s">
         <v>245</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B68" s="15" t="s">
         <v>246</v>
       </c>
-      <c r="C68" t="s">
+      <c r="C68" s="15" t="s">
         <v>230</v>
       </c>
-      <c r="D68" t="s">
+      <c r="D68" s="15" t="s">
         <v>198</v>
       </c>
-      <c r="E68" s="1">
+      <c r="E68" s="16">
         <v>7112</v>
       </c>
-      <c r="F68" t="s">
+      <c r="F68" s="15" t="s">
         <v>3</v>
       </c>
       <c r="G68" s="15" t="s">
@@ -21252,45 +21252,45 @@
       <c r="I68" s="15" t="s">
         <v>248</v>
       </c>
-      <c r="J68" s="1">
+      <c r="J68" s="16">
         <v>30522</v>
       </c>
-      <c r="K68" s="1">
+      <c r="K68" s="16">
         <v>30849</v>
       </c>
-      <c r="L68" t="s">
+      <c r="L68" s="15" t="s">
         <v>372</v>
       </c>
-      <c r="M68" t="s">
+      <c r="M68" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="N68" s="8" t="s">
-        <v>247</v>
-      </c>
-      <c r="O68" s="6">
+      <c r="N68" s="19" t="s">
+        <v>247</v>
+      </c>
+      <c r="O68" s="22">
         <v>281</v>
       </c>
-      <c r="P68" s="6" t="s">
+      <c r="P68" s="22" t="s">
         <v>5606</v>
       </c>
     </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A69" s="2" t="s">
+    <row r="69" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="14" t="s">
         <v>245</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B69" s="15" t="s">
         <v>246</v>
       </c>
-      <c r="C69" t="s">
+      <c r="C69" s="15" t="s">
         <v>173</v>
       </c>
-      <c r="D69" t="s">
+      <c r="D69" s="15" t="s">
         <v>143</v>
       </c>
-      <c r="E69" s="1">
+      <c r="E69" s="16">
         <v>9524</v>
       </c>
-      <c r="F69" t="s">
+      <c r="F69" s="15" t="s">
         <v>3</v>
       </c>
       <c r="G69" s="15" t="s">
@@ -21302,45 +21302,45 @@
       <c r="I69" s="15" t="s">
         <v>248</v>
       </c>
-      <c r="J69" s="1">
+      <c r="J69" s="16">
         <v>29013</v>
       </c>
-      <c r="K69" s="1">
+      <c r="K69" s="16">
         <v>29411</v>
       </c>
-      <c r="L69" t="s">
+      <c r="L69" s="15" t="s">
         <v>371</v>
       </c>
-      <c r="M69" t="s">
+      <c r="M69" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="N69" s="8" t="s">
-        <v>247</v>
-      </c>
-      <c r="O69" s="6">
+      <c r="N69" s="19" t="s">
+        <v>247</v>
+      </c>
+      <c r="O69" s="22">
         <v>794</v>
       </c>
-      <c r="P69" s="6" t="s">
+      <c r="P69" s="22" t="s">
         <v>5607</v>
       </c>
     </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A70" s="2" t="s">
+    <row r="70" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="14" t="s">
         <v>245</v>
       </c>
-      <c r="B70" t="s">
+      <c r="B70" s="15" t="s">
         <v>246</v>
       </c>
-      <c r="C70" t="s">
+      <c r="C70" s="15" t="s">
         <v>277</v>
       </c>
-      <c r="D70" t="s">
+      <c r="D70" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="E70" s="1">
+      <c r="E70" s="16">
         <v>11208</v>
       </c>
-      <c r="F70" t="s">
+      <c r="F70" s="15" t="s">
         <v>3</v>
       </c>
       <c r="G70" s="15" t="s">
@@ -21352,45 +21352,45 @@
       <c r="I70" s="15" t="s">
         <v>248</v>
       </c>
-      <c r="J70" s="1">
+      <c r="J70" s="16">
         <v>29913</v>
       </c>
-      <c r="K70" s="1">
+      <c r="K70" s="16">
         <v>30849</v>
       </c>
-      <c r="L70" t="s">
+      <c r="L70" s="15" t="s">
         <v>372</v>
       </c>
-      <c r="M70" t="s">
+      <c r="M70" s="15" t="s">
         <v>504</v>
       </c>
-      <c r="N70" s="8" t="s">
-        <v>247</v>
-      </c>
-      <c r="O70" s="6">
+      <c r="N70" s="19" t="s">
+        <v>247</v>
+      </c>
+      <c r="O70" s="22">
         <v>798</v>
       </c>
-      <c r="P70" s="6" t="s">
+      <c r="P70" s="22" t="s">
         <v>5608</v>
       </c>
     </row>
-    <row r="71" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="2" t="s">
+    <row r="71" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="14" t="s">
         <v>245</v>
       </c>
-      <c r="B71" t="s">
+      <c r="B71" s="15" t="s">
         <v>246</v>
       </c>
-      <c r="C71" t="s">
+      <c r="C71" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="D71" t="s">
+      <c r="D71" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="E71" s="1">
+      <c r="E71" s="16">
         <v>7369</v>
       </c>
-      <c r="F71" t="s">
+      <c r="F71" s="15" t="s">
         <v>3</v>
       </c>
       <c r="G71" s="15" t="s">
@@ -21402,45 +21402,45 @@
       <c r="I71" s="15" t="s">
         <v>248</v>
       </c>
-      <c r="J71" s="1">
+      <c r="J71" s="16">
         <v>29013</v>
       </c>
-      <c r="K71" s="1">
+      <c r="K71" s="16">
         <v>30849</v>
       </c>
-      <c r="L71" t="s">
+      <c r="L71" s="15" t="s">
         <v>372</v>
       </c>
-      <c r="M71" t="s">
+      <c r="M71" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="N71" s="11" t="s">
-        <v>247</v>
-      </c>
-      <c r="O71">
+      <c r="N71" s="17" t="s">
+        <v>247</v>
+      </c>
+      <c r="O71" s="15">
         <v>799</v>
       </c>
-      <c r="P71" t="s">
+      <c r="P71" s="15" t="s">
         <v>5532</v>
       </c>
     </row>
-    <row r="72" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="2" t="s">
+    <row r="72" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="14" t="s">
         <v>245</v>
       </c>
-      <c r="B72" t="s">
+      <c r="B72" s="15" t="s">
         <v>246</v>
       </c>
-      <c r="C72" t="s">
+      <c r="C72" s="15" t="s">
         <v>137</v>
       </c>
-      <c r="D72" t="s">
+      <c r="D72" s="15" t="s">
         <v>5444</v>
       </c>
-      <c r="E72" s="1">
+      <c r="E72" s="16">
         <v>8098</v>
       </c>
-      <c r="F72" t="s">
+      <c r="F72" s="15" t="s">
         <v>3</v>
       </c>
       <c r="G72" s="15" t="s">
@@ -21452,45 +21452,45 @@
       <c r="I72" s="15" t="s">
         <v>248</v>
       </c>
-      <c r="J72" s="1">
+      <c r="J72" s="16">
         <v>29013</v>
       </c>
-      <c r="K72" s="1">
+      <c r="K72" s="16">
         <v>30849</v>
       </c>
-      <c r="L72" t="s">
+      <c r="L72" s="15" t="s">
         <v>372</v>
       </c>
-      <c r="M72" t="s">
+      <c r="M72" s="15" t="s">
         <v>504</v>
       </c>
-      <c r="N72" s="11" t="s">
-        <v>247</v>
-      </c>
-      <c r="O72">
+      <c r="N72" s="17" t="s">
+        <v>247</v>
+      </c>
+      <c r="O72" s="15">
         <v>1606</v>
       </c>
-      <c r="P72" t="s">
+      <c r="P72" s="15" t="s">
         <v>5534</v>
       </c>
     </row>
-    <row r="73" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="2" t="s">
+    <row r="73" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="14" t="s">
         <v>245</v>
       </c>
-      <c r="B73" t="s">
+      <c r="B73" s="15" t="s">
         <v>246</v>
       </c>
-      <c r="C73" t="s">
+      <c r="C73" s="15" t="s">
         <v>155</v>
       </c>
-      <c r="D73" t="s">
+      <c r="D73" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="E73" s="1">
+      <c r="E73" s="16">
         <v>8017</v>
       </c>
-      <c r="F73" t="s">
+      <c r="F73" s="15" t="s">
         <v>3</v>
       </c>
       <c r="G73" s="15" t="s">
@@ -21502,45 +21502,45 @@
       <c r="I73" s="15" t="s">
         <v>248</v>
       </c>
-      <c r="J73" s="1">
+      <c r="J73" s="16">
         <v>29013</v>
       </c>
-      <c r="K73" s="1">
+      <c r="K73" s="16">
         <v>30849</v>
       </c>
-      <c r="L73" t="s">
+      <c r="L73" s="15" t="s">
         <v>372</v>
       </c>
-      <c r="M73" t="s">
+      <c r="M73" s="15" t="s">
         <v>4888</v>
       </c>
-      <c r="N73" s="11" t="s">
-        <v>247</v>
-      </c>
-      <c r="O73">
+      <c r="N73" s="17" t="s">
+        <v>247</v>
+      </c>
+      <c r="O73" s="15">
         <v>1590</v>
       </c>
-      <c r="P73" t="s">
+      <c r="P73" s="15" t="s">
         <v>5535</v>
       </c>
     </row>
-    <row r="74" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="2" t="s">
+    <row r="74" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="14" t="s">
         <v>245</v>
       </c>
-      <c r="B74" t="s">
+      <c r="B74" s="15" t="s">
         <v>246</v>
       </c>
-      <c r="C74" t="s">
+      <c r="C74" s="15" t="s">
         <v>150</v>
       </c>
-      <c r="D74" t="s">
+      <c r="D74" s="15" t="s">
         <v>118</v>
       </c>
-      <c r="E74" s="1">
+      <c r="E74" s="16">
         <v>7464</v>
       </c>
-      <c r="F74" t="s">
+      <c r="F74" s="15" t="s">
         <v>3</v>
       </c>
       <c r="G74" s="15" t="s">
@@ -21552,45 +21552,45 @@
       <c r="I74" s="15" t="s">
         <v>248</v>
       </c>
-      <c r="J74" s="1">
+      <c r="J74" s="16">
         <v>29013</v>
       </c>
-      <c r="K74" s="1">
+      <c r="K74" s="16">
         <v>30849</v>
       </c>
-      <c r="L74" t="s">
+      <c r="L74" s="15" t="s">
         <v>372</v>
       </c>
-      <c r="M74" t="s">
+      <c r="M74" s="15" t="s">
         <v>4888</v>
       </c>
-      <c r="N74" s="11" t="s">
-        <v>247</v>
-      </c>
-      <c r="O74">
+      <c r="N74" s="17" t="s">
+        <v>247</v>
+      </c>
+      <c r="O74" s="15">
         <v>1588</v>
       </c>
-      <c r="P74" t="s">
+      <c r="P74" s="15" t="s">
         <v>5539</v>
       </c>
     </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A75" s="2" t="s">
+    <row r="75" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="14" t="s">
         <v>245</v>
       </c>
-      <c r="B75" t="s">
+      <c r="B75" s="15" t="s">
         <v>246</v>
       </c>
-      <c r="C75" t="s">
+      <c r="C75" s="15" t="s">
         <v>216</v>
       </c>
-      <c r="D75" t="s">
+      <c r="D75" s="15" t="s">
         <v>192</v>
       </c>
-      <c r="E75" s="1">
+      <c r="E75" s="16">
         <v>14438</v>
       </c>
-      <c r="F75" t="s">
+      <c r="F75" s="15" t="s">
         <v>3</v>
       </c>
       <c r="G75" s="15" t="s">
@@ -21602,45 +21602,45 @@
       <c r="I75" s="15" t="s">
         <v>248</v>
       </c>
-      <c r="J75" s="1">
+      <c r="J75" s="16">
         <v>30682</v>
       </c>
-      <c r="K75" s="1">
+      <c r="K75" s="16">
         <v>30849</v>
       </c>
-      <c r="L75" t="s">
+      <c r="L75" s="15" t="s">
         <v>372</v>
       </c>
-      <c r="M75" t="s">
+      <c r="M75" s="15" t="s">
         <v>504</v>
       </c>
-      <c r="N75" s="8" t="s">
-        <v>247</v>
-      </c>
-      <c r="O75" s="6">
+      <c r="N75" s="19" t="s">
+        <v>247</v>
+      </c>
+      <c r="O75" s="22">
         <v>778</v>
       </c>
-      <c r="P75" s="6" t="s">
+      <c r="P75" s="22" t="s">
         <v>5609</v>
       </c>
     </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A76" s="2" t="s">
+    <row r="76" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="14" t="s">
         <v>245</v>
       </c>
-      <c r="B76" t="s">
+      <c r="B76" s="15" t="s">
         <v>246</v>
       </c>
-      <c r="C76" t="s">
+      <c r="C76" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="D76" t="s">
+      <c r="D76" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="E76" s="1">
+      <c r="E76" s="16">
         <v>9956</v>
       </c>
-      <c r="F76" t="s">
+      <c r="F76" s="15" t="s">
         <v>3</v>
       </c>
       <c r="G76" s="15" t="s">
@@ -21652,45 +21652,45 @@
       <c r="I76" s="15" t="s">
         <v>248</v>
       </c>
-      <c r="J76" s="1">
+      <c r="J76" s="16">
         <v>29013</v>
       </c>
-      <c r="K76" s="1">
+      <c r="K76" s="16">
         <v>30849</v>
       </c>
-      <c r="L76" t="s">
+      <c r="L76" s="15" t="s">
         <v>372</v>
       </c>
-      <c r="M76" t="s">
+      <c r="M76" s="15" t="s">
         <v>4888</v>
       </c>
-      <c r="N76" s="8" t="s">
-        <v>247</v>
-      </c>
-      <c r="O76" s="6">
+      <c r="N76" s="19" t="s">
+        <v>247</v>
+      </c>
+      <c r="O76" s="22">
         <v>770</v>
       </c>
-      <c r="P76" s="6" t="s">
+      <c r="P76" s="22" t="s">
         <v>5610</v>
       </c>
     </row>
-    <row r="77" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="2" t="s">
+    <row r="77" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="14" t="s">
         <v>245</v>
       </c>
-      <c r="B77" t="s">
+      <c r="B77" s="15" t="s">
         <v>246</v>
       </c>
-      <c r="C77" t="s">
+      <c r="C77" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="D77" t="s">
+      <c r="D77" s="15" t="s">
         <v>88</v>
       </c>
       <c r="E77" s="16">
         <v>19685</v>
       </c>
-      <c r="F77" t="s">
+      <c r="F77" s="15" t="s">
         <v>8</v>
       </c>
       <c r="G77" s="15" t="s">
@@ -21702,16 +21702,16 @@
       <c r="I77" s="15" t="s">
         <v>248</v>
       </c>
-      <c r="J77" s="1">
+      <c r="J77" s="16">
         <v>29013</v>
       </c>
-      <c r="K77" s="1">
+      <c r="K77" s="16">
         <v>30849</v>
       </c>
-      <c r="L77" t="s">
+      <c r="L77" s="15" t="s">
         <v>372</v>
       </c>
-      <c r="M77" t="s">
+      <c r="M77" s="15" t="s">
         <v>26</v>
       </c>
       <c r="N77" s="17">
@@ -21724,23 +21724,23 @@
         <v>5209</v>
       </c>
     </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A78" s="2" t="s">
+    <row r="78" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="14" t="s">
         <v>245</v>
       </c>
-      <c r="B78" t="s">
+      <c r="B78" s="15" t="s">
         <v>246</v>
       </c>
-      <c r="C78" t="s">
+      <c r="C78" s="15" t="s">
         <v>127</v>
       </c>
-      <c r="D78" t="s">
+      <c r="D78" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="E78" s="1">
+      <c r="E78" s="16">
         <v>6065</v>
       </c>
-      <c r="F78" t="s">
+      <c r="F78" s="15" t="s">
         <v>3</v>
       </c>
       <c r="G78" s="15" t="s">
@@ -21752,45 +21752,45 @@
       <c r="I78" s="15" t="s">
         <v>248</v>
       </c>
-      <c r="J78" s="1">
+      <c r="J78" s="16">
         <v>29013</v>
       </c>
-      <c r="K78" s="1">
+      <c r="K78" s="16">
         <v>29912</v>
       </c>
-      <c r="L78" t="s">
+      <c r="L78" s="15" t="s">
         <v>371</v>
       </c>
-      <c r="M78" t="s">
+      <c r="M78" s="15" t="s">
         <v>504</v>
       </c>
-      <c r="N78" s="8" t="s">
-        <v>247</v>
-      </c>
-      <c r="O78" s="6">
+      <c r="N78" s="19" t="s">
+        <v>247</v>
+      </c>
+      <c r="O78" s="22">
         <v>771</v>
       </c>
-      <c r="P78" s="6" t="s">
+      <c r="P78" s="22" t="s">
         <v>5611</v>
       </c>
     </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A79" s="2" t="s">
+    <row r="79" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="14" t="s">
         <v>245</v>
       </c>
-      <c r="B79" t="s">
+      <c r="B79" s="15" t="s">
         <v>246</v>
       </c>
-      <c r="C79" t="s">
+      <c r="C79" s="15" t="s">
         <v>125</v>
       </c>
-      <c r="D79" t="s">
+      <c r="D79" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="E79" s="1">
+      <c r="E79" s="16">
         <v>10414</v>
       </c>
-      <c r="F79" t="s">
+      <c r="F79" s="15" t="s">
         <v>3</v>
       </c>
       <c r="G79" s="15" t="s">
@@ -21802,45 +21802,45 @@
       <c r="I79" s="15" t="s">
         <v>248</v>
       </c>
-      <c r="J79" s="1">
+      <c r="J79" s="16">
         <v>29013</v>
       </c>
-      <c r="K79" s="1">
+      <c r="K79" s="16">
         <v>29286</v>
       </c>
-      <c r="L79" t="s">
+      <c r="L79" s="15" t="s">
         <v>371</v>
       </c>
-      <c r="M79" t="s">
+      <c r="M79" s="15" t="s">
         <v>504</v>
       </c>
-      <c r="N79" s="8">
+      <c r="N79" s="19">
         <v>258</v>
       </c>
-      <c r="O79" s="6">
+      <c r="O79" s="22">
         <v>772</v>
       </c>
-      <c r="P79" s="6" t="s">
+      <c r="P79" s="22" t="s">
         <v>5612</v>
       </c>
     </row>
-    <row r="80" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="2" t="s">
+    <row r="80" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="14" t="s">
         <v>245</v>
       </c>
-      <c r="B80" t="s">
+      <c r="B80" s="15" t="s">
         <v>246</v>
       </c>
-      <c r="C80" t="s">
+      <c r="C80" s="15" t="s">
         <v>5334</v>
       </c>
-      <c r="D80" t="s">
+      <c r="D80" s="15" t="s">
         <v>10</v>
       </c>
       <c r="E80" s="16">
         <v>17088</v>
       </c>
-      <c r="F80" t="s">
+      <c r="F80" s="15" t="s">
         <v>8</v>
       </c>
       <c r="G80" s="15" t="s">
@@ -21852,16 +21852,16 @@
       <c r="I80" s="15" t="s">
         <v>248</v>
       </c>
-      <c r="J80" s="1">
+      <c r="J80" s="16">
         <v>29013</v>
       </c>
-      <c r="K80" s="1">
+      <c r="K80" s="16">
         <v>30849</v>
       </c>
-      <c r="L80" t="s">
+      <c r="L80" s="15" t="s">
         <v>372</v>
       </c>
-      <c r="M80" t="s">
+      <c r="M80" s="15" t="s">
         <v>4888</v>
       </c>
       <c r="N80" s="17" t="s">
@@ -21874,23 +21874,23 @@
         <v>5417</v>
       </c>
     </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A81" s="2" t="s">
+    <row r="81" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="14" t="s">
         <v>245</v>
       </c>
-      <c r="B81" t="s">
+      <c r="B81" s="15" t="s">
         <v>246</v>
       </c>
-      <c r="C81" t="s">
+      <c r="C81" s="15" t="s">
         <v>240</v>
       </c>
-      <c r="D81" t="s">
+      <c r="D81" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="E81" s="1">
+      <c r="E81" s="16">
         <v>9976</v>
       </c>
-      <c r="F81" t="s">
+      <c r="F81" s="15" t="s">
         <v>3</v>
       </c>
       <c r="G81" s="15" t="s">
@@ -21902,45 +21902,45 @@
       <c r="I81" s="15" t="s">
         <v>248</v>
       </c>
-      <c r="J81" s="1">
+      <c r="J81" s="16">
         <v>29847</v>
       </c>
-      <c r="K81" s="1">
+      <c r="K81" s="16">
         <v>30224</v>
       </c>
-      <c r="L81" t="s">
+      <c r="L81" s="15" t="s">
         <v>371</v>
       </c>
-      <c r="M81" t="s">
+      <c r="M81" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="N81" s="8" t="s">
-        <v>247</v>
-      </c>
-      <c r="O81" s="6">
+      <c r="N81" s="19" t="s">
+        <v>247</v>
+      </c>
+      <c r="O81" s="22">
         <v>774</v>
       </c>
-      <c r="P81" t="s">
+      <c r="P81" s="15" t="s">
         <v>5613</v>
       </c>
     </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A82" s="2" t="s">
+    <row r="82" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="14" t="s">
         <v>245</v>
       </c>
-      <c r="B82" t="s">
+      <c r="B82" s="15" t="s">
         <v>246</v>
       </c>
-      <c r="C82" t="s">
+      <c r="C82" s="15" t="s">
         <v>172</v>
       </c>
-      <c r="D82" t="s">
+      <c r="D82" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="E82" s="1">
+      <c r="E82" s="16">
         <v>2271</v>
       </c>
-      <c r="F82" t="s">
+      <c r="F82" s="15" t="s">
         <v>3</v>
       </c>
       <c r="G82" s="15" t="s">
@@ -21952,45 +21952,45 @@
       <c r="I82" s="15" t="s">
         <v>248</v>
       </c>
-      <c r="J82" s="1">
+      <c r="J82" s="16">
         <v>29013</v>
       </c>
-      <c r="K82" s="1">
+      <c r="K82" s="16">
         <v>29399</v>
       </c>
-      <c r="L82" t="s">
+      <c r="L82" s="15" t="s">
         <v>371</v>
       </c>
-      <c r="M82" t="s">
+      <c r="M82" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="N82" s="8" t="s">
-        <v>247</v>
-      </c>
-      <c r="O82" s="6">
+      <c r="N82" s="19" t="s">
+        <v>247</v>
+      </c>
+      <c r="O82" s="22">
         <v>775</v>
       </c>
-      <c r="P82" t="s">
+      <c r="P82" s="15" t="s">
         <v>5614</v>
       </c>
     </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A83" s="2" t="s">
+    <row r="83" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="14" t="s">
         <v>245</v>
       </c>
-      <c r="B83" t="s">
+      <c r="B83" s="15" t="s">
         <v>246</v>
       </c>
-      <c r="C83" t="s">
+      <c r="C83" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="D83" t="s">
+      <c r="D83" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="E83" s="1">
+      <c r="E83" s="16">
         <v>12291</v>
       </c>
-      <c r="F83" t="s">
+      <c r="F83" s="15" t="s">
         <v>3</v>
       </c>
       <c r="G83" s="15" t="s">
@@ -22002,45 +22002,45 @@
       <c r="I83" s="15" t="s">
         <v>248</v>
       </c>
-      <c r="J83" s="1">
+      <c r="J83" s="16">
         <v>29013</v>
       </c>
-      <c r="K83" s="1">
+      <c r="K83" s="16">
         <v>30849</v>
       </c>
-      <c r="L83" t="s">
+      <c r="L83" s="15" t="s">
         <v>372</v>
       </c>
-      <c r="M83" t="s">
+      <c r="M83" s="15" t="s">
         <v>504</v>
       </c>
-      <c r="N83" s="8" t="s">
-        <v>247</v>
-      </c>
-      <c r="O83" s="6">
+      <c r="N83" s="19" t="s">
+        <v>247</v>
+      </c>
+      <c r="O83" s="22">
         <v>764</v>
       </c>
-      <c r="P83" s="6" t="s">
+      <c r="P83" s="22" t="s">
         <v>5615</v>
       </c>
     </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A84" s="2" t="s">
+    <row r="84" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="14" t="s">
         <v>245</v>
       </c>
-      <c r="B84" t="s">
+      <c r="B84" s="15" t="s">
         <v>246</v>
       </c>
-      <c r="C84" t="s">
+      <c r="C84" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="D84" t="s">
+      <c r="D84" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="E84" s="1">
+      <c r="E84" s="16">
         <v>7700</v>
       </c>
-      <c r="F84" t="s">
+      <c r="F84" s="15" t="s">
         <v>8</v>
       </c>
       <c r="G84" s="15" t="s">
@@ -22052,45 +22052,45 @@
       <c r="I84" s="15" t="s">
         <v>248</v>
       </c>
-      <c r="J84" s="1">
+      <c r="J84" s="16">
         <v>29013</v>
       </c>
-      <c r="K84" s="1">
+      <c r="K84" s="16">
         <v>30849</v>
       </c>
-      <c r="L84" t="s">
+      <c r="L84" s="15" t="s">
         <v>372</v>
       </c>
-      <c r="M84" t="s">
+      <c r="M84" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="N84" s="8" t="s">
-        <v>247</v>
-      </c>
-      <c r="O84" s="6">
+      <c r="N84" s="19" t="s">
+        <v>247</v>
+      </c>
+      <c r="O84" s="22">
         <v>742</v>
       </c>
-      <c r="P84" s="6" t="s">
+      <c r="P84" s="22" t="s">
         <v>5616</v>
       </c>
     </row>
-    <row r="85" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="2" t="s">
+    <row r="85" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="14" t="s">
         <v>245</v>
       </c>
-      <c r="B85" t="s">
+      <c r="B85" s="15" t="s">
         <v>246</v>
       </c>
-      <c r="C85" t="s">
+      <c r="C85" s="15" t="s">
         <v>129</v>
       </c>
-      <c r="D85" t="s">
+      <c r="D85" s="15" t="s">
         <v>128</v>
       </c>
-      <c r="E85" s="1">
+      <c r="E85" s="16">
         <v>11583</v>
       </c>
-      <c r="F85" t="s">
+      <c r="F85" s="15" t="s">
         <v>3</v>
       </c>
       <c r="G85" s="15" t="s">
@@ -22102,45 +22102,45 @@
       <c r="I85" s="15" t="s">
         <v>248</v>
       </c>
-      <c r="J85" s="1">
+      <c r="J85" s="16">
         <v>29013</v>
       </c>
-      <c r="K85" s="1">
+      <c r="K85" s="16">
         <v>30849</v>
       </c>
-      <c r="L85" t="s">
+      <c r="L85" s="15" t="s">
         <v>372</v>
       </c>
-      <c r="M85" t="s">
+      <c r="M85" s="15" t="s">
         <v>504</v>
       </c>
-      <c r="N85" s="11" t="s">
-        <v>247</v>
-      </c>
-      <c r="O85">
+      <c r="N85" s="17" t="s">
+        <v>247</v>
+      </c>
+      <c r="O85" s="15">
         <v>1580</v>
       </c>
-      <c r="P85" t="s">
+      <c r="P85" s="15" t="s">
         <v>5540</v>
       </c>
     </row>
-    <row r="86" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="2" t="s">
+    <row r="86" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="14" t="s">
         <v>245</v>
       </c>
-      <c r="B86" t="s">
+      <c r="B86" s="15" t="s">
         <v>246</v>
       </c>
-      <c r="C86" t="s">
+      <c r="C86" s="15" t="s">
         <v>237</v>
       </c>
-      <c r="D86" t="s">
+      <c r="D86" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="E86" s="1">
+      <c r="E86" s="16">
         <v>10370</v>
       </c>
-      <c r="F86" t="s">
+      <c r="F86" s="15" t="s">
         <v>3</v>
       </c>
       <c r="G86" s="15" t="s">
@@ -22152,45 +22152,45 @@
       <c r="I86" s="15" t="s">
         <v>248</v>
       </c>
-      <c r="J86" s="1">
+      <c r="J86" s="16">
         <v>29998</v>
       </c>
-      <c r="K86" s="1">
+      <c r="K86" s="16">
         <v>30589</v>
       </c>
-      <c r="L86" t="s">
+      <c r="L86" s="15" t="s">
         <v>371</v>
       </c>
-      <c r="M86" t="s">
+      <c r="M86" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="N86" s="11" t="s">
-        <v>247</v>
-      </c>
-      <c r="O86">
+      <c r="N86" s="17" t="s">
+        <v>247</v>
+      </c>
+      <c r="O86" s="15">
         <v>1581</v>
       </c>
-      <c r="P86" t="s">
+      <c r="P86" s="15" t="s">
         <v>5541</v>
       </c>
     </row>
-    <row r="87" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A87" s="2" t="s">
+    <row r="87" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="14" t="s">
         <v>245</v>
       </c>
-      <c r="B87" t="s">
+      <c r="B87" s="15" t="s">
         <v>246</v>
       </c>
-      <c r="C87" t="s">
+      <c r="C87" s="15" t="s">
         <v>226</v>
       </c>
-      <c r="D87" t="s">
+      <c r="D87" s="15" t="s">
         <v>151</v>
       </c>
-      <c r="E87" s="1">
+      <c r="E87" s="16">
         <v>10513</v>
       </c>
-      <c r="F87" t="s">
+      <c r="F87" s="15" t="s">
         <v>8</v>
       </c>
       <c r="G87" s="15" t="s">
@@ -22202,45 +22202,45 @@
       <c r="I87" s="15" t="s">
         <v>248</v>
       </c>
-      <c r="J87" s="1">
+      <c r="J87" s="16">
         <v>30421</v>
       </c>
-      <c r="K87" s="1">
+      <c r="K87" s="16">
         <v>30849</v>
       </c>
-      <c r="L87" t="s">
+      <c r="L87" s="15" t="s">
         <v>372</v>
       </c>
-      <c r="M87" t="s">
+      <c r="M87" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="N87" s="8" t="s">
-        <v>247</v>
-      </c>
-      <c r="O87" s="6">
+      <c r="N87" s="19" t="s">
+        <v>247</v>
+      </c>
+      <c r="O87" s="22">
         <v>743</v>
       </c>
-      <c r="P87" s="6" t="s">
+      <c r="P87" s="22" t="s">
         <v>5617</v>
       </c>
     </row>
-    <row r="88" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="2" t="s">
+    <row r="88" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="14" t="s">
         <v>245</v>
       </c>
-      <c r="B88" t="s">
+      <c r="B88" s="15" t="s">
         <v>246</v>
       </c>
-      <c r="C88" t="s">
+      <c r="C88" s="15" t="s">
         <v>244</v>
       </c>
-      <c r="D88" t="s">
+      <c r="D88" s="15" t="s">
         <v>203</v>
       </c>
       <c r="E88" s="16">
         <v>16849</v>
       </c>
-      <c r="F88" t="s">
+      <c r="F88" s="15" t="s">
         <v>3</v>
       </c>
       <c r="G88" s="15" t="s">
@@ -22252,16 +22252,16 @@
       <c r="I88" s="15" t="s">
         <v>248</v>
       </c>
-      <c r="J88" s="1">
+      <c r="J88" s="16">
         <v>30057</v>
       </c>
-      <c r="K88" s="1">
+      <c r="K88" s="16">
         <v>30849</v>
       </c>
-      <c r="L88" t="s">
+      <c r="L88" s="15" t="s">
         <v>372</v>
       </c>
-      <c r="M88" t="s">
+      <c r="M88" s="15" t="s">
         <v>26</v>
       </c>
       <c r="N88" s="17" t="s">
@@ -22274,23 +22274,23 @@
         <v>606</v>
       </c>
     </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A89" s="2" t="s">
+    <row r="89" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="14" t="s">
         <v>245</v>
       </c>
-      <c r="B89" t="s">
+      <c r="B89" s="15" t="s">
         <v>246</v>
       </c>
-      <c r="C89" t="s">
+      <c r="C89" s="15" t="s">
         <v>138</v>
       </c>
-      <c r="D89" t="s">
+      <c r="D89" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="E89" s="1">
+      <c r="E89" s="16">
         <v>13604</v>
       </c>
-      <c r="F89" t="s">
+      <c r="F89" s="15" t="s">
         <v>3</v>
       </c>
       <c r="G89" s="15" t="s">
@@ -22302,45 +22302,45 @@
       <c r="I89" s="15" t="s">
         <v>248</v>
       </c>
-      <c r="J89" s="1">
+      <c r="J89" s="16">
         <v>29013</v>
       </c>
-      <c r="K89" s="1">
+      <c r="K89" s="16">
         <v>29890</v>
       </c>
-      <c r="L89" t="s">
+      <c r="L89" s="15" t="s">
         <v>371</v>
       </c>
-      <c r="M89" t="s">
+      <c r="M89" s="15" t="s">
         <v>504</v>
       </c>
-      <c r="N89" s="8" t="s">
-        <v>247</v>
-      </c>
-      <c r="O89" s="6">
+      <c r="N89" s="19" t="s">
+        <v>247</v>
+      </c>
+      <c r="O89" s="22">
         <v>751</v>
       </c>
-      <c r="P89" s="6" t="s">
+      <c r="P89" s="22" t="s">
         <v>5618</v>
       </c>
     </row>
-    <row r="90" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A90" s="2" t="s">
+    <row r="90" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="14" t="s">
         <v>245</v>
       </c>
-      <c r="B90" t="s">
+      <c r="B90" s="15" t="s">
         <v>246</v>
       </c>
-      <c r="C90" t="s">
+      <c r="C90" s="15" t="s">
         <v>228</v>
       </c>
-      <c r="D90" t="s">
+      <c r="D90" s="15" t="s">
         <v>156</v>
       </c>
-      <c r="E90" s="1">
+      <c r="E90" s="16">
         <v>7801</v>
       </c>
-      <c r="F90" t="s">
+      <c r="F90" s="15" t="s">
         <v>3</v>
       </c>
       <c r="G90" s="15" t="s">
@@ -22352,45 +22352,45 @@
       <c r="I90" s="15" t="s">
         <v>248</v>
       </c>
-      <c r="J90" s="1">
+      <c r="J90" s="16">
         <v>29936</v>
       </c>
-      <c r="K90" s="1">
+      <c r="K90" s="16">
         <v>30384</v>
       </c>
-      <c r="L90" t="s">
+      <c r="L90" s="15" t="s">
         <v>371</v>
       </c>
-      <c r="M90" t="s">
+      <c r="M90" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="N90" s="8" t="s">
-        <v>247</v>
-      </c>
-      <c r="O90" s="6">
+      <c r="N90" s="19" t="s">
+        <v>247</v>
+      </c>
+      <c r="O90" s="22">
         <v>736</v>
       </c>
-      <c r="P90" s="6" t="s">
+      <c r="P90" s="22" t="s">
         <v>5619</v>
       </c>
     </row>
-    <row r="91" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A91" s="2" t="s">
+    <row r="91" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="14" t="s">
         <v>245</v>
       </c>
-      <c r="B91" t="s">
+      <c r="B91" s="15" t="s">
         <v>246</v>
       </c>
-      <c r="C91" t="s">
+      <c r="C91" s="15" t="s">
         <v>140</v>
       </c>
-      <c r="D91" t="s">
+      <c r="D91" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="E91" s="1">
+      <c r="E91" s="16">
         <v>15584</v>
       </c>
-      <c r="F91" t="s">
+      <c r="F91" s="15" t="s">
         <v>3</v>
       </c>
       <c r="G91" s="15" t="s">
@@ -22402,45 +22402,45 @@
       <c r="I91" s="15" t="s">
         <v>248</v>
       </c>
-      <c r="J91" s="1">
+      <c r="J91" s="16">
         <v>29013</v>
       </c>
-      <c r="K91" s="1">
+      <c r="K91" s="16">
         <v>30681</v>
       </c>
-      <c r="L91" t="s">
+      <c r="L91" s="15" t="s">
         <v>371</v>
       </c>
-      <c r="M91" t="s">
+      <c r="M91" s="15" t="s">
         <v>504</v>
       </c>
-      <c r="N91" s="8">
+      <c r="N91" s="19">
         <v>270</v>
       </c>
-      <c r="O91" s="6">
+      <c r="O91" s="22">
         <v>738</v>
       </c>
-      <c r="P91" t="s">
+      <c r="P91" s="15" t="s">
         <v>5620</v>
       </c>
     </row>
-    <row r="92" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="2" t="s">
+    <row r="92" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="14" t="s">
         <v>245</v>
       </c>
-      <c r="B92" t="s">
+      <c r="B92" s="15" t="s">
         <v>246</v>
       </c>
-      <c r="C92" t="s">
+      <c r="C92" s="15" t="s">
         <v>214</v>
       </c>
-      <c r="D92" t="s">
+      <c r="D92" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="E92" s="1">
+      <c r="E92" s="16">
         <v>15841</v>
       </c>
-      <c r="F92" t="s">
+      <c r="F92" s="15" t="s">
         <v>8</v>
       </c>
       <c r="G92" s="15" t="s">
@@ -22452,45 +22452,45 @@
       <c r="I92" s="15" t="s">
         <v>248</v>
       </c>
-      <c r="J92" s="1">
+      <c r="J92" s="16">
         <v>29846</v>
       </c>
-      <c r="K92" s="1">
+      <c r="K92" s="16">
         <v>30849</v>
       </c>
-      <c r="L92" t="s">
+      <c r="L92" s="15" t="s">
         <v>372</v>
       </c>
-      <c r="M92" t="s">
+      <c r="M92" s="15" t="s">
         <v>504</v>
       </c>
-      <c r="N92" s="11" t="s">
-        <v>247</v>
-      </c>
-      <c r="O92">
+      <c r="N92" s="17" t="s">
+        <v>247</v>
+      </c>
+      <c r="O92" s="15">
         <v>1068</v>
       </c>
-      <c r="P92" t="s">
+      <c r="P92" s="15" t="s">
         <v>5256</v>
       </c>
     </row>
-    <row r="93" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="2" t="s">
+    <row r="93" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="14" t="s">
         <v>245</v>
       </c>
-      <c r="B93" t="s">
+      <c r="B93" s="15" t="s">
         <v>246</v>
       </c>
-      <c r="C93" t="s">
+      <c r="C93" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="D93" t="s">
+      <c r="D93" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="E93" s="1">
+      <c r="E93" s="16">
         <v>2593</v>
       </c>
-      <c r="F93" t="s">
+      <c r="F93" s="15" t="s">
         <v>3</v>
       </c>
       <c r="G93" s="15" t="s">
@@ -22502,45 +22502,45 @@
       <c r="I93" s="15" t="s">
         <v>248</v>
       </c>
-      <c r="J93" s="1">
+      <c r="J93" s="16">
         <v>29013</v>
       </c>
-      <c r="K93" s="1">
+      <c r="K93" s="16">
         <v>30849</v>
       </c>
-      <c r="L93" t="s">
+      <c r="L93" s="15" t="s">
         <v>372</v>
       </c>
-      <c r="M93" t="s">
+      <c r="M93" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="N93" s="11" t="s">
-        <v>247</v>
-      </c>
-      <c r="O93">
+      <c r="N93" s="17" t="s">
+        <v>247</v>
+      </c>
+      <c r="O93" s="15">
         <v>1545</v>
       </c>
-      <c r="P93" t="s">
+      <c r="P93" s="15" t="s">
         <v>5545</v>
       </c>
     </row>
-    <row r="94" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A94" s="2" t="s">
+    <row r="94" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="14" t="s">
         <v>245</v>
       </c>
-      <c r="B94" t="s">
+      <c r="B94" s="15" t="s">
         <v>246</v>
       </c>
-      <c r="C94" t="s">
+      <c r="C94" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="D94" t="s">
+      <c r="D94" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="E94" s="1">
+      <c r="E94" s="16">
         <v>8611</v>
       </c>
-      <c r="F94" t="s">
+      <c r="F94" s="15" t="s">
         <v>3</v>
       </c>
       <c r="G94" s="15" t="s">
@@ -22552,45 +22552,45 @@
       <c r="I94" s="15" t="s">
         <v>248</v>
       </c>
-      <c r="J94" s="1">
+      <c r="J94" s="16">
         <v>29013</v>
       </c>
-      <c r="K94" s="1">
+      <c r="K94" s="16">
         <v>30849</v>
       </c>
-      <c r="L94" t="s">
+      <c r="L94" s="15" t="s">
         <v>372</v>
       </c>
-      <c r="M94" t="s">
+      <c r="M94" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="N94" s="8" t="s">
-        <v>247</v>
-      </c>
-      <c r="O94" s="6">
+      <c r="N94" s="19" t="s">
+        <v>247</v>
+      </c>
+      <c r="O94" s="22">
         <v>720</v>
       </c>
-      <c r="P94" t="s">
+      <c r="P94" s="15" t="s">
         <v>5621</v>
       </c>
     </row>
-    <row r="95" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="2" t="s">
+    <row r="95" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="14" t="s">
         <v>245</v>
       </c>
-      <c r="B95" t="s">
+      <c r="B95" s="15" t="s">
         <v>246</v>
       </c>
-      <c r="C95" t="s">
+      <c r="C95" s="15" t="s">
         <v>157</v>
       </c>
-      <c r="D95" t="s">
+      <c r="D95" s="15" t="s">
         <v>156</v>
       </c>
       <c r="E95" s="16">
         <v>11985</v>
       </c>
-      <c r="F95" t="s">
+      <c r="F95" s="15" t="s">
         <v>3</v>
       </c>
       <c r="G95" s="15" t="s">
@@ -22602,16 +22602,16 @@
       <c r="I95" s="15" t="s">
         <v>248</v>
       </c>
-      <c r="J95" s="1">
+      <c r="J95" s="16">
         <v>29013</v>
       </c>
-      <c r="K95" s="1">
+      <c r="K95" s="16">
         <v>30849</v>
       </c>
-      <c r="L95" t="s">
+      <c r="L95" s="15" t="s">
         <v>372</v>
       </c>
-      <c r="M95" t="s">
+      <c r="M95" s="15" t="s">
         <v>4888</v>
       </c>
       <c r="N95" s="17" t="s">
@@ -22624,23 +22624,23 @@
         <v>5257</v>
       </c>
     </row>
-    <row r="96" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A96" s="2" t="s">
+    <row r="96" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="14" t="s">
         <v>245</v>
       </c>
-      <c r="B96" t="s">
+      <c r="B96" s="15" t="s">
         <v>246</v>
       </c>
-      <c r="C96" t="s">
+      <c r="C96" s="15" t="s">
         <v>149</v>
       </c>
-      <c r="D96" t="s">
+      <c r="D96" s="15" t="s">
         <v>5559</v>
       </c>
-      <c r="E96" s="1">
+      <c r="E96" s="16">
         <v>6857</v>
       </c>
-      <c r="F96" t="s">
+      <c r="F96" s="15" t="s">
         <v>3</v>
       </c>
       <c r="G96" s="15" t="s">
@@ -22652,45 +22652,45 @@
       <c r="I96" s="15" t="s">
         <v>248</v>
       </c>
-      <c r="J96" s="1">
+      <c r="J96" s="16">
         <v>29152</v>
       </c>
-      <c r="K96" s="1">
+      <c r="K96" s="16">
         <v>29731</v>
       </c>
-      <c r="L96" t="s">
+      <c r="L96" s="15" t="s">
         <v>371</v>
       </c>
-      <c r="M96" t="s">
+      <c r="M96" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="N96" s="8" t="s">
-        <v>247</v>
-      </c>
-      <c r="O96" s="6">
+      <c r="N96" s="19" t="s">
+        <v>247</v>
+      </c>
+      <c r="O96" s="22">
         <v>721</v>
       </c>
-      <c r="P96" s="6" t="s">
+      <c r="P96" s="22" t="s">
         <v>5622</v>
       </c>
     </row>
-    <row r="97" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A97" s="2" t="s">
+    <row r="97" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="14" t="s">
         <v>245</v>
       </c>
-      <c r="B97" t="s">
+      <c r="B97" s="15" t="s">
         <v>246</v>
       </c>
-      <c r="C97" t="s">
+      <c r="C97" s="15" t="s">
         <v>167</v>
       </c>
-      <c r="D97" t="s">
+      <c r="D97" s="15" t="s">
         <v>166</v>
       </c>
-      <c r="E97" s="1">
+      <c r="E97" s="16">
         <v>13449</v>
       </c>
-      <c r="F97" t="s">
+      <c r="F97" s="15" t="s">
         <v>8</v>
       </c>
       <c r="G97" s="15" t="s">
@@ -22702,45 +22702,45 @@
       <c r="I97" s="15" t="s">
         <v>248</v>
       </c>
-      <c r="J97" s="1">
+      <c r="J97" s="16">
         <v>29013</v>
       </c>
-      <c r="K97" s="1">
+      <c r="K97" s="16">
         <v>30849</v>
       </c>
-      <c r="L97" t="s">
+      <c r="L97" s="15" t="s">
         <v>372</v>
       </c>
-      <c r="M97" t="s">
+      <c r="M97" s="15" t="s">
         <v>4888</v>
       </c>
-      <c r="N97" s="8" t="s">
-        <v>247</v>
-      </c>
-      <c r="O97" s="6">
+      <c r="N97" s="19" t="s">
+        <v>247</v>
+      </c>
+      <c r="O97" s="22">
         <v>732</v>
       </c>
-      <c r="P97" s="6" t="s">
+      <c r="P97" s="22" t="s">
         <v>5623</v>
       </c>
     </row>
-    <row r="98" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A98" s="2" t="s">
+    <row r="98" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="14" t="s">
         <v>245</v>
       </c>
-      <c r="B98" t="s">
+      <c r="B98" s="15" t="s">
         <v>246</v>
       </c>
-      <c r="C98" t="s">
+      <c r="C98" s="15" t="s">
         <v>183</v>
       </c>
-      <c r="D98" t="s">
+      <c r="D98" s="15" t="s">
         <v>182</v>
       </c>
-      <c r="E98" s="1">
+      <c r="E98" s="16">
         <v>10311</v>
       </c>
-      <c r="F98" t="s">
+      <c r="F98" s="15" t="s">
         <v>3</v>
       </c>
       <c r="G98" s="15" t="s">
@@ -22752,45 +22752,45 @@
       <c r="I98" s="15" t="s">
         <v>248</v>
       </c>
-      <c r="J98" s="1">
+      <c r="J98" s="16">
         <v>29013</v>
       </c>
-      <c r="K98" s="1">
+      <c r="K98" s="16">
         <v>29494</v>
       </c>
-      <c r="L98" t="s">
+      <c r="L98" s="15" t="s">
         <v>371</v>
       </c>
-      <c r="M98" t="s">
+      <c r="M98" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="N98" s="8">
+      <c r="N98" s="19">
         <v>360</v>
       </c>
-      <c r="O98" s="6">
+      <c r="O98" s="22">
         <v>733</v>
       </c>
-      <c r="P98" s="6" t="s">
+      <c r="P98" s="22" t="s">
         <v>5624</v>
       </c>
     </row>
-    <row r="99" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="2" t="s">
+    <row r="99" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="14" t="s">
         <v>245</v>
       </c>
-      <c r="B99" t="s">
+      <c r="B99" s="15" t="s">
         <v>246</v>
       </c>
-      <c r="C99" t="s">
+      <c r="C99" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="D99" t="s">
+      <c r="D99" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="E99" s="1">
+      <c r="E99" s="16">
         <v>8172</v>
       </c>
-      <c r="F99" t="s">
+      <c r="F99" s="15" t="s">
         <v>3</v>
       </c>
       <c r="G99" s="15" t="s">
@@ -22802,45 +22802,45 @@
       <c r="I99" s="15" t="s">
         <v>248</v>
       </c>
-      <c r="J99" s="1">
+      <c r="J99" s="16">
         <v>29013</v>
       </c>
-      <c r="K99" s="1">
+      <c r="K99" s="16">
         <v>30849</v>
       </c>
-      <c r="L99" t="s">
+      <c r="L99" s="15" t="s">
         <v>372</v>
       </c>
-      <c r="M99" t="s">
+      <c r="M99" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="N99" s="11" t="s">
-        <v>247</v>
-      </c>
-      <c r="O99">
+      <c r="N99" s="17" t="s">
+        <v>247</v>
+      </c>
+      <c r="O99" s="15">
         <v>1541</v>
       </c>
-      <c r="P99" t="s">
+      <c r="P99" s="15" t="s">
         <v>5546</v>
       </c>
     </row>
-    <row r="100" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="2" t="s">
+    <row r="100" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="14" t="s">
         <v>245</v>
       </c>
-      <c r="B100" t="s">
+      <c r="B100" s="15" t="s">
         <v>246</v>
       </c>
-      <c r="C100" t="s">
+      <c r="C100" s="15" t="s">
         <v>158</v>
       </c>
-      <c r="D100" t="s">
+      <c r="D100" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="E100" s="1">
+      <c r="E100" s="16">
         <v>10044</v>
       </c>
-      <c r="F100" t="s">
+      <c r="F100" s="15" t="s">
         <v>3</v>
       </c>
       <c r="G100" s="15" t="s">
@@ -22852,45 +22852,45 @@
       <c r="I100" s="15" t="s">
         <v>248</v>
       </c>
-      <c r="J100" s="1">
+      <c r="J100" s="16">
         <v>29013</v>
       </c>
-      <c r="K100" s="1">
+      <c r="K100" s="16">
         <v>30849</v>
       </c>
-      <c r="L100" t="s">
+      <c r="L100" s="15" t="s">
         <v>372</v>
       </c>
-      <c r="M100" t="s">
+      <c r="M100" s="15" t="s">
         <v>4888</v>
       </c>
-      <c r="N100" s="11" t="s">
-        <v>247</v>
-      </c>
-      <c r="O100">
+      <c r="N100" s="17" t="s">
+        <v>247</v>
+      </c>
+      <c r="O100" s="15">
         <v>1542</v>
       </c>
-      <c r="P100" t="s">
+      <c r="P100" s="15" t="s">
         <v>5549</v>
       </c>
     </row>
-    <row r="101" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A101" s="2" t="s">
+    <row r="101" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="14" t="s">
         <v>245</v>
       </c>
-      <c r="B101" t="s">
+      <c r="B101" s="15" t="s">
         <v>246</v>
       </c>
-      <c r="C101" t="s">
+      <c r="C101" s="15" t="s">
         <v>121</v>
       </c>
-      <c r="D101" t="s">
+      <c r="D101" s="15" t="s">
         <v>120</v>
       </c>
-      <c r="E101" s="1">
+      <c r="E101" s="16">
         <v>8383</v>
       </c>
-      <c r="F101" t="s">
+      <c r="F101" s="15" t="s">
         <v>8</v>
       </c>
       <c r="G101" s="15" t="s">
@@ -22902,45 +22902,45 @@
       <c r="I101" s="15" t="s">
         <v>248</v>
       </c>
-      <c r="J101" s="1">
+      <c r="J101" s="16">
         <v>29013</v>
       </c>
-      <c r="K101" s="1">
+      <c r="K101" s="16">
         <v>30849</v>
       </c>
-      <c r="L101" t="s">
+      <c r="L101" s="15" t="s">
         <v>372</v>
       </c>
-      <c r="M101" t="s">
+      <c r="M101" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="N101" s="8" t="s">
-        <v>247</v>
-      </c>
-      <c r="O101" s="6">
+      <c r="N101" s="19" t="s">
+        <v>247</v>
+      </c>
+      <c r="O101" s="22">
         <v>694</v>
       </c>
-      <c r="P101" s="6" t="s">
+      <c r="P101" s="22" t="s">
         <v>5625</v>
       </c>
     </row>
-    <row r="102" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A102" s="2" t="s">
+    <row r="102" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="14" t="s">
         <v>245</v>
       </c>
-      <c r="B102" t="s">
+      <c r="B102" s="15" t="s">
         <v>246</v>
       </c>
-      <c r="C102" t="s">
+      <c r="C102" s="15" t="s">
         <v>186</v>
       </c>
-      <c r="D102" t="s">
+      <c r="D102" s="15" t="s">
         <v>185</v>
       </c>
-      <c r="E102" s="1">
+      <c r="E102" s="16">
         <v>9174</v>
       </c>
-      <c r="F102" t="s">
+      <c r="F102" s="15" t="s">
         <v>3</v>
       </c>
       <c r="G102" s="15" t="s">
@@ -22952,45 +22952,45 @@
       <c r="I102" s="15" t="s">
         <v>248</v>
       </c>
-      <c r="J102" s="1">
+      <c r="J102" s="16">
         <v>29013</v>
       </c>
-      <c r="K102" s="1">
+      <c r="K102" s="16">
         <v>30849</v>
       </c>
-      <c r="L102" t="s">
+      <c r="L102" s="15" t="s">
         <v>372</v>
       </c>
-      <c r="M102" t="s">
+      <c r="M102" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="N102" s="8" t="s">
-        <v>247</v>
-      </c>
-      <c r="O102" s="6">
+      <c r="N102" s="19" t="s">
+        <v>247</v>
+      </c>
+      <c r="O102" s="22">
         <v>722</v>
       </c>
-      <c r="P102" s="6" t="s">
+      <c r="P102" s="22" t="s">
         <v>5626</v>
       </c>
     </row>
-    <row r="103" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A103" s="2" t="s">
+    <row r="103" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="14" t="s">
         <v>245</v>
       </c>
-      <c r="B103" t="s">
+      <c r="B103" s="15" t="s">
         <v>246</v>
       </c>
-      <c r="C103" t="s">
+      <c r="C103" s="15" t="s">
         <v>5562</v>
       </c>
-      <c r="D103" t="s">
+      <c r="D103" s="15" t="s">
         <v>200</v>
       </c>
-      <c r="E103" s="1">
+      <c r="E103" s="16">
         <v>4827</v>
       </c>
-      <c r="F103" t="s">
+      <c r="F103" s="15" t="s">
         <v>3</v>
       </c>
       <c r="G103" s="15" t="s">
@@ -23002,45 +23002,45 @@
       <c r="I103" s="15" t="s">
         <v>248</v>
       </c>
-      <c r="J103" s="1">
+      <c r="J103" s="16">
         <v>30639</v>
       </c>
-      <c r="K103" s="1">
+      <c r="K103" s="16">
         <v>30849</v>
       </c>
-      <c r="L103" t="s">
+      <c r="L103" s="15" t="s">
         <v>372</v>
       </c>
-      <c r="M103" t="s">
+      <c r="M103" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="N103" s="8" t="s">
-        <v>247</v>
-      </c>
-      <c r="O103" s="6">
+      <c r="N103" s="19" t="s">
+        <v>247</v>
+      </c>
+      <c r="O103" s="22">
         <v>709</v>
       </c>
-      <c r="P103" s="6" t="s">
+      <c r="P103" s="22" t="s">
         <v>5627</v>
       </c>
     </row>
-    <row r="104" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A104" s="2" t="s">
+    <row r="104" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="14" t="s">
         <v>245</v>
       </c>
-      <c r="B104" t="s">
+      <c r="B104" s="15" t="s">
         <v>246</v>
       </c>
-      <c r="C104" t="s">
+      <c r="C104" s="15" t="s">
         <v>236</v>
       </c>
-      <c r="D104" t="s">
+      <c r="D104" s="15" t="s">
         <v>200</v>
       </c>
-      <c r="E104" s="1">
+      <c r="E104" s="16">
         <v>4377</v>
       </c>
-      <c r="F104" t="s">
+      <c r="F104" s="15" t="s">
         <v>3</v>
       </c>
       <c r="G104" s="15" t="s">
@@ -23052,45 +23052,45 @@
       <c r="I104" s="15" t="s">
         <v>248</v>
       </c>
-      <c r="J104" s="1">
+      <c r="J104" s="16">
         <v>30590</v>
       </c>
-      <c r="K104" s="1">
+      <c r="K104" s="16">
         <v>30849</v>
       </c>
-      <c r="L104" t="s">
+      <c r="L104" s="15" t="s">
         <v>372</v>
       </c>
-      <c r="M104" t="s">
+      <c r="M104" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="N104" s="8" t="s">
-        <v>247</v>
-      </c>
-      <c r="O104" s="6">
+      <c r="N104" s="19" t="s">
+        <v>247</v>
+      </c>
+      <c r="O104" s="22">
         <v>719</v>
       </c>
-      <c r="P104" s="6" t="s">
+      <c r="P104" s="22" t="s">
         <v>5628</v>
       </c>
     </row>
-    <row r="105" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="2" t="s">
+    <row r="105" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="14" t="s">
         <v>245</v>
       </c>
-      <c r="B105" t="s">
+      <c r="B105" s="15" t="s">
         <v>246</v>
       </c>
-      <c r="C105" t="s">
+      <c r="C105" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="D105" t="s">
+      <c r="D105" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="E105" s="1">
+      <c r="E105" s="16">
         <v>7807</v>
       </c>
-      <c r="F105" t="s">
+      <c r="F105" s="15" t="s">
         <v>3</v>
       </c>
       <c r="G105" s="15" t="s">
@@ -23102,45 +23102,45 @@
       <c r="I105" s="15" t="s">
         <v>248</v>
       </c>
-      <c r="J105" s="1">
+      <c r="J105" s="16">
         <v>29013</v>
       </c>
-      <c r="K105" s="1">
+      <c r="K105" s="16">
         <v>30849</v>
       </c>
-      <c r="L105" t="s">
+      <c r="L105" s="15" t="s">
         <v>372</v>
       </c>
-      <c r="M105" t="s">
+      <c r="M105" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="N105" s="11" t="s">
-        <v>247</v>
-      </c>
-      <c r="O105">
+      <c r="N105" s="17" t="s">
+        <v>247</v>
+      </c>
+      <c r="O105" s="15">
         <v>1702</v>
       </c>
-      <c r="P105" t="s">
+      <c r="P105" s="15" t="s">
         <v>5550</v>
       </c>
     </row>
-    <row r="106" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A106" s="2" t="s">
+    <row r="106" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="14" t="s">
         <v>245</v>
       </c>
-      <c r="B106" t="s">
+      <c r="B106" s="15" t="s">
         <v>246</v>
       </c>
-      <c r="C106" t="s">
+      <c r="C106" s="15" t="s">
         <v>145</v>
       </c>
-      <c r="D106" t="s">
+      <c r="D106" s="15" t="s">
         <v>123</v>
       </c>
-      <c r="E106" s="1">
+      <c r="E106" s="16">
         <v>10693</v>
       </c>
-      <c r="F106" t="s">
+      <c r="F106" s="15" t="s">
         <v>8</v>
       </c>
       <c r="G106" s="15" t="s">
@@ -23152,45 +23152,45 @@
       <c r="I106" s="15" t="s">
         <v>248</v>
       </c>
-      <c r="J106" s="1">
+      <c r="J106" s="16">
         <v>29013</v>
       </c>
-      <c r="K106" s="1">
+      <c r="K106" s="16">
         <v>29753</v>
       </c>
-      <c r="L106" t="s">
+      <c r="L106" s="15" t="s">
         <v>371</v>
       </c>
-      <c r="M106" t="s">
+      <c r="M106" s="15" t="s">
         <v>504</v>
       </c>
-      <c r="N106" s="8" t="s">
-        <v>247</v>
-      </c>
-      <c r="O106" s="6">
+      <c r="N106" s="19" t="s">
+        <v>247</v>
+      </c>
+      <c r="O106" s="22">
         <v>695</v>
       </c>
-      <c r="P106" s="6" t="s">
+      <c r="P106" s="22" t="s">
         <v>5629</v>
       </c>
     </row>
-    <row r="107" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A107" s="2" t="s">
+    <row r="107" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="14" t="s">
         <v>245</v>
       </c>
-      <c r="B107" t="s">
+      <c r="B107" s="15" t="s">
         <v>246</v>
       </c>
-      <c r="C107" t="s">
+      <c r="C107" s="15" t="s">
         <v>113</v>
       </c>
-      <c r="D107" t="s">
+      <c r="D107" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="E107" s="1">
+      <c r="E107" s="16">
         <v>4352</v>
       </c>
-      <c r="F107" t="s">
+      <c r="F107" s="15" t="s">
         <v>3</v>
       </c>
       <c r="G107" s="15" t="s">
@@ -23202,45 +23202,45 @@
       <c r="I107" s="15" t="s">
         <v>248</v>
       </c>
-      <c r="J107" s="1">
+      <c r="J107" s="16">
         <v>29013</v>
       </c>
-      <c r="K107" s="1">
+      <c r="K107" s="16">
         <v>30849</v>
       </c>
-      <c r="L107" t="s">
+      <c r="L107" s="15" t="s">
         <v>372</v>
       </c>
-      <c r="M107" t="s">
+      <c r="M107" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="N107" s="8" t="s">
-        <v>247</v>
-      </c>
-      <c r="O107" s="6">
+      <c r="N107" s="19" t="s">
+        <v>247</v>
+      </c>
+      <c r="O107" s="22">
         <v>710</v>
       </c>
-      <c r="P107" s="6" t="s">
+      <c r="P107" s="22" t="s">
         <v>5630</v>
       </c>
     </row>
-    <row r="108" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="2" t="s">
+    <row r="108" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="14" t="s">
         <v>245</v>
       </c>
-      <c r="B108" t="s">
+      <c r="B108" s="15" t="s">
         <v>246</v>
       </c>
-      <c r="C108" t="s">
+      <c r="C108" s="15" t="s">
         <v>210</v>
       </c>
-      <c r="D108" t="s">
+      <c r="D108" s="15" t="s">
         <v>18</v>
       </c>
       <c r="E108" s="16">
         <v>12274</v>
       </c>
-      <c r="F108" t="s">
+      <c r="F108" s="15" t="s">
         <v>3</v>
       </c>
       <c r="G108" s="15" t="s">
@@ -23252,16 +23252,16 @@
       <c r="I108" s="15" t="s">
         <v>248</v>
       </c>
-      <c r="J108" s="1">
+      <c r="J108" s="16">
         <v>29742</v>
       </c>
-      <c r="K108" s="1">
+      <c r="K108" s="16">
         <v>30849</v>
       </c>
-      <c r="L108" t="s">
+      <c r="L108" s="15" t="s">
         <v>372</v>
       </c>
-      <c r="M108" t="s">
+      <c r="M108" s="15" t="s">
         <v>504</v>
       </c>
       <c r="N108" s="17" t="s">
@@ -23274,23 +23274,23 @@
         <v>5424</v>
       </c>
     </row>
-    <row r="109" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A109" s="2" t="s">
+    <row r="109" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="14" t="s">
         <v>245</v>
       </c>
-      <c r="B109" t="s">
+      <c r="B109" s="15" t="s">
         <v>246</v>
       </c>
-      <c r="C109" t="s">
+      <c r="C109" s="15" t="s">
         <v>136</v>
       </c>
-      <c r="D109" t="s">
+      <c r="D109" s="15" t="s">
         <v>118</v>
       </c>
-      <c r="E109" s="1">
+      <c r="E109" s="16">
         <v>13114</v>
       </c>
-      <c r="F109" t="s">
+      <c r="F109" s="15" t="s">
         <v>3</v>
       </c>
       <c r="G109" s="15" t="s">
@@ -23302,45 +23302,45 @@
       <c r="I109" s="15" t="s">
         <v>248</v>
       </c>
-      <c r="J109" s="1">
+      <c r="J109" s="16">
         <v>29013</v>
       </c>
-      <c r="K109" s="1">
+      <c r="K109" s="16">
         <v>29845</v>
       </c>
-      <c r="L109" t="s">
+      <c r="L109" s="15" t="s">
         <v>371</v>
       </c>
-      <c r="M109" t="s">
+      <c r="M109" s="15" t="s">
         <v>504</v>
       </c>
-      <c r="N109" s="8">
+      <c r="N109" s="19">
         <v>336746</v>
       </c>
-      <c r="O109" s="6">
+      <c r="O109" s="22">
         <v>705</v>
       </c>
-      <c r="P109" t="s">
+      <c r="P109" s="15" t="s">
         <v>5631</v>
       </c>
     </row>
-    <row r="110" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A110" s="2" t="s">
+    <row r="110" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="14" t="s">
         <v>245</v>
       </c>
-      <c r="B110" t="s">
+      <c r="B110" s="15" t="s">
         <v>246</v>
       </c>
-      <c r="C110" t="s">
+      <c r="C110" s="15" t="s">
         <v>229</v>
       </c>
-      <c r="D110" t="s">
+      <c r="D110" s="15" t="s">
         <v>197</v>
       </c>
-      <c r="E110" s="1">
+      <c r="E110" s="16">
         <v>5014</v>
       </c>
-      <c r="F110" t="s">
+      <c r="F110" s="15" t="s">
         <v>8</v>
       </c>
       <c r="G110" s="15" t="s">
@@ -23352,45 +23352,45 @@
       <c r="I110" s="15" t="s">
         <v>248</v>
       </c>
-      <c r="J110" s="1">
+      <c r="J110" s="16">
         <v>30385</v>
       </c>
-      <c r="K110" s="1">
+      <c r="K110" s="16">
         <v>30849</v>
       </c>
-      <c r="L110" t="s">
+      <c r="L110" s="15" t="s">
         <v>372</v>
       </c>
-      <c r="M110" t="s">
+      <c r="M110" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="N110" s="8" t="s">
-        <v>247</v>
-      </c>
-      <c r="O110" s="6">
+      <c r="N110" s="19" t="s">
+        <v>247</v>
+      </c>
+      <c r="O110" s="22">
         <v>696</v>
       </c>
-      <c r="P110" s="6" t="s">
+      <c r="P110" s="22" t="s">
         <v>5632</v>
       </c>
     </row>
-    <row r="111" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A111" s="2" t="s">
+    <row r="111" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="14" t="s">
         <v>245</v>
       </c>
-      <c r="B111" t="s">
+      <c r="B111" s="15" t="s">
         <v>246</v>
       </c>
-      <c r="C111" t="s">
+      <c r="C111" s="15" t="s">
         <v>147</v>
       </c>
-      <c r="D111" t="s">
+      <c r="D111" s="15" t="s">
         <v>146</v>
       </c>
-      <c r="E111" s="1">
+      <c r="E111" s="16">
         <v>15813</v>
       </c>
-      <c r="F111" t="s">
+      <c r="F111" s="15" t="s">
         <v>3</v>
       </c>
       <c r="G111" s="15" t="s">
@@ -23402,45 +23402,45 @@
       <c r="I111" s="15" t="s">
         <v>248</v>
       </c>
-      <c r="J111" s="1">
+      <c r="J111" s="16">
         <v>29013</v>
       </c>
-      <c r="K111" s="1">
+      <c r="K111" s="16">
         <v>30398</v>
       </c>
-      <c r="L111" t="s">
+      <c r="L111" s="15" t="s">
         <v>371</v>
       </c>
-      <c r="M111" t="s">
+      <c r="M111" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="N111" s="8">
+      <c r="N111" s="19">
         <v>1192024</v>
       </c>
-      <c r="O111" s="6">
+      <c r="O111" s="22">
         <v>702</v>
       </c>
-      <c r="P111" t="s">
+      <c r="P111" s="15" t="s">
         <v>5633</v>
       </c>
     </row>
-    <row r="112" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="2" t="s">
+    <row r="112" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="14" t="s">
         <v>245</v>
       </c>
-      <c r="B112" t="s">
+      <c r="B112" s="15" t="s">
         <v>246</v>
       </c>
-      <c r="C112" t="s">
+      <c r="C112" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="D112" t="s">
+      <c r="D112" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="E112" s="1">
+      <c r="E112" s="16">
         <v>9376</v>
       </c>
-      <c r="F112" t="s">
+      <c r="F112" s="15" t="s">
         <v>8</v>
       </c>
       <c r="G112" s="15" t="s">
@@ -23452,45 +23452,45 @@
       <c r="I112" s="15" t="s">
         <v>248</v>
       </c>
-      <c r="J112" s="1">
+      <c r="J112" s="16">
         <v>29013</v>
       </c>
-      <c r="K112" s="1">
+      <c r="K112" s="16">
         <v>30849</v>
       </c>
-      <c r="L112" t="s">
+      <c r="L112" s="15" t="s">
         <v>372</v>
       </c>
-      <c r="M112" t="s">
+      <c r="M112" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="N112" s="11" t="s">
-        <v>247</v>
-      </c>
-      <c r="O112">
+      <c r="N112" s="17" t="s">
+        <v>247</v>
+      </c>
+      <c r="O112" s="15">
         <v>1600</v>
       </c>
-      <c r="P112" t="s">
+      <c r="P112" s="15" t="s">
         <v>5552</v>
       </c>
     </row>
-    <row r="113" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A113" s="2" t="s">
+    <row r="113" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="14" t="s">
         <v>245</v>
       </c>
-      <c r="B113" t="s">
+      <c r="B113" s="15" t="s">
         <v>246</v>
       </c>
-      <c r="C113" t="s">
+      <c r="C113" s="15" t="s">
         <v>117</v>
       </c>
-      <c r="D113" t="s">
+      <c r="D113" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="E113" s="1">
+      <c r="E113" s="16">
         <v>9087</v>
       </c>
-      <c r="F113" t="s">
+      <c r="F113" s="15" t="s">
         <v>3</v>
       </c>
       <c r="G113" s="15" t="s">
@@ -23502,45 +23502,45 @@
       <c r="I113" s="15" t="s">
         <v>248</v>
       </c>
-      <c r="J113" s="1">
+      <c r="J113" s="16">
         <v>29013</v>
       </c>
-      <c r="K113" s="1">
+      <c r="K113" s="16">
         <v>30849</v>
       </c>
-      <c r="L113" t="s">
+      <c r="L113" s="15" t="s">
         <v>372</v>
       </c>
-      <c r="M113" t="s">
+      <c r="M113" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="N113" s="8" t="s">
-        <v>247</v>
-      </c>
-      <c r="O113" s="6">
+      <c r="N113" s="19" t="s">
+        <v>247</v>
+      </c>
+      <c r="O113" s="22">
         <v>689</v>
       </c>
-      <c r="P113" s="6" t="s">
+      <c r="P113" s="22" t="s">
         <v>5634</v>
       </c>
     </row>
-    <row r="114" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A114" s="2" t="s">
+    <row r="114" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="14" t="s">
         <v>245</v>
       </c>
-      <c r="B114" t="s">
+      <c r="B114" s="15" t="s">
         <v>246</v>
       </c>
-      <c r="C114" t="s">
+      <c r="C114" s="15" t="s">
         <v>122</v>
       </c>
-      <c r="D114" t="s">
+      <c r="D114" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="E114" s="1">
+      <c r="E114" s="16">
         <v>7217</v>
       </c>
-      <c r="F114" t="s">
+      <c r="F114" s="15" t="s">
         <v>3</v>
       </c>
       <c r="G114" s="15" t="s">
@@ -23552,45 +23552,45 @@
       <c r="I114" s="15" t="s">
         <v>248</v>
       </c>
-      <c r="J114" s="1">
+      <c r="J114" s="16">
         <v>29013</v>
       </c>
-      <c r="K114" s="1">
+      <c r="K114" s="16">
         <v>30849</v>
       </c>
-      <c r="L114" t="s">
+      <c r="L114" s="15" t="s">
         <v>372</v>
       </c>
-      <c r="M114" t="s">
+      <c r="M114" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="N114" s="8" t="s">
-        <v>247</v>
-      </c>
-      <c r="O114" s="6">
+      <c r="N114" s="19" t="s">
+        <v>247</v>
+      </c>
+      <c r="O114" s="22">
         <v>690</v>
       </c>
-      <c r="P114" s="6" t="s">
+      <c r="P114" s="22" t="s">
         <v>5635</v>
       </c>
     </row>
-    <row r="115" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="2" t="s">
+    <row r="115" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="14" t="s">
         <v>245</v>
       </c>
-      <c r="B115" t="s">
+      <c r="B115" s="15" t="s">
         <v>246</v>
       </c>
-      <c r="C115" t="s">
+      <c r="C115" s="15" t="s">
         <v>204</v>
       </c>
-      <c r="D115" t="s">
+      <c r="D115" s="15" t="s">
         <v>118</v>
       </c>
-      <c r="E115" s="1">
+      <c r="E115" s="16">
         <v>10972</v>
       </c>
-      <c r="F115" t="s">
+      <c r="F115" s="15" t="s">
         <v>3</v>
       </c>
       <c r="G115" s="15" t="s">
@@ -23602,45 +23602,45 @@
       <c r="I115" s="15" t="s">
         <v>248</v>
       </c>
-      <c r="J115" s="1">
+      <c r="J115" s="16">
         <v>29013</v>
       </c>
-      <c r="K115" s="1">
+      <c r="K115" s="16">
         <v>30849</v>
       </c>
-      <c r="L115" t="s">
+      <c r="L115" s="15" t="s">
         <v>372</v>
       </c>
-      <c r="M115" t="s">
+      <c r="M115" s="15" t="s">
         <v>504</v>
       </c>
-      <c r="N115" s="11" t="s">
-        <v>247</v>
-      </c>
-      <c r="O115">
+      <c r="N115" s="17" t="s">
+        <v>247</v>
+      </c>
+      <c r="O115" s="15">
         <v>1511</v>
       </c>
-      <c r="P115" t="s">
+      <c r="P115" s="15" t="s">
         <v>5553</v>
       </c>
     </row>
-    <row r="116" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A116" s="2" t="s">
+    <row r="116" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="14" t="s">
         <v>245</v>
       </c>
-      <c r="B116" t="s">
+      <c r="B116" s="15" t="s">
         <v>246</v>
       </c>
-      <c r="C116" t="s">
+      <c r="C116" s="15" t="s">
         <v>231</v>
       </c>
-      <c r="D116" t="s">
+      <c r="D116" s="15" t="s">
         <v>5561</v>
       </c>
-      <c r="E116" s="1">
+      <c r="E116" s="16">
         <v>3608</v>
       </c>
-      <c r="F116" t="s">
+      <c r="F116" s="15" t="s">
         <v>3</v>
       </c>
       <c r="G116" s="15" t="s">
@@ -23652,45 +23652,45 @@
       <c r="I116" s="15" t="s">
         <v>248</v>
       </c>
-      <c r="J116" s="1">
+      <c r="J116" s="16">
         <v>30463</v>
       </c>
-      <c r="K116" s="1">
+      <c r="K116" s="16">
         <v>30521</v>
       </c>
-      <c r="L116" t="s">
+      <c r="L116" s="15" t="s">
         <v>371</v>
       </c>
-      <c r="M116" t="s">
+      <c r="M116" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="N116" s="8" t="s">
-        <v>247</v>
-      </c>
-      <c r="O116" s="6">
+      <c r="N116" s="19" t="s">
+        <v>247</v>
+      </c>
+      <c r="O116" s="22">
         <v>679</v>
       </c>
-      <c r="P116" s="6" t="s">
+      <c r="P116" s="22" t="s">
         <v>5636</v>
       </c>
     </row>
-    <row r="117" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="2" t="s">
+    <row r="117" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="14" t="s">
         <v>245</v>
       </c>
-      <c r="B117" t="s">
+      <c r="B117" s="15" t="s">
         <v>246</v>
       </c>
-      <c r="C117" t="s">
+      <c r="C117" s="15" t="s">
         <v>212</v>
       </c>
-      <c r="D117" t="s">
+      <c r="D117" s="15" t="s">
         <v>28</v>
       </c>
       <c r="E117" s="16">
         <v>13395</v>
       </c>
-      <c r="F117" t="s">
+      <c r="F117" s="15" t="s">
         <v>3</v>
       </c>
       <c r="G117" s="15" t="s">
@@ -23702,16 +23702,16 @@
       <c r="I117" s="15" t="s">
         <v>248</v>
       </c>
-      <c r="J117" s="1">
+      <c r="J117" s="16">
         <v>29732</v>
       </c>
-      <c r="K117" s="1">
+      <c r="K117" s="16">
         <v>30849</v>
       </c>
-      <c r="L117" t="s">
+      <c r="L117" s="15" t="s">
         <v>372</v>
       </c>
-      <c r="M117" t="s">
+      <c r="M117" s="15" t="s">
         <v>85</v>
       </c>
       <c r="N117" s="17" t="s">
@@ -23724,23 +23724,23 @@
         <v>5428</v>
       </c>
     </row>
-    <row r="118" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A118" s="2" t="s">
+    <row r="118" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A118" s="14" t="s">
         <v>245</v>
       </c>
-      <c r="B118" t="s">
+      <c r="B118" s="15" t="s">
         <v>246</v>
       </c>
-      <c r="C118" t="s">
+      <c r="C118" s="15" t="s">
         <v>211</v>
       </c>
-      <c r="D118" t="s">
+      <c r="D118" s="15" t="s">
         <v>191</v>
       </c>
-      <c r="E118" s="1">
+      <c r="E118" s="16">
         <v>7893</v>
       </c>
-      <c r="F118" t="s">
+      <c r="F118" s="15" t="s">
         <v>8</v>
       </c>
       <c r="G118" s="15" t="s">
@@ -23752,45 +23752,45 @@
       <c r="I118" s="15" t="s">
         <v>248</v>
       </c>
-      <c r="J118" s="1">
+      <c r="J118" s="16">
         <v>29783</v>
       </c>
-      <c r="K118" s="1">
+      <c r="K118" s="16">
         <v>30849</v>
       </c>
-      <c r="L118" t="s">
+      <c r="L118" s="15" t="s">
         <v>372</v>
       </c>
-      <c r="M118" t="s">
+      <c r="M118" s="15" t="s">
         <v>504</v>
       </c>
-      <c r="N118" s="8" t="s">
-        <v>247</v>
-      </c>
-      <c r="O118" s="6">
+      <c r="N118" s="19" t="s">
+        <v>247</v>
+      </c>
+      <c r="O118" s="22">
         <v>681</v>
       </c>
-      <c r="P118" s="6" t="s">
+      <c r="P118" s="22" t="s">
         <v>5637</v>
       </c>
     </row>
-    <row r="119" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A119" s="2" t="s">
+    <row r="119" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A119" s="14" t="s">
         <v>245</v>
       </c>
-      <c r="B119" t="s">
+      <c r="B119" s="15" t="s">
         <v>246</v>
       </c>
-      <c r="C119" t="s">
+      <c r="C119" s="15" t="s">
         <v>241</v>
       </c>
-      <c r="D119" t="s">
+      <c r="D119" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="E119" s="1">
+      <c r="E119" s="16">
         <v>7967</v>
       </c>
-      <c r="F119" t="s">
+      <c r="F119" s="15" t="s">
         <v>3</v>
       </c>
       <c r="G119" s="15" t="s">
@@ -23802,45 +23802,45 @@
       <c r="I119" s="15" t="s">
         <v>248</v>
       </c>
-      <c r="J119" s="1">
+      <c r="J119" s="16">
         <v>29495</v>
       </c>
-      <c r="K119" s="1">
+      <c r="K119" s="16">
         <v>29846</v>
       </c>
-      <c r="L119" t="s">
+      <c r="L119" s="15" t="s">
         <v>371</v>
       </c>
-      <c r="M119" t="s">
+      <c r="M119" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="N119" s="8" t="s">
-        <v>247</v>
-      </c>
-      <c r="O119" s="6">
+      <c r="N119" s="19" t="s">
+        <v>247</v>
+      </c>
+      <c r="O119" s="22">
         <v>675</v>
       </c>
-      <c r="P119" s="6" t="s">
+      <c r="P119" s="22" t="s">
         <v>5638</v>
       </c>
     </row>
-    <row r="120" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="2" t="s">
+    <row r="120" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A120" s="14" t="s">
         <v>245</v>
       </c>
-      <c r="B120" t="s">
+      <c r="B120" s="15" t="s">
         <v>246</v>
       </c>
-      <c r="C120" t="s">
+      <c r="C120" s="15" t="s">
         <v>133</v>
       </c>
-      <c r="D120" t="s">
+      <c r="D120" s="15" t="s">
         <v>132</v>
       </c>
       <c r="E120" s="16">
         <v>13370</v>
       </c>
-      <c r="F120" t="s">
+      <c r="F120" s="15" t="s">
         <v>8</v>
       </c>
       <c r="G120" s="15" t="s">
@@ -23852,16 +23852,16 @@
       <c r="I120" s="15" t="s">
         <v>248</v>
       </c>
-      <c r="J120" s="1">
+      <c r="J120" s="16">
         <v>29013</v>
       </c>
-      <c r="K120" s="1">
+      <c r="K120" s="16">
         <v>30849</v>
       </c>
-      <c r="L120" t="s">
+      <c r="L120" s="15" t="s">
         <v>372</v>
       </c>
-      <c r="M120" t="s">
+      <c r="M120" s="15" t="s">
         <v>504</v>
       </c>
       <c r="N120" s="17" t="s">
@@ -23874,23 +23874,23 @@
         <v>5431</v>
       </c>
     </row>
-    <row r="121" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="2" t="s">
+    <row r="121" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A121" s="14" t="s">
         <v>245</v>
       </c>
-      <c r="B121" t="s">
+      <c r="B121" s="15" t="s">
         <v>246</v>
       </c>
-      <c r="C121" t="s">
+      <c r="C121" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="D121" t="s">
+      <c r="D121" s="15" t="s">
         <v>88</v>
       </c>
       <c r="E121" s="16">
         <v>10056</v>
       </c>
-      <c r="F121" t="s">
+      <c r="F121" s="15" t="s">
         <v>8</v>
       </c>
       <c r="G121" s="15" t="s">
@@ -23902,16 +23902,16 @@
       <c r="I121" s="15" t="s">
         <v>248</v>
       </c>
-      <c r="J121" s="1">
+      <c r="J121" s="16">
         <v>29013</v>
       </c>
-      <c r="K121" s="1">
+      <c r="K121" s="16">
         <v>30849</v>
       </c>
-      <c r="L121" t="s">
+      <c r="L121" s="15" t="s">
         <v>372</v>
       </c>
-      <c r="M121" t="s">
+      <c r="M121" s="15" t="s">
         <v>26</v>
       </c>
       <c r="N121" s="17" t="s">
@@ -23924,23 +23924,23 @@
         <v>5384</v>
       </c>
     </row>
-    <row r="122" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="2" t="s">
+    <row r="122" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="14" t="s">
         <v>245</v>
       </c>
-      <c r="B122" t="s">
+      <c r="B122" s="15" t="s">
         <v>246</v>
       </c>
-      <c r="C122" t="s">
+      <c r="C122" s="15" t="s">
         <v>4931</v>
       </c>
-      <c r="D122" t="s">
+      <c r="D122" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="E122" s="1">
+      <c r="E122" s="16">
         <v>9196</v>
       </c>
-      <c r="F122" t="s">
+      <c r="F122" s="15" t="s">
         <v>3</v>
       </c>
       <c r="G122" s="15" t="s">
@@ -23952,45 +23952,45 @@
       <c r="I122" s="15" t="s">
         <v>248</v>
       </c>
-      <c r="J122" s="1">
+      <c r="J122" s="16">
         <v>29013</v>
       </c>
-      <c r="K122" s="1">
+      <c r="K122" s="16">
         <v>30849</v>
       </c>
-      <c r="L122" t="s">
+      <c r="L122" s="15" t="s">
         <v>372</v>
       </c>
-      <c r="M122" t="s">
+      <c r="M122" s="15" t="s">
         <v>4888</v>
       </c>
-      <c r="N122" s="11">
+      <c r="N122" s="17">
         <v>398</v>
       </c>
-      <c r="O122">
+      <c r="O122" s="15">
         <v>1490</v>
       </c>
-      <c r="P122" t="s">
+      <c r="P122" s="15" t="s">
         <v>5114</v>
       </c>
     </row>
-    <row r="123" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A123" s="2" t="s">
+    <row r="123" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="14" t="s">
         <v>245</v>
       </c>
-      <c r="B123" t="s">
+      <c r="B123" s="15" t="s">
         <v>246</v>
       </c>
-      <c r="C123" t="s">
+      <c r="C123" s="15" t="s">
         <v>232</v>
       </c>
-      <c r="D123" t="s">
+      <c r="D123" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="E123" s="1">
+      <c r="E123" s="16">
         <v>9247</v>
       </c>
-      <c r="F123" t="s">
+      <c r="F123" s="15" t="s">
         <v>3</v>
       </c>
       <c r="G123" s="15" t="s">
@@ -24002,45 +24002,45 @@
       <c r="I123" s="15" t="s">
         <v>248</v>
       </c>
-      <c r="J123" s="1">
+      <c r="J123" s="16">
         <v>29508</v>
       </c>
-      <c r="K123" s="1">
+      <c r="K123" s="16">
         <v>30849</v>
       </c>
-      <c r="L123" t="s">
+      <c r="L123" s="15" t="s">
         <v>372</v>
       </c>
-      <c r="M123" t="s">
+      <c r="M123" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="N123" s="8" t="s">
-        <v>247</v>
-      </c>
-      <c r="O123" s="6">
+      <c r="N123" s="19" t="s">
+        <v>247</v>
+      </c>
+      <c r="O123" s="22">
         <v>667</v>
       </c>
-      <c r="P123" s="6" t="s">
+      <c r="P123" s="22" t="s">
         <v>5639</v>
       </c>
     </row>
-    <row r="124" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A124" s="2" t="s">
+    <row r="124" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A124" s="14" t="s">
         <v>245</v>
       </c>
-      <c r="B124" t="s">
+      <c r="B124" s="15" t="s">
         <v>246</v>
       </c>
-      <c r="C124" t="s">
+      <c r="C124" s="15" t="s">
         <v>174</v>
       </c>
-      <c r="D124" t="s">
+      <c r="D124" s="15" t="s">
         <v>109</v>
       </c>
       <c r="E124" s="25" t="s">
         <v>5640</v>
       </c>
-      <c r="F124" t="s">
+      <c r="F124" s="15" t="s">
         <v>8</v>
       </c>
       <c r="G124" s="15" t="s">
@@ -24052,45 +24052,45 @@
       <c r="I124" s="15" t="s">
         <v>248</v>
       </c>
-      <c r="J124" s="1">
+      <c r="J124" s="16">
         <v>29013</v>
       </c>
-      <c r="K124" s="1">
+      <c r="K124" s="16">
         <v>30462</v>
       </c>
-      <c r="L124" t="s">
+      <c r="L124" s="15" t="s">
         <v>5435</v>
       </c>
-      <c r="M124" t="s">
+      <c r="M124" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="N124" s="8" t="s">
-        <v>247</v>
-      </c>
-      <c r="O124" s="6">
+      <c r="N124" s="19" t="s">
+        <v>247</v>
+      </c>
+      <c r="O124" s="22">
         <v>647</v>
       </c>
-      <c r="P124" s="6" t="s">
+      <c r="P124" s="22" t="s">
         <v>5641</v>
       </c>
     </row>
-    <row r="125" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="2" t="s">
+    <row r="125" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A125" s="14" t="s">
         <v>245</v>
       </c>
-      <c r="B125" t="s">
+      <c r="B125" s="15" t="s">
         <v>246</v>
       </c>
-      <c r="C125" t="s">
+      <c r="C125" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="D125" t="s">
+      <c r="D125" s="15" t="s">
         <v>80</v>
       </c>
       <c r="E125" s="16">
         <v>17535</v>
       </c>
-      <c r="F125" t="s">
+      <c r="F125" s="15" t="s">
         <v>3</v>
       </c>
       <c r="G125" s="15" t="s">
@@ -24102,16 +24102,16 @@
       <c r="I125" s="15" t="s">
         <v>248</v>
       </c>
-      <c r="J125" s="1">
+      <c r="J125" s="16">
         <v>29013</v>
       </c>
-      <c r="K125" s="1">
+      <c r="K125" s="16">
         <v>30849</v>
       </c>
-      <c r="L125" t="s">
+      <c r="L125" s="15" t="s">
         <v>372</v>
       </c>
-      <c r="M125" t="s">
+      <c r="M125" s="15" t="s">
         <v>4888</v>
       </c>
       <c r="N125" s="17">
@@ -24125,11 +24125,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:P125">
-    <filterColumn colId="15">
-      <filters blank="1"/>
-    </filterColumn>
-  </autoFilter>
   <sortState ref="A2:P125">
     <sortCondition ref="C2:C125"/>
     <sortCondition ref="D2:D125"/>
@@ -35433,7 +35428,7 @@
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="C1" sqref="C1:P1048576"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
